--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="57" r:id="rId1"/>
-    <sheet name="Сентябрь" sheetId="53" r:id="rId2"/>
-    <sheet name="Октябрь" sheetId="54" r:id="rId3"/>
-    <sheet name="Ноябрь" sheetId="55" r:id="rId4"/>
-    <sheet name="Декабрь" sheetId="56" r:id="rId5"/>
+    <sheet name="Февраль" sheetId="58" r:id="rId2"/>
+    <sheet name="Сентябрь" sheetId="53" r:id="rId3"/>
+    <sheet name="Октябрь" sheetId="54" r:id="rId4"/>
+    <sheet name="Ноябрь" sheetId="55" r:id="rId5"/>
+    <sheet name="Декабрь" sheetId="56" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$R$81</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$R$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Декабрь!$A$1:$R$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Ноябрь!$A$1:$R$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Октябрь!$A$1:$R$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Сентябрь!$A$1:$R$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$U$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$U$81</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="43">
   <si>
     <t>% работы</t>
   </si>
@@ -263,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -737,25 +739,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="medium">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,9 +1141,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,9 +1217,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,34 +1226,19 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,14 +1268,104 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1616,9 +1674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:A79"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1646,47 +1704,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="145"/>
-      <c r="I1" s="178" t="s">
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="144"/>
+      <c r="I1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="145"/>
-      <c r="P1" s="178" t="s">
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="144"/>
+      <c r="P1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
     </row>
     <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="145" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="146" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -1701,10 +1759,10 @@
       <c r="L2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="157" t="s">
+      <c r="M2" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="159" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="19" t="s">
@@ -1719,41 +1777,41 @@
       <c r="S2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="163" t="s">
+      <c r="T2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="147" t="s">
+      <c r="U2" s="146" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="175" t="s">
+    <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="181" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="184" t="s">
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="183"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="182"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -1762,21 +1820,21 @@
       <c r="B4" s="23">
         <v>113040</v>
       </c>
-      <c r="C4" s="148">
+      <c r="C4" s="147">
         <v>0.97699999999999998</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>110440.08</v>
       </c>
-      <c r="E4" s="149">
+      <c r="E4" s="148">
         <v>94.663835810332628</v>
       </c>
       <c r="F4" s="24">
         <f>B4*E4/100</f>
         <v>107008</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="155">
         <v>264.85000000000002</v>
       </c>
       <c r="H4" s="22">
@@ -1795,34 +1853,34 @@
       <c r="L4" s="137">
         <v>94.017857142857139</v>
       </c>
-      <c r="M4" s="158">
+      <c r="M4" s="157">
         <f t="shared" ref="M4" si="2">I4*L4/100</f>
         <v>94770</v>
       </c>
-      <c r="N4" s="162">
+      <c r="N4" s="161">
         <v>192.54</v>
       </c>
       <c r="O4" s="22">
         <v>43831</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="101">
         <v>92880</v>
       </c>
-      <c r="Q4" s="72">
+      <c r="Q4" s="202">
         <v>0.97</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="9">
         <f t="shared" ref="R4" si="3">P4*Q4</f>
         <v>90093.599999999991</v>
       </c>
-      <c r="S4" s="167">
+      <c r="S4" s="79">
         <v>94.328165374676999</v>
       </c>
-      <c r="T4" s="159">
+      <c r="T4" s="157">
         <f t="shared" ref="T4" si="4">P4*S4/100</f>
         <v>87612</v>
       </c>
-      <c r="U4" s="162">
+      <c r="U4" s="203">
         <v>354.22</v>
       </c>
     </row>
@@ -1830,21 +1888,21 @@
       <c r="B5" s="23">
         <v>113040</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="149">
         <v>0.999</v>
       </c>
       <c r="D5" s="24">
         <f t="shared" ref="D5" si="5">B5*C5</f>
         <v>112926.96</v>
       </c>
-      <c r="E5" s="151">
+      <c r="E5" s="150">
         <v>97.154989384288754</v>
       </c>
       <c r="F5" s="24">
         <f>B5*E5/100</f>
         <v>109824</v>
       </c>
-      <c r="G5" s="154">
+      <c r="G5" s="153">
         <v>264.45</v>
       </c>
       <c r="I5" s="9">
@@ -1860,11 +1918,11 @@
       <c r="L5" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M5" s="158">
+      <c r="M5" s="157">
         <f t="shared" ref="M5:M45" si="7">I5*L5/100</f>
         <v>94770</v>
       </c>
-      <c r="N5" s="155">
+      <c r="N5" s="154">
         <v>193.25</v>
       </c>
       <c r="P5" s="42">
@@ -1880,32 +1938,32 @@
       <c r="S5" s="36">
         <v>94.328165374676999</v>
       </c>
-      <c r="T5" s="159">
+      <c r="T5" s="158">
         <f t="shared" ref="T5:T9" si="9">P5*S5/100</f>
         <v>87612</v>
       </c>
-      <c r="U5" s="155">
+      <c r="U5" s="154">
         <v>353.66</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="141">
+      <c r="C6" s="185"/>
+      <c r="D6" s="140">
         <f>SUM(D4:D5)</f>
         <v>223367.04000000001</v>
       </c>
-      <c r="E6" s="152">
+      <c r="E6" s="151">
         <f>F6/D6</f>
         <v>0.97074304248290166</v>
       </c>
-      <c r="F6" s="141">
+      <c r="F6" s="140">
         <f>SUM(F4:F5)</f>
         <v>216832</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="140">
         <f>AVERAGE(G4:G5)</f>
         <v>264.64999999999998</v>
       </c>
@@ -1925,11 +1983,11 @@
       <c r="L6" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M6" s="158">
+      <c r="M6" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N6" s="155">
+      <c r="N6" s="154">
         <v>192.64</v>
       </c>
       <c r="O6" s="22">
@@ -1948,11 +2006,11 @@
       <c r="S6" s="36">
         <v>94.328165374676999</v>
       </c>
-      <c r="T6" s="159">
+      <c r="T6" s="158">
         <f t="shared" si="9"/>
         <v>87612</v>
       </c>
-      <c r="U6" s="155">
+      <c r="U6" s="154">
         <v>354.56</v>
       </c>
     </row>
@@ -1976,11 +2034,11 @@
       <c r="L7" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M7" s="158">
+      <c r="M7" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N7" s="155">
+      <c r="N7" s="154">
         <v>192.31</v>
       </c>
       <c r="P7" s="42">
@@ -1996,23 +2054,24 @@
       <c r="S7" s="36">
         <v>94.328165374676999</v>
       </c>
-      <c r="T7" s="159">
+      <c r="T7" s="158">
         <f t="shared" si="9"/>
         <v>87612</v>
       </c>
-      <c r="U7" s="155">
+      <c r="U7" s="154">
         <v>353.83</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="175" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="22">
         <v>43833</v>
       </c>
@@ -2029,11 +2088,11 @@
       <c r="L8" s="36">
         <v>90.401785714285708</v>
       </c>
-      <c r="M8" s="158">
+      <c r="M8" s="157">
         <f t="shared" si="7"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="155">
+      <c r="N8" s="154">
         <v>192.2</v>
       </c>
       <c r="O8" s="22">
@@ -2052,11 +2111,11 @@
       <c r="S8" s="36">
         <v>98.178294573643413</v>
       </c>
-      <c r="T8" s="159">
+      <c r="T8" s="158">
         <f t="shared" si="9"/>
         <v>91188</v>
       </c>
-      <c r="U8" s="155">
+      <c r="U8" s="154">
         <v>354.54</v>
       </c>
     </row>
@@ -2067,7 +2126,7 @@
       <c r="B9" s="99">
         <v>107280</v>
       </c>
-      <c r="C9" s="153">
+      <c r="C9" s="152">
         <v>0.76200000000000001</v>
       </c>
       <c r="D9" s="24">
@@ -2081,7 +2140,7 @@
         <f t="shared" ref="F9:F30" si="11">B9*E9/100</f>
         <v>50064</v>
       </c>
-      <c r="G9" s="155">
+      <c r="G9" s="154">
         <v>265.83999999999997</v>
       </c>
       <c r="I9" s="9">
@@ -2097,11 +2156,11 @@
       <c r="L9" s="36">
         <v>90.401785714285708</v>
       </c>
-      <c r="M9" s="158">
+      <c r="M9" s="157">
         <f t="shared" si="7"/>
         <v>91125</v>
       </c>
-      <c r="N9" s="155">
+      <c r="N9" s="154">
         <v>192.75</v>
       </c>
       <c r="P9" s="42">
@@ -2117,11 +2176,11 @@
       <c r="S9" s="36">
         <v>98.178294573643413</v>
       </c>
-      <c r="T9" s="159">
+      <c r="T9" s="158">
         <f t="shared" si="9"/>
         <v>91188</v>
       </c>
-      <c r="U9" s="165">
+      <c r="U9" s="164">
         <v>354.27</v>
       </c>
     </row>
@@ -2129,7 +2188,7 @@
       <c r="B10" s="99">
         <v>104400</v>
       </c>
-      <c r="C10" s="153">
+      <c r="C10" s="152">
         <v>0.95040000000000002</v>
       </c>
       <c r="D10" s="24">
@@ -2143,7 +2202,7 @@
         <f t="shared" si="11"/>
         <v>92976</v>
       </c>
-      <c r="G10" s="155">
+      <c r="G10" s="154">
         <v>263.85000000000002</v>
       </c>
       <c r="H10" s="22">
@@ -2162,17 +2221,17 @@
       <c r="L10" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M10" s="158">
+      <c r="M10" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N10" s="155">
+      <c r="N10" s="154">
         <v>192.64</v>
       </c>
-      <c r="P10" s="170" t="s">
+      <c r="P10" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="171"/>
+      <c r="Q10" s="184"/>
       <c r="R10" s="38">
         <f>SUM(R4:R9)</f>
         <v>549478.07999999996</v>
@@ -2185,7 +2244,7 @@
         <f>SUM(T4:T9)</f>
         <v>532824</v>
       </c>
-      <c r="U10" s="141">
+      <c r="U10" s="140">
         <f>AVERAGE(U4:U9)</f>
         <v>354.18</v>
       </c>
@@ -2197,7 +2256,7 @@
       <c r="B11" s="99">
         <v>104400</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="152">
         <v>0.96899999999999997</v>
       </c>
       <c r="D11" s="24">
@@ -2211,7 +2270,7 @@
         <f t="shared" si="11"/>
         <v>95360</v>
       </c>
-      <c r="G11" s="155">
+      <c r="G11" s="154">
         <v>265.22000000000003</v>
       </c>
       <c r="H11" s="25"/>
@@ -2228,25 +2287,25 @@
       <c r="L11" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M11" s="158">
+      <c r="M11" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N11" s="155">
+      <c r="N11" s="154">
         <v>192.45</v>
       </c>
       <c r="P11" s="42"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="24"/>
       <c r="S11" s="36"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="164"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="163"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="99">
         <v>104400</v>
       </c>
-      <c r="C12" s="153">
+      <c r="C12" s="152">
         <v>0.95799999999999996</v>
       </c>
       <c r="D12" s="24">
@@ -2260,7 +2319,7 @@
         <f t="shared" si="11"/>
         <v>95360</v>
       </c>
-      <c r="G12" s="155">
+      <c r="G12" s="154">
         <v>265.2</v>
       </c>
       <c r="H12" s="27">
@@ -2279,21 +2338,22 @@
       <c r="L12" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M12" s="158">
+      <c r="M12" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="155">
+      <c r="N12" s="154">
         <v>192.97</v>
       </c>
-      <c r="P12" s="184" t="s">
+      <c r="O12" s="45"/>
+      <c r="P12" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="183"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -2302,7 +2362,7 @@
       <c r="B13" s="99">
         <v>104400</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="152">
         <v>0.97799999999999998</v>
       </c>
       <c r="D13" s="24">
@@ -2316,7 +2376,7 @@
         <f t="shared" si="11"/>
         <v>95360</v>
       </c>
-      <c r="G13" s="155">
+      <c r="G13" s="154">
         <v>264.92</v>
       </c>
       <c r="I13" s="9">
@@ -2332,11 +2392,11 @@
       <c r="L13" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M13" s="158">
+      <c r="M13" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N13" s="155">
+      <c r="N13" s="154">
         <v>192.33</v>
       </c>
       <c r="O13" s="22">
@@ -2355,11 +2415,11 @@
       <c r="S13" s="36">
         <v>71.579861111111114</v>
       </c>
-      <c r="T13" s="159">
+      <c r="T13" s="158">
         <f t="shared" ref="T13" si="14">P13*S13/100</f>
         <v>57722</v>
       </c>
-      <c r="U13" s="155">
+      <c r="U13" s="154">
         <v>429.57</v>
       </c>
     </row>
@@ -2368,7 +2428,7 @@
       <c r="B14" s="99">
         <v>104400</v>
       </c>
-      <c r="C14" s="153">
+      <c r="C14" s="152">
         <v>0.96799999999999997</v>
       </c>
       <c r="D14" s="24">
@@ -2382,7 +2442,7 @@
         <f t="shared" si="11"/>
         <v>95360</v>
       </c>
-      <c r="G14" s="155">
+      <c r="G14" s="154">
         <v>264.29000000000002</v>
       </c>
       <c r="H14" s="22">
@@ -2401,11 +2461,11 @@
       <c r="L14" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M14" s="158">
+      <c r="M14" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N14" s="155">
+      <c r="N14" s="154">
         <v>192.62</v>
       </c>
       <c r="P14" s="42">
@@ -2421,11 +2481,11 @@
       <c r="S14" s="36">
         <v>92.361111111111114</v>
       </c>
-      <c r="T14" s="159">
+      <c r="T14" s="158">
         <f t="shared" ref="T14:T24" si="16">P14*S14/100</f>
         <v>74480</v>
       </c>
-      <c r="U14" s="155">
+      <c r="U14" s="154">
         <v>430.37</v>
       </c>
     </row>
@@ -2436,7 +2496,7 @@
       <c r="B15" s="99">
         <v>104400</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="152">
         <v>0.98399999999999999</v>
       </c>
       <c r="D15" s="24">
@@ -2450,7 +2510,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G15" s="155">
+      <c r="G15" s="154">
         <v>266.14</v>
       </c>
       <c r="I15" s="9">
@@ -2466,11 +2526,11 @@
       <c r="L15" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M15" s="158">
+      <c r="M15" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N15" s="155">
+      <c r="N15" s="154">
         <v>192.6</v>
       </c>
       <c r="O15" s="27">
@@ -2489,11 +2549,11 @@
       <c r="S15" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T15" s="159">
+      <c r="T15" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U15" s="155">
+      <c r="U15" s="154">
         <v>429.31</v>
       </c>
     </row>
@@ -2501,7 +2561,7 @@
       <c r="B16" s="99">
         <v>104400</v>
       </c>
-      <c r="C16" s="153">
+      <c r="C16" s="152">
         <v>0.97699999999999998</v>
       </c>
       <c r="D16" s="24">
@@ -2515,7 +2575,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G16" s="155">
+      <c r="G16" s="154">
         <v>265.60000000000002</v>
       </c>
       <c r="H16" s="22">
@@ -2534,11 +2594,11 @@
       <c r="L16" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M16" s="158">
+      <c r="M16" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N16" s="155">
+      <c r="N16" s="154">
         <v>192.4</v>
       </c>
       <c r="P16" s="42">
@@ -2554,11 +2614,11 @@
       <c r="S16" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T16" s="159">
+      <c r="T16" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U16" s="155">
+      <c r="U16" s="154">
         <v>429.75</v>
       </c>
     </row>
@@ -2569,7 +2629,7 @@
       <c r="B17" s="99">
         <v>104400</v>
       </c>
-      <c r="C17" s="153">
+      <c r="C17" s="152">
         <v>0.98299999999999998</v>
       </c>
       <c r="D17" s="24">
@@ -2583,7 +2643,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G17" s="155">
+      <c r="G17" s="154">
         <v>266.23</v>
       </c>
       <c r="I17" s="9">
@@ -2599,11 +2659,11 @@
       <c r="L17" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M17" s="158">
+      <c r="M17" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N17" s="155">
+      <c r="N17" s="154">
         <v>192.64</v>
       </c>
       <c r="O17" s="22">
@@ -2622,11 +2682,11 @@
       <c r="S17" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T17" s="159">
+      <c r="T17" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U17" s="155">
+      <c r="U17" s="154">
         <v>428.5</v>
       </c>
     </row>
@@ -2634,7 +2694,7 @@
       <c r="B18" s="99">
         <v>104400</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <v>0.98099999999999998</v>
       </c>
       <c r="D18" s="24">
@@ -2648,7 +2708,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G18" s="155">
+      <c r="G18" s="154">
         <v>266.58</v>
       </c>
       <c r="H18" s="22">
@@ -2667,11 +2727,11 @@
       <c r="L18" s="36">
         <v>97.633928571428569</v>
       </c>
-      <c r="M18" s="158">
+      <c r="M18" s="157">
         <f t="shared" si="7"/>
         <v>98415</v>
       </c>
-      <c r="N18" s="155">
+      <c r="N18" s="154">
         <v>192.79</v>
       </c>
       <c r="P18" s="42">
@@ -2687,11 +2747,11 @@
       <c r="S18" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T18" s="159">
+      <c r="T18" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U18" s="155">
+      <c r="U18" s="154">
         <v>429.19</v>
       </c>
     </row>
@@ -2702,7 +2762,7 @@
       <c r="B19" s="99">
         <v>104400</v>
       </c>
-      <c r="C19" s="153">
+      <c r="C19" s="152">
         <v>0.98299999999999998</v>
       </c>
       <c r="D19" s="24">
@@ -2716,7 +2776,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G19" s="155">
+      <c r="G19" s="154">
         <v>266.14999999999998</v>
       </c>
       <c r="I19" s="9">
@@ -2732,11 +2792,11 @@
       <c r="L19" s="36">
         <v>97.633928571428569</v>
       </c>
-      <c r="M19" s="158">
+      <c r="M19" s="157">
         <f t="shared" si="7"/>
         <v>98415</v>
       </c>
-      <c r="N19" s="155">
+      <c r="N19" s="154">
         <v>192.1</v>
       </c>
       <c r="O19" s="22">
@@ -2755,11 +2815,11 @@
       <c r="S19" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T19" s="159">
+      <c r="T19" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U19" s="155">
+      <c r="U19" s="154">
         <v>428.58</v>
       </c>
     </row>
@@ -2767,7 +2827,7 @@
       <c r="B20" s="99">
         <v>104400</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <v>0.98499999999999999</v>
       </c>
       <c r="D20" s="24">
@@ -2781,7 +2841,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G20" s="155">
+      <c r="G20" s="154">
         <v>266.93</v>
       </c>
       <c r="H20" s="22">
@@ -2800,11 +2860,11 @@
       <c r="L20" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M20" s="158">
+      <c r="M20" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N20" s="155">
+      <c r="N20" s="154">
         <v>192.83</v>
       </c>
       <c r="P20" s="42">
@@ -2820,11 +2880,11 @@
       <c r="S20" s="36">
         <v>92.361111111111114</v>
       </c>
-      <c r="T20" s="159">
+      <c r="T20" s="158">
         <f t="shared" si="16"/>
         <v>74480</v>
       </c>
-      <c r="U20" s="155">
+      <c r="U20" s="154">
         <v>428.31</v>
       </c>
     </row>
@@ -2835,7 +2895,7 @@
       <c r="B21" s="99">
         <v>104400</v>
       </c>
-      <c r="C21" s="153">
+      <c r="C21" s="152">
         <v>0.98099999999999998</v>
       </c>
       <c r="D21" s="24">
@@ -2849,7 +2909,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G21" s="155">
+      <c r="G21" s="154">
         <v>266.72000000000003</v>
       </c>
       <c r="I21" s="9">
@@ -2865,11 +2925,11 @@
       <c r="L21" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M21" s="158">
+      <c r="M21" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N21" s="155">
+      <c r="N21" s="154">
         <v>192.32</v>
       </c>
       <c r="O21" s="22">
@@ -2888,11 +2948,11 @@
       <c r="S21" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T21" s="159">
+      <c r="T21" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U21" s="155">
+      <c r="U21" s="154">
         <v>428.7</v>
       </c>
     </row>
@@ -2900,7 +2960,7 @@
       <c r="B22" s="99">
         <v>104400</v>
       </c>
-      <c r="C22" s="153">
+      <c r="C22" s="152">
         <v>0.98299999999999998</v>
       </c>
       <c r="D22" s="24">
@@ -2914,7 +2974,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G22" s="155">
+      <c r="G22" s="154">
         <v>266.04000000000002</v>
       </c>
       <c r="H22" s="22">
@@ -2933,11 +2993,11 @@
       <c r="L22" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M22" s="158">
+      <c r="M22" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N22" s="155">
+      <c r="N22" s="154">
         <v>192.64</v>
       </c>
       <c r="P22" s="42">
@@ -2953,11 +3013,11 @@
       <c r="S22" s="36">
         <v>96.979166666666671</v>
       </c>
-      <c r="T22" s="159">
+      <c r="T22" s="158">
         <f t="shared" si="16"/>
         <v>78204</v>
       </c>
-      <c r="U22" s="155">
+      <c r="U22" s="154">
         <v>428.02</v>
       </c>
     </row>
@@ -2968,7 +3028,7 @@
       <c r="B23" s="99">
         <v>104400</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <v>0.97299999999999998</v>
       </c>
       <c r="D23" s="24">
@@ -2982,7 +3042,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G23" s="155">
+      <c r="G23" s="154">
         <v>265.93</v>
       </c>
       <c r="I23" s="9">
@@ -2998,11 +3058,11 @@
       <c r="L23" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M23" s="158">
+      <c r="M23" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N23" s="155">
+      <c r="N23" s="154">
         <v>192.93</v>
       </c>
       <c r="O23" s="22">
@@ -3021,11 +3081,11 @@
       <c r="S23" s="36">
         <v>94.670138888888886</v>
       </c>
-      <c r="T23" s="159">
+      <c r="T23" s="158">
         <f t="shared" si="16"/>
         <v>76342</v>
       </c>
-      <c r="U23" s="155">
+      <c r="U23" s="154">
         <v>427.18</v>
       </c>
     </row>
@@ -3033,7 +3093,7 @@
       <c r="B24" s="99">
         <v>104400</v>
       </c>
-      <c r="C24" s="153">
+      <c r="C24" s="152">
         <v>0.97099999999999997</v>
       </c>
       <c r="D24" s="24">
@@ -3047,7 +3107,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G24" s="155">
+      <c r="G24" s="154">
         <v>265.38</v>
       </c>
       <c r="H24" s="22">
@@ -3066,11 +3126,11 @@
       <c r="L24" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M24" s="158">
+      <c r="M24" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N24" s="155">
+      <c r="N24" s="154">
         <v>192.37</v>
       </c>
       <c r="P24" s="42">
@@ -3086,11 +3146,11 @@
       <c r="S24" s="36">
         <v>92.361111111111114</v>
       </c>
-      <c r="T24" s="159">
+      <c r="T24" s="158">
         <f t="shared" si="16"/>
         <v>74480</v>
       </c>
-      <c r="U24" s="155">
+      <c r="U24" s="154">
         <v>428.81</v>
       </c>
     </row>
@@ -3101,7 +3161,7 @@
       <c r="B25" s="99">
         <v>104400</v>
       </c>
-      <c r="C25" s="153">
+      <c r="C25" s="152">
         <v>0.97599999999999998</v>
       </c>
       <c r="D25" s="24">
@@ -3115,7 +3175,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G25" s="155">
+      <c r="G25" s="154">
         <v>266.5</v>
       </c>
       <c r="I25" s="9">
@@ -3131,17 +3191,17 @@
       <c r="L25" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M25" s="158">
+      <c r="M25" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N25" s="155">
+      <c r="N25" s="154">
         <v>192.18</v>
       </c>
-      <c r="P25" s="170" t="s">
+      <c r="P25" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="171"/>
+      <c r="Q25" s="184"/>
       <c r="R25" s="38">
         <f>SUM(R13:R24)</f>
         <v>941633.27999999991</v>
@@ -3154,7 +3214,7 @@
         <f>SUM(T13:T24)</f>
         <v>893760</v>
       </c>
-      <c r="U25" s="141">
+      <c r="U25" s="140">
         <f>AVERAGE(U13:U24)</f>
         <v>428.85750000000002</v>
       </c>
@@ -3163,7 +3223,7 @@
       <c r="B26" s="99">
         <v>104400</v>
       </c>
-      <c r="C26" s="153">
+      <c r="C26" s="152">
         <v>0.98399999999999999</v>
       </c>
       <c r="D26" s="24">
@@ -3177,7 +3237,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G26" s="155">
+      <c r="G26" s="154">
         <v>266.85000000000002</v>
       </c>
       <c r="H26" s="22">
@@ -3196,18 +3256,18 @@
       <c r="L26" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M26" s="158">
+      <c r="M26" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N26" s="155">
+      <c r="N26" s="154">
         <v>192.27</v>
       </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="24"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="159"/>
+      <c r="T26" s="158"/>
       <c r="U26" s="56"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3277,7 @@
       <c r="B27" s="99">
         <v>104400</v>
       </c>
-      <c r="C27" s="153">
+      <c r="C27" s="152">
         <v>0.97699999999999998</v>
       </c>
       <c r="D27" s="24">
@@ -3231,7 +3291,7 @@
         <f t="shared" si="11"/>
         <v>97744</v>
       </c>
-      <c r="G27" s="155">
+      <c r="G27" s="154">
         <v>266.60000000000002</v>
       </c>
       <c r="I27" s="9">
@@ -3247,27 +3307,28 @@
       <c r="L27" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M27" s="158">
+      <c r="M27" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N27" s="155">
+      <c r="N27" s="154">
         <v>192.87</v>
       </c>
-      <c r="P27" s="186" t="s">
+      <c r="O27" s="45"/>
+      <c r="P27" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="187"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="188"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="180"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="181"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="99">
         <v>104400</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28" s="152">
         <v>0.98199999999999998</v>
       </c>
       <c r="D28" s="24">
@@ -3281,7 +3342,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G28" s="155">
+      <c r="G28" s="154">
         <v>266.91000000000003</v>
       </c>
       <c r="H28" s="22">
@@ -3300,11 +3361,11 @@
       <c r="L28" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M28" s="158">
+      <c r="M28" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N28" s="155">
+      <c r="N28" s="154">
         <v>193.25</v>
       </c>
       <c r="O28" s="22">
@@ -3323,11 +3384,11 @@
       <c r="S28" s="36">
         <v>51.851851851851848</v>
       </c>
-      <c r="T28" s="159">
+      <c r="T28" s="158">
         <f t="shared" ref="T28" si="18">P28*S28/100</f>
         <v>43680</v>
       </c>
-      <c r="U28" s="155">
+      <c r="U28" s="154">
         <v>366.75</v>
       </c>
     </row>
@@ -3338,7 +3399,7 @@
       <c r="B29" s="99">
         <v>104400</v>
       </c>
-      <c r="C29" s="153">
+      <c r="C29" s="152">
         <v>0.98</v>
       </c>
       <c r="D29" s="24">
@@ -3352,7 +3413,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G29" s="155">
+      <c r="G29" s="154">
         <v>266.73</v>
       </c>
       <c r="I29" s="9">
@@ -3368,11 +3429,11 @@
       <c r="L29" s="36">
         <v>97.633928571428569</v>
       </c>
-      <c r="M29" s="158">
+      <c r="M29" s="157">
         <f t="shared" si="7"/>
         <v>98415</v>
       </c>
-      <c r="N29" s="161">
+      <c r="N29" s="160">
         <v>192.64</v>
       </c>
       <c r="P29" s="42">
@@ -3388,11 +3449,11 @@
       <c r="S29" s="36">
         <v>85.18518518518519</v>
       </c>
-      <c r="T29" s="159">
+      <c r="T29" s="158">
         <f t="shared" ref="T29:T35" si="20">P29*S29/100</f>
         <v>71760</v>
       </c>
-      <c r="U29" s="155">
+      <c r="U29" s="154">
         <v>366.6</v>
       </c>
     </row>
@@ -3400,7 +3461,7 @@
       <c r="B30" s="99">
         <v>104400</v>
       </c>
-      <c r="C30" s="153">
+      <c r="C30" s="152">
         <v>0.999</v>
       </c>
       <c r="D30" s="24">
@@ -3414,7 +3475,7 @@
         <f t="shared" si="11"/>
         <v>100128</v>
       </c>
-      <c r="G30" s="155">
+      <c r="G30" s="154">
         <v>267.16000000000003</v>
       </c>
       <c r="H30" s="22">
@@ -3433,11 +3494,11 @@
       <c r="L30" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M30" s="158">
+      <c r="M30" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N30" s="155">
+      <c r="N30" s="154">
         <v>193.19</v>
       </c>
       <c r="O30" s="22">
@@ -3456,32 +3517,32 @@
       <c r="S30" s="36">
         <v>83.333333333333343</v>
       </c>
-      <c r="T30" s="159">
+      <c r="T30" s="158">
         <f t="shared" si="20"/>
         <v>70200.000000000015</v>
       </c>
-      <c r="U30" s="155">
+      <c r="U30" s="154">
         <v>367.02</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="172"/>
-      <c r="D31" s="141">
+      <c r="C31" s="185"/>
+      <c r="D31" s="140">
         <f>SUM(D9:D30)</f>
         <v>2224285.92</v>
       </c>
-      <c r="E31" s="152">
+      <c r="E31" s="151">
         <f>F31/D31</f>
         <v>0.95497794636042121</v>
       </c>
-      <c r="F31" s="141">
+      <c r="F31" s="140">
         <f>SUM(F9:F30)</f>
         <v>2124144</v>
       </c>
-      <c r="G31" s="141">
+      <c r="G31" s="140">
         <f>AVERAGE(G9:G30)</f>
         <v>265.98954545454546</v>
       </c>
@@ -3498,11 +3559,11 @@
       <c r="L31" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M31" s="158">
+      <c r="M31" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N31" s="155">
+      <c r="N31" s="154">
         <v>192.73</v>
       </c>
       <c r="P31" s="42">
@@ -3518,11 +3579,11 @@
       <c r="S31" s="36">
         <v>87.037037037037038</v>
       </c>
-      <c r="T31" s="159">
+      <c r="T31" s="158">
         <f t="shared" si="20"/>
         <v>73320</v>
       </c>
-      <c r="U31" s="155">
+      <c r="U31" s="154">
         <v>368.39</v>
       </c>
     </row>
@@ -3549,11 +3610,11 @@
       <c r="L32" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M32" s="158">
+      <c r="M32" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N32" s="155">
+      <c r="N32" s="154">
         <v>192.75</v>
       </c>
       <c r="O32" s="22">
@@ -3572,23 +3633,24 @@
       <c r="S32" s="36">
         <v>92.592592592592595</v>
       </c>
-      <c r="T32" s="159">
+      <c r="T32" s="158">
         <f t="shared" si="20"/>
         <v>78000</v>
       </c>
-      <c r="U32" s="155">
+      <c r="U32" s="154">
         <v>366.89</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="175" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
       <c r="I33" s="9">
         <v>100800</v>
       </c>
@@ -3602,11 +3664,11 @@
       <c r="L33" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M33" s="158">
+      <c r="M33" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N33" s="155">
+      <c r="N33" s="154">
         <v>192.87</v>
       </c>
       <c r="P33" s="42">
@@ -3622,11 +3684,11 @@
       <c r="S33" s="36">
         <v>92.592592592592595</v>
       </c>
-      <c r="T33" s="159">
+      <c r="T33" s="158">
         <f t="shared" si="20"/>
         <v>78000</v>
       </c>
-      <c r="U33" s="155">
+      <c r="U33" s="154">
         <v>367.14</v>
       </c>
     </row>
@@ -3637,7 +3699,7 @@
       <c r="B34" s="99">
         <v>129600</v>
       </c>
-      <c r="C34" s="153">
+      <c r="C34" s="152">
         <v>0.90800000000000003</v>
       </c>
       <c r="D34" s="24">
@@ -3651,7 +3713,7 @@
         <f t="shared" ref="F34:F39" si="22">B34*E34/100</f>
         <v>50688</v>
       </c>
-      <c r="G34" s="155">
+      <c r="G34" s="154">
         <v>185.53</v>
       </c>
       <c r="H34" s="22">
@@ -3670,11 +3732,11 @@
       <c r="L34" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M34" s="158">
+      <c r="M34" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N34" s="155">
+      <c r="N34" s="154">
         <v>192.97</v>
       </c>
       <c r="O34" s="22">
@@ -3693,11 +3755,11 @@
       <c r="S34" s="36">
         <v>96.296296296296291</v>
       </c>
-      <c r="T34" s="159">
+      <c r="T34" s="158">
         <f t="shared" si="20"/>
         <v>81119.999999999985</v>
       </c>
-      <c r="U34" s="155">
+      <c r="U34" s="154">
         <v>366.41</v>
       </c>
     </row>
@@ -3705,7 +3767,7 @@
       <c r="B35" s="99">
         <v>129600</v>
       </c>
-      <c r="C35" s="153">
+      <c r="C35" s="152">
         <v>0.95099999999999996</v>
       </c>
       <c r="D35" s="24">
@@ -3719,7 +3781,7 @@
         <f t="shared" si="22"/>
         <v>114048</v>
       </c>
-      <c r="G35" s="155">
+      <c r="G35" s="154">
         <v>185.47</v>
       </c>
       <c r="I35" s="9">
@@ -3735,11 +3797,11 @@
       <c r="L35" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M35" s="158">
+      <c r="M35" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N35" s="155">
+      <c r="N35" s="154">
         <v>193.21</v>
       </c>
       <c r="P35" s="42">
@@ -3755,11 +3817,11 @@
       <c r="S35" s="36">
         <v>92.592592592592595</v>
       </c>
-      <c r="T35" s="159">
+      <c r="T35" s="158">
         <f t="shared" si="20"/>
         <v>78000</v>
       </c>
-      <c r="U35" s="155">
+      <c r="U35" s="154">
         <v>367.08</v>
       </c>
     </row>
@@ -3770,7 +3832,7 @@
       <c r="B36" s="99">
         <v>129600</v>
       </c>
-      <c r="C36" s="153">
+      <c r="C36" s="152">
         <v>0.96299999999999997</v>
       </c>
       <c r="D36" s="24">
@@ -3784,7 +3846,7 @@
         <f t="shared" si="22"/>
         <v>118272.00000000001</v>
       </c>
-      <c r="G36" s="155">
+      <c r="G36" s="154">
         <v>185.65</v>
       </c>
       <c r="H36" s="22">
@@ -3803,17 +3865,17 @@
       <c r="L36" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M36" s="158">
+      <c r="M36" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N36" s="155">
+      <c r="N36" s="154">
         <v>193.6</v>
       </c>
-      <c r="P36" s="170" t="s">
+      <c r="P36" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="171"/>
+      <c r="Q36" s="184"/>
       <c r="R36" s="38">
         <f>SUM(R28:R35)</f>
         <v>651933.36</v>
@@ -3826,7 +3888,7 @@
         <f>SUM(T28:T35)</f>
         <v>574080</v>
       </c>
-      <c r="U36" s="141">
+      <c r="U36" s="140">
         <f>AVERAGE(U28:U35)</f>
         <v>367.03499999999991</v>
       </c>
@@ -3835,7 +3897,7 @@
       <c r="B37" s="99">
         <v>129600</v>
       </c>
-      <c r="C37" s="153">
+      <c r="C37" s="152">
         <v>0.95799999999999996</v>
       </c>
       <c r="D37" s="24">
@@ -3849,7 +3911,7 @@
         <f t="shared" si="22"/>
         <v>118272.00000000001</v>
       </c>
-      <c r="G37" s="155">
+      <c r="G37" s="154">
         <v>186.41</v>
       </c>
       <c r="I37" s="9">
@@ -3865,18 +3927,18 @@
       <c r="L37" s="36">
         <v>97.633928571428569</v>
       </c>
-      <c r="M37" s="158">
+      <c r="M37" s="157">
         <f t="shared" si="7"/>
         <v>98415</v>
       </c>
-      <c r="N37" s="155">
+      <c r="N37" s="154">
         <v>193.27</v>
       </c>
       <c r="P37" s="42"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="24"/>
       <c r="S37" s="36"/>
-      <c r="T37" s="159"/>
+      <c r="T37" s="158"/>
       <c r="U37" s="56"/>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,7 +3948,7 @@
       <c r="B38" s="99">
         <v>129600</v>
       </c>
-      <c r="C38" s="153">
+      <c r="C38" s="152">
         <v>0.96099999999999997</v>
       </c>
       <c r="D38" s="24">
@@ -3900,7 +3962,7 @@
         <f t="shared" si="22"/>
         <v>114048</v>
       </c>
-      <c r="G38" s="155">
+      <c r="G38" s="154">
         <v>186.43</v>
       </c>
       <c r="H38" s="22">
@@ -3919,27 +3981,28 @@
       <c r="L38" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M38" s="158">
+      <c r="M38" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N38" s="155">
+      <c r="N38" s="154">
         <v>192.39</v>
       </c>
-      <c r="P38" s="186" t="s">
+      <c r="O38" s="45"/>
+      <c r="P38" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="187"/>
-      <c r="R38" s="187"/>
-      <c r="S38" s="187"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="188"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="180"/>
+      <c r="T38" s="180"/>
+      <c r="U38" s="181"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="99">
         <v>129600</v>
       </c>
-      <c r="C39" s="153">
+      <c r="C39" s="152">
         <v>0.97499999999999998</v>
       </c>
       <c r="D39" s="24">
@@ -3953,7 +4016,7 @@
         <f t="shared" si="22"/>
         <v>109823.99999999999</v>
       </c>
-      <c r="G39" s="155">
+      <c r="G39" s="154">
         <v>186.43</v>
       </c>
       <c r="I39" s="9">
@@ -3969,11 +4032,11 @@
       <c r="L39" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M39" s="158">
+      <c r="M39" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N39" s="155">
+      <c r="N39" s="154">
         <v>192.81</v>
       </c>
       <c r="O39" s="22">
@@ -3992,32 +4055,32 @@
       <c r="S39" s="36">
         <v>67.857142857142861</v>
       </c>
-      <c r="T39" s="159">
+      <c r="T39" s="158">
         <f t="shared" ref="T39" si="25">P39*S39/100</f>
         <v>44460</v>
       </c>
-      <c r="U39" s="155">
+      <c r="U39" s="154">
         <v>586.85</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="172"/>
-      <c r="D40" s="141">
+      <c r="C40" s="185"/>
+      <c r="D40" s="140">
         <f>SUM(D34:D39)</f>
         <v>740793.6</v>
       </c>
-      <c r="E40" s="152">
+      <c r="E40" s="151">
         <f>F40/D40</f>
         <v>0.84389497965425186</v>
       </c>
-      <c r="F40" s="141">
+      <c r="F40" s="140">
         <f>SUM(F34:F39)</f>
         <v>625152</v>
       </c>
-      <c r="G40" s="141">
+      <c r="G40" s="140">
         <f>AVERAGE(G34:G39)</f>
         <v>185.98666666666668</v>
       </c>
@@ -4037,11 +4100,11 @@
       <c r="L40" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M40" s="158">
+      <c r="M40" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N40" s="155">
+      <c r="N40" s="154">
         <v>193.14</v>
       </c>
       <c r="P40" s="42">
@@ -4057,11 +4120,11 @@
       <c r="S40" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T40" s="159">
+      <c r="T40" s="158">
         <f t="shared" ref="T40:T50" si="27">P40*S40/100</f>
         <v>61560</v>
       </c>
-      <c r="U40" s="155">
+      <c r="U40" s="154">
         <v>588.5</v>
       </c>
     </row>
@@ -4085,11 +4148,11 @@
       <c r="L41" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M41" s="158">
+      <c r="M41" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N41" s="155">
+      <c r="N41" s="154">
         <v>192.7</v>
       </c>
       <c r="O41" s="22">
@@ -4108,23 +4171,24 @@
       <c r="S41" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T41" s="159">
+      <c r="T41" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U41" s="155">
+      <c r="U41" s="154">
         <v>587.70000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="175" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
       <c r="H42" s="22">
         <v>43850</v>
       </c>
@@ -4141,11 +4205,11 @@
       <c r="L42" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M42" s="158">
+      <c r="M42" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N42" s="155">
+      <c r="N42" s="154">
         <v>193.58</v>
       </c>
       <c r="P42" s="42">
@@ -4161,11 +4225,11 @@
       <c r="S42" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T42" s="159">
+      <c r="T42" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U42" s="155">
+      <c r="U42" s="154">
         <v>588.02</v>
       </c>
     </row>
@@ -4176,7 +4240,7 @@
       <c r="B43" s="99">
         <v>97200</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <v>0.88600000000000001</v>
       </c>
       <c r="D43" s="24">
@@ -4190,7 +4254,7 @@
         <f t="shared" ref="F43:F52" si="29">B43*E43/100</f>
         <v>52668</v>
       </c>
-      <c r="G43" s="155">
+      <c r="G43" s="154">
         <v>301.95</v>
       </c>
       <c r="I43" s="9">
@@ -4206,11 +4270,11 @@
       <c r="L43" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M43" s="158">
+      <c r="M43" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N43" s="155">
+      <c r="N43" s="154">
         <v>193.35</v>
       </c>
       <c r="O43" s="22">
@@ -4229,11 +4293,11 @@
       <c r="S43" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T43" s="159">
+      <c r="T43" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U43" s="155">
+      <c r="U43" s="154">
         <v>587.55999999999995</v>
       </c>
     </row>
@@ -4241,7 +4305,7 @@
       <c r="B44" s="99">
         <v>97200</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <v>0.97799999999999998</v>
       </c>
       <c r="D44" s="24">
@@ -4255,7 +4319,7 @@
         <f t="shared" si="29"/>
         <v>90972</v>
       </c>
-      <c r="G44" s="155">
+      <c r="G44" s="154">
         <v>305.62</v>
       </c>
       <c r="H44" s="22">
@@ -4274,11 +4338,11 @@
       <c r="L44" s="36">
         <v>94.017857142857139</v>
       </c>
-      <c r="M44" s="158">
+      <c r="M44" s="157">
         <f t="shared" si="7"/>
         <v>94770</v>
       </c>
-      <c r="N44" s="155">
+      <c r="N44" s="154">
         <v>193.65</v>
       </c>
       <c r="P44" s="42">
@@ -4294,11 +4358,11 @@
       <c r="S44" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T44" s="159">
+      <c r="T44" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U44" s="155">
+      <c r="U44" s="154">
         <v>586.6</v>
       </c>
     </row>
@@ -4309,7 +4373,7 @@
       <c r="B45" s="99">
         <v>97200</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <v>0.97199999999999998</v>
       </c>
       <c r="D45" s="24">
@@ -4323,7 +4387,7 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G45" s="155">
+      <c r="G45" s="154">
         <v>305.37</v>
       </c>
       <c r="I45" s="9">
@@ -4339,11 +4403,11 @@
       <c r="L45" s="36">
         <v>97.633928571428569</v>
       </c>
-      <c r="M45" s="158">
+      <c r="M45" s="157">
         <f t="shared" si="7"/>
         <v>98415</v>
       </c>
-      <c r="N45" s="155">
+      <c r="N45" s="154">
         <v>194.02</v>
       </c>
       <c r="O45" s="22">
@@ -4362,11 +4426,11 @@
       <c r="S45" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T45" s="159">
+      <c r="T45" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U45" s="155">
+      <c r="U45" s="154">
         <v>586.33000000000004</v>
       </c>
     </row>
@@ -4374,7 +4438,7 @@
       <c r="B46" s="99">
         <v>97200</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <v>0.98499999999999999</v>
       </c>
       <c r="D46" s="24">
@@ -4388,13 +4452,13 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G46" s="155">
+      <c r="G46" s="154">
         <v>305.87</v>
       </c>
-      <c r="I46" s="170" t="s">
+      <c r="I46" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="171"/>
+      <c r="J46" s="184"/>
       <c r="K46" s="38">
         <f>SUM(K4:K45)</f>
         <v>4144291.2</v>
@@ -4407,7 +4471,7 @@
         <f>SUM(M4:M45)</f>
         <v>3991275</v>
       </c>
-      <c r="N46" s="141">
+      <c r="N46" s="140">
         <f>AVERAGE(N4:N45)</f>
         <v>192.80380952380955</v>
       </c>
@@ -4424,11 +4488,11 @@
       <c r="S46" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T46" s="159">
+      <c r="T46" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U46" s="155">
+      <c r="U46" s="154">
         <v>586.46</v>
       </c>
     </row>
@@ -4439,7 +4503,7 @@
       <c r="B47" s="99">
         <v>97200</v>
       </c>
-      <c r="C47" s="153">
+      <c r="C47" s="152">
         <v>0.97399999999999998</v>
       </c>
       <c r="D47" s="24">
@@ -4453,14 +4517,14 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G47" s="155">
+      <c r="G47" s="154">
         <v>306.97000000000003</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="1"/>
       <c r="K47" s="9"/>
       <c r="L47" s="36"/>
-      <c r="M47" s="158"/>
+      <c r="M47" s="157"/>
       <c r="N47" s="24"/>
       <c r="O47" s="22">
         <v>43848</v>
@@ -4478,11 +4542,11 @@
       <c r="S47" s="36">
         <v>93.956043956043956</v>
       </c>
-      <c r="T47" s="159">
+      <c r="T47" s="158">
         <f t="shared" si="27"/>
         <v>61560</v>
       </c>
-      <c r="U47" s="155">
+      <c r="U47" s="154">
         <v>586.1</v>
       </c>
     </row>
@@ -4490,7 +4554,7 @@
       <c r="B48" s="99">
         <v>97200</v>
       </c>
-      <c r="C48" s="153">
+      <c r="C48" s="152">
         <v>0.97299999999999998</v>
       </c>
       <c r="D48" s="24">
@@ -4504,17 +4568,18 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G48" s="155">
+      <c r="G48" s="154">
         <v>305.2</v>
       </c>
-      <c r="I48" s="184" t="s">
+      <c r="H48" s="45"/>
+      <c r="I48" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="185"/>
-      <c r="M48" s="185"/>
-      <c r="N48" s="183"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="178"/>
+      <c r="M48" s="178"/>
+      <c r="N48" s="176"/>
       <c r="P48" s="42">
         <v>65520</v>
       </c>
@@ -4528,11 +4593,11 @@
       <c r="S48" s="36">
         <v>91.34615384615384</v>
       </c>
-      <c r="T48" s="159">
+      <c r="T48" s="158">
         <f t="shared" si="27"/>
         <v>59850</v>
       </c>
-      <c r="U48" s="155">
+      <c r="U48" s="154">
         <v>586.96</v>
       </c>
     </row>
@@ -4543,7 +4608,7 @@
       <c r="B49" s="99">
         <v>97200</v>
       </c>
-      <c r="C49" s="153">
+      <c r="C49" s="152">
         <v>0.97499999999999998</v>
       </c>
       <c r="D49" s="24">
@@ -4557,7 +4622,7 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G49" s="155">
+      <c r="G49" s="154">
         <v>305.60000000000002</v>
       </c>
       <c r="H49" s="22">
@@ -4576,11 +4641,11 @@
       <c r="L49" s="36">
         <v>47.453703703703702</v>
       </c>
-      <c r="M49" s="159">
+      <c r="M49" s="158">
         <f t="shared" ref="M49" si="32">I49*L49/100</f>
         <v>69700</v>
       </c>
-      <c r="N49" s="155">
+      <c r="N49" s="154">
         <v>141.75</v>
       </c>
       <c r="O49" s="22">
@@ -4599,11 +4664,11 @@
       <c r="S49" s="36">
         <v>88.736263736263737</v>
       </c>
-      <c r="T49" s="159">
+      <c r="T49" s="158">
         <f t="shared" si="27"/>
         <v>58140</v>
       </c>
-      <c r="U49" s="155">
+      <c r="U49" s="154">
         <v>585.37</v>
       </c>
     </row>
@@ -4611,7 +4676,7 @@
       <c r="B50" s="99">
         <v>97200</v>
       </c>
-      <c r="C50" s="153">
+      <c r="C50" s="152">
         <v>0.97499999999999998</v>
       </c>
       <c r="D50" s="24">
@@ -4625,7 +4690,7 @@
         <f t="shared" si="29"/>
         <v>93366</v>
       </c>
-      <c r="G50" s="155">
+      <c r="G50" s="154">
         <v>305.60000000000002</v>
       </c>
       <c r="I50" s="42">
@@ -4641,11 +4706,11 @@
       <c r="L50" s="36">
         <v>85.416666666666657</v>
       </c>
-      <c r="M50" s="159">
+      <c r="M50" s="158">
         <f t="shared" ref="M50:M60" si="34">I50*L50/100</f>
         <v>125459.99999999999</v>
       </c>
-      <c r="N50" s="155">
+      <c r="N50" s="154">
         <v>142.75</v>
       </c>
       <c r="P50" s="42">
@@ -4661,11 +4726,11 @@
       <c r="S50" s="36">
         <v>96.565934065934073</v>
       </c>
-      <c r="T50" s="159">
+      <c r="T50" s="158">
         <f t="shared" si="27"/>
         <v>63270</v>
       </c>
-      <c r="U50" s="155">
+      <c r="U50" s="154">
         <v>585.35</v>
       </c>
     </row>
@@ -4676,7 +4741,7 @@
       <c r="B51" s="99">
         <v>97200</v>
       </c>
-      <c r="C51" s="153">
+      <c r="C51" s="152">
         <v>0.999</v>
       </c>
       <c r="D51" s="24">
@@ -4690,7 +4755,7 @@
         <f t="shared" si="29"/>
         <v>95760</v>
       </c>
-      <c r="G51" s="155">
+      <c r="G51" s="154">
         <v>305.37</v>
       </c>
       <c r="H51" s="22">
@@ -4709,17 +4774,17 @@
       <c r="L51" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M51" s="159">
+      <c r="M51" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N51" s="155">
+      <c r="N51" s="154">
         <v>141.72999999999999</v>
       </c>
-      <c r="P51" s="170" t="s">
+      <c r="P51" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="Q51" s="171"/>
+      <c r="Q51" s="184"/>
       <c r="R51" s="38">
         <f>SUM(R39:R50)</f>
         <v>759245.75999999989</v>
@@ -4732,7 +4797,7 @@
         <f>SUM(T39:T50)</f>
         <v>718200</v>
       </c>
-      <c r="U51" s="141">
+      <c r="U51" s="140">
         <f>AVERAGE(U39:U50)</f>
         <v>586.81666666666672</v>
       </c>
@@ -4741,7 +4806,7 @@
       <c r="B52" s="99">
         <v>97200</v>
       </c>
-      <c r="C52" s="153">
+      <c r="C52" s="152">
         <v>0.97499999999999998</v>
       </c>
       <c r="D52" s="24">
@@ -4755,7 +4820,7 @@
         <f t="shared" si="29"/>
         <v>95760</v>
       </c>
-      <c r="G52" s="155">
+      <c r="G52" s="154">
         <v>306.54000000000002</v>
       </c>
       <c r="I52" s="42">
@@ -4771,38 +4836,38 @@
       <c r="L52" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M52" s="159">
+      <c r="M52" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N52" s="155">
+      <c r="N52" s="154">
         <v>142.94</v>
       </c>
       <c r="P52" s="42"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="24"/>
       <c r="S52" s="36"/>
-      <c r="T52" s="159"/>
+      <c r="T52" s="158"/>
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="172" t="s">
+      <c r="B53" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="172"/>
-      <c r="D53" s="141">
+      <c r="C53" s="185"/>
+      <c r="D53" s="140">
         <f>SUM(D43:D52)</f>
         <v>942062.4</v>
       </c>
-      <c r="E53" s="152">
+      <c r="E53" s="151">
         <f>F53/D53</f>
         <v>0.95042111860106082</v>
       </c>
-      <c r="F53" s="141">
+      <c r="F53" s="140">
         <f>SUM(F43:F52)</f>
         <v>895356</v>
       </c>
-      <c r="G53" s="141">
+      <c r="G53" s="140">
         <f>AVERAGE(G43:G52)</f>
         <v>305.40899999999999</v>
       </c>
@@ -4822,21 +4887,22 @@
       <c r="L53" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M53" s="159">
+      <c r="M53" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N53" s="155">
+      <c r="N53" s="154">
         <v>142.97</v>
       </c>
-      <c r="P53" s="181" t="s">
+      <c r="O53" s="45"/>
+      <c r="P53" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="182"/>
-      <c r="R53" s="182"/>
-      <c r="S53" s="182"/>
-      <c r="T53" s="182"/>
-      <c r="U53" s="189"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="182"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
@@ -4858,11 +4924,11 @@
       <c r="L54" s="36">
         <v>94.907407407407405</v>
       </c>
-      <c r="M54" s="159">
+      <c r="M54" s="158">
         <f t="shared" si="34"/>
         <v>139400</v>
       </c>
-      <c r="N54" s="155">
+      <c r="N54" s="154">
         <v>142.05000000000001</v>
       </c>
       <c r="O54" s="22">
@@ -4881,23 +4947,24 @@
       <c r="S54" s="36">
         <v>29.166666666666668</v>
       </c>
-      <c r="T54" s="159">
+      <c r="T54" s="158">
         <f t="shared" ref="T54" si="36">P54*S54/100</f>
         <v>24780</v>
       </c>
-      <c r="U54" s="155">
+      <c r="U54" s="154">
         <v>405.75</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="175" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="175"/>
-      <c r="D55" s="175"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="175"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
       <c r="H55" s="22">
         <v>43855</v>
       </c>
@@ -4914,11 +4981,11 @@
       <c r="L55" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M55" s="159">
+      <c r="M55" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N55" s="155">
+      <c r="N55" s="154">
         <v>142.81</v>
       </c>
       <c r="P55" s="99">
@@ -4934,11 +5001,11 @@
       <c r="S55" s="36">
         <v>83.333333333333343</v>
       </c>
-      <c r="T55" s="159">
+      <c r="T55" s="158">
         <f t="shared" ref="T55:T67" si="38">P55*S55/100</f>
         <v>70800.000000000015</v>
       </c>
-      <c r="U55" s="155">
+      <c r="U55" s="154">
         <v>405.64</v>
       </c>
     </row>
@@ -4949,7 +5016,7 @@
       <c r="B56" s="99">
         <v>107280</v>
       </c>
-      <c r="C56" s="192">
+      <c r="C56" s="172">
         <v>0.90500000000000003</v>
       </c>
       <c r="D56" s="24">
@@ -4963,7 +5030,7 @@
         <f t="shared" ref="F56" si="40">B56*E56/100</f>
         <v>75312.999999999985</v>
       </c>
-      <c r="G56" s="155">
+      <c r="G56" s="154">
         <v>249.25</v>
       </c>
       <c r="I56" s="42">
@@ -4979,11 +5046,11 @@
       <c r="L56" s="36">
         <v>94.907407407407405</v>
       </c>
-      <c r="M56" s="159">
+      <c r="M56" s="158">
         <f t="shared" si="34"/>
         <v>139400</v>
       </c>
-      <c r="N56" s="155">
+      <c r="N56" s="154">
         <v>143.06</v>
       </c>
       <c r="O56" s="22">
@@ -5002,11 +5069,11 @@
       <c r="S56" s="36">
         <v>91.666666666666657</v>
       </c>
-      <c r="T56" s="159">
+      <c r="T56" s="158">
         <f t="shared" si="38"/>
         <v>77879.999999999985</v>
       </c>
-      <c r="U56" s="155">
+      <c r="U56" s="154">
         <v>407.04</v>
       </c>
     </row>
@@ -5014,7 +5081,7 @@
       <c r="B57" s="99">
         <v>107280</v>
       </c>
-      <c r="C57" s="192">
+      <c r="C57" s="172">
         <v>0.98199999999999998</v>
       </c>
       <c r="D57" s="24">
@@ -5028,7 +5095,7 @@
         <f t="shared" ref="F57:F71" si="42">B57*E57/100</f>
         <v>101283</v>
       </c>
-      <c r="G57" s="155">
+      <c r="G57" s="154">
         <v>249.47</v>
       </c>
       <c r="H57" s="22">
@@ -5047,11 +5114,11 @@
       <c r="L57" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M57" s="159">
+      <c r="M57" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N57" s="155">
+      <c r="N57" s="154">
         <v>142.68</v>
       </c>
       <c r="P57" s="99">
@@ -5067,11 +5134,11 @@
       <c r="S57" s="36">
         <v>97.916666666666657</v>
       </c>
-      <c r="T57" s="159">
+      <c r="T57" s="158">
         <f t="shared" si="38"/>
         <v>83189.999999999985</v>
       </c>
-      <c r="U57" s="155">
+      <c r="U57" s="154">
         <v>405.89</v>
       </c>
     </row>
@@ -5082,7 +5149,7 @@
       <c r="B58" s="99">
         <v>107280</v>
       </c>
-      <c r="C58" s="192">
+      <c r="C58" s="172">
         <v>0.98599999999999999</v>
       </c>
       <c r="D58" s="24">
@@ -5096,7 +5163,7 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G58" s="166">
+      <c r="G58" s="165">
         <v>249.7</v>
       </c>
       <c r="I58" s="42">
@@ -5112,11 +5179,11 @@
       <c r="L58" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M58" s="159">
+      <c r="M58" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N58" s="155">
+      <c r="N58" s="154">
         <v>143.37</v>
       </c>
       <c r="O58" s="22">
@@ -5135,11 +5202,11 @@
       <c r="S58" s="36">
         <v>97.916666666666657</v>
       </c>
-      <c r="T58" s="159">
+      <c r="T58" s="158">
         <f t="shared" si="38"/>
         <v>83189.999999999985</v>
       </c>
-      <c r="U58" s="166">
+      <c r="U58" s="165">
         <v>405.08</v>
       </c>
     </row>
@@ -5147,7 +5214,7 @@
       <c r="B59" s="99">
         <v>107280</v>
       </c>
-      <c r="C59" s="192">
+      <c r="C59" s="172">
         <v>0.999</v>
       </c>
       <c r="D59" s="24">
@@ -5161,7 +5228,7 @@
         <f t="shared" si="42"/>
         <v>106477</v>
       </c>
-      <c r="G59" s="166">
+      <c r="G59" s="165">
         <v>250.06</v>
       </c>
       <c r="H59" s="22">
@@ -5180,11 +5247,11 @@
       <c r="L59" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M59" s="159">
+      <c r="M59" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N59" s="155">
+      <c r="N59" s="154">
         <v>143.25</v>
       </c>
       <c r="P59" s="99">
@@ -5200,11 +5267,11 @@
       <c r="S59" s="36">
         <v>87.5</v>
       </c>
-      <c r="T59" s="159">
+      <c r="T59" s="158">
         <f t="shared" si="38"/>
         <v>74340</v>
       </c>
-      <c r="U59" s="166">
+      <c r="U59" s="165">
         <v>406.62</v>
       </c>
     </row>
@@ -5215,7 +5282,7 @@
       <c r="B60" s="99">
         <v>107280</v>
       </c>
-      <c r="C60" s="192">
+      <c r="C60" s="172">
         <v>0.98299999999999998</v>
       </c>
       <c r="D60" s="24">
@@ -5229,7 +5296,7 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G60" s="155">
+      <c r="G60" s="154">
         <v>249.81</v>
       </c>
       <c r="I60" s="42">
@@ -5245,11 +5312,11 @@
       <c r="L60" s="36">
         <v>90.162037037037038</v>
       </c>
-      <c r="M60" s="159">
+      <c r="M60" s="158">
         <f t="shared" si="34"/>
         <v>132430</v>
       </c>
-      <c r="N60" s="155">
+      <c r="N60" s="154">
         <v>142.81</v>
       </c>
       <c r="O60" s="22">
@@ -5268,11 +5335,11 @@
       <c r="S60" s="36">
         <v>91.666666666666657</v>
       </c>
-      <c r="T60" s="159">
+      <c r="T60" s="158">
         <f t="shared" si="38"/>
         <v>77879.999999999985</v>
       </c>
-      <c r="U60" s="155">
+      <c r="U60" s="154">
         <v>405.25</v>
       </c>
     </row>
@@ -5280,7 +5347,7 @@
       <c r="B61" s="99">
         <v>107280</v>
       </c>
-      <c r="C61" s="192">
+      <c r="C61" s="172">
         <v>0.98799999999999999</v>
       </c>
       <c r="D61" s="24">
@@ -5294,13 +5361,13 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G61" s="155">
+      <c r="G61" s="154">
         <v>249.95</v>
       </c>
-      <c r="I61" s="170" t="s">
+      <c r="I61" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="171"/>
+      <c r="J61" s="184"/>
       <c r="K61" s="38">
         <f>SUM(K49:K60)</f>
         <v>1685448</v>
@@ -5309,11 +5376,11 @@
         <f>M61/K61</f>
         <v>0.90978778342612765</v>
       </c>
-      <c r="M61" s="143">
+      <c r="M61" s="142">
         <f>SUM(M49:M60)</f>
         <v>1533400</v>
       </c>
-      <c r="N61" s="144">
+      <c r="N61" s="143">
         <f>AVERAGE(N49:N60)</f>
         <v>142.68083333333334</v>
       </c>
@@ -5330,11 +5397,11 @@
       <c r="S61" s="36">
         <v>91.666666666666657</v>
       </c>
-      <c r="T61" s="159">
+      <c r="T61" s="158">
         <f t="shared" si="38"/>
         <v>77879.999999999985</v>
       </c>
-      <c r="U61" s="155">
+      <c r="U61" s="154">
         <v>406.1</v>
       </c>
     </row>
@@ -5345,7 +5412,7 @@
       <c r="B62" s="99">
         <v>107280</v>
       </c>
-      <c r="C62" s="192">
+      <c r="C62" s="172">
         <v>0.97499999999999998</v>
       </c>
       <c r="D62" s="24">
@@ -5359,14 +5426,14 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G62" s="155">
+      <c r="G62" s="154">
         <v>249.77</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="118"/>
       <c r="K62" s="24"/>
       <c r="L62" s="119"/>
-      <c r="M62" s="158"/>
+      <c r="M62" s="157"/>
       <c r="N62" s="24"/>
       <c r="O62" s="22">
         <v>43854</v>
@@ -5384,11 +5451,11 @@
       <c r="S62" s="36">
         <v>89.583333333333343</v>
       </c>
-      <c r="T62" s="159">
+      <c r="T62" s="158">
         <f t="shared" si="38"/>
         <v>76110.000000000015</v>
       </c>
-      <c r="U62" s="155">
+      <c r="U62" s="154">
         <v>405.62</v>
       </c>
     </row>
@@ -5396,7 +5463,7 @@
       <c r="B63" s="99">
         <v>107280</v>
       </c>
-      <c r="C63" s="192">
+      <c r="C63" s="172">
         <v>0.99</v>
       </c>
       <c r="D63" s="24">
@@ -5410,15 +5477,18 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G63" s="155">
+      <c r="G63" s="154">
         <v>249.18</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="24"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="178"/>
+      <c r="K63" s="178"/>
+      <c r="L63" s="178"/>
+      <c r="M63" s="178"/>
+      <c r="N63" s="176"/>
       <c r="P63" s="99">
         <v>84960</v>
       </c>
@@ -5432,11 +5502,11 @@
       <c r="S63" s="36">
         <v>91.666666666666657</v>
       </c>
-      <c r="T63" s="159">
+      <c r="T63" s="158">
         <f t="shared" si="38"/>
         <v>77879.999999999985</v>
       </c>
-      <c r="U63" s="155">
+      <c r="U63" s="154">
         <v>405.12</v>
       </c>
     </row>
@@ -5447,7 +5517,7 @@
       <c r="B64" s="99">
         <v>107280</v>
       </c>
-      <c r="C64" s="192">
+      <c r="C64" s="172">
         <v>0.97799999999999998</v>
       </c>
       <c r="D64" s="24">
@@ -5461,18 +5531,32 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G64" s="155">
+      <c r="G64" s="154">
         <v>248.18</v>
       </c>
       <c r="H64" s="22">
         <v>43858</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="120"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="121"/>
-      <c r="M64" s="158"/>
-      <c r="N64" s="24"/>
+      <c r="I64" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J64" s="120">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K64" s="24">
+        <f t="shared" ref="K64:K71" si="43">I64*J64</f>
+        <v>95108.400000000009</v>
+      </c>
+      <c r="L64" s="36">
+        <v>39.016283524904217</v>
+      </c>
+      <c r="M64" s="24">
+        <f t="shared" ref="M64" si="44">I64*L64/100</f>
+        <v>40733.000000000007</v>
+      </c>
+      <c r="N64" s="154">
+        <v>184.3</v>
+      </c>
       <c r="O64" s="22">
         <v>43855</v>
       </c>
@@ -5489,11 +5573,11 @@
       <c r="S64" s="36">
         <v>93.75</v>
       </c>
-      <c r="T64" s="159">
+      <c r="T64" s="158">
         <f t="shared" si="38"/>
         <v>79650</v>
       </c>
-      <c r="U64" s="155">
+      <c r="U64" s="154">
         <v>405.27</v>
       </c>
     </row>
@@ -5501,7 +5585,7 @@
       <c r="B65" s="99">
         <v>107280</v>
       </c>
-      <c r="C65" s="192">
+      <c r="C65" s="172">
         <v>0.98899999999999999</v>
       </c>
       <c r="D65" s="24">
@@ -5515,15 +5599,29 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G65" s="155">
+      <c r="G65" s="154">
         <v>249.64</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="120"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="121"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="24"/>
+      <c r="I65" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J65" s="120">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K65" s="24">
+        <f t="shared" si="43"/>
+        <v>100537.2</v>
+      </c>
+      <c r="L65" s="36">
+        <v>88.673371647509583</v>
+      </c>
+      <c r="M65" s="24">
+        <f t="shared" ref="M65:M71" si="45">I65*L65/100</f>
+        <v>92575</v>
+      </c>
+      <c r="N65" s="154">
+        <v>184.83</v>
+      </c>
       <c r="P65" s="99">
         <v>84960</v>
       </c>
@@ -5537,11 +5635,11 @@
       <c r="S65" s="36">
         <v>93.75</v>
       </c>
-      <c r="T65" s="159">
+      <c r="T65" s="158">
         <f t="shared" si="38"/>
         <v>79650</v>
       </c>
-      <c r="U65" s="155">
+      <c r="U65" s="154">
         <v>404.65</v>
       </c>
     </row>
@@ -5552,7 +5650,7 @@
       <c r="B66" s="99">
         <v>107280</v>
       </c>
-      <c r="C66" s="192">
+      <c r="C66" s="172">
         <v>0.98699999999999999</v>
       </c>
       <c r="D66" s="24">
@@ -5566,18 +5664,32 @@
         <f t="shared" si="42"/>
         <v>101283</v>
       </c>
-      <c r="G66" s="155">
+      <c r="G66" s="154">
         <v>249.83</v>
       </c>
       <c r="H66" s="22">
         <v>43859</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="121"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="24"/>
+      <c r="I66" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J66" s="120">
+        <v>0.98</v>
+      </c>
+      <c r="K66" s="24">
+        <f t="shared" si="43"/>
+        <v>102312</v>
+      </c>
+      <c r="L66" s="36">
+        <v>95.767241379310349</v>
+      </c>
+      <c r="M66" s="24">
+        <f t="shared" si="45"/>
+        <v>99981</v>
+      </c>
+      <c r="N66" s="154">
+        <v>185.23</v>
+      </c>
       <c r="O66" s="22">
         <v>43856</v>
       </c>
@@ -5594,11 +5706,11 @@
       <c r="S66" s="36">
         <v>93.75</v>
       </c>
-      <c r="T66" s="159">
+      <c r="T66" s="158">
         <f t="shared" si="38"/>
         <v>79650</v>
       </c>
-      <c r="U66" s="155">
+      <c r="U66" s="154">
         <v>405.58</v>
       </c>
     </row>
@@ -5606,7 +5718,7 @@
       <c r="B67" s="99">
         <v>107280</v>
       </c>
-      <c r="C67" s="192">
+      <c r="C67" s="172">
         <v>0.98699999999999999</v>
       </c>
       <c r="D67" s="24">
@@ -5620,15 +5732,29 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G67" s="155">
+      <c r="G67" s="154">
         <v>248.68</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="121"/>
-      <c r="M67" s="158"/>
-      <c r="N67" s="24"/>
+      <c r="I67" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J67" s="120">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K67" s="24">
+        <f t="shared" si="43"/>
+        <v>101372.4</v>
+      </c>
+      <c r="L67" s="36">
+        <v>88.673371647509583</v>
+      </c>
+      <c r="M67" s="24">
+        <f t="shared" si="45"/>
+        <v>92575</v>
+      </c>
+      <c r="N67" s="154">
+        <v>184.7</v>
+      </c>
       <c r="P67" s="99">
         <v>84960</v>
       </c>
@@ -5642,11 +5768,11 @@
       <c r="S67" s="36">
         <v>89.583333333333343</v>
       </c>
-      <c r="T67" s="159">
+      <c r="T67" s="158">
         <f t="shared" si="38"/>
         <v>76110.000000000015</v>
       </c>
-      <c r="U67" s="155">
+      <c r="U67" s="154">
         <v>405.02</v>
       </c>
     </row>
@@ -5657,7 +5783,7 @@
       <c r="B68" s="99">
         <v>107280</v>
       </c>
-      <c r="C68" s="192">
+      <c r="C68" s="172">
         <v>0.999</v>
       </c>
       <c r="D68" s="24">
@@ -5671,22 +5797,36 @@
         <f t="shared" si="42"/>
         <v>106477</v>
       </c>
-      <c r="G68" s="155">
+      <c r="G68" s="154">
         <v>249.62</v>
       </c>
       <c r="H68" s="22">
         <v>43860</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="158"/>
-      <c r="N68" s="24"/>
-      <c r="P68" s="170" t="s">
+      <c r="I68" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J68" s="120">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K68" s="24">
+        <f t="shared" si="43"/>
+        <v>101163.59999999999</v>
+      </c>
+      <c r="L68" s="36">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="M68" s="24">
+        <f t="shared" si="45"/>
+        <v>96278</v>
+      </c>
+      <c r="N68" s="154">
+        <v>185</v>
+      </c>
+      <c r="P68" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="171"/>
+      <c r="Q68" s="184"/>
       <c r="R68" s="38">
         <f>SUM(R54:R67)</f>
         <v>1141012.7999999998</v>
@@ -5699,7 +5839,7 @@
         <f>SUM(T54:T67)</f>
         <v>1038990</v>
       </c>
-      <c r="U68" s="141">
+      <c r="U68" s="140">
         <f>AVERAGE(U54:U67)</f>
         <v>405.61642857142851</v>
       </c>
@@ -5708,7 +5848,7 @@
       <c r="B69" s="99">
         <v>107280</v>
       </c>
-      <c r="C69" s="192">
+      <c r="C69" s="172">
         <v>0.98299999999999998</v>
       </c>
       <c r="D69" s="24">
@@ -5722,20 +5862,34 @@
         <f t="shared" si="42"/>
         <v>103880</v>
       </c>
-      <c r="G69" s="155">
+      <c r="G69" s="154">
         <v>247.52</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="121"/>
-      <c r="M69" s="158"/>
-      <c r="N69" s="24"/>
+      <c r="I69" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J69" s="120">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K69" s="24">
+        <f t="shared" si="43"/>
+        <v>103251.6</v>
+      </c>
+      <c r="L69" s="36">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="M69" s="24">
+        <f t="shared" si="45"/>
+        <v>96278</v>
+      </c>
+      <c r="N69" s="154">
+        <v>185.16</v>
+      </c>
       <c r="P69" s="42"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="24"/>
       <c r="S69" s="129"/>
-      <c r="T69" s="159"/>
+      <c r="T69" s="158"/>
       <c r="U69" s="56"/>
     </row>
     <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,7 +5899,7 @@
       <c r="B70" s="99">
         <v>107280</v>
       </c>
-      <c r="C70" s="192">
+      <c r="C70" s="172">
         <v>0.999</v>
       </c>
       <c r="D70" s="24">
@@ -5759,30 +5913,47 @@
         <f t="shared" si="42"/>
         <v>106477</v>
       </c>
-      <c r="G70" s="155">
+      <c r="G70" s="154">
         <v>250.06</v>
       </c>
       <c r="H70" s="22">
         <v>43861</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="158"/>
-      <c r="N70" s="24"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="129"/>
-      <c r="T70" s="159"/>
-      <c r="U70" s="56"/>
+      <c r="I70" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J70" s="120">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K70" s="24">
+        <f t="shared" si="43"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="L70" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="M70" s="24">
+        <f t="shared" si="45"/>
+        <v>96278</v>
+      </c>
+      <c r="N70" s="154">
+        <v>185.15</v>
+      </c>
+      <c r="O70" s="45"/>
+      <c r="P70" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70" s="175"/>
+      <c r="R70" s="175"/>
+      <c r="S70" s="175"/>
+      <c r="T70" s="175"/>
+      <c r="U70" s="182"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="99">
         <v>107280</v>
       </c>
-      <c r="C71" s="192">
+      <c r="C71" s="172">
         <v>0.98</v>
       </c>
       <c r="D71" s="24">
@@ -5796,222 +5967,414 @@
         <f t="shared" si="42"/>
         <v>101283</v>
       </c>
-      <c r="G71" s="155">
+      <c r="G71" s="154">
         <v>249.2</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="158"/>
-      <c r="N71" s="24"/>
+      <c r="I71" s="23">
+        <v>104400</v>
+      </c>
+      <c r="J71" s="123">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K71" s="24">
+        <f t="shared" si="43"/>
+        <v>103460.4</v>
+      </c>
+      <c r="L71" s="197">
+        <v>95.767241379310349</v>
+      </c>
+      <c r="M71" s="24">
+        <f t="shared" si="45"/>
+        <v>99981</v>
+      </c>
+      <c r="N71" s="164">
+        <v>185.35</v>
+      </c>
       <c r="O71" s="22">
         <v>43857</v>
       </c>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="129"/>
-      <c r="T71" s="159"/>
-      <c r="U71" s="56"/>
+      <c r="P71" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="R71" s="24">
+        <f t="shared" ref="R71" si="46">P71*Q71</f>
+        <v>71801.279999999999</v>
+      </c>
+      <c r="S71" s="36">
+        <v>67.431192660550451</v>
+      </c>
+      <c r="T71" s="24">
+        <f t="shared" ref="T71" si="47">P71*S71/100</f>
+        <v>51948.990825688066</v>
+      </c>
+      <c r="U71" s="154">
+        <v>383.15</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="172" t="s">
+      <c r="B72" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="172"/>
-      <c r="D72" s="168">
+      <c r="C72" s="185"/>
+      <c r="D72" s="166">
         <f>SUM(D56:D71)</f>
         <v>1685368.8</v>
       </c>
-      <c r="E72" s="152">
+      <c r="E72" s="151">
         <f>F72/D72</f>
         <v>0.96923177882490763</v>
       </c>
-      <c r="F72" s="168">
+      <c r="F72" s="166">
         <f>SUM(F56:F71)</f>
         <v>1633513</v>
       </c>
-      <c r="G72" s="168">
+      <c r="G72" s="166">
         <f>AVERAGE(G56:G71)</f>
         <v>249.36999999999995</v>
       </c>
-      <c r="I72" s="173"/>
-      <c r="J72" s="174"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="141"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="129"/>
-      <c r="T72" s="159"/>
-      <c r="U72" s="56"/>
+      <c r="I72" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="184"/>
+      <c r="K72" s="38">
+        <f>SUM(K64:K71)</f>
+        <v>809100</v>
+      </c>
+      <c r="L72" s="90">
+        <f>M72/K72</f>
+        <v>0.88330119886293412</v>
+      </c>
+      <c r="M72" s="168">
+        <f>SUM(M64:M71)</f>
+        <v>714679</v>
+      </c>
+      <c r="N72" s="38">
+        <f>AVERAGE(N64:N71)</f>
+        <v>184.965</v>
+      </c>
+      <c r="P72" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="R72" s="24">
+        <f t="shared" ref="R72:R80" si="48">P72*Q72</f>
+        <v>74266.559999999998</v>
+      </c>
+      <c r="S72" s="36">
+        <v>89.908256880733944</v>
+      </c>
+      <c r="T72" s="24">
+        <f t="shared" ref="T72:T80" si="49">P72*S72/100</f>
+        <v>69265.321100917427</v>
+      </c>
+      <c r="U72" s="154">
+        <v>382.97</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B73" s="113"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="142"/>
+      <c r="D73" s="141"/>
       <c r="E73" s="114"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
       <c r="I73" s="127"/>
       <c r="J73" s="127"/>
       <c r="K73" s="61"/>
       <c r="L73" s="128"/>
       <c r="M73" s="61"/>
-      <c r="N73" s="142"/>
+      <c r="N73" s="141"/>
       <c r="O73" s="22">
         <v>43858</v>
       </c>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="129"/>
-      <c r="T73" s="159"/>
-      <c r="U73" s="56"/>
+      <c r="P73" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="R73" s="24">
+        <f t="shared" si="48"/>
+        <v>76269.600000000006</v>
+      </c>
+      <c r="S73" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T73" s="24">
+        <f t="shared" si="49"/>
+        <v>70996.954128440368</v>
+      </c>
+      <c r="U73" s="154">
+        <v>383.94</v>
+      </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B74" s="175" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="175"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
-      <c r="G74" s="175"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="173"/>
       <c r="I74" s="135"/>
       <c r="J74" s="5"/>
       <c r="K74" s="135"/>
       <c r="L74" s="135"/>
       <c r="M74" s="135"/>
-      <c r="N74" s="142"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="129"/>
-      <c r="T74" s="159"/>
-      <c r="U74" s="56"/>
+      <c r="N74" s="141"/>
+      <c r="P74" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="R74" s="24">
+        <f t="shared" si="48"/>
+        <v>74343.599999999991</v>
+      </c>
+      <c r="S74" s="36">
+        <v>89.908256880733944</v>
+      </c>
+      <c r="T74" s="24">
+        <f t="shared" si="49"/>
+        <v>69265.321100917427</v>
+      </c>
+      <c r="U74" s="154">
+        <v>382.97</v>
+      </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>43859</v>
       </c>
       <c r="B75" s="99">
-        <v>107280</v>
-      </c>
-      <c r="C75" s="192">
-        <v>0.90500000000000003</v>
+        <v>92160</v>
+      </c>
+      <c r="C75" s="198">
+        <v>0.95799999999999996</v>
       </c>
       <c r="D75" s="24">
-        <f t="shared" ref="D75" si="43">B75*C75</f>
-        <v>97088.400000000009</v>
-      </c>
-      <c r="E75" s="36">
-        <v>70.202274422073074</v>
+        <f t="shared" ref="D75" si="50">B75*C75</f>
+        <v>88289.279999999999</v>
+      </c>
+      <c r="E75" s="196">
+        <v>73.828125</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" ref="F75" si="44">B75*E75/100</f>
-        <v>75312.999999999985</v>
-      </c>
-      <c r="G75" s="155">
-        <v>249.25</v>
+        <f t="shared" ref="F75" si="51">B75*E75/100</f>
+        <v>68040</v>
+      </c>
+      <c r="G75" s="161">
+        <v>331.6</v>
       </c>
       <c r="I75" s="135"/>
-      <c r="J75" s="5"/>
       <c r="K75" s="135"/>
       <c r="L75" s="135"/>
       <c r="M75" s="135"/>
-      <c r="N75" s="142"/>
+      <c r="N75" s="141"/>
       <c r="O75" s="22">
         <v>43859</v>
       </c>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="129"/>
-      <c r="T75" s="159"/>
-      <c r="U75" s="56"/>
+      <c r="P75" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="R75" s="24">
+        <f t="shared" si="48"/>
+        <v>75807.360000000001</v>
+      </c>
+      <c r="S75" s="36">
+        <v>89.908256880733944</v>
+      </c>
+      <c r="T75" s="24">
+        <f t="shared" si="49"/>
+        <v>69265.321100917427</v>
+      </c>
+      <c r="U75" s="154">
+        <v>383.92</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="142"/>
+      <c r="B76" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C76" s="199">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D76" s="24">
+        <f t="shared" ref="D76:D80" si="52">B76*C76</f>
+        <v>91333.440000000002</v>
+      </c>
+      <c r="E76" s="36">
+        <v>93.068181818181813</v>
+      </c>
+      <c r="F76" s="24">
+        <f t="shared" ref="F76:F80" si="53">B76*E76/100</f>
+        <v>88452</v>
+      </c>
+      <c r="G76" s="154">
+        <v>331.64</v>
+      </c>
       <c r="I76" s="135"/>
-      <c r="J76" s="5"/>
       <c r="K76" s="135"/>
       <c r="L76" s="135"/>
       <c r="M76" s="135"/>
-      <c r="N76" s="142"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="129"/>
-      <c r="T76" s="159"/>
-      <c r="U76" s="56"/>
+      <c r="N76" s="141"/>
+      <c r="P76" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="R76" s="24">
+        <f t="shared" si="48"/>
+        <v>73727.28</v>
+      </c>
+      <c r="S76" s="36">
+        <v>83.165137614678898</v>
+      </c>
+      <c r="T76" s="24">
+        <f t="shared" si="49"/>
+        <v>64070.422018348618</v>
+      </c>
+      <c r="U76" s="154">
+        <v>383.04</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>43860</v>
       </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="142"/>
+      <c r="B77" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C77" s="199">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D77" s="24">
+        <f t="shared" si="52"/>
+        <v>93424.319999999992</v>
+      </c>
+      <c r="E77" s="36">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F77" s="24">
+        <f t="shared" si="53"/>
+        <v>90720</v>
+      </c>
+      <c r="G77" s="154">
+        <v>331.46</v>
+      </c>
       <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
       <c r="K77" s="135"/>
       <c r="L77" s="135"/>
       <c r="M77" s="135"/>
-      <c r="N77" s="142"/>
+      <c r="N77" s="141"/>
       <c r="O77" s="22">
         <v>43860</v>
       </c>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="129"/>
-      <c r="T77" s="159"/>
-      <c r="U77" s="56"/>
+      <c r="P77" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="R77" s="24">
+        <f t="shared" si="48"/>
+        <v>75036.959999999992</v>
+      </c>
+      <c r="S77" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T77" s="24">
+        <f t="shared" si="49"/>
+        <v>70996.954128440368</v>
+      </c>
+      <c r="U77" s="154">
+        <v>383.41</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="142"/>
+      <c r="B78" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C78" s="199">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D78" s="24">
+        <f t="shared" si="52"/>
+        <v>93709.440000000002</v>
+      </c>
+      <c r="E78" s="36">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F78" s="24">
+        <f t="shared" si="53"/>
+        <v>90720</v>
+      </c>
+      <c r="G78" s="154">
+        <v>332.04</v>
+      </c>
       <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
       <c r="K78" s="135"/>
       <c r="L78" s="135"/>
       <c r="M78" s="135"/>
-      <c r="N78" s="142"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="129"/>
-      <c r="T78" s="159"/>
-      <c r="U78" s="56"/>
+      <c r="N78" s="141"/>
+      <c r="P78" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="R78" s="24">
+        <f t="shared" si="48"/>
+        <v>74959.92</v>
+      </c>
+      <c r="S78" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T78" s="24">
+        <f t="shared" si="49"/>
+        <v>70996.954128440368</v>
+      </c>
+      <c r="U78" s="154">
+        <v>383.52</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>43861</v>
       </c>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="139"/>
+      <c r="B79" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C79" s="199">
+        <v>0.99</v>
+      </c>
+      <c r="D79" s="24">
+        <f t="shared" si="52"/>
+        <v>94089.600000000006</v>
+      </c>
+      <c r="E79" s="87">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F79" s="24">
+        <f t="shared" si="53"/>
+        <v>92988</v>
+      </c>
+      <c r="G79" s="154">
+        <v>332.27</v>
+      </c>
       <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
       <c r="K79" s="59"/>
       <c r="L79" s="134"/>
       <c r="M79" s="134"/>
@@ -6019,53 +6382,121 @@
       <c r="O79" s="22">
         <v>43861</v>
       </c>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="130"/>
-      <c r="T79" s="159"/>
-      <c r="U79" s="56"/>
+      <c r="P79" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R79" s="24">
+        <f t="shared" si="48"/>
+        <v>75576.240000000005</v>
+      </c>
+      <c r="S79" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T79" s="24">
+        <f t="shared" si="49"/>
+        <v>72728.587155963309</v>
+      </c>
+      <c r="U79" s="154">
+        <v>383.23</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B80" s="135"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="135"/>
-      <c r="E80" s="135"/>
-      <c r="F80" s="135"/>
-      <c r="G80" s="142"/>
+      <c r="B80" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C80" s="110">
+        <v>0.998</v>
+      </c>
+      <c r="D80" s="24">
+        <f t="shared" si="52"/>
+        <v>94849.919999999998</v>
+      </c>
+      <c r="E80" s="197">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F80" s="24">
+        <f t="shared" si="53"/>
+        <v>90720</v>
+      </c>
+      <c r="G80" s="164">
+        <v>331.65</v>
+      </c>
       <c r="H80" s="22"/>
       <c r="I80" s="135"/>
-      <c r="J80" s="5"/>
       <c r="K80" s="135"/>
       <c r="L80" s="135"/>
       <c r="M80" s="135"/>
-      <c r="N80" s="142"/>
-      <c r="P80" s="131"/>
-      <c r="Q80" s="132"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="133"/>
-      <c r="T80" s="159"/>
-      <c r="U80" s="56"/>
+      <c r="N80" s="141"/>
+      <c r="P80" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q80" s="205">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R80" s="24">
+        <f t="shared" si="48"/>
+        <v>74651.759999999995</v>
+      </c>
+      <c r="S80" s="197">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T80" s="24">
+        <f t="shared" si="49"/>
+        <v>72728.587155963309</v>
+      </c>
+      <c r="U80" s="164">
+        <v>382.6</v>
+      </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="135"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="142"/>
+      <c r="B81" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="185"/>
+      <c r="D81" s="169">
+        <f>SUM(D75:D80)</f>
+        <v>555696</v>
+      </c>
+      <c r="E81" s="151">
+        <f>F81/D81</f>
+        <v>0.93871469292562837</v>
+      </c>
+      <c r="F81" s="169">
+        <f>SUM(F75:F80)</f>
+        <v>521640</v>
+      </c>
+      <c r="G81" s="169">
+        <f>AVERAGE(G75:G80)</f>
+        <v>331.77666666666664</v>
+      </c>
       <c r="I81" s="135"/>
-      <c r="J81" s="5"/>
       <c r="K81" s="135"/>
       <c r="L81" s="135"/>
       <c r="M81" s="135"/>
-      <c r="N81" s="142"/>
-      <c r="P81" s="173"/>
-      <c r="Q81" s="174"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="112"/>
-      <c r="T81" s="140"/>
-      <c r="U81" s="56"/>
+      <c r="N81" s="141"/>
+      <c r="P81" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="184"/>
+      <c r="R81" s="38">
+        <f>SUM(R71:R80)</f>
+        <v>746440.55999999994</v>
+      </c>
+      <c r="S81" s="90">
+        <f>T81/R81</f>
+        <v>0.91402242777916121</v>
+      </c>
+      <c r="T81" s="168">
+        <f>SUM(T71:T80)</f>
+        <v>682263.41284403659</v>
+      </c>
+      <c r="U81" s="38">
+        <f>AVERAGE(U71:U80)</f>
+        <v>383.27499999999998</v>
+      </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="59"/>
@@ -6073,13 +6504,12 @@
       <c r="D82" s="135"/>
       <c r="E82" s="135"/>
       <c r="F82" s="135"/>
-      <c r="G82" s="142"/>
+      <c r="G82" s="141"/>
       <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
       <c r="K82" s="135"/>
       <c r="L82" s="135"/>
       <c r="M82" s="135"/>
-      <c r="N82" s="142"/>
+      <c r="N82" s="141"/>
       <c r="P82" s="116"/>
       <c r="Q82" s="128"/>
       <c r="R82" s="61"/>
@@ -6087,15 +6517,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
       <c r="G83" s="139"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="169"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
+      <c r="K83" s="191"/>
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="139"/>
@@ -6111,13 +6541,13 @@
       <c r="D84" s="135"/>
       <c r="E84" s="135"/>
       <c r="F84" s="135"/>
-      <c r="G84" s="142"/>
+      <c r="G84" s="141"/>
       <c r="I84" s="135"/>
       <c r="J84" s="5"/>
       <c r="K84" s="135"/>
       <c r="L84" s="135"/>
       <c r="M84" s="135"/>
-      <c r="N84" s="142"/>
+      <c r="N84" s="141"/>
       <c r="P84" s="113"/>
       <c r="Q84" s="86"/>
       <c r="R84" s="135"/>
@@ -6130,13 +6560,13 @@
       <c r="D85" s="135"/>
       <c r="E85" s="135"/>
       <c r="F85" s="135"/>
-      <c r="G85" s="142"/>
+      <c r="G85" s="141"/>
       <c r="I85" s="135"/>
       <c r="J85" s="5"/>
       <c r="K85" s="135"/>
       <c r="L85" s="135"/>
       <c r="M85" s="135"/>
-      <c r="N85" s="142"/>
+      <c r="N85" s="141"/>
       <c r="P85" s="115"/>
       <c r="Q85" s="115"/>
       <c r="R85" s="135"/>
@@ -6149,13 +6579,13 @@
       <c r="D86" s="135"/>
       <c r="E86" s="135"/>
       <c r="F86" s="135"/>
-      <c r="G86" s="142"/>
+      <c r="G86" s="141"/>
       <c r="I86" s="135"/>
       <c r="J86" s="5"/>
       <c r="K86" s="135"/>
       <c r="L86" s="135"/>
       <c r="M86" s="135"/>
-      <c r="N86" s="142"/>
+      <c r="N86" s="141"/>
       <c r="P86" s="135"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="135"/>
@@ -6166,13 +6596,13 @@
       <c r="D87" s="135"/>
       <c r="E87" s="135"/>
       <c r="F87" s="135"/>
-      <c r="G87" s="142"/>
+      <c r="G87" s="141"/>
       <c r="I87" s="135"/>
       <c r="J87" s="5"/>
       <c r="K87" s="135"/>
       <c r="L87" s="135"/>
       <c r="M87" s="135"/>
-      <c r="N87" s="142"/>
+      <c r="N87" s="141"/>
       <c r="P87" s="135"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="135"/>
@@ -6184,14 +6614,14 @@
       <c r="D88" s="135"/>
       <c r="E88" s="135"/>
       <c r="F88" s="135"/>
-      <c r="G88" s="142"/>
+      <c r="G88" s="141"/>
       <c r="H88" s="22"/>
       <c r="I88" s="135"/>
       <c r="J88" s="5"/>
       <c r="K88" s="135"/>
       <c r="L88" s="135"/>
       <c r="M88" s="135"/>
-      <c r="N88" s="142"/>
+      <c r="N88" s="141"/>
       <c r="O88" s="22"/>
       <c r="P88" s="135"/>
       <c r="Q88" s="5"/>
@@ -6203,36 +6633,58 @@
       <c r="D89" s="135"/>
       <c r="E89" s="135"/>
       <c r="F89" s="135"/>
-      <c r="G89" s="142"/>
+      <c r="G89" s="141"/>
       <c r="I89" s="135"/>
       <c r="J89" s="5"/>
       <c r="K89" s="135"/>
       <c r="L89" s="135"/>
       <c r="M89" s="135"/>
-      <c r="N89" s="142"/>
+      <c r="N89" s="141"/>
       <c r="P89" s="135"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="135"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
-      <c r="G90" s="142"/>
-      <c r="I90" s="169"/>
-      <c r="J90" s="169"/>
+      <c r="G90" s="141"/>
+      <c r="I90" s="191"/>
+      <c r="J90" s="191"/>
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
       <c r="M90" s="135"/>
-      <c r="N90" s="142"/>
-      <c r="P90" s="169"/>
-      <c r="Q90" s="169"/>
+      <c r="N90" s="141"/>
+      <c r="P90" s="191"/>
+      <c r="Q90" s="191"/>
       <c r="R90" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="P70:U70"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="I3:N3"/>
@@ -6249,25 +6701,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B74:G74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6276,6 +6709,2254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="12" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="12" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="170"/>
+      <c r="I1" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="170"/>
+      <c r="P1" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+    </row>
+    <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="156" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="159" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="182"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>43862</v>
+      </c>
+      <c r="B4" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C4" s="198">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
+        <v>91048.319999999992</v>
+      </c>
+      <c r="E4" s="196">
+        <v>73.828125</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" ref="F4" si="1">B4*E4/100</f>
+        <v>70166.25</v>
+      </c>
+      <c r="G4" s="161">
+        <v>331.6</v>
+      </c>
+      <c r="H4" s="22">
+        <v>43862</v>
+      </c>
+      <c r="I4" s="7">
+        <v>104400</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4" si="2">I4*J4</f>
+        <v>101059.2</v>
+      </c>
+      <c r="L4" s="79">
+        <v>95.767241379310349</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4" si="3">I4*L4/100</f>
+        <v>99981</v>
+      </c>
+      <c r="N4" s="203">
+        <v>185.87</v>
+      </c>
+      <c r="O4" s="22">
+        <v>43862</v>
+      </c>
+      <c r="P4" s="99">
+        <v>77040</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="R4" s="24">
+        <f t="shared" ref="R4" si="4">P4*Q4</f>
+        <v>71801.279999999999</v>
+      </c>
+      <c r="S4" s="36">
+        <v>67.431192660550451</v>
+      </c>
+      <c r="T4" s="24">
+        <f t="shared" ref="T4" si="5">P4*S4/100</f>
+        <v>51948.990825688066</v>
+      </c>
+      <c r="U4" s="154">
+        <v>383.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="153"/>
+      <c r="I5" s="23">
+        <v>105840</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:K7" si="6">I5*J5</f>
+        <v>103511.52</v>
+      </c>
+      <c r="L5" s="36">
+        <v>94.464285714285708</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" ref="M5:M7" si="7">I5*L5/100</f>
+        <v>99981</v>
+      </c>
+      <c r="N5" s="154">
+        <v>185.25</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="154"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="22">
+        <v>43863</v>
+      </c>
+      <c r="I6" s="23">
+        <v>105840</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="6"/>
+        <v>102241.44</v>
+      </c>
+      <c r="L6" s="36">
+        <v>90.965608465608454</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="7"/>
+        <v>96277.999999999985</v>
+      </c>
+      <c r="N6" s="154">
+        <v>185.43</v>
+      </c>
+      <c r="O6" s="22">
+        <v>43863</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="154"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="99"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="I7" s="23">
+        <v>105840</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="6"/>
+        <v>103829.04</v>
+      </c>
+      <c r="L7" s="36">
+        <v>97.962962962962962</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="7"/>
+        <v>103684</v>
+      </c>
+      <c r="N7" s="154">
+        <v>185.7</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="154"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="22">
+        <v>43864</v>
+      </c>
+      <c r="I8" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="185"/>
+      <c r="K8" s="169">
+        <f>SUM(K4:K7)</f>
+        <v>410641.2</v>
+      </c>
+      <c r="L8" s="151">
+        <f>M8/K8</f>
+        <v>0.97390130361980232</v>
+      </c>
+      <c r="M8" s="169">
+        <f>SUM(M4:M7)</f>
+        <v>399924</v>
+      </c>
+      <c r="N8" s="169">
+        <f>AVERAGE(N6:N7)</f>
+        <v>185.565</v>
+      </c>
+      <c r="O8" s="22">
+        <v>43864</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="154"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>43863</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="154"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="154"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="164"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="99"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="22">
+        <v>43865</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="154"/>
+      <c r="P10" s="207"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="169"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>43864</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="154"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="163"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="99"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="27">
+        <v>43866</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="154"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="209"/>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>43865</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="154"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="22">
+        <v>43865</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="154"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="22">
+        <v>43867</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="154"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="154"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="98">
+        <v>43866</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="154"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="27">
+        <v>43866</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="158"/>
+      <c r="U15" s="154"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="99"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="22">
+        <v>43868</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="154"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="154"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>43867</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="154"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="22">
+        <v>43867</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="154"/>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="99"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="22">
+        <v>43869</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="154"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="154"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>43868</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="154"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="154"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="99"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="22">
+        <v>43870</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="154"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="154"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>43869</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="154"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="22">
+        <v>43869</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="158"/>
+      <c r="U21" s="154"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="99"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="22">
+        <v>43871</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="154"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="154"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>43870</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="154"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="22">
+        <v>43870</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="154"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="99"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="154"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="154"/>
+    </row>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>43871</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="154"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="154"/>
+      <c r="P25" s="207"/>
+      <c r="Q25" s="208"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="169"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="99"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="22">
+        <v>43873</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="154"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="56"/>
+    </row>
+    <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>43872</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="154"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="154"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="211"/>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="212"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="99"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="22">
+        <v>43874</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="22">
+        <v>43871</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="154"/>
+    </row>
+    <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>43873</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="154"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="160"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="158"/>
+      <c r="U29" s="154"/>
+    </row>
+    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="99"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="22">
+        <v>43875</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="22">
+        <v>43872</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="154"/>
+    </row>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="206"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="154"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="154"/>
+    </row>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="22">
+        <v>43873</v>
+      </c>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="154"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="154"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="154"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>43874</v>
+      </c>
+      <c r="B34" s="99"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="22">
+        <v>43877</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="22">
+        <v>43874</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="158"/>
+      <c r="U34" s="154"/>
+    </row>
+    <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="99"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="154"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="154"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="154"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>43875</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="22">
+        <v>43878</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="154"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="208"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="169"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="99"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="154"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="154"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="56"/>
+    </row>
+    <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>43876</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="22">
+        <v>43879</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="154"/>
+      <c r="P38" s="210"/>
+      <c r="Q38" s="211"/>
+      <c r="R38" s="211"/>
+      <c r="S38" s="211"/>
+      <c r="T38" s="211"/>
+      <c r="U38" s="212"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="99"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="154"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="22">
+        <v>43875</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="158"/>
+      <c r="U39" s="154"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="206"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="22">
+        <v>43880</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="154"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="154"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="22">
+        <v>43876</v>
+      </c>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="158"/>
+      <c r="U41" s="154"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="22">
+        <v>43881</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="154"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="154"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>43877</v>
+      </c>
+      <c r="B43" s="99"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="154"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="22">
+        <v>43877</v>
+      </c>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="158"/>
+      <c r="U43" s="154"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="99"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="22">
+        <v>43882</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="154"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="158"/>
+      <c r="U44" s="154"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>43878</v>
+      </c>
+      <c r="B45" s="99"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="154"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="22">
+        <v>43878</v>
+      </c>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="154"/>
+    </row>
+    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="99"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="154"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="208"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="168"/>
+      <c r="N46" s="169"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="154"/>
+    </row>
+    <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>43879</v>
+      </c>
+      <c r="B47" s="99"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="154"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="22">
+        <v>43879</v>
+      </c>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="158"/>
+      <c r="U47" s="154"/>
+    </row>
+    <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="99"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="154"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="201"/>
+      <c r="M48" s="201"/>
+      <c r="N48" s="209"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="158"/>
+      <c r="U48" s="154"/>
+    </row>
+    <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>43880</v>
+      </c>
+      <c r="B49" s="99"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="22">
+        <v>43883</v>
+      </c>
+      <c r="I49" s="42"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="22">
+        <v>43880</v>
+      </c>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="154"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="99"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="154"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="154"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="154"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>43881</v>
+      </c>
+      <c r="B51" s="99"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="22">
+        <v>43884</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="158"/>
+      <c r="N51" s="154"/>
+      <c r="P51" s="207"/>
+      <c r="Q51" s="208"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="168"/>
+      <c r="U51" s="169"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="99"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="154"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="154"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="158"/>
+      <c r="U52" s="56"/>
+    </row>
+    <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="206"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="22">
+        <v>43885</v>
+      </c>
+      <c r="I53" s="42"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="154"/>
+      <c r="P53" s="213"/>
+      <c r="Q53" s="214"/>
+      <c r="R53" s="214"/>
+      <c r="S53" s="214"/>
+      <c r="T53" s="214"/>
+      <c r="U53" s="215"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="158"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="22">
+        <v>43881</v>
+      </c>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="158"/>
+      <c r="U54" s="154"/>
+    </row>
+    <row r="55" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="22">
+        <v>43886</v>
+      </c>
+      <c r="I55" s="42"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="158"/>
+      <c r="N55" s="154"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="158"/>
+      <c r="U55" s="154"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>43882</v>
+      </c>
+      <c r="B56" s="99"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="154"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="22">
+        <v>43882</v>
+      </c>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="158"/>
+      <c r="U56" s="154"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="99"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="22">
+        <v>43887</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="154"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="158"/>
+      <c r="U57" s="154"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>43883</v>
+      </c>
+      <c r="B58" s="99"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="165"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="22">
+        <v>43883</v>
+      </c>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="158"/>
+      <c r="U58" s="165"/>
+    </row>
+    <row r="59" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="99"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="22">
+        <v>43888</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="154"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="165"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>43884</v>
+      </c>
+      <c r="B60" s="99"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="154"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="22">
+        <v>43884</v>
+      </c>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="154"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="99"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="154"/>
+      <c r="I61" s="207"/>
+      <c r="J61" s="208"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="168"/>
+      <c r="N61" s="169"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="158"/>
+      <c r="U61" s="154"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>43885</v>
+      </c>
+      <c r="B62" s="99"/>
+      <c r="C62" s="172"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="154"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="22">
+        <v>43885</v>
+      </c>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="158"/>
+      <c r="U62" s="154"/>
+    </row>
+    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="99"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="154"/>
+      <c r="I63" s="200"/>
+      <c r="J63" s="201"/>
+      <c r="K63" s="201"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="201"/>
+      <c r="N63" s="209"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="158"/>
+      <c r="U63" s="154"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>43886</v>
+      </c>
+      <c r="B64" s="99"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="22">
+        <v>43889</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="154"/>
+      <c r="O64" s="22">
+        <v>43886</v>
+      </c>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="154"/>
+    </row>
+    <row r="65" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="99"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="154"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="154"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="158"/>
+      <c r="U65" s="154"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>43887</v>
+      </c>
+      <c r="B66" s="99"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="22">
+        <v>43890</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="22">
+        <v>43887</v>
+      </c>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="158"/>
+      <c r="U66" s="154"/>
+    </row>
+    <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="99"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="154"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="154"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="158"/>
+      <c r="U67" s="154"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>43888</v>
+      </c>
+      <c r="B68" s="99"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="154"/>
+      <c r="P68" s="207"/>
+      <c r="Q68" s="208"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="90"/>
+      <c r="T68" s="168"/>
+      <c r="U68" s="169"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="99"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="154"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="154"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="129"/>
+      <c r="T69" s="158"/>
+      <c r="U69" s="56"/>
+    </row>
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>43889</v>
+      </c>
+      <c r="B70" s="99"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="87"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="154"/>
+      <c r="P70" s="213"/>
+      <c r="Q70" s="214"/>
+      <c r="R70" s="214"/>
+      <c r="S70" s="214"/>
+      <c r="T70" s="214"/>
+      <c r="U70" s="215"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="99"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="154"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="123"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="197"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="164"/>
+      <c r="O71" s="22">
+        <v>43888</v>
+      </c>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="154"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="206"/>
+      <c r="C72" s="206"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="169"/>
+      <c r="G72" s="169"/>
+      <c r="I72" s="207"/>
+      <c r="J72" s="208"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="168"/>
+      <c r="N72" s="38"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="154"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="113"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="171"/>
+      <c r="G73" s="171"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="171"/>
+      <c r="O73" s="22">
+        <v>43889</v>
+      </c>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="154"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="204"/>
+      <c r="F74" s="204"/>
+      <c r="G74" s="204"/>
+      <c r="I74" s="171"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="171"/>
+      <c r="L74" s="171"/>
+      <c r="M74" s="171"/>
+      <c r="N74" s="171"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="154"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>43890</v>
+      </c>
+      <c r="B75" s="99"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="196"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="161"/>
+      <c r="I75" s="171"/>
+      <c r="K75" s="171"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="22">
+        <v>43890</v>
+      </c>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="154"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="99"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="154"/>
+      <c r="I76" s="171"/>
+      <c r="K76" s="171"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="P76" s="99"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="154"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="154"/>
+      <c r="I77" s="59"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="154"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="99"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="154"/>
+      <c r="I78" s="59"/>
+      <c r="K78" s="171"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="171"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="154"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="154"/>
+      <c r="I79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="167"/>
+      <c r="M79" s="167"/>
+      <c r="N79" s="167"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="87"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="154"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="99"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="197"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="171"/>
+      <c r="K80" s="171"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="171"/>
+      <c r="P80" s="99"/>
+      <c r="Q80" s="205"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="197"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="164"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B81" s="206"/>
+      <c r="C81" s="206"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="I81" s="171"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="171"/>
+      <c r="N81" s="171"/>
+      <c r="P81" s="207"/>
+      <c r="Q81" s="208"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="168"/>
+      <c r="U81" s="38"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
+      <c r="I82" s="59"/>
+      <c r="K82" s="171"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="171"/>
+      <c r="P82" s="116"/>
+      <c r="Q82" s="128"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="117"/>
+      <c r="T82" s="61"/>
+    </row>
+    <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
+      <c r="E83" s="167"/>
+      <c r="F83" s="167"/>
+      <c r="G83" s="167"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
+      <c r="K83" s="191"/>
+      <c r="L83" s="167"/>
+      <c r="M83" s="167"/>
+      <c r="N83" s="167"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="86"/>
+      <c r="R83" s="171"/>
+      <c r="S83" s="114"/>
+      <c r="T83" s="171"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B84" s="171"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
+      <c r="G84" s="171"/>
+      <c r="I84" s="171"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="171"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="171"/>
+      <c r="N84" s="171"/>
+      <c r="P84" s="113"/>
+      <c r="Q84" s="86"/>
+      <c r="R84" s="171"/>
+      <c r="S84" s="114"/>
+      <c r="T84" s="171"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B85" s="171"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
+      <c r="G85" s="171"/>
+      <c r="I85" s="171"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="171"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="171"/>
+      <c r="N85" s="171"/>
+      <c r="P85" s="115"/>
+      <c r="Q85" s="115"/>
+      <c r="R85" s="171"/>
+      <c r="S85" s="86"/>
+      <c r="T85" s="171"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="171"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+      <c r="G86" s="171"/>
+      <c r="I86" s="171"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="171"/>
+      <c r="N86" s="171"/>
+      <c r="P86" s="171"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="171"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="171"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
+      <c r="I87" s="171"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="171"/>
+      <c r="N87" s="171"/>
+      <c r="P87" s="171"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="171"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
+      <c r="G88" s="171"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="171"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="171"/>
+      <c r="L88" s="171"/>
+      <c r="M88" s="171"/>
+      <c r="N88" s="171"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="171"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="171"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B89" s="171"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="171"/>
+      <c r="N89" s="171"/>
+      <c r="P89" s="171"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="171"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="I90" s="191"/>
+      <c r="J90" s="191"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="171"/>
+      <c r="N90" s="171"/>
+      <c r="P90" s="191"/>
+      <c r="Q90" s="191"/>
+      <c r="R90" s="171"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
@@ -6304,27 +8985,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="178" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="N1" s="178" t="s">
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="N1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -6375,29 +9056,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="186" t="s">
+      <c r="N3" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -6979,10 +9660,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="174"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="26">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -7079,13 +9760,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="22">
         <v>43715</v>
       </c>
@@ -7336,10 +10017,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="173" t="s">
+      <c r="N20" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="174"/>
+      <c r="O20" s="193"/>
       <c r="P20" s="26">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -7434,13 +10115,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="45"/>
-      <c r="N22" s="186" t="s">
+      <c r="N22" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="187"/>
-      <c r="P22" s="187"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="187"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -7519,10 +10200,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="173" t="s">
+      <c r="H24" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="174"/>
+      <c r="I24" s="193"/>
       <c r="J24" s="26">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -7619,13 +10300,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="185"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
       <c r="N26" s="42">
         <v>84240</v>
       </c>
@@ -7760,10 +10441,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="174"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="26">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -7860,13 +10541,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="184" t="s">
+      <c r="B31" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
       <c r="G31" s="22">
         <v>43721</v>
       </c>
@@ -8232,10 +10913,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="172" t="s">
+      <c r="N37" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="172"/>
+      <c r="O37" s="185"/>
       <c r="P37" s="26">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -8309,10 +10990,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="170" t="s">
+      <c r="H39" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="171"/>
+      <c r="I39" s="184"/>
       <c r="J39" s="26">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -8326,13 +11007,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="45"/>
-      <c r="N39" s="186" t="s">
+      <c r="N39" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="187"/>
-      <c r="P39" s="187"/>
-      <c r="Q39" s="187"/>
-      <c r="R39" s="187"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
@@ -8400,13 +11081,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="45"/>
-      <c r="H41" s="184" t="s">
+      <c r="H41" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-      <c r="L41" s="185"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="178"/>
       <c r="N41" s="42">
         <v>64080</v>
       </c>
@@ -8541,10 +11222,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="173" t="s">
+      <c r="B44" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="174"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="49">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -8641,13 +11322,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="186" t="s">
+      <c r="B46" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="22">
         <v>43727</v>
       </c>
@@ -8783,10 +11464,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="172" t="s">
+      <c r="N48" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="172"/>
+      <c r="O48" s="185"/>
       <c r="P48" s="47">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -8881,13 +11562,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="45"/>
-      <c r="N50" s="186" t="s">
+      <c r="N50" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="187"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
+      <c r="O50" s="180"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="180"/>
+      <c r="R50" s="180"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
@@ -9272,10 +11953,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="190" t="s">
+      <c r="N57" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="190"/>
+      <c r="O57" s="194"/>
       <c r="P57" s="49">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -9334,10 +12015,10 @@
       <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="173" t="s">
+      <c r="B59" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="174"/>
+      <c r="C59" s="193"/>
       <c r="D59" s="47">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -9368,13 +12049,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="45"/>
-      <c r="N59" s="186" t="s">
+      <c r="N59" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="187"/>
-      <c r="P59" s="187"/>
-      <c r="Q59" s="187"/>
-      <c r="R59" s="187"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="180"/>
+      <c r="R59" s="180"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
@@ -9425,13 +12106,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="186" t="s">
+      <c r="B61" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="187"/>
-      <c r="D61" s="187"/>
-      <c r="E61" s="187"/>
-      <c r="F61" s="187"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
       <c r="H61" s="23">
         <v>100800</v>
       </c>
@@ -9948,10 +12629,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="173" t="s">
+      <c r="H70" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="174"/>
+      <c r="I70" s="193"/>
       <c r="J70" s="49">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -10203,10 +12884,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="173" t="s">
+      <c r="B76" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="174"/>
+      <c r="C76" s="193"/>
       <c r="D76" s="49">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -10224,10 +12905,10 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
-      <c r="N76" s="190" t="s">
+      <c r="N76" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="190"/>
+      <c r="O76" s="194"/>
       <c r="P76" s="49">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -10345,19 +13026,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
+      <c r="H83" s="191"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="169"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="169"/>
+      <c r="N83" s="191"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="191"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -10453,42 +13134,22 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
+      <c r="H90" s="191"/>
+      <c r="I90" s="191"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="169"/>
-      <c r="O90" s="169"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="191"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -10504,6 +13165,26 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10514,7 +13195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
@@ -10545,27 +13226,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="178" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="N1" s="178" t="s">
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="N1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -10616,29 +13297,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="181" t="s">
+      <c r="H3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="186" t="s">
+      <c r="N3" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -11104,10 +13785,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="171"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="65">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -11205,13 +13886,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="22">
         <v>43744</v>
       </c>
@@ -11807,10 +14488,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="190" t="s">
+      <c r="N24" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="190"/>
+      <c r="O24" s="194"/>
       <c r="P24" s="66">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -11907,13 +14588,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="186" t="s">
+      <c r="N26" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="187"/>
-      <c r="P26" s="187"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="187"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -12337,10 +15018,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="170" t="s">
+      <c r="H34" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="171"/>
+      <c r="I34" s="184"/>
       <c r="J34" s="67">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -12437,13 +15118,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="181" t="s">
+      <c r="H36" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
       <c r="N36" s="42">
         <v>104400</v>
       </c>
@@ -12618,10 +15299,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="190" t="s">
+      <c r="N39" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="190"/>
+      <c r="O39" s="194"/>
       <c r="P39" s="68">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -12677,10 +15358,10 @@
       <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="170" t="s">
+      <c r="B41" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="171"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="67">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -12714,13 +15395,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="45"/>
-      <c r="N41" s="186" t="s">
+      <c r="N41" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="187"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
@@ -12768,13 +15449,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="186" t="s">
+      <c r="B43" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="188"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="181"/>
       <c r="G43" s="22">
         <v>43757</v>
       </c>
@@ -13196,10 +15877,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="190" t="s">
+      <c r="N50" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="190"/>
+      <c r="O50" s="194"/>
       <c r="P50" s="77">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -13296,13 +15977,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="45"/>
-      <c r="N52" s="186" t="s">
+      <c r="N52" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="187"/>
-      <c r="P52" s="187"/>
-      <c r="Q52" s="187"/>
-      <c r="R52" s="187"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="180"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="42">
@@ -13897,10 +16578,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="170" t="s">
+      <c r="H63" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="171"/>
+      <c r="I63" s="184"/>
       <c r="J63" s="80">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -13997,13 +16678,13 @@
         <v>71298.000000000015</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="181" t="s">
+      <c r="H65" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="182"/>
-      <c r="J65" s="182"/>
-      <c r="K65" s="182"/>
-      <c r="L65" s="182"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="175"/>
+      <c r="L65" s="175"/>
       <c r="M65" s="22">
         <v>43765</v>
       </c>
@@ -14119,10 +16800,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="190" t="s">
+      <c r="N67" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="190"/>
+      <c r="O67" s="194"/>
       <c r="P67" s="81">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -14137,10 +16818,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="170" t="s">
+      <c r="B68" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="171"/>
+      <c r="C68" s="184"/>
       <c r="D68" s="80">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -14203,22 +16884,22 @@
         <v>98415</v>
       </c>
       <c r="M69" s="45"/>
-      <c r="N69" s="181" t="s">
+      <c r="N69" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="182"/>
-      <c r="P69" s="182"/>
-      <c r="Q69" s="182"/>
-      <c r="R69" s="182"/>
+      <c r="O69" s="175"/>
+      <c r="P69" s="175"/>
+      <c r="Q69" s="175"/>
+      <c r="R69" s="175"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="186" t="s">
+      <c r="B70" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="188"/>
+      <c r="C70" s="180"/>
+      <c r="D70" s="180"/>
+      <c r="E70" s="180"/>
+      <c r="F70" s="181"/>
       <c r="G70" s="22">
         <v>43769</v>
       </c>
@@ -14334,10 +17015,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="170" t="s">
+      <c r="H72" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="171"/>
+      <c r="I72" s="184"/>
       <c r="J72" s="82">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -14460,10 +17141,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="170" t="s">
+      <c r="B75" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="171"/>
+      <c r="C75" s="184"/>
       <c r="D75" s="82">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -14500,8 +17181,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="191"/>
-      <c r="C76" s="191"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
       <c r="D76" s="28"/>
       <c r="E76" s="86"/>
       <c r="F76" s="28"/>
@@ -14571,10 +17252,10 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
-      <c r="N78" s="170" t="s">
+      <c r="N78" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="171"/>
+      <c r="O78" s="184"/>
       <c r="P78" s="82">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -14658,19 +17339,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
+      <c r="H83" s="191"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
       <c r="K83" s="64"/>
       <c r="L83" s="64"/>
-      <c r="N83" s="169"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="169"/>
+      <c r="N83" s="191"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="191"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -14766,40 +17447,22 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
+      <c r="H90" s="191"/>
+      <c r="I90" s="191"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="169"/>
-      <c r="O90" s="169"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="191"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -14816,6 +17479,24 @@
     <mergeCell ref="N69:R69"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14823,13 +17504,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14:R15"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14854,27 +17535,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="178" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="N1" s="178" t="s">
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="N1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -14925,29 +17606,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -15453,10 +18134,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="170" t="s">
+      <c r="N12" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="171"/>
+      <c r="O12" s="184"/>
       <c r="P12" s="38">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -15553,13 +18234,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="45"/>
-      <c r="N14" s="180" t="s">
+      <c r="N14" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="99">
@@ -15753,10 +18434,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="170" t="s">
+      <c r="H18" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="171"/>
+      <c r="I18" s="184"/>
       <c r="J18" s="38">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -15853,13 +18534,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="184" t="s">
+      <c r="H20" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="185"/>
-      <c r="L20" s="185"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
       <c r="N20" s="99">
         <v>84960</v>
       </c>
@@ -16031,10 +18712,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="170" t="s">
+      <c r="N23" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="171"/>
+      <c r="O23" s="184"/>
       <c r="P23" s="38">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -16049,10 +18730,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="171"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="84">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -16115,23 +18796,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="45"/>
-      <c r="N25" s="180" t="s">
+      <c r="N25" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
       <c r="H26" s="23">
         <v>104400</v>
       </c>
@@ -16421,10 +19102,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="170" t="s">
+      <c r="H31" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="171"/>
+      <c r="I31" s="184"/>
       <c r="J31" s="38">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -16478,10 +19159,10 @@
       <c r="J32" s="24"/>
       <c r="K32" s="97"/>
       <c r="L32" s="24"/>
-      <c r="N32" s="170" t="s">
+      <c r="N32" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="171"/>
+      <c r="O32" s="184"/>
       <c r="P32" s="38">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -16496,10 +19177,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="171"/>
+      <c r="C33" s="184"/>
       <c r="D33" s="100">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -16513,13 +19194,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="45"/>
-      <c r="H33" s="184" t="s">
+      <c r="H33" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
       <c r="N33" s="42"/>
       <c r="O33" s="1"/>
       <c r="P33" s="24"/>
@@ -16553,23 +19234,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="180" t="s">
+      <c r="N34" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
       <c r="H35" s="42">
         <v>144000</v>
       </c>
@@ -16932,10 +19613,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="170" t="s">
+      <c r="N41" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="171"/>
+      <c r="O41" s="184"/>
       <c r="P41" s="38">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -17032,19 +19713,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="45"/>
-      <c r="N43" s="175" t="s">
+      <c r="N43" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="171"/>
+      <c r="C44" s="184"/>
       <c r="D44" s="100">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -17141,13 +19822,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="175" t="s">
+      <c r="B46" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="173"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="22">
         <v>43788</v>
       </c>
@@ -17263,10 +19944,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="170" t="s">
+      <c r="H48" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="171"/>
+      <c r="I48" s="184"/>
       <c r="J48" s="38">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -17363,13 +20044,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="45"/>
-      <c r="H50" s="184" t="s">
+      <c r="H50" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="185"/>
-      <c r="J50" s="185"/>
-      <c r="K50" s="185"/>
-      <c r="L50" s="185"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="178"/>
       <c r="M50" s="22">
         <v>43787</v>
       </c>
@@ -17485,10 +20166,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="170" t="s">
+      <c r="N52" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="171"/>
+      <c r="O52" s="184"/>
       <c r="P52" s="38">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -17585,13 +20266,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="45"/>
-      <c r="N54" s="175" t="s">
+      <c r="N54" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="175"/>
-      <c r="P54" s="175"/>
-      <c r="Q54" s="175"/>
-      <c r="R54" s="175"/>
+      <c r="O54" s="173"/>
+      <c r="P54" s="173"/>
+      <c r="Q54" s="173"/>
+      <c r="R54" s="173"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
@@ -17939,10 +20620,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="170" t="s">
+      <c r="B61" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="171"/>
+      <c r="C61" s="184"/>
       <c r="D61" s="102">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -17975,10 +20656,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="170" t="s">
+      <c r="N61" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="171"/>
+      <c r="O61" s="184"/>
       <c r="P61" s="38">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -18022,13 +20703,13 @@
       <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="187"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="180"/>
+      <c r="E63" s="180"/>
+      <c r="F63" s="180"/>
       <c r="G63" s="22">
         <v>43795</v>
       </c>
@@ -18050,13 +20731,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="45"/>
-      <c r="N63" s="175" t="s">
+      <c r="N63" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="175"/>
-      <c r="P63" s="175"/>
-      <c r="Q63" s="175"/>
-      <c r="R63" s="175"/>
+      <c r="O63" s="173"/>
+      <c r="P63" s="173"/>
+      <c r="Q63" s="173"/>
+      <c r="R63" s="173"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
@@ -18556,10 +21237,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="170" t="s">
+      <c r="N72" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="171"/>
+      <c r="O72" s="184"/>
       <c r="P72" s="38">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -18591,10 +21272,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="170" t="s">
+      <c r="H73" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="171"/>
+      <c r="I73" s="184"/>
       <c r="J73" s="38">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -18640,13 +21321,13 @@
       <c r="K74" s="85"/>
       <c r="L74" s="85"/>
       <c r="M74" s="45"/>
-      <c r="N74" s="175" t="s">
+      <c r="N74" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="175"/>
-      <c r="P74" s="175"/>
-      <c r="Q74" s="175"/>
-      <c r="R74" s="175"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="173"/>
+      <c r="Q74" s="173"/>
+      <c r="R74" s="173"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B75" s="42">
@@ -18693,10 +21374,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="170" t="s">
+      <c r="B76" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="171"/>
+      <c r="C76" s="184"/>
       <c r="D76" s="103">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -18917,14 +21598,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="83"/>
       <c r="F83" s="83"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
+      <c r="H83" s="191"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="22">
@@ -18988,10 +21669,10 @@
       <c r="J85" s="85"/>
       <c r="K85" s="85"/>
       <c r="L85" s="85"/>
-      <c r="N85" s="170" t="s">
+      <c r="N85" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="171"/>
+      <c r="O85" s="184"/>
       <c r="P85" s="38">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -19069,41 +21750,29 @@
       <c r="P89" s="85"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="85"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
+      <c r="H90" s="191"/>
+      <c r="I90" s="191"/>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
-      <c r="N90" s="169"/>
-      <c r="O90" s="169"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="191"/>
       <c r="P90" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N54:R54"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N72:O72"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -19120,13 +21789,25 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H50:L50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19137,7 +21818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
@@ -19168,27 +21849,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="178" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="N1" s="178" t="s">
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="N1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -19239,29 +21920,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="181" t="s">
+      <c r="H3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="189"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="182"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="175" t="s">
+      <c r="N3" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -19534,10 +22215,10 @@
         <f t="shared" si="9"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="170" t="s">
+      <c r="N8" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="171"/>
+      <c r="O8" s="184"/>
       <c r="P8" s="38">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -19634,13 +22315,13 @@
         <v>94770</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="186" t="s">
+      <c r="N10" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
@@ -20139,10 +22820,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N19" s="170" t="s">
+      <c r="N19" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="171"/>
+      <c r="O19" s="184"/>
       <c r="P19" s="38">
         <f>SUM(P11:P18)</f>
         <v>505093.68</v>
@@ -20239,19 +22920,19 @@
         <v>94770</v>
       </c>
       <c r="M21" s="45"/>
-      <c r="N21" s="180" t="s">
+      <c r="N21" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="171"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="38">
         <f>SUM(D4:D21)</f>
         <v>1859301.3599999999</v>
@@ -20347,13 +23028,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="22">
         <v>43810</v>
       </c>
@@ -21274,10 +23955,10 @@
         <f t="shared" si="23"/>
         <v>109174</v>
       </c>
-      <c r="H40" s="170" t="s">
+      <c r="H40" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="171"/>
+      <c r="I40" s="184"/>
       <c r="J40" s="38">
         <f>SUM(J4:J39)</f>
         <v>3550680.0000000005</v>
@@ -21290,10 +23971,10 @@
         <f>SUM(L4:L39)</f>
         <v>3422655</v>
       </c>
-      <c r="N40" s="170" t="s">
+      <c r="N40" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="171"/>
+      <c r="O40" s="184"/>
       <c r="P40" s="38">
         <f>SUM(P22:P39)</f>
         <v>1381640.4</v>
@@ -21358,21 +24039,21 @@
         <v>109174</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="181" t="s">
+      <c r="H42" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="182"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="182"/>
-      <c r="L42" s="182"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="175" t="s">
+      <c r="N42" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="175"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="175"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -21490,10 +24171,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="171"/>
+      <c r="C45" s="184"/>
       <c r="D45" s="38">
         <f>SUM(D25:D44)</f>
         <v>2238094.0799999996</v>
@@ -21589,13 +24270,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="184" t="s">
+      <c r="B47" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="185"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="183"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="176"/>
       <c r="G47" s="22">
         <v>43820</v>
       </c>
@@ -21961,10 +24642,10 @@
         <f t="shared" si="33"/>
         <v>97380</v>
       </c>
-      <c r="N53" s="170" t="s">
+      <c r="N53" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="171"/>
+      <c r="O53" s="184"/>
       <c r="P53" s="38">
         <f>SUM(P43:P52)</f>
         <v>719671.67999999993</v>
@@ -22061,13 +24742,13 @@
         <v>102249</v>
       </c>
       <c r="M55" s="45"/>
-      <c r="N55" s="180" t="s">
+      <c r="N55" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="175"/>
-      <c r="P55" s="175"/>
-      <c r="Q55" s="175"/>
-      <c r="R55" s="175"/>
+      <c r="O55" s="173"/>
+      <c r="P55" s="173"/>
+      <c r="Q55" s="173"/>
+      <c r="R55" s="173"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -22261,10 +24942,10 @@
         <f t="shared" si="37"/>
         <v>104192</v>
       </c>
-      <c r="H59" s="170" t="s">
+      <c r="H59" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="171"/>
+      <c r="I59" s="184"/>
       <c r="J59" s="38">
         <f>SUM(J43:J58)</f>
         <v>1715012.6400000004</v>
@@ -22361,13 +25042,13 @@
         <v>104192</v>
       </c>
       <c r="G61" s="45"/>
-      <c r="H61" s="181" t="s">
+      <c r="H61" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="182"/>
-      <c r="J61" s="182"/>
-      <c r="K61" s="182"/>
-      <c r="L61" s="189"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="175"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="182"/>
       <c r="N61" s="42">
         <v>90000</v>
       </c>
@@ -22657,10 +25338,10 @@
         <f t="shared" si="45"/>
         <v>94770</v>
       </c>
-      <c r="N66" s="170" t="s">
+      <c r="N66" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="171"/>
+      <c r="O66" s="184"/>
       <c r="P66" s="38">
         <f>SUM(P56:P65)</f>
         <v>880380</v>
@@ -22757,13 +25438,13 @@
         <v>98415</v>
       </c>
       <c r="M68" s="45"/>
-      <c r="N68" s="186" t="s">
+      <c r="N68" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="O68" s="187"/>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
-      <c r="R68" s="187"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="180"/>
+      <c r="Q68" s="180"/>
+      <c r="R68" s="180"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="23">
@@ -22937,10 +25618,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="174"/>
+      <c r="C72" s="193"/>
       <c r="D72" s="51">
         <f>SUM(D48:D71)</f>
         <v>2637675.3600000003</v>
@@ -22953,10 +25634,10 @@
         <f>SUM(F48:F71)</f>
         <v>2510256</v>
       </c>
-      <c r="H72" s="173" t="s">
+      <c r="H72" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="174"/>
+      <c r="I72" s="193"/>
       <c r="J72" s="51">
         <f>SUM(J62:J71)</f>
         <v>969023.15999999992</v>
@@ -23243,10 +25924,10 @@
       <c r="J81" s="105"/>
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
-      <c r="N81" s="173" t="s">
+      <c r="N81" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="174"/>
+      <c r="O81" s="193"/>
       <c r="P81" s="51">
         <f>SUM(P69:P80)</f>
         <v>1082706.48</v>
@@ -23278,14 +25959,14 @@
       <c r="R82" s="61"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="104"/>
       <c r="F83" s="104"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
+      <c r="H83" s="191"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104"/>
       <c r="N83" s="113"/>
@@ -23392,32 +26073,28 @@
       <c r="P89" s="105"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="191"/>
       <c r="D90" s="105"/>
       <c r="E90" s="105"/>
       <c r="F90" s="105"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
+      <c r="H90" s="191"/>
+      <c r="I90" s="191"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
-      <c r="N90" s="169"/>
-      <c r="O90" s="169"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="191"/>
       <c r="P90" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N55:R55"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
@@ -23434,12 +26111,16 @@
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N55:R55"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N68:R68"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>% работы</t>
   </si>
@@ -162,6 +162,9 @@
   <si>
     <t>ХХI-В-28-2-500-28 (Калина 0.5 л.)</t>
   </si>
+  <si>
+    <t>ХХI-В-28-2.1б-500-3 (Дрозды 0.5 л.)</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -739,12 +742,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,73 +1250,7 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1366,6 +1312,87 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1676,7 +1703,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1704,29 +1731,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
       <c r="G1" s="144"/>
-      <c r="I1" s="188" t="s">
+      <c r="I1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
       <c r="N1" s="144"/>
-      <c r="P1" s="188" t="s">
+      <c r="P1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
     </row>
     <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1786,32 +1813,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="190"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="214"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="176"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="174" t="s">
+      <c r="P3" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="182"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="203"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -1866,7 +1893,7 @@
       <c r="P4" s="101">
         <v>92880</v>
       </c>
-      <c r="Q4" s="202">
+      <c r="Q4" s="180">
         <v>0.97</v>
       </c>
       <c r="R4" s="9">
@@ -1880,7 +1907,7 @@
         <f t="shared" ref="T4" si="4">P4*S4/100</f>
         <v>87612</v>
       </c>
-      <c r="U4" s="203">
+      <c r="U4" s="181">
         <v>354.22</v>
       </c>
     </row>
@@ -1947,10 +1974,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="209"/>
       <c r="D6" s="140">
         <f>SUM(D4:D5)</f>
         <v>223367.04000000001</v>
@@ -2064,14 +2091,14 @@
     </row>
     <row r="8" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
       <c r="H8" s="22">
         <v>43833</v>
       </c>
@@ -2228,10 +2255,10 @@
       <c r="N10" s="154">
         <v>192.64</v>
       </c>
-      <c r="P10" s="183" t="s">
+      <c r="P10" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="184"/>
+      <c r="Q10" s="208"/>
       <c r="R10" s="38">
         <f>SUM(R4:R9)</f>
         <v>549478.07999999996</v>
@@ -2346,14 +2373,14 @@
         <v>192.97</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="177" t="s">
+      <c r="P12" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="176"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="202"/>
+      <c r="U12" s="200"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -3198,10 +3225,10 @@
       <c r="N25" s="154">
         <v>192.18</v>
       </c>
-      <c r="P25" s="183" t="s">
+      <c r="P25" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="184"/>
+      <c r="Q25" s="208"/>
       <c r="R25" s="38">
         <f>SUM(R13:R24)</f>
         <v>941633.27999999991</v>
@@ -3315,14 +3342,14 @@
         <v>192.87</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="179" t="s">
+      <c r="P27" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="180"/>
-      <c r="T27" s="180"/>
-      <c r="U27" s="181"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="206"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="99">
@@ -3526,10 +3553,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="185"/>
+      <c r="C31" s="209"/>
       <c r="D31" s="140">
         <f>SUM(D9:D30)</f>
         <v>2224285.92</v>
@@ -3643,14 +3670,14 @@
     </row>
     <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="173" t="s">
+      <c r="B33" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
       <c r="I33" s="9">
         <v>100800</v>
       </c>
@@ -3872,10 +3899,10 @@
       <c r="N36" s="154">
         <v>193.6</v>
       </c>
-      <c r="P36" s="183" t="s">
+      <c r="P36" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="184"/>
+      <c r="Q36" s="208"/>
       <c r="R36" s="38">
         <f>SUM(R28:R35)</f>
         <v>651933.36</v>
@@ -3989,14 +4016,14 @@
         <v>192.39</v>
       </c>
       <c r="O38" s="45"/>
-      <c r="P38" s="179" t="s">
+      <c r="P38" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="180"/>
-      <c r="T38" s="180"/>
-      <c r="U38" s="181"/>
+      <c r="Q38" s="205"/>
+      <c r="R38" s="205"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="205"/>
+      <c r="U38" s="206"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="99">
@@ -4064,10 +4091,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="185" t="s">
+      <c r="B40" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="185"/>
+      <c r="C40" s="209"/>
       <c r="D40" s="140">
         <f>SUM(D34:D39)</f>
         <v>740793.6</v>
@@ -4181,14 +4208,14 @@
     </row>
     <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="173" t="s">
+      <c r="B42" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="22">
         <v>43850</v>
       </c>
@@ -4455,10 +4482,10 @@
       <c r="G46" s="154">
         <v>305.87</v>
       </c>
-      <c r="I46" s="183" t="s">
+      <c r="I46" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="184"/>
+      <c r="J46" s="208"/>
       <c r="K46" s="38">
         <f>SUM(K4:K45)</f>
         <v>4144291.2</v>
@@ -4572,14 +4599,14 @@
         <v>305.2</v>
       </c>
       <c r="H48" s="45"/>
-      <c r="I48" s="177" t="s">
+      <c r="I48" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="178"/>
-      <c r="K48" s="178"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="178"/>
-      <c r="N48" s="176"/>
+      <c r="J48" s="202"/>
+      <c r="K48" s="202"/>
+      <c r="L48" s="202"/>
+      <c r="M48" s="202"/>
+      <c r="N48" s="200"/>
       <c r="P48" s="42">
         <v>65520</v>
       </c>
@@ -4781,10 +4808,10 @@
       <c r="N51" s="154">
         <v>141.72999999999999</v>
       </c>
-      <c r="P51" s="183" t="s">
+      <c r="P51" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q51" s="184"/>
+      <c r="Q51" s="208"/>
       <c r="R51" s="38">
         <f>SUM(R39:R50)</f>
         <v>759245.75999999989</v>
@@ -4851,10 +4878,10 @@
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="185" t="s">
+      <c r="B53" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="185"/>
+      <c r="C53" s="209"/>
       <c r="D53" s="140">
         <f>SUM(D43:D52)</f>
         <v>942062.4</v>
@@ -4895,14 +4922,14 @@
         <v>142.97</v>
       </c>
       <c r="O53" s="45"/>
-      <c r="P53" s="174" t="s">
+      <c r="P53" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="175"/>
-      <c r="R53" s="175"/>
-      <c r="S53" s="175"/>
-      <c r="T53" s="175"/>
-      <c r="U53" s="182"/>
+      <c r="Q53" s="199"/>
+      <c r="R53" s="199"/>
+      <c r="S53" s="199"/>
+      <c r="T53" s="199"/>
+      <c r="U53" s="203"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
@@ -4957,14 +4984,14 @@
     </row>
     <row r="55" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
+      <c r="C55" s="197"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="197"/>
+      <c r="F55" s="197"/>
+      <c r="G55" s="197"/>
       <c r="H55" s="22">
         <v>43855</v>
       </c>
@@ -5364,10 +5391,10 @@
       <c r="G61" s="154">
         <v>249.95</v>
       </c>
-      <c r="I61" s="183" t="s">
+      <c r="I61" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="184"/>
+      <c r="J61" s="208"/>
       <c r="K61" s="38">
         <f>SUM(K49:K60)</f>
         <v>1685448</v>
@@ -5481,14 +5508,14 @@
         <v>249.18</v>
       </c>
       <c r="H63" s="45"/>
-      <c r="I63" s="177" t="s">
+      <c r="I63" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="178"/>
-      <c r="K63" s="178"/>
-      <c r="L63" s="178"/>
-      <c r="M63" s="178"/>
-      <c r="N63" s="176"/>
+      <c r="J63" s="202"/>
+      <c r="K63" s="202"/>
+      <c r="L63" s="202"/>
+      <c r="M63" s="202"/>
+      <c r="N63" s="200"/>
       <c r="P63" s="99">
         <v>84960</v>
       </c>
@@ -5823,10 +5850,10 @@
       <c r="N68" s="154">
         <v>185</v>
       </c>
-      <c r="P68" s="183" t="s">
+      <c r="P68" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="184"/>
+      <c r="Q68" s="208"/>
       <c r="R68" s="38">
         <f>SUM(R54:R67)</f>
         <v>1141012.7999999998</v>
@@ -5940,14 +5967,14 @@
         <v>185.15</v>
       </c>
       <c r="O70" s="45"/>
-      <c r="P70" s="174" t="s">
+      <c r="P70" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="175"/>
-      <c r="R70" s="175"/>
-      <c r="S70" s="175"/>
-      <c r="T70" s="175"/>
-      <c r="U70" s="182"/>
+      <c r="Q70" s="199"/>
+      <c r="R70" s="199"/>
+      <c r="S70" s="199"/>
+      <c r="T70" s="199"/>
+      <c r="U70" s="203"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="99">
@@ -5980,7 +6007,7 @@
         <f t="shared" si="43"/>
         <v>103460.4</v>
       </c>
-      <c r="L71" s="197">
+      <c r="L71" s="175">
         <v>95.767241379310349</v>
       </c>
       <c r="M71" s="24">
@@ -6015,10 +6042,10 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="185" t="s">
+      <c r="B72" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="185"/>
+      <c r="C72" s="209"/>
       <c r="D72" s="166">
         <f>SUM(D56:D71)</f>
         <v>1685368.8</v>
@@ -6035,10 +6062,10 @@
         <f>AVERAGE(G56:G71)</f>
         <v>249.36999999999995</v>
       </c>
-      <c r="I72" s="183" t="s">
+      <c r="I72" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="184"/>
+      <c r="J72" s="208"/>
       <c r="K72" s="38">
         <f>SUM(K64:K71)</f>
         <v>809100</v>
@@ -6115,14 +6142,14 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="45"/>
-      <c r="B74" s="173" t="s">
+      <c r="B74" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
+      <c r="F74" s="197"/>
+      <c r="G74" s="197"/>
       <c r="I74" s="135"/>
       <c r="J74" s="5"/>
       <c r="K74" s="135"/>
@@ -6157,14 +6184,14 @@
       <c r="B75" s="99">
         <v>92160</v>
       </c>
-      <c r="C75" s="198">
+      <c r="C75" s="176">
         <v>0.95799999999999996</v>
       </c>
       <c r="D75" s="24">
         <f t="shared" ref="D75" si="50">B75*C75</f>
         <v>88289.279999999999</v>
       </c>
-      <c r="E75" s="196">
+      <c r="E75" s="174">
         <v>73.828125</v>
       </c>
       <c r="F75" s="24">
@@ -6207,7 +6234,7 @@
       <c r="B76" s="99">
         <v>95040</v>
       </c>
-      <c r="C76" s="199">
+      <c r="C76" s="177">
         <v>0.96099999999999997</v>
       </c>
       <c r="D76" s="24">
@@ -6257,7 +6284,7 @@
       <c r="B77" s="99">
         <v>95040</v>
       </c>
-      <c r="C77" s="199">
+      <c r="C77" s="177">
         <v>0.98299999999999998</v>
       </c>
       <c r="D77" s="24">
@@ -6307,7 +6334,7 @@
       <c r="B78" s="99">
         <v>95040</v>
       </c>
-      <c r="C78" s="199">
+      <c r="C78" s="177">
         <v>0.98599999999999999</v>
       </c>
       <c r="D78" s="24">
@@ -6357,7 +6384,7 @@
       <c r="B79" s="99">
         <v>95040</v>
       </c>
-      <c r="C79" s="199">
+      <c r="C79" s="177">
         <v>0.99</v>
       </c>
       <c r="D79" s="24">
@@ -6414,7 +6441,7 @@
         <f t="shared" si="52"/>
         <v>94849.919999999998</v>
       </c>
-      <c r="E80" s="197">
+      <c r="E80" s="175">
         <v>95.454545454545453</v>
       </c>
       <c r="F80" s="24">
@@ -6433,14 +6460,14 @@
       <c r="P80" s="99">
         <v>77040</v>
       </c>
-      <c r="Q80" s="205">
+      <c r="Q80" s="183">
         <v>0.96899999999999997</v>
       </c>
       <c r="R80" s="24">
         <f t="shared" si="48"/>
         <v>74651.759999999995</v>
       </c>
-      <c r="S80" s="197">
+      <c r="S80" s="175">
         <v>94.403669724770651</v>
       </c>
       <c r="T80" s="24">
@@ -6452,10 +6479,10 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="185" t="s">
+      <c r="B81" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="185"/>
+      <c r="C81" s="209"/>
       <c r="D81" s="169">
         <f>SUM(D75:D80)</f>
         <v>555696</v>
@@ -6477,10 +6504,10 @@
       <c r="L81" s="135"/>
       <c r="M81" s="135"/>
       <c r="N81" s="141"/>
-      <c r="P81" s="183" t="s">
+      <c r="P81" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="184"/>
+      <c r="Q81" s="208"/>
       <c r="R81" s="38">
         <f>SUM(R71:R80)</f>
         <v>746440.55999999994</v>
@@ -6517,15 +6544,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
       <c r="G83" s="139"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
-      <c r="K83" s="191"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
+      <c r="K83" s="215"/>
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="139"/>
@@ -6645,29 +6672,26 @@
       <c r="R89" s="135"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="141"/>
-      <c r="I90" s="191"/>
-      <c r="J90" s="191"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="215"/>
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
       <c r="M90" s="135"/>
       <c r="N90" s="141"/>
-      <c r="P90" s="191"/>
-      <c r="Q90" s="191"/>
+      <c r="P90" s="215"/>
+      <c r="Q90" s="215"/>
       <c r="R90" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="P70:U70"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P51:Q51"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="P90:Q90"/>
@@ -6676,10 +6700,13 @@
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="P81:Q81"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="P51:Q51"/>
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B81:C81"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="P70:U70"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="I1:M1"/>
@@ -6714,59 +6741,59 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="12" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="12" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="12" customWidth="1"/>
     <col min="11" max="12" width="11.6640625" style="12" customWidth="1"/>
     <col min="13" max="13" width="14.21875" style="12" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="12" customWidth="1"/>
     <col min="15" max="15" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="12" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="12" customWidth="1"/>
     <col min="18" max="18" width="13.44140625" style="12" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="12" customWidth="1"/>
     <col min="21" max="21" width="10.109375" style="12" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
       <c r="G1" s="170"/>
-      <c r="I1" s="188" t="s">
+      <c r="I1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
       <c r="N1" s="170"/>
-      <c r="P1" s="188" t="s">
+      <c r="P1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-    </row>
-    <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+    </row>
+    <row r="2" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -6824,32 +6851,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="214"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="182"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="203"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="174" t="s">
+      <c r="P3" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="182"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="200"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -6858,22 +6885,22 @@
       <c r="B4" s="99">
         <v>95040</v>
       </c>
-      <c r="C4" s="198">
-        <v>0.95799999999999996</v>
+      <c r="C4" s="176">
+        <v>0.98199999999999998</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4" si="0">B4*C4</f>
-        <v>91048.319999999992</v>
-      </c>
-      <c r="E4" s="196">
-        <v>73.828125</v>
+        <v>93329.279999999999</v>
+      </c>
+      <c r="E4" s="137">
+        <v>95.454545454545453</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4" si="1">B4*E4/100</f>
-        <v>70166.25</v>
-      </c>
-      <c r="G4" s="161">
-        <v>331.6</v>
+        <v>90720</v>
+      </c>
+      <c r="G4" s="195">
+        <v>331.22</v>
       </c>
       <c r="H4" s="22">
         <v>43862</v>
@@ -6895,40 +6922,54 @@
         <f t="shared" ref="M4" si="3">I4*L4/100</f>
         <v>99981</v>
       </c>
-      <c r="N4" s="203">
+      <c r="N4" s="181">
         <v>185.87</v>
       </c>
       <c r="O4" s="22">
         <v>43862</v>
       </c>
       <c r="P4" s="99">
-        <v>77040</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.93200000000000005</v>
+        <v>78480</v>
+      </c>
+      <c r="Q4" s="196">
+        <v>0.97099999999999997</v>
       </c>
       <c r="R4" s="24">
         <f t="shared" ref="R4" si="4">P4*Q4</f>
-        <v>71801.279999999999</v>
-      </c>
-      <c r="S4" s="36">
-        <v>67.431192660550451</v>
+        <v>76204.08</v>
+      </c>
+      <c r="S4" s="76">
+        <v>92.155963302752298</v>
       </c>
       <c r="T4" s="24">
         <f t="shared" ref="T4" si="5">P4*S4/100</f>
-        <v>51948.990825688066</v>
-      </c>
-      <c r="U4" s="154">
-        <v>383.15</v>
+        <v>72324</v>
+      </c>
+      <c r="U4" s="161">
+        <v>383.08</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="153"/>
+      <c r="B5" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C5" s="177">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" ref="D5:D15" si="6">B5*C5</f>
+        <v>93709.440000000002</v>
+      </c>
+      <c r="E5" s="121">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" ref="F5:F15" si="7">B5*E5/100</f>
+        <v>90720</v>
+      </c>
+      <c r="G5" s="154">
+        <v>331.85</v>
+      </c>
       <c r="I5" s="23">
         <v>105840</v>
       </c>
@@ -6936,33 +6977,64 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="K5" s="24">
-        <f t="shared" ref="K5:K7" si="6">I5*J5</f>
+        <f t="shared" ref="K5:K7" si="8">I5*J5</f>
         <v>103511.52</v>
       </c>
       <c r="L5" s="36">
         <v>94.464285714285708</v>
       </c>
       <c r="M5" s="24">
-        <f t="shared" ref="M5:M7" si="7">I5*L5/100</f>
+        <f t="shared" ref="M5:M7" si="9">I5*L5/100</f>
         <v>99981</v>
       </c>
       <c r="N5" s="154">
         <v>185.25</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="154"/>
+      <c r="P5" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R5" s="24">
+        <f t="shared" ref="R5:R11" si="10">P5*Q5</f>
+        <v>77145.84</v>
+      </c>
+      <c r="S5" s="36">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T5" s="24">
+        <f t="shared" ref="T5:T11" si="11">P5*S5/100</f>
+        <v>74088.000000000015</v>
+      </c>
+      <c r="U5" s="154">
+        <v>382.75</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
+      <c r="A6" s="22">
+        <v>43863</v>
+      </c>
+      <c r="B6" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C6" s="177">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="6"/>
+        <v>93994.559999999998</v>
+      </c>
+      <c r="E6" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G6" s="154">
+        <v>331.68</v>
+      </c>
       <c r="H6" s="22">
         <v>43863</v>
       </c>
@@ -6973,14 +7045,14 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="K6" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>102241.44</v>
       </c>
       <c r="L6" s="36">
         <v>90.965608465608454</v>
       </c>
       <c r="M6" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96277.999999999985</v>
       </c>
       <c r="N6" s="154">
@@ -6989,20 +7061,48 @@
       <c r="O6" s="22">
         <v>43863</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="154"/>
+      <c r="P6" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="R6" s="24">
+        <f t="shared" si="10"/>
+        <v>76282.559999999998</v>
+      </c>
+      <c r="S6" s="36">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T6" s="24">
+        <f t="shared" si="11"/>
+        <v>74088.000000000015</v>
+      </c>
+      <c r="U6" s="154">
+        <v>383.37</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="B7" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C7" s="177">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="6"/>
+        <v>93899.520000000004</v>
+      </c>
+      <c r="E7" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G7" s="154">
+        <v>332.29</v>
+      </c>
       <c r="I7" s="23">
         <v>105840</v>
       </c>
@@ -7010,40 +7110,71 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="K7" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>103829.04</v>
       </c>
       <c r="L7" s="36">
         <v>97.962962962962962</v>
       </c>
       <c r="M7" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>103684</v>
       </c>
       <c r="N7" s="154">
         <v>185.7</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="154"/>
+      <c r="P7" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="R7" s="24">
+        <f t="shared" si="10"/>
+        <v>76596.479999999996</v>
+      </c>
+      <c r="S7" s="36">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T7" s="24">
+        <f t="shared" si="11"/>
+        <v>74088.000000000015</v>
+      </c>
+      <c r="U7" s="154">
+        <v>383.2</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
+      <c r="A8" s="22">
+        <v>43864</v>
+      </c>
+      <c r="B8" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C8" s="177">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="6"/>
+        <v>93709.440000000002</v>
+      </c>
+      <c r="E8" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G8" s="154">
+        <v>332.58</v>
+      </c>
       <c r="H8" s="22">
         <v>43864</v>
       </c>
-      <c r="I8" s="185" t="s">
+      <c r="I8" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="185"/>
+      <c r="J8" s="209"/>
       <c r="K8" s="169">
         <f>SUM(K4:K7)</f>
         <v>410641.2</v>
@@ -7057,131 +7188,285 @@
         <v>399924</v>
       </c>
       <c r="N8" s="169">
-        <f>AVERAGE(N6:N7)</f>
-        <v>185.565</v>
+        <f>AVERAGE(N4:N7)</f>
+        <v>185.5625</v>
       </c>
       <c r="O8" s="22">
         <v>43864</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="154"/>
+      <c r="P8" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="10"/>
+        <v>76596.479999999996</v>
+      </c>
+      <c r="S8" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="11"/>
+        <v>72324</v>
+      </c>
+      <c r="U8" s="154">
+        <v>383.33</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>43863</v>
-      </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="154"/>
+      <c r="B9" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C9" s="177">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" si="6"/>
+        <v>94184.639999999999</v>
+      </c>
+      <c r="E9" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G9" s="154">
+        <v>331.91</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="9"/>
       <c r="L9" s="36"/>
       <c r="M9" s="157"/>
       <c r="N9" s="154"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="164"/>
+      <c r="P9" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="R9" s="24">
+        <f t="shared" si="10"/>
+        <v>75968.639999999999</v>
+      </c>
+      <c r="S9" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="11"/>
+        <v>72324</v>
+      </c>
+      <c r="U9" s="154">
+        <v>382.81</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="99"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="22">
+      <c r="A10" s="22">
         <v>43865</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="154"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="169"/>
+      <c r="B10" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C10" s="177">
+        <v>0.99</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" si="6"/>
+        <v>94089.600000000006</v>
+      </c>
+      <c r="E10" s="121">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="7"/>
+        <v>90720</v>
+      </c>
+      <c r="G10" s="154">
+        <v>332.68</v>
+      </c>
+      <c r="I10" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="199"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="22">
+        <v>43865</v>
+      </c>
+      <c r="P10" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R10" s="24">
+        <f t="shared" si="10"/>
+        <v>76518</v>
+      </c>
+      <c r="S10" s="36">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="T10" s="24">
+        <f t="shared" si="11"/>
+        <v>74088.000000000015</v>
+      </c>
+      <c r="U10" s="154">
+        <v>382.39</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>43864</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="154"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="163"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C11" s="177">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="6"/>
+        <v>93519.360000000001</v>
+      </c>
+      <c r="E11" s="121">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="7"/>
+        <v>90720</v>
+      </c>
+      <c r="G11" s="154">
+        <v>332.31</v>
+      </c>
+      <c r="H11" s="22">
+        <v>43865</v>
+      </c>
+      <c r="I11" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J11" s="136">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" ref="K11" si="12">I11*J11</f>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="L11" s="137">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M11" s="157">
+        <f t="shared" ref="M11" si="13">I11*L11/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N11" s="161">
+        <v>192.54</v>
+      </c>
+      <c r="P11" s="99">
+        <v>78480</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="10"/>
+        <v>76204.08</v>
+      </c>
+      <c r="S11" s="36">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="11"/>
+        <v>72324</v>
+      </c>
+      <c r="U11" s="154">
+        <v>382.54</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="27">
+      <c r="A12" s="98">
         <v>43866</v>
       </c>
+      <c r="B12" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C12" s="177">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="6"/>
+        <v>93614.399999999994</v>
+      </c>
+      <c r="E12" s="121">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="7"/>
+        <v>90720</v>
+      </c>
+      <c r="G12" s="154">
+        <v>332.9</v>
+      </c>
+      <c r="H12" s="25"/>
       <c r="I12" s="9"/>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
       <c r="L12" s="36"/>
       <c r="M12" s="157"/>
       <c r="N12" s="154"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="209"/>
+      <c r="P12" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="209"/>
+      <c r="R12" s="173">
+        <f>SUM(R4:R11)</f>
+        <v>611516.15999999992</v>
+      </c>
+      <c r="S12" s="151">
+        <f>T12/R12</f>
+        <v>0.95769832149652445</v>
+      </c>
+      <c r="T12" s="173">
+        <f>SUM(T4:T11)</f>
+        <v>585648</v>
+      </c>
+      <c r="U12" s="173">
+        <f>AVERAGE(U4:U11)</f>
+        <v>382.93374999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>43865</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="154"/>
+      <c r="B13" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C13" s="177">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D13" s="24">
+        <f t="shared" si="6"/>
+        <v>93424.319999999992</v>
+      </c>
+      <c r="E13" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G13" s="154">
+        <v>332.67</v>
+      </c>
+      <c r="H13" s="27">
+        <v>43866</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
       <c r="K13" s="9"/>
       <c r="L13" s="36"/>
       <c r="M13" s="157"/>
       <c r="N13" s="154"/>
-      <c r="O13" s="22">
-        <v>43865</v>
-      </c>
       <c r="P13" s="42"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="24"/>
@@ -7189,16 +7474,29 @@
       <c r="T13" s="158"/>
       <c r="U13" s="154"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="22">
+    <row r="14" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>43867</v>
+      </c>
+      <c r="B14" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C14" s="177">
+        <v>0.995</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="6"/>
+        <v>94564.800000000003</v>
+      </c>
+      <c r="E14" s="121">
+        <v>97.840909090909093</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="7"/>
+        <v>92988</v>
+      </c>
+      <c r="G14" s="154">
+        <v>331.46</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="1"/>
@@ -7206,23 +7504,39 @@
       <c r="L14" s="36"/>
       <c r="M14" s="157"/>
       <c r="N14" s="154"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="154"/>
+      <c r="P14" s="204" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="216"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
-        <v>43866</v>
-      </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="154"/>
+      <c r="B15" s="99">
+        <v>95040</v>
+      </c>
+      <c r="C15" s="110">
+        <v>0.98</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="6"/>
+        <v>93139.199999999997</v>
+      </c>
+      <c r="E15" s="111">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="7"/>
+        <v>90720</v>
+      </c>
+      <c r="G15" s="154">
+        <v>332.64</v>
+      </c>
+      <c r="H15" s="22">
+        <v>43867</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="1"/>
       <c r="K15" s="9"/>
@@ -7232,22 +7546,47 @@
       <c r="O15" s="27">
         <v>43866</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="154"/>
+      <c r="P15" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" ref="R15" si="14">P15*Q15</f>
+        <v>67964.400000000009</v>
+      </c>
+      <c r="S15" s="36">
+        <v>44.722222222222221</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" ref="T15" si="15">P15*S15/100</f>
+        <v>33810</v>
+      </c>
+      <c r="U15" s="154">
+        <v>465.84</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="22">
-        <v>43868</v>
+      <c r="B16" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="209"/>
+      <c r="D16" s="173">
+        <f>SUM(D4:D15)</f>
+        <v>1125178.56</v>
+      </c>
+      <c r="E16" s="151">
+        <f>F16/D16</f>
+        <v>0.97962051463191757</v>
+      </c>
+      <c r="F16" s="173">
+        <f>SUM(F4:F15)</f>
+        <v>1102248</v>
+      </c>
+      <c r="G16" s="173">
+        <f>AVERAGE(G4:G15)</f>
+        <v>332.1825</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="1"/>
@@ -7255,23 +7594,37 @@
       <c r="L16" s="36"/>
       <c r="M16" s="157"/>
       <c r="N16" s="154"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="154"/>
+      <c r="P16" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" ref="R16:R24" si="16">P16*Q16</f>
+        <v>73332</v>
+      </c>
+      <c r="S16" s="36">
+        <v>83.611111111111114</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" ref="T16:T24" si="17">P16*S16/100</f>
+        <v>63210</v>
+      </c>
+      <c r="U16" s="154">
+        <v>466.89</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>43867</v>
-      </c>
       <c r="B17" s="99"/>
       <c r="C17" s="152"/>
       <c r="D17" s="24"/>
       <c r="E17" s="97"/>
       <c r="F17" s="24"/>
       <c r="G17" s="154"/>
+      <c r="H17" s="22">
+        <v>43868</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="9"/>
@@ -7281,46 +7634,90 @@
       <c r="O17" s="22">
         <v>43867</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="154"/>
+      <c r="P17" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="R17" s="24">
+        <f t="shared" si="16"/>
+        <v>71971.199999999997</v>
+      </c>
+      <c r="S17" s="36">
+        <v>87.5</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="17"/>
+        <v>66150</v>
+      </c>
+      <c r="U17" s="154">
+        <v>464.77</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="22">
-        <v>43869</v>
-      </c>
+      <c r="B18" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1"/>
       <c r="K18" s="9"/>
       <c r="L18" s="36"/>
       <c r="M18" s="157"/>
       <c r="N18" s="154"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="154"/>
+      <c r="P18" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="R18" s="24">
+        <f t="shared" si="16"/>
+        <v>73483.199999999997</v>
+      </c>
+      <c r="S18" s="36">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="17"/>
+        <v>70560</v>
+      </c>
+      <c r="U18" s="154">
+        <v>463.39</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>43868</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="42">
+        <v>84960</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" ref="D19" si="18">B19*C19</f>
+        <v>80287.199999999997</v>
+      </c>
+      <c r="E19" s="36">
+        <v>72.902542372881356</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" ref="F19" si="19">B19*E19/100</f>
+        <v>61938</v>
+      </c>
+      <c r="G19" s="154">
+        <v>386.27</v>
+      </c>
+      <c r="H19" s="22">
+        <v>43869</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
       <c r="K19" s="9"/>
@@ -7330,22 +7727,47 @@
       <c r="O19" s="22">
         <v>43868</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="154"/>
+      <c r="P19" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R19" s="24">
+        <f t="shared" si="16"/>
+        <v>74314.8</v>
+      </c>
+      <c r="S19" s="36">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="17"/>
+        <v>70560</v>
+      </c>
+      <c r="U19" s="154">
+        <v>462.21</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="99"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="22">
-        <v>43870</v>
+      <c r="B20" s="42">
+        <v>86400</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" ref="D20:D28" si="20">B20*C20</f>
+        <v>83980.800000000003</v>
+      </c>
+      <c r="E20" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" ref="F20:F28" si="21">B20*E20/100</f>
+        <v>79920</v>
+      </c>
+      <c r="G20" s="154">
+        <v>386.16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="1"/>
@@ -7353,23 +7775,54 @@
       <c r="L20" s="36"/>
       <c r="M20" s="157"/>
       <c r="N20" s="154"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="154"/>
+      <c r="P20" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="16"/>
+        <v>74239.199999999997</v>
+      </c>
+      <c r="S20" s="36">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="17"/>
+        <v>70560</v>
+      </c>
+      <c r="U20" s="154">
+        <v>463.33</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>43869</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="154"/>
+      <c r="B21" s="42">
+        <v>86400</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D21" s="24">
+        <f t="shared" si="20"/>
+        <v>84499.199999999997</v>
+      </c>
+      <c r="E21" s="36">
+        <v>94.8125</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="21"/>
+        <v>81918</v>
+      </c>
+      <c r="G21" s="154">
+        <v>385.2</v>
+      </c>
+      <c r="H21" s="22">
+        <v>43870</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="1"/>
       <c r="K21" s="9"/>
@@ -7379,22 +7832,47 @@
       <c r="O21" s="22">
         <v>43869</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="154"/>
+      <c r="P21" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="R21" s="24">
+        <f t="shared" si="16"/>
+        <v>74541.600000000006</v>
+      </c>
+      <c r="S21" s="36">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="17"/>
+        <v>70560</v>
+      </c>
+      <c r="U21" s="154">
+        <v>463.22</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="99"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="22">
-        <v>43871</v>
+      <c r="B22" s="42">
+        <v>86400</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="20"/>
+        <v>84412.800000000003</v>
+      </c>
+      <c r="E22" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="21"/>
+        <v>79920</v>
+      </c>
+      <c r="G22" s="154">
+        <v>386.04</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="1"/>
@@ -7402,23 +7880,54 @@
       <c r="L22" s="36"/>
       <c r="M22" s="157"/>
       <c r="N22" s="154"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="154"/>
+      <c r="P22" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="R22" s="24">
+        <f t="shared" si="16"/>
+        <v>72122.399999999994</v>
+      </c>
+      <c r="S22" s="36">
+        <v>44.722222222222221</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="17"/>
+        <v>33810</v>
+      </c>
+      <c r="U22" s="154">
+        <v>462.57</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>43870</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="154"/>
+      <c r="B23" s="42">
+        <v>87120</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="20"/>
+        <v>84157.92</v>
+      </c>
+      <c r="E23" s="36">
+        <v>91.735537190082653</v>
+      </c>
+      <c r="F23" s="24">
+        <f t="shared" si="21"/>
+        <v>79920.000000000015</v>
+      </c>
+      <c r="G23" s="154">
+        <v>387.41</v>
+      </c>
+      <c r="H23" s="22">
+        <v>43871</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
@@ -7428,22 +7937,47 @@
       <c r="O23" s="22">
         <v>43870</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="154"/>
+      <c r="P23" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="R23" s="24">
+        <f t="shared" si="16"/>
+        <v>74088</v>
+      </c>
+      <c r="S23" s="36">
+        <v>97.222222222222214</v>
+      </c>
+      <c r="T23" s="24">
+        <f t="shared" si="17"/>
+        <v>73499.999999999985</v>
+      </c>
+      <c r="U23" s="154">
+        <v>463.47</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="22">
-        <v>43872</v>
+      <c r="B24" s="42">
+        <v>87840</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D24" s="24">
+        <f t="shared" si="20"/>
+        <v>85468.319999999992</v>
+      </c>
+      <c r="E24" s="36">
+        <v>93.258196721311464</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" si="21"/>
+        <v>81917.999999999985</v>
+      </c>
+      <c r="G24" s="154">
+        <v>386.52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
@@ -7451,45 +7985,101 @@
       <c r="L24" s="36"/>
       <c r="M24" s="157"/>
       <c r="N24" s="154"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="154"/>
+      <c r="P24" s="42">
+        <v>75600</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="R24" s="24">
+        <f t="shared" si="16"/>
+        <v>74844</v>
+      </c>
+      <c r="S24" s="36">
+        <v>95.277777777777771</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="17"/>
+        <v>72029.999999999985</v>
+      </c>
+      <c r="U24" s="154">
+        <v>462.69</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>43871</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="154"/>
+      <c r="B25" s="42">
+        <v>88560</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" si="20"/>
+        <v>85903.2</v>
+      </c>
+      <c r="E25" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="21"/>
+        <v>81918</v>
+      </c>
+      <c r="G25" s="154">
+        <v>385.12</v>
+      </c>
+      <c r="H25" s="22">
+        <v>43872</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
       <c r="L25" s="36"/>
       <c r="M25" s="157"/>
       <c r="N25" s="154"/>
-      <c r="P25" s="207"/>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="169"/>
+      <c r="P25" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="173">
+        <f>SUM(R15:R24)</f>
+        <v>730900.8</v>
+      </c>
+      <c r="S25" s="151">
+        <f>T25/R25</f>
+        <v>0.85476715855284324</v>
+      </c>
+      <c r="T25" s="173">
+        <f>SUM(T15:T24)</f>
+        <v>624750</v>
+      </c>
+      <c r="U25" s="173">
+        <f>AVERAGE(U15:U24)</f>
+        <v>463.83799999999991</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="22">
-        <v>43873</v>
+      <c r="B26" s="42">
+        <v>88560</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="20"/>
+        <v>86434.559999999998</v>
+      </c>
+      <c r="E26" s="36">
+        <v>94.756097560975604</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="21"/>
+        <v>83916</v>
+      </c>
+      <c r="G26" s="154">
+        <v>387.31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="1"/>
@@ -7508,34 +8098,64 @@
       <c r="A27" s="22">
         <v>43872</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="154"/>
+      <c r="B27" s="42">
+        <v>88560</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="20"/>
+        <v>86168.88</v>
+      </c>
+      <c r="E27" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="21"/>
+        <v>81918</v>
+      </c>
+      <c r="G27" s="154">
+        <v>385.64</v>
+      </c>
+      <c r="H27" s="22">
+        <v>43873</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="1"/>
       <c r="K27" s="9"/>
       <c r="L27" s="36"/>
       <c r="M27" s="157"/>
       <c r="N27" s="154"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="212"/>
+      <c r="P27" s="204" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="206"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="99"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="22">
-        <v>43874</v>
+      <c r="B28" s="42">
+        <v>88560</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="20"/>
+        <v>86523.12</v>
+      </c>
+      <c r="E28" s="36">
+        <v>94.756097560975604</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="21"/>
+        <v>83916</v>
+      </c>
+      <c r="G28" s="154">
+        <v>385.7</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="1"/>
@@ -7546,23 +8166,52 @@
       <c r="O28" s="22">
         <v>43871</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="158"/>
+      <c r="P28" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="R28" s="24">
+        <f t="shared" ref="R28" si="22">P28*Q28</f>
+        <v>70183.44</v>
+      </c>
+      <c r="S28" s="36">
+        <v>75.700934579439249</v>
+      </c>
+      <c r="T28" s="24">
+        <f t="shared" ref="T28" si="23">P28*S28/100</f>
+        <v>58320</v>
+      </c>
       <c r="U28" s="154"/>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>43873</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="209"/>
+      <c r="D29" s="194">
+        <f>SUM(D19:D28)</f>
+        <v>847836</v>
+      </c>
+      <c r="E29" s="151">
+        <f>F29/D29</f>
+        <v>0.94027854443548042</v>
+      </c>
+      <c r="F29" s="194">
+        <f>SUM(F19:F28)</f>
+        <v>797202</v>
+      </c>
+      <c r="G29" s="194">
+        <f>AVERAGE(G19:G28)</f>
+        <v>386.137</v>
+      </c>
+      <c r="H29" s="22">
+        <v>43874</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="1"/>
       <c r="K29" s="9"/>
@@ -7583,9 +8232,6 @@
       <c r="E30" s="97"/>
       <c r="F30" s="24"/>
       <c r="G30" s="154"/>
-      <c r="H30" s="22">
-        <v>43875</v>
-      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="1"/>
       <c r="K30" s="9"/>
@@ -7603,12 +8249,15 @@
       <c r="U30" s="154"/>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="169"/>
       <c r="E31" s="151"/>
       <c r="F31" s="169"/>
       <c r="G31" s="169"/>
+      <c r="H31" s="22">
+        <v>43875</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="1"/>
       <c r="K31" s="9"/>
@@ -7629,9 +8278,6 @@
       <c r="E32" s="97"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="22">
-        <v>43876</v>
-      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="1"/>
       <c r="K32" s="9"/>
@@ -7649,12 +8295,15 @@
       <c r="U32" s="154"/>
     </row>
     <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="22">
+        <v>43876</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="1"/>
       <c r="K33" s="9"/>
@@ -7678,9 +8327,6 @@
       <c r="E34" s="97"/>
       <c r="F34" s="24"/>
       <c r="G34" s="154"/>
-      <c r="H34" s="22">
-        <v>43877</v>
-      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="1"/>
       <c r="K34" s="9"/>
@@ -7704,6 +8350,9 @@
       <c r="E35" s="97"/>
       <c r="F35" s="24"/>
       <c r="G35" s="154"/>
+      <c r="H35" s="22">
+        <v>43877</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="1"/>
       <c r="K35" s="9"/>
@@ -7727,17 +8376,14 @@
       <c r="E36" s="97"/>
       <c r="F36" s="24"/>
       <c r="G36" s="154"/>
-      <c r="H36" s="22">
-        <v>43878</v>
-      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="1"/>
       <c r="K36" s="9"/>
       <c r="L36" s="36"/>
       <c r="M36" s="157"/>
       <c r="N36" s="154"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="208"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="186"/>
       <c r="R36" s="38"/>
       <c r="S36" s="90"/>
       <c r="T36" s="168"/>
@@ -7750,6 +8396,9 @@
       <c r="E37" s="97"/>
       <c r="F37" s="24"/>
       <c r="G37" s="154"/>
+      <c r="H37" s="22">
+        <v>43878</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="1"/>
       <c r="K37" s="9"/>
@@ -7773,21 +8422,18 @@
       <c r="E38" s="97"/>
       <c r="F38" s="24"/>
       <c r="G38" s="154"/>
-      <c r="H38" s="22">
-        <v>43879</v>
-      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="1"/>
       <c r="K38" s="9"/>
       <c r="L38" s="36"/>
       <c r="M38" s="157"/>
       <c r="N38" s="154"/>
-      <c r="P38" s="210"/>
-      <c r="Q38" s="211"/>
-      <c r="R38" s="211"/>
-      <c r="S38" s="211"/>
-      <c r="T38" s="211"/>
-      <c r="U38" s="212"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="189"/>
+      <c r="U38" s="190"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="99"/>
@@ -7796,6 +8442,9 @@
       <c r="E39" s="97"/>
       <c r="F39" s="24"/>
       <c r="G39" s="154"/>
+      <c r="H39" s="22">
+        <v>43879</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="1"/>
       <c r="K39" s="9"/>
@@ -7813,15 +8462,12 @@
       <c r="U39" s="154"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="206"/>
-      <c r="C40" s="206"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="169"/>
       <c r="E40" s="151"/>
       <c r="F40" s="169"/>
       <c r="G40" s="169"/>
-      <c r="H40" s="22">
-        <v>43880</v>
-      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="1"/>
       <c r="K40" s="9"/>
@@ -7842,6 +8488,9 @@
       <c r="E41" s="97"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
+      <c r="H41" s="22">
+        <v>43880</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="1"/>
       <c r="K41" s="9"/>
@@ -7859,15 +8508,12 @@
       <c r="U41" s="154"/>
     </row>
     <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="22">
-        <v>43881</v>
-      </c>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
       <c r="I42" s="9"/>
       <c r="J42" s="1"/>
       <c r="K42" s="9"/>
@@ -7891,6 +8537,9 @@
       <c r="E43" s="97"/>
       <c r="F43" s="24"/>
       <c r="G43" s="154"/>
+      <c r="H43" s="22">
+        <v>43881</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="1"/>
       <c r="K43" s="9"/>
@@ -7914,9 +8563,6 @@
       <c r="E44" s="97"/>
       <c r="F44" s="24"/>
       <c r="G44" s="154"/>
-      <c r="H44" s="22">
-        <v>43882</v>
-      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="1"/>
       <c r="K44" s="9"/>
@@ -7940,6 +8586,9 @@
       <c r="E45" s="97"/>
       <c r="F45" s="24"/>
       <c r="G45" s="154"/>
+      <c r="H45" s="22">
+        <v>43882</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="1"/>
       <c r="K45" s="9"/>
@@ -7963,8 +8612,8 @@
       <c r="E46" s="97"/>
       <c r="F46" s="24"/>
       <c r="G46" s="154"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="186"/>
       <c r="K46" s="38"/>
       <c r="L46" s="90"/>
       <c r="M46" s="168"/>
@@ -8009,12 +8658,12 @@
       <c r="E48" s="97"/>
       <c r="F48" s="24"/>
       <c r="G48" s="154"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
-      <c r="K48" s="201"/>
-      <c r="L48" s="201"/>
-      <c r="M48" s="201"/>
-      <c r="N48" s="209"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="179"/>
+      <c r="N48" s="187"/>
       <c r="P48" s="42"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="24"/>
@@ -8090,8 +8739,8 @@
       <c r="L51" s="36"/>
       <c r="M51" s="158"/>
       <c r="N51" s="154"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="208"/>
+      <c r="P51" s="185"/>
+      <c r="Q51" s="186"/>
       <c r="R51" s="38"/>
       <c r="S51" s="90"/>
       <c r="T51" s="168"/>
@@ -8118,8 +8767,8 @@
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="206"/>
-      <c r="C53" s="206"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="169"/>
       <c r="E53" s="151"/>
       <c r="F53" s="169"/>
@@ -8133,12 +8782,12 @@
       <c r="L53" s="36"/>
       <c r="M53" s="158"/>
       <c r="N53" s="154"/>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="214"/>
-      <c r="R53" s="214"/>
-      <c r="S53" s="214"/>
-      <c r="T53" s="214"/>
-      <c r="U53" s="215"/>
+      <c r="P53" s="191"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="192"/>
+      <c r="S53" s="192"/>
+      <c r="T53" s="192"/>
+      <c r="U53" s="193"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
@@ -8164,12 +8813,12 @@
       <c r="U54" s="154"/>
     </row>
     <row r="55" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="182"/>
       <c r="H55" s="22">
         <v>43886</v>
       </c>
@@ -8317,8 +8966,8 @@
       <c r="E61" s="36"/>
       <c r="F61" s="24"/>
       <c r="G61" s="154"/>
-      <c r="I61" s="207"/>
-      <c r="J61" s="208"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="186"/>
       <c r="K61" s="38"/>
       <c r="L61" s="90"/>
       <c r="M61" s="168"/>
@@ -8363,12 +9012,12 @@
       <c r="E63" s="36"/>
       <c r="F63" s="24"/>
       <c r="G63" s="154"/>
-      <c r="I63" s="200"/>
-      <c r="J63" s="201"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="209"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="179"/>
+      <c r="M63" s="179"/>
+      <c r="N63" s="187"/>
       <c r="P63" s="99"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="24"/>
@@ -8491,8 +9140,8 @@
       <c r="L68" s="36"/>
       <c r="M68" s="24"/>
       <c r="N68" s="154"/>
-      <c r="P68" s="207"/>
-      <c r="Q68" s="208"/>
+      <c r="P68" s="185"/>
+      <c r="Q68" s="186"/>
       <c r="R68" s="38"/>
       <c r="S68" s="90"/>
       <c r="T68" s="168"/>
@@ -8535,12 +9184,12 @@
       <c r="L70" s="87"/>
       <c r="M70" s="24"/>
       <c r="N70" s="154"/>
-      <c r="P70" s="213"/>
-      <c r="Q70" s="214"/>
-      <c r="R70" s="214"/>
-      <c r="S70" s="214"/>
-      <c r="T70" s="214"/>
-      <c r="U70" s="215"/>
+      <c r="P70" s="191"/>
+      <c r="Q70" s="192"/>
+      <c r="R70" s="192"/>
+      <c r="S70" s="192"/>
+      <c r="T70" s="192"/>
+      <c r="U70" s="193"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="99"/>
@@ -8552,7 +9201,7 @@
       <c r="I71" s="23"/>
       <c r="J71" s="123"/>
       <c r="K71" s="24"/>
-      <c r="L71" s="197"/>
+      <c r="L71" s="175"/>
       <c r="M71" s="24"/>
       <c r="N71" s="164"/>
       <c r="O71" s="22">
@@ -8566,14 +9215,14 @@
       <c r="U71" s="154"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="206"/>
-      <c r="C72" s="206"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="184"/>
       <c r="D72" s="169"/>
       <c r="E72" s="151"/>
       <c r="F72" s="169"/>
       <c r="G72" s="169"/>
-      <c r="I72" s="207"/>
-      <c r="J72" s="208"/>
+      <c r="I72" s="185"/>
+      <c r="J72" s="186"/>
       <c r="K72" s="38"/>
       <c r="L72" s="90"/>
       <c r="M72" s="168"/>
@@ -8609,12 +9258,12 @@
       <c r="U73" s="154"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="204"/>
-      <c r="E74" s="204"/>
-      <c r="F74" s="204"/>
-      <c r="G74" s="204"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="182"/>
+      <c r="D74" s="182"/>
+      <c r="E74" s="182"/>
+      <c r="F74" s="182"/>
+      <c r="G74" s="182"/>
       <c r="I74" s="171"/>
       <c r="J74" s="5"/>
       <c r="K74" s="171"/>
@@ -8633,9 +9282,9 @@
         <v>43890</v>
       </c>
       <c r="B75" s="99"/>
-      <c r="C75" s="198"/>
+      <c r="C75" s="176"/>
       <c r="D75" s="24"/>
-      <c r="E75" s="196"/>
+      <c r="E75" s="174"/>
       <c r="F75" s="24"/>
       <c r="G75" s="161"/>
       <c r="I75" s="171"/>
@@ -8655,7 +9304,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B76" s="99"/>
-      <c r="C76" s="199"/>
+      <c r="C76" s="177"/>
       <c r="D76" s="24"/>
       <c r="E76" s="36"/>
       <c r="F76" s="24"/>
@@ -8675,7 +9324,7 @@
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="99"/>
-      <c r="C77" s="199"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="24"/>
       <c r="E77" s="36"/>
       <c r="F77" s="24"/>
@@ -8695,7 +9344,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B78" s="99"/>
-      <c r="C78" s="199"/>
+      <c r="C78" s="177"/>
       <c r="D78" s="24"/>
       <c r="E78" s="36"/>
       <c r="F78" s="24"/>
@@ -8715,7 +9364,7 @@
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="99"/>
-      <c r="C79" s="199"/>
+      <c r="C79" s="177"/>
       <c r="D79" s="24"/>
       <c r="E79" s="87"/>
       <c r="F79" s="24"/>
@@ -8737,7 +9386,7 @@
       <c r="B80" s="99"/>
       <c r="C80" s="110"/>
       <c r="D80" s="24"/>
-      <c r="E80" s="197"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="24"/>
       <c r="G80" s="164"/>
       <c r="H80" s="22"/>
@@ -8747,15 +9396,15 @@
       <c r="M80" s="171"/>
       <c r="N80" s="171"/>
       <c r="P80" s="99"/>
-      <c r="Q80" s="205"/>
+      <c r="Q80" s="183"/>
       <c r="R80" s="24"/>
-      <c r="S80" s="197"/>
+      <c r="S80" s="175"/>
       <c r="T80" s="24"/>
       <c r="U80" s="164"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="206"/>
-      <c r="C81" s="206"/>
+      <c r="B81" s="184"/>
+      <c r="C81" s="184"/>
       <c r="D81" s="169"/>
       <c r="E81" s="151"/>
       <c r="F81" s="169"/>
@@ -8765,8 +9414,8 @@
       <c r="L81" s="171"/>
       <c r="M81" s="171"/>
       <c r="N81" s="171"/>
-      <c r="P81" s="207"/>
-      <c r="Q81" s="208"/>
+      <c r="P81" s="185"/>
+      <c r="Q81" s="186"/>
       <c r="R81" s="38"/>
       <c r="S81" s="90"/>
       <c r="T81" s="168"/>
@@ -8791,15 +9440,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="167"/>
       <c r="F83" s="167"/>
       <c r="G83" s="167"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
-      <c r="K83" s="191"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
+      <c r="K83" s="215"/>
       <c r="L83" s="167"/>
       <c r="M83" s="167"/>
       <c r="N83" s="167"/>
@@ -8919,24 +9568,25 @@
       <c r="R89" s="171"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="171"/>
       <c r="E90" s="171"/>
       <c r="F90" s="171"/>
       <c r="G90" s="171"/>
-      <c r="I90" s="191"/>
-      <c r="J90" s="191"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="215"/>
       <c r="K90" s="171"/>
       <c r="L90" s="171"/>
       <c r="M90" s="171"/>
       <c r="N90" s="171"/>
-      <c r="P90" s="191"/>
-      <c r="Q90" s="191"/>
+      <c r="P90" s="215"/>
+      <c r="Q90" s="215"/>
       <c r="R90" s="171"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="I83:K83"/>
     <mergeCell ref="B90:C90"/>
@@ -8949,6 +9599,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P14:U14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8961,8 +9618,8 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39:R40"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8985,27 +9642,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="H1" s="188" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="N1" s="188" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -9056,29 +9713,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -9660,10 +10317,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="218"/>
       <c r="D14" s="26">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -9760,13 +10417,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
       <c r="G16" s="22">
         <v>43715</v>
       </c>
@@ -10017,10 +10674,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="192" t="s">
+      <c r="N20" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="193"/>
+      <c r="O20" s="218"/>
       <c r="P20" s="26">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -10115,13 +10772,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="45"/>
-      <c r="N22" s="179" t="s">
+      <c r="N22" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
-      <c r="R22" s="180"/>
+      <c r="O22" s="205"/>
+      <c r="P22" s="205"/>
+      <c r="Q22" s="205"/>
+      <c r="R22" s="205"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -10200,10 +10857,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="192" t="s">
+      <c r="H24" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="193"/>
+      <c r="I24" s="218"/>
       <c r="J24" s="26">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -10300,13 +10957,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="177" t="s">
+      <c r="H26" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
       <c r="N26" s="42">
         <v>84240</v>
       </c>
@@ -10441,10 +11098,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="193"/>
+      <c r="C29" s="218"/>
       <c r="D29" s="26">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -10541,13 +11198,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
       <c r="G31" s="22">
         <v>43721</v>
       </c>
@@ -10913,10 +11570,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="185" t="s">
+      <c r="N37" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="185"/>
+      <c r="O37" s="209"/>
       <c r="P37" s="26">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -10990,10 +11647,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="183" t="s">
+      <c r="H39" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="184"/>
+      <c r="I39" s="208"/>
       <c r="J39" s="26">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -11007,13 +11664,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="45"/>
-      <c r="N39" s="179" t="s">
+      <c r="N39" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
@@ -11081,13 +11738,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="45"/>
-      <c r="H41" s="177" t="s">
+      <c r="H41" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="178"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="202"/>
+      <c r="L41" s="202"/>
       <c r="N41" s="42">
         <v>64080</v>
       </c>
@@ -11222,10 +11879,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="193"/>
+      <c r="C44" s="218"/>
       <c r="D44" s="49">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -11322,13 +11979,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
       <c r="G46" s="22">
         <v>43727</v>
       </c>
@@ -11464,10 +12121,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="185" t="s">
+      <c r="N48" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="185"/>
+      <c r="O48" s="209"/>
       <c r="P48" s="47">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -11562,13 +12219,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="45"/>
-      <c r="N50" s="179" t="s">
+      <c r="N50" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="180"/>
-      <c r="P50" s="180"/>
-      <c r="Q50" s="180"/>
-      <c r="R50" s="180"/>
+      <c r="O50" s="205"/>
+      <c r="P50" s="205"/>
+      <c r="Q50" s="205"/>
+      <c r="R50" s="205"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
@@ -11953,10 +12610,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="194" t="s">
+      <c r="N57" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="194"/>
+      <c r="O57" s="219"/>
       <c r="P57" s="49">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -12015,10 +12672,10 @@
       <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="193"/>
+      <c r="C59" s="218"/>
       <c r="D59" s="47">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -12049,13 +12706,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="45"/>
-      <c r="N59" s="179" t="s">
+      <c r="N59" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="180"/>
-      <c r="P59" s="180"/>
-      <c r="Q59" s="180"/>
-      <c r="R59" s="180"/>
+      <c r="O59" s="205"/>
+      <c r="P59" s="205"/>
+      <c r="Q59" s="205"/>
+      <c r="R59" s="205"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
@@ -12106,13 +12763,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="179" t="s">
+      <c r="B61" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
       <c r="H61" s="23">
         <v>100800</v>
       </c>
@@ -12629,10 +13286,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="192" t="s">
+      <c r="H70" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="193"/>
+      <c r="I70" s="218"/>
       <c r="J70" s="49">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -12884,10 +13541,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="192" t="s">
+      <c r="B76" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="193"/>
+      <c r="C76" s="218"/>
       <c r="D76" s="49">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -12905,10 +13562,10 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
-      <c r="N76" s="194" t="s">
+      <c r="N76" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="194"/>
+      <c r="O76" s="219"/>
       <c r="P76" s="49">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -13026,19 +13683,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="H83" s="191"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="191"/>
-      <c r="O83" s="191"/>
-      <c r="P83" s="191"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="215"/>
+      <c r="P83" s="215"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -13134,18 +13791,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="191"/>
-      <c r="I90" s="191"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="191"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -13200,8 +13857,8 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41:R42"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52:R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13226,27 +13883,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="H1" s="188" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="N1" s="188" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -13297,29 +13954,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -13785,10 +14442,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="184"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="65">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -13886,13 +14543,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="22">
         <v>43744</v>
       </c>
@@ -14488,10 +15145,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="194" t="s">
+      <c r="N24" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="194"/>
+      <c r="O24" s="219"/>
       <c r="P24" s="66">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -14588,13 +15245,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="179" t="s">
+      <c r="N26" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="180"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="180"/>
-      <c r="R26" s="180"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -15018,10 +15675,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="183" t="s">
+      <c r="H34" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="184"/>
+      <c r="I34" s="208"/>
       <c r="J34" s="67">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -15118,13 +15775,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="174" t="s">
+      <c r="H36" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="199"/>
       <c r="N36" s="42">
         <v>104400</v>
       </c>
@@ -15299,10 +15956,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="194" t="s">
+      <c r="N39" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="194"/>
+      <c r="O39" s="219"/>
       <c r="P39" s="68">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -15358,10 +16015,10 @@
       <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="184"/>
+      <c r="C41" s="208"/>
       <c r="D41" s="67">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -15395,13 +16052,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="45"/>
-      <c r="N41" s="179" t="s">
+      <c r="N41" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="O41" s="205"/>
+      <c r="P41" s="205"/>
+      <c r="Q41" s="205"/>
+      <c r="R41" s="205"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
@@ -15449,13 +16106,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="181"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="206"/>
       <c r="G43" s="22">
         <v>43757</v>
       </c>
@@ -15877,10 +16534,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="194" t="s">
+      <c r="N50" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="194"/>
+      <c r="O50" s="219"/>
       <c r="P50" s="77">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -15977,13 +16634,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="45"/>
-      <c r="N52" s="179" t="s">
+      <c r="N52" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
+      <c r="O52" s="205"/>
+      <c r="P52" s="205"/>
+      <c r="Q52" s="205"/>
+      <c r="R52" s="205"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="42">
@@ -16578,10 +17235,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="183" t="s">
+      <c r="H63" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="184"/>
+      <c r="I63" s="208"/>
       <c r="J63" s="80">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -16678,13 +17335,13 @@
         <v>71298.000000000015</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="174" t="s">
+      <c r="H65" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="175"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="175"/>
-      <c r="L65" s="175"/>
+      <c r="I65" s="199"/>
+      <c r="J65" s="199"/>
+      <c r="K65" s="199"/>
+      <c r="L65" s="199"/>
       <c r="M65" s="22">
         <v>43765</v>
       </c>
@@ -16800,10 +17457,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="194" t="s">
+      <c r="N67" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="194"/>
+      <c r="O67" s="219"/>
       <c r="P67" s="81">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -16818,10 +17475,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="183" t="s">
+      <c r="B68" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="184"/>
+      <c r="C68" s="208"/>
       <c r="D68" s="80">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -16884,22 +17541,22 @@
         <v>98415</v>
       </c>
       <c r="M69" s="45"/>
-      <c r="N69" s="174" t="s">
+      <c r="N69" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="175"/>
-      <c r="P69" s="175"/>
-      <c r="Q69" s="175"/>
-      <c r="R69" s="175"/>
+      <c r="O69" s="199"/>
+      <c r="P69" s="199"/>
+      <c r="Q69" s="199"/>
+      <c r="R69" s="199"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="179" t="s">
+      <c r="B70" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="180"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="181"/>
+      <c r="C70" s="205"/>
+      <c r="D70" s="205"/>
+      <c r="E70" s="205"/>
+      <c r="F70" s="206"/>
       <c r="G70" s="22">
         <v>43769</v>
       </c>
@@ -17015,10 +17672,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="183" t="s">
+      <c r="H72" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="184"/>
+      <c r="I72" s="208"/>
       <c r="J72" s="82">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -17141,10 +17798,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="183" t="s">
+      <c r="B75" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="184"/>
+      <c r="C75" s="208"/>
       <c r="D75" s="82">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -17181,8 +17838,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="195"/>
-      <c r="C76" s="195"/>
+      <c r="B76" s="220"/>
+      <c r="C76" s="220"/>
       <c r="D76" s="28"/>
       <c r="E76" s="86"/>
       <c r="F76" s="28"/>
@@ -17252,10 +17909,10 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
-      <c r="N78" s="183" t="s">
+      <c r="N78" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="184"/>
+      <c r="O78" s="208"/>
       <c r="P78" s="82">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -17339,19 +17996,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
-      <c r="H83" s="191"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
       <c r="K83" s="64"/>
       <c r="L83" s="64"/>
-      <c r="N83" s="191"/>
-      <c r="O83" s="191"/>
-      <c r="P83" s="191"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="215"/>
+      <c r="P83" s="215"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -17447,18 +18104,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="191"/>
-      <c r="I90" s="191"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="191"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -17535,27 +18192,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="H1" s="188" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="N1" s="188" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -17606,29 +18263,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="190" t="s">
+      <c r="N3" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -18134,10 +18791,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="183" t="s">
+      <c r="N12" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="184"/>
+      <c r="O12" s="208"/>
       <c r="P12" s="38">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -18234,13 +18891,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="45"/>
-      <c r="N14" s="190" t="s">
+      <c r="N14" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="197"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="99">
@@ -18434,10 +19091,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="183" t="s">
+      <c r="H18" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="184"/>
+      <c r="I18" s="208"/>
       <c r="J18" s="38">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -18534,13 +19191,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="177" t="s">
+      <c r="H20" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
       <c r="N20" s="99">
         <v>84960</v>
       </c>
@@ -18712,10 +19369,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="183" t="s">
+      <c r="N23" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="184"/>
+      <c r="O23" s="208"/>
       <c r="P23" s="38">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -18730,10 +19387,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="184"/>
+      <c r="C24" s="208"/>
       <c r="D24" s="84">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -18796,23 +19453,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="45"/>
-      <c r="N25" s="190" t="s">
+      <c r="N25" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
       <c r="H26" s="23">
         <v>104400</v>
       </c>
@@ -19102,10 +19759,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="183" t="s">
+      <c r="H31" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="184"/>
+      <c r="I31" s="208"/>
       <c r="J31" s="38">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -19159,10 +19816,10 @@
       <c r="J32" s="24"/>
       <c r="K32" s="97"/>
       <c r="L32" s="24"/>
-      <c r="N32" s="183" t="s">
+      <c r="N32" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="184"/>
+      <c r="O32" s="208"/>
       <c r="P32" s="38">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -19177,10 +19834,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="183" t="s">
+      <c r="B33" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="184"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="100">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -19194,13 +19851,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="45"/>
-      <c r="H33" s="177" t="s">
+      <c r="H33" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="178"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
       <c r="N33" s="42"/>
       <c r="O33" s="1"/>
       <c r="P33" s="24"/>
@@ -19234,23 +19891,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="190" t="s">
+      <c r="N34" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
       <c r="H35" s="42">
         <v>144000</v>
       </c>
@@ -19613,10 +20270,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="183" t="s">
+      <c r="N41" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="184"/>
+      <c r="O41" s="208"/>
       <c r="P41" s="38">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -19713,19 +20370,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="45"/>
-      <c r="N43" s="173" t="s">
+      <c r="N43" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
+      <c r="O43" s="197"/>
+      <c r="P43" s="197"/>
+      <c r="Q43" s="197"/>
+      <c r="R43" s="197"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="183" t="s">
+      <c r="B44" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="184"/>
+      <c r="C44" s="208"/>
       <c r="D44" s="100">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -19822,13 +20479,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="173" t="s">
+      <c r="B46" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
       <c r="G46" s="22">
         <v>43788</v>
       </c>
@@ -19944,10 +20601,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="183" t="s">
+      <c r="H48" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="184"/>
+      <c r="I48" s="208"/>
       <c r="J48" s="38">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -20044,13 +20701,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="45"/>
-      <c r="H50" s="177" t="s">
+      <c r="H50" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="178"/>
-      <c r="L50" s="178"/>
+      <c r="I50" s="202"/>
+      <c r="J50" s="202"/>
+      <c r="K50" s="202"/>
+      <c r="L50" s="202"/>
       <c r="M50" s="22">
         <v>43787</v>
       </c>
@@ -20166,10 +20823,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="183" t="s">
+      <c r="N52" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="184"/>
+      <c r="O52" s="208"/>
       <c r="P52" s="38">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -20266,13 +20923,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="45"/>
-      <c r="N54" s="173" t="s">
+      <c r="N54" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="173"/>
-      <c r="P54" s="173"/>
-      <c r="Q54" s="173"/>
-      <c r="R54" s="173"/>
+      <c r="O54" s="197"/>
+      <c r="P54" s="197"/>
+      <c r="Q54" s="197"/>
+      <c r="R54" s="197"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
@@ -20620,10 +21277,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="184"/>
+      <c r="C61" s="208"/>
       <c r="D61" s="102">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -20656,10 +21313,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="183" t="s">
+      <c r="N61" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="184"/>
+      <c r="O61" s="208"/>
       <c r="P61" s="38">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -20703,13 +21360,13 @@
       <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="205"/>
+      <c r="F63" s="205"/>
       <c r="G63" s="22">
         <v>43795</v>
       </c>
@@ -20731,13 +21388,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="45"/>
-      <c r="N63" s="173" t="s">
+      <c r="N63" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="173"/>
-      <c r="P63" s="173"/>
-      <c r="Q63" s="173"/>
-      <c r="R63" s="173"/>
+      <c r="O63" s="197"/>
+      <c r="P63" s="197"/>
+      <c r="Q63" s="197"/>
+      <c r="R63" s="197"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
@@ -21237,10 +21894,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="183" t="s">
+      <c r="N72" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="184"/>
+      <c r="O72" s="208"/>
       <c r="P72" s="38">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -21272,10 +21929,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="183" t="s">
+      <c r="H73" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="184"/>
+      <c r="I73" s="208"/>
       <c r="J73" s="38">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -21321,13 +21978,13 @@
       <c r="K74" s="85"/>
       <c r="L74" s="85"/>
       <c r="M74" s="45"/>
-      <c r="N74" s="173" t="s">
+      <c r="N74" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="173"/>
-      <c r="P74" s="173"/>
-      <c r="Q74" s="173"/>
-      <c r="R74" s="173"/>
+      <c r="O74" s="197"/>
+      <c r="P74" s="197"/>
+      <c r="Q74" s="197"/>
+      <c r="R74" s="197"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B75" s="42">
@@ -21374,10 +22031,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="183" t="s">
+      <c r="B76" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="184"/>
+      <c r="C76" s="208"/>
       <c r="D76" s="103">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -21598,14 +22255,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="83"/>
       <c r="F83" s="83"/>
-      <c r="H83" s="191"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="22">
@@ -21669,10 +22326,10 @@
       <c r="J85" s="85"/>
       <c r="K85" s="85"/>
       <c r="L85" s="85"/>
-      <c r="N85" s="183" t="s">
+      <c r="N85" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="184"/>
+      <c r="O85" s="208"/>
       <c r="P85" s="38">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -21750,18 +22407,18 @@
       <c r="P89" s="85"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="85"/>
-      <c r="H90" s="191"/>
-      <c r="I90" s="191"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="191"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
       <c r="P90" s="85"/>
     </row>
   </sheetData>
@@ -21849,27 +22506,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="H1" s="188" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="N1" s="188" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -21920,29 +22577,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="182"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="203"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="173" t="s">
+      <c r="N3" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -22215,10 +22872,10 @@
         <f t="shared" si="9"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="183" t="s">
+      <c r="N8" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="184"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="38">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -22315,13 +22972,13 @@
         <v>94770</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="179" t="s">
+      <c r="N10" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="180"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
@@ -22820,10 +23477,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N19" s="183" t="s">
+      <c r="N19" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="184"/>
+      <c r="O19" s="208"/>
       <c r="P19" s="38">
         <f>SUM(P11:P18)</f>
         <v>505093.68</v>
@@ -22920,19 +23577,19 @@
         <v>94770</v>
       </c>
       <c r="M21" s="45"/>
-      <c r="N21" s="190" t="s">
+      <c r="N21" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="197"/>
+      <c r="R21" s="197"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="183" t="s">
+      <c r="B22" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="184"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="38">
         <f>SUM(D4:D21)</f>
         <v>1859301.3599999999</v>
@@ -23028,13 +23685,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
       <c r="G24" s="22">
         <v>43810</v>
       </c>
@@ -23955,10 +24612,10 @@
         <f t="shared" si="23"/>
         <v>109174</v>
       </c>
-      <c r="H40" s="183" t="s">
+      <c r="H40" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="184"/>
+      <c r="I40" s="208"/>
       <c r="J40" s="38">
         <f>SUM(J4:J39)</f>
         <v>3550680.0000000005</v>
@@ -23971,10 +24628,10 @@
         <f>SUM(L4:L39)</f>
         <v>3422655</v>
       </c>
-      <c r="N40" s="183" t="s">
+      <c r="N40" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="184"/>
+      <c r="O40" s="208"/>
       <c r="P40" s="38">
         <f>SUM(P22:P39)</f>
         <v>1381640.4</v>
@@ -24039,21 +24696,21 @@
         <v>109174</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="174" t="s">
+      <c r="H42" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="175"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="199"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="173" t="s">
+      <c r="N42" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="173"/>
+      <c r="O42" s="197"/>
+      <c r="P42" s="197"/>
+      <c r="Q42" s="197"/>
+      <c r="R42" s="197"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -24171,10 +24828,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="183" t="s">
+      <c r="B45" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="184"/>
+      <c r="C45" s="208"/>
       <c r="D45" s="38">
         <f>SUM(D25:D44)</f>
         <v>2238094.0799999996</v>
@@ -24270,13 +24927,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="177" t="s">
+      <c r="B47" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="176"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="200"/>
       <c r="G47" s="22">
         <v>43820</v>
       </c>
@@ -24642,10 +25299,10 @@
         <f t="shared" si="33"/>
         <v>97380</v>
       </c>
-      <c r="N53" s="183" t="s">
+      <c r="N53" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="184"/>
+      <c r="O53" s="208"/>
       <c r="P53" s="38">
         <f>SUM(P43:P52)</f>
         <v>719671.67999999993</v>
@@ -24742,13 +25399,13 @@
         <v>102249</v>
       </c>
       <c r="M55" s="45"/>
-      <c r="N55" s="190" t="s">
+      <c r="N55" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="173"/>
-      <c r="P55" s="173"/>
-      <c r="Q55" s="173"/>
-      <c r="R55" s="173"/>
+      <c r="O55" s="197"/>
+      <c r="P55" s="197"/>
+      <c r="Q55" s="197"/>
+      <c r="R55" s="197"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -24942,10 +25599,10 @@
         <f t="shared" si="37"/>
         <v>104192</v>
       </c>
-      <c r="H59" s="183" t="s">
+      <c r="H59" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="184"/>
+      <c r="I59" s="208"/>
       <c r="J59" s="38">
         <f>SUM(J43:J58)</f>
         <v>1715012.6400000004</v>
@@ -25042,13 +25699,13 @@
         <v>104192</v>
       </c>
       <c r="G61" s="45"/>
-      <c r="H61" s="174" t="s">
+      <c r="H61" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
-      <c r="L61" s="182"/>
+      <c r="I61" s="199"/>
+      <c r="J61" s="199"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="203"/>
       <c r="N61" s="42">
         <v>90000</v>
       </c>
@@ -25338,10 +25995,10 @@
         <f t="shared" si="45"/>
         <v>94770</v>
       </c>
-      <c r="N66" s="183" t="s">
+      <c r="N66" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="184"/>
+      <c r="O66" s="208"/>
       <c r="P66" s="38">
         <f>SUM(P56:P65)</f>
         <v>880380</v>
@@ -25438,13 +26095,13 @@
         <v>98415</v>
       </c>
       <c r="M68" s="45"/>
-      <c r="N68" s="179" t="s">
+      <c r="N68" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="O68" s="180"/>
-      <c r="P68" s="180"/>
-      <c r="Q68" s="180"/>
-      <c r="R68" s="180"/>
+      <c r="O68" s="205"/>
+      <c r="P68" s="205"/>
+      <c r="Q68" s="205"/>
+      <c r="R68" s="205"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="23">
@@ -25618,10 +26275,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="192" t="s">
+      <c r="B72" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="193"/>
+      <c r="C72" s="218"/>
       <c r="D72" s="51">
         <f>SUM(D48:D71)</f>
         <v>2637675.3600000003</v>
@@ -25634,10 +26291,10 @@
         <f>SUM(F48:F71)</f>
         <v>2510256</v>
       </c>
-      <c r="H72" s="192" t="s">
+      <c r="H72" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="193"/>
+      <c r="I72" s="218"/>
       <c r="J72" s="51">
         <f>SUM(J62:J71)</f>
         <v>969023.15999999992</v>
@@ -25924,10 +26581,10 @@
       <c r="J81" s="105"/>
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
-      <c r="N81" s="192" t="s">
+      <c r="N81" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="193"/>
+      <c r="O81" s="218"/>
       <c r="P81" s="51">
         <f>SUM(P69:P80)</f>
         <v>1082706.48</v>
@@ -25959,14 +26616,14 @@
       <c r="R82" s="61"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="104"/>
       <c r="F83" s="104"/>
-      <c r="H83" s="191"/>
-      <c r="I83" s="191"/>
-      <c r="J83" s="191"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104"/>
       <c r="N83" s="113"/>
@@ -26073,18 +26730,18 @@
       <c r="P89" s="105"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="191"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="105"/>
       <c r="E90" s="105"/>
       <c r="F90" s="105"/>
-      <c r="H90" s="191"/>
-      <c r="I90" s="191"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="191"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
       <c r="P90" s="105"/>
     </row>
   </sheetData>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="46">
   <si>
     <t>% работы</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>ХХI-В-28-2.1б-500-3 (Дрозды 0.5 л.)</t>
+  </si>
+  <si>
+    <t>БК-СХ-60-200-19069-Л3 (Лампада 3)</t>
+  </si>
+  <si>
+    <t>БК-СХ-60-200-19068-Л2 (Лампада 2)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,15 +1301,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1322,7 +1319,46 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,30 +1386,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,8 +1714,8 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:N4"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P38" sqref="P38:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1731,29 +1743,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="144"/>
-      <c r="I1" s="212" t="s">
+      <c r="I1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
       <c r="N1" s="144"/>
-      <c r="P1" s="212" t="s">
+      <c r="P1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
     </row>
     <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1813,32 +1825,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="214"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="207"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="198" t="s">
+      <c r="I3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="200"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="210"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="198" t="s">
+      <c r="P3" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="203"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="213"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -1974,10 +1986,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="209"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="140">
         <f>SUM(D4:D5)</f>
         <v>223367.04000000001</v>
@@ -2091,14 +2103,14 @@
     </row>
     <row r="8" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
       <c r="H8" s="22">
         <v>43833</v>
       </c>
@@ -2255,10 +2267,10 @@
       <c r="N10" s="154">
         <v>192.64</v>
       </c>
-      <c r="P10" s="207" t="s">
+      <c r="P10" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="208"/>
+      <c r="Q10" s="200"/>
       <c r="R10" s="38">
         <f>SUM(R4:R9)</f>
         <v>549478.07999999996</v>
@@ -2373,14 +2385,14 @@
         <v>192.97</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="201" t="s">
+      <c r="P12" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="200"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="212"/>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="210"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -3225,10 +3237,10 @@
       <c r="N25" s="154">
         <v>192.18</v>
       </c>
-      <c r="P25" s="207" t="s">
+      <c r="P25" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="208"/>
+      <c r="Q25" s="200"/>
       <c r="R25" s="38">
         <f>SUM(R13:R24)</f>
         <v>941633.27999999991</v>
@@ -3342,14 +3354,14 @@
         <v>192.87</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="204" t="s">
+      <c r="P27" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="205"/>
-      <c r="U27" s="206"/>
+      <c r="Q27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="216"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="99">
@@ -3553,10 +3565,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="209" t="s">
+      <c r="B31" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="209"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="140">
         <f>SUM(D9:D30)</f>
         <v>2224285.92</v>
@@ -3670,14 +3682,14 @@
     </row>
     <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
       <c r="I33" s="9">
         <v>100800</v>
       </c>
@@ -3899,10 +3911,10 @@
       <c r="N36" s="154">
         <v>193.6</v>
       </c>
-      <c r="P36" s="207" t="s">
+      <c r="P36" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="208"/>
+      <c r="Q36" s="200"/>
       <c r="R36" s="38">
         <f>SUM(R28:R35)</f>
         <v>651933.36</v>
@@ -4016,14 +4028,14 @@
         <v>192.39</v>
       </c>
       <c r="O38" s="45"/>
-      <c r="P38" s="204" t="s">
+      <c r="P38" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="205"/>
-      <c r="R38" s="205"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="205"/>
-      <c r="U38" s="206"/>
+      <c r="Q38" s="215"/>
+      <c r="R38" s="215"/>
+      <c r="S38" s="215"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="216"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="99">
@@ -4091,10 +4103,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="209"/>
+      <c r="C40" s="201"/>
       <c r="D40" s="140">
         <f>SUM(D34:D39)</f>
         <v>740793.6</v>
@@ -4208,14 +4220,14 @@
     </row>
     <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="197" t="s">
+      <c r="B42" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
       <c r="H42" s="22">
         <v>43850</v>
       </c>
@@ -4482,10 +4494,10 @@
       <c r="G46" s="154">
         <v>305.87</v>
       </c>
-      <c r="I46" s="207" t="s">
+      <c r="I46" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="208"/>
+      <c r="J46" s="200"/>
       <c r="K46" s="38">
         <f>SUM(K4:K45)</f>
         <v>4144291.2</v>
@@ -4599,14 +4611,14 @@
         <v>305.2</v>
       </c>
       <c r="H48" s="45"/>
-      <c r="I48" s="201" t="s">
+      <c r="I48" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="202"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="202"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="200"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="212"/>
+      <c r="M48" s="212"/>
+      <c r="N48" s="210"/>
       <c r="P48" s="42">
         <v>65520</v>
       </c>
@@ -4808,10 +4820,10 @@
       <c r="N51" s="154">
         <v>141.72999999999999</v>
       </c>
-      <c r="P51" s="207" t="s">
+      <c r="P51" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q51" s="208"/>
+      <c r="Q51" s="200"/>
       <c r="R51" s="38">
         <f>SUM(R39:R50)</f>
         <v>759245.75999999989</v>
@@ -4878,10 +4890,10 @@
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="209" t="s">
+      <c r="B53" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="209"/>
+      <c r="C53" s="201"/>
       <c r="D53" s="140">
         <f>SUM(D43:D52)</f>
         <v>942062.4</v>
@@ -4922,14 +4934,14 @@
         <v>142.97</v>
       </c>
       <c r="O53" s="45"/>
-      <c r="P53" s="198" t="s">
+      <c r="P53" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="199"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="199"/>
-      <c r="T53" s="199"/>
-      <c r="U53" s="203"/>
+      <c r="Q53" s="209"/>
+      <c r="R53" s="209"/>
+      <c r="S53" s="209"/>
+      <c r="T53" s="209"/>
+      <c r="U53" s="213"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
@@ -4984,14 +4996,14 @@
     </row>
     <row r="55" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="197"/>
-      <c r="D55" s="197"/>
-      <c r="E55" s="197"/>
-      <c r="F55" s="197"/>
-      <c r="G55" s="197"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
       <c r="H55" s="22">
         <v>43855</v>
       </c>
@@ -5391,10 +5403,10 @@
       <c r="G61" s="154">
         <v>249.95</v>
       </c>
-      <c r="I61" s="207" t="s">
+      <c r="I61" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="208"/>
+      <c r="J61" s="200"/>
       <c r="K61" s="38">
         <f>SUM(K49:K60)</f>
         <v>1685448</v>
@@ -5508,14 +5520,14 @@
         <v>249.18</v>
       </c>
       <c r="H63" s="45"/>
-      <c r="I63" s="201" t="s">
+      <c r="I63" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="202"/>
-      <c r="K63" s="202"/>
-      <c r="L63" s="202"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="200"/>
+      <c r="J63" s="212"/>
+      <c r="K63" s="212"/>
+      <c r="L63" s="212"/>
+      <c r="M63" s="212"/>
+      <c r="N63" s="210"/>
       <c r="P63" s="99">
         <v>84960</v>
       </c>
@@ -5850,10 +5862,10 @@
       <c r="N68" s="154">
         <v>185</v>
       </c>
-      <c r="P68" s="207" t="s">
+      <c r="P68" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="208"/>
+      <c r="Q68" s="200"/>
       <c r="R68" s="38">
         <f>SUM(R54:R67)</f>
         <v>1141012.7999999998</v>
@@ -5967,14 +5979,14 @@
         <v>185.15</v>
       </c>
       <c r="O70" s="45"/>
-      <c r="P70" s="198" t="s">
+      <c r="P70" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="199"/>
-      <c r="R70" s="199"/>
-      <c r="S70" s="199"/>
-      <c r="T70" s="199"/>
-      <c r="U70" s="203"/>
+      <c r="Q70" s="209"/>
+      <c r="R70" s="209"/>
+      <c r="S70" s="209"/>
+      <c r="T70" s="209"/>
+      <c r="U70" s="213"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="99">
@@ -6042,10 +6054,10 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="209" t="s">
+      <c r="B72" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="209"/>
+      <c r="C72" s="201"/>
       <c r="D72" s="166">
         <f>SUM(D56:D71)</f>
         <v>1685368.8</v>
@@ -6062,10 +6074,10 @@
         <f>AVERAGE(G56:G71)</f>
         <v>249.36999999999995</v>
       </c>
-      <c r="I72" s="207" t="s">
+      <c r="I72" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="208"/>
+      <c r="J72" s="200"/>
       <c r="K72" s="38">
         <f>SUM(K64:K71)</f>
         <v>809100</v>
@@ -6142,14 +6154,14 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="45"/>
-      <c r="B74" s="197" t="s">
+      <c r="B74" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
-      <c r="F74" s="197"/>
-      <c r="G74" s="197"/>
+      <c r="C74" s="202"/>
+      <c r="D74" s="202"/>
+      <c r="E74" s="202"/>
+      <c r="F74" s="202"/>
+      <c r="G74" s="202"/>
       <c r="I74" s="135"/>
       <c r="J74" s="5"/>
       <c r="K74" s="135"/>
@@ -6479,10 +6491,10 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="209" t="s">
+      <c r="B81" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="209"/>
+      <c r="C81" s="201"/>
       <c r="D81" s="169">
         <f>SUM(D75:D80)</f>
         <v>555696</v>
@@ -6504,10 +6516,10 @@
       <c r="L81" s="135"/>
       <c r="M81" s="135"/>
       <c r="N81" s="141"/>
-      <c r="P81" s="207" t="s">
+      <c r="P81" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="208"/>
+      <c r="Q81" s="200"/>
       <c r="R81" s="38">
         <f>SUM(R71:R80)</f>
         <v>746440.55999999994</v>
@@ -6544,15 +6556,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
       <c r="G83" s="139"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
-      <c r="K83" s="215"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
+      <c r="K83" s="217"/>
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="139"/>
@@ -6672,20 +6684,20 @@
       <c r="R89" s="135"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="141"/>
-      <c r="I90" s="215"/>
-      <c r="J90" s="215"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
       <c r="M90" s="135"/>
       <c r="N90" s="141"/>
-      <c r="P90" s="215"/>
-      <c r="Q90" s="215"/>
+      <c r="P90" s="217"/>
+      <c r="Q90" s="217"/>
       <c r="R90" s="135"/>
     </row>
   </sheetData>
@@ -6739,9 +6751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6769,29 +6781,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="170"/>
-      <c r="I1" s="212" t="s">
+      <c r="I1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
       <c r="N1" s="170"/>
-      <c r="P1" s="212" t="s">
+      <c r="P1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
     </row>
     <row r="2" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -6850,33 +6862,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="197" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="198" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="201" t="s">
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="200"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="210"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -6899,7 +6911,7 @@
         <f t="shared" ref="F4" si="1">B4*E4/100</f>
         <v>90720</v>
       </c>
-      <c r="G4" s="195">
+      <c r="G4" s="192">
         <v>331.22</v>
       </c>
       <c r="H4" s="22">
@@ -6931,7 +6943,7 @@
       <c r="P4" s="99">
         <v>78480</v>
       </c>
-      <c r="Q4" s="196">
+      <c r="Q4" s="193">
         <v>0.97099999999999997</v>
       </c>
       <c r="R4" s="24">
@@ -7168,13 +7180,10 @@
       <c r="G8" s="154">
         <v>332.58</v>
       </c>
-      <c r="H8" s="22">
-        <v>43864</v>
-      </c>
-      <c r="I8" s="209" t="s">
+      <c r="I8" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="209"/>
+      <c r="J8" s="201"/>
       <c r="K8" s="169">
         <f>SUM(K4:K7)</f>
         <v>410641.2</v>
@@ -7287,14 +7296,14 @@
       <c r="G10" s="154">
         <v>332.68</v>
       </c>
-      <c r="I10" s="198" t="s">
+      <c r="I10" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="199"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="200"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="210"/>
       <c r="O10" s="22">
         <v>43865</v>
       </c>
@@ -7342,27 +7351,27 @@
         <v>332.31</v>
       </c>
       <c r="H11" s="22">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="I11" s="9">
         <v>100800</v>
       </c>
-      <c r="J11" s="136">
-        <v>0.97899999999999998</v>
+      <c r="J11" s="1">
+        <v>0.89</v>
       </c>
       <c r="K11" s="24">
         <f t="shared" ref="K11" si="12">I11*J11</f>
-        <v>98683.199999999997</v>
-      </c>
-      <c r="L11" s="137">
-        <v>94.017857142857139</v>
+        <v>89712</v>
+      </c>
+      <c r="L11" s="36">
+        <v>61.473214285714285</v>
       </c>
       <c r="M11" s="157">
         <f t="shared" ref="M11" si="13">I11*L11/100</f>
-        <v>94770</v>
-      </c>
-      <c r="N11" s="161">
-        <v>192.54</v>
+        <v>61965</v>
+      </c>
+      <c r="N11" s="154">
+        <v>193.17</v>
       </c>
       <c r="P11" s="99">
         <v>78480</v>
@@ -7409,17 +7418,30 @@
       <c r="G12" s="154">
         <v>332.9</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="154"/>
-      <c r="P12" s="209" t="s">
+      <c r="I12" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" ref="K12:K36" si="14">I12*J12</f>
+        <v>95860.799999999988</v>
+      </c>
+      <c r="L12" s="36">
+        <v>86.785714285714292</v>
+      </c>
+      <c r="M12" s="157">
+        <f t="shared" ref="M12:M36" si="15">I12*L12/100</f>
+        <v>87480</v>
+      </c>
+      <c r="N12" s="154">
+        <v>192.29</v>
+      </c>
+      <c r="P12" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="209"/>
+      <c r="Q12" s="201"/>
       <c r="R12" s="173">
         <f>SUM(R4:R11)</f>
         <v>611516.15999999992</v>
@@ -7458,15 +7480,29 @@
       <c r="G13" s="154">
         <v>332.67</v>
       </c>
-      <c r="H13" s="27">
-        <v>43866</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="154"/>
+      <c r="H13" s="22">
+        <v>43865</v>
+      </c>
+      <c r="I13" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="14"/>
+        <v>93844.800000000003</v>
+      </c>
+      <c r="L13" s="36">
+        <v>83.169642857142861</v>
+      </c>
+      <c r="M13" s="157">
+        <f t="shared" si="15"/>
+        <v>83835</v>
+      </c>
+      <c r="N13" s="154">
+        <v>192.75</v>
+      </c>
       <c r="P13" s="42"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="24"/>
@@ -7498,20 +7534,36 @@
       <c r="G14" s="154">
         <v>331.46</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="154"/>
-      <c r="P14" s="204" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="14"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="L14" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M14" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N14" s="154">
+        <v>192.89</v>
+      </c>
+      <c r="O14" s="45"/>
+      <c r="P14" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="205"/>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
-      <c r="U14" s="216"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="218"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="99">
@@ -7534,15 +7586,29 @@
       <c r="G15" s="154">
         <v>332.64</v>
       </c>
-      <c r="H15" s="22">
-        <v>43867</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="154"/>
+      <c r="H15" s="27">
+        <v>43866</v>
+      </c>
+      <c r="I15" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="14"/>
+        <v>99288</v>
+      </c>
+      <c r="L15" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M15" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N15" s="154">
+        <v>192.54</v>
+      </c>
       <c r="O15" s="27">
         <v>43866</v>
       </c>
@@ -7553,14 +7619,14 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="R15" s="24">
-        <f t="shared" ref="R15" si="14">P15*Q15</f>
+        <f t="shared" ref="R15" si="16">P15*Q15</f>
         <v>67964.400000000009</v>
       </c>
       <c r="S15" s="36">
         <v>44.722222222222221</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" ref="T15" si="15">P15*S15/100</f>
+        <f t="shared" ref="T15" si="17">P15*S15/100</f>
         <v>33810</v>
       </c>
       <c r="U15" s="154">
@@ -7568,10 +7634,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="209"/>
+      <c r="C16" s="201"/>
       <c r="D16" s="173">
         <f>SUM(D4:D15)</f>
         <v>1125178.56</v>
@@ -7588,12 +7654,26 @@
         <f>AVERAGE(G4:G15)</f>
         <v>332.1825</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="154"/>
+      <c r="I16" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="14"/>
+        <v>97473.599999999991</v>
+      </c>
+      <c r="L16" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M16" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N16" s="154">
+        <v>192.18</v>
+      </c>
       <c r="P16" s="42">
         <v>75600</v>
       </c>
@@ -7601,14 +7681,14 @@
         <v>0.97</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" ref="R16:R24" si="16">P16*Q16</f>
+        <f t="shared" ref="R16:R24" si="18">P16*Q16</f>
         <v>73332</v>
       </c>
       <c r="S16" s="36">
         <v>83.611111111111114</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" ref="T16:T24" si="17">P16*S16/100</f>
+        <f t="shared" ref="T16:T24" si="19">P16*S16/100</f>
         <v>63210</v>
       </c>
       <c r="U16" s="154">
@@ -7623,14 +7703,28 @@
       <c r="F17" s="24"/>
       <c r="G17" s="154"/>
       <c r="H17" s="22">
-        <v>43868</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="154"/>
+        <v>43867</v>
+      </c>
+      <c r="I17" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="14"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="L17" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M17" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N17" s="154">
+        <v>192.02</v>
+      </c>
       <c r="O17" s="22">
         <v>43867</v>
       </c>
@@ -7641,14 +7735,14 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>71971.199999999997</v>
       </c>
       <c r="S17" s="36">
         <v>87.5</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66150</v>
       </c>
       <c r="U17" s="154">
@@ -7656,20 +7750,35 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="197" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="154"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="I18" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="14"/>
+        <v>98784</v>
+      </c>
+      <c r="L18" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M18" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N18" s="154">
+        <v>192.22</v>
+      </c>
       <c r="P18" s="42">
         <v>75600</v>
       </c>
@@ -7677,14 +7786,14 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="R18" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>73483.199999999997</v>
       </c>
       <c r="S18" s="36">
         <v>93.333333333333329</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70560</v>
       </c>
       <c r="U18" s="154">
@@ -7702,28 +7811,42 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="D19" s="24">
-        <f t="shared" ref="D19" si="18">B19*C19</f>
+        <f t="shared" ref="D19" si="20">B19*C19</f>
         <v>80287.199999999997</v>
       </c>
       <c r="E19" s="36">
         <v>72.902542372881356</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" ref="F19" si="19">B19*E19/100</f>
+        <f t="shared" ref="F19" si="21">B19*E19/100</f>
         <v>61938</v>
       </c>
       <c r="G19" s="154">
         <v>386.27</v>
       </c>
       <c r="H19" s="22">
-        <v>43869</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="154"/>
+        <v>43868</v>
+      </c>
+      <c r="I19" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="14"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="L19" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M19" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N19" s="154">
+        <v>192.19</v>
+      </c>
       <c r="O19" s="22">
         <v>43868</v>
       </c>
@@ -7734,14 +7857,14 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74314.8</v>
       </c>
       <c r="S19" s="36">
         <v>93.333333333333329</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70560</v>
       </c>
       <c r="U19" s="154">
@@ -7756,25 +7879,39 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="D20" s="24">
-        <f t="shared" ref="D20:D28" si="20">B20*C20</f>
+        <f t="shared" ref="D20:D28" si="22">B20*C20</f>
         <v>83980.800000000003</v>
       </c>
       <c r="E20" s="36">
         <v>92.5</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" ref="F20:F28" si="21">B20*E20/100</f>
+        <f t="shared" ref="F20:F28" si="23">B20*E20/100</f>
         <v>79920</v>
       </c>
       <c r="G20" s="154">
         <v>386.16</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="154"/>
+      <c r="I20" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="14"/>
+        <v>99288</v>
+      </c>
+      <c r="L20" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M20" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N20" s="154">
+        <v>192.22</v>
+      </c>
       <c r="P20" s="42">
         <v>75600</v>
       </c>
@@ -7782,14 +7919,14 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="R20" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74239.199999999997</v>
       </c>
       <c r="S20" s="36">
         <v>93.333333333333329</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70560</v>
       </c>
       <c r="U20" s="154">
@@ -7807,28 +7944,42 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="D21" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>84499.199999999997</v>
       </c>
       <c r="E21" s="36">
         <v>94.8125</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81918</v>
       </c>
       <c r="G21" s="154">
         <v>385.2</v>
       </c>
       <c r="H21" s="22">
-        <v>43870</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="154"/>
+        <v>43869</v>
+      </c>
+      <c r="I21" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="14"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="L21" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M21" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N21" s="154">
+        <v>192.11</v>
+      </c>
       <c r="O21" s="22">
         <v>43869</v>
       </c>
@@ -7839,14 +7990,14 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="R21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74541.600000000006</v>
       </c>
       <c r="S21" s="36">
         <v>93.333333333333329</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70560</v>
       </c>
       <c r="U21" s="154">
@@ -7861,25 +8012,39 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="D22" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>84412.800000000003</v>
       </c>
       <c r="E22" s="36">
         <v>92.5</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>79920</v>
       </c>
       <c r="G22" s="154">
         <v>386.04</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="154"/>
+      <c r="I22" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" si="14"/>
+        <v>99288</v>
+      </c>
+      <c r="L22" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M22" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N22" s="154">
+        <v>192.72</v>
+      </c>
       <c r="P22" s="42">
         <v>75600</v>
       </c>
@@ -7887,14 +8052,14 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="R22" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>72122.399999999994</v>
       </c>
       <c r="S22" s="36">
         <v>44.722222222222221</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33810</v>
       </c>
       <c r="U22" s="154">
@@ -7912,28 +8077,42 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="D23" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>84157.92</v>
       </c>
       <c r="E23" s="36">
         <v>91.735537190082653</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>79920.000000000015</v>
       </c>
       <c r="G23" s="154">
         <v>387.41</v>
       </c>
       <c r="H23" s="22">
-        <v>43871</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="154"/>
+        <v>43870</v>
+      </c>
+      <c r="I23" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" si="14"/>
+        <v>97574.399999999994</v>
+      </c>
+      <c r="L23" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M23" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N23" s="154">
+        <v>192.45</v>
+      </c>
       <c r="O23" s="22">
         <v>43870</v>
       </c>
@@ -7944,14 +8123,14 @@
         <v>0.98</v>
       </c>
       <c r="R23" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74088</v>
       </c>
       <c r="S23" s="36">
         <v>97.222222222222214</v>
       </c>
       <c r="T23" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>73499.999999999985</v>
       </c>
       <c r="U23" s="154">
@@ -7966,25 +8145,39 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="D24" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>85468.319999999992</v>
       </c>
       <c r="E24" s="36">
         <v>93.258196721311464</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81917.999999999985</v>
       </c>
       <c r="G24" s="154">
         <v>386.52</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="154"/>
+      <c r="I24" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K24" s="24">
+        <f t="shared" si="14"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="L24" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M24" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N24" s="154">
+        <v>192.94</v>
+      </c>
       <c r="P24" s="42">
         <v>75600</v>
       </c>
@@ -7992,14 +8185,14 @@
         <v>0.99</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74844</v>
       </c>
       <c r="S24" s="36">
         <v>95.277777777777771</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>72029.999999999985</v>
       </c>
       <c r="U24" s="154">
@@ -8017,32 +8210,46 @@
         <v>0.97</v>
       </c>
       <c r="D25" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>85903.2</v>
       </c>
       <c r="E25" s="36">
         <v>92.5</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81918</v>
       </c>
       <c r="G25" s="154">
         <v>385.12</v>
       </c>
       <c r="H25" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="154"/>
-      <c r="P25" s="209" t="s">
+        <v>43871</v>
+      </c>
+      <c r="I25" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K25" s="24">
+        <f t="shared" si="14"/>
+        <v>96768</v>
+      </c>
+      <c r="L25" s="36">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="M25" s="157">
+        <f t="shared" si="15"/>
+        <v>91125</v>
+      </c>
+      <c r="N25" s="154">
+        <v>192.91</v>
+      </c>
+      <c r="P25" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="209"/>
+      <c r="Q25" s="201"/>
       <c r="R25" s="173">
         <f>SUM(R15:R24)</f>
         <v>730900.8</v>
@@ -8068,25 +8275,39 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="D26" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86434.559999999998</v>
       </c>
       <c r="E26" s="36">
         <v>94.756097560975604</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>83916</v>
       </c>
       <c r="G26" s="154">
         <v>387.31</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="154"/>
+      <c r="I26" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="14"/>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="L26" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M26" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N26" s="154">
+        <v>192.38</v>
+      </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="24"/>
@@ -8105,36 +8326,51 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="D27" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86168.88</v>
       </c>
       <c r="E27" s="36">
         <v>92.5</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81918</v>
       </c>
       <c r="G27" s="154">
         <v>385.64</v>
       </c>
       <c r="H27" s="22">
-        <v>43873</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="154"/>
-      <c r="P27" s="204" t="s">
+        <v>43872</v>
+      </c>
+      <c r="I27" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="14"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="L27" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M27" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N27" s="154">
+        <v>192.2</v>
+      </c>
+      <c r="O27" s="45"/>
+      <c r="P27" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="205"/>
-      <c r="U27" s="206"/>
+      <c r="Q27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="216"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="42">
@@ -8144,25 +8380,39 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="D28" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86523.12</v>
       </c>
       <c r="E28" s="36">
         <v>94.756097560975604</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>83916</v>
       </c>
       <c r="G28" s="154">
         <v>385.7</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="154"/>
+      <c r="I28" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K28" s="24">
+        <f t="shared" si="14"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="L28" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M28" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N28" s="154">
+        <v>192.33</v>
+      </c>
       <c r="O28" s="22">
         <v>43871</v>
       </c>
@@ -8170,30 +8420,29 @@
         <v>77040</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="R28" s="24">
-        <f t="shared" ref="R28" si="22">P28*Q28</f>
-        <v>70183.44</v>
+        <f t="shared" ref="R28" si="24">P28*Q28</f>
+        <v>64174.32</v>
       </c>
       <c r="S28" s="36">
-        <v>75.700934579439249</v>
+        <v>64.345794392523374</v>
       </c>
       <c r="T28" s="24">
-        <f t="shared" ref="T28" si="23">P28*S28/100</f>
-        <v>58320</v>
-      </c>
-      <c r="U28" s="154"/>
+        <f t="shared" ref="T28" si="25">P28*S28/100</f>
+        <v>49572.000000000007</v>
+      </c>
+      <c r="U28" s="154">
+        <v>451.8</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>43873</v>
-      </c>
-      <c r="B29" s="209" t="s">
+      <c r="B29" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="194">
+      <c r="C29" s="201"/>
+      <c r="D29" s="191">
         <f>SUM(D19:D28)</f>
         <v>847836</v>
       </c>
@@ -8201,29 +8450,57 @@
         <f>F29/D29</f>
         <v>0.94027854443548042</v>
       </c>
-      <c r="F29" s="194">
+      <c r="F29" s="191">
         <f>SUM(F19:F28)</f>
         <v>797202</v>
       </c>
-      <c r="G29" s="194">
+      <c r="G29" s="191">
         <f>AVERAGE(G19:G28)</f>
         <v>386.137</v>
       </c>
       <c r="H29" s="22">
-        <v>43874</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="160"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="154"/>
+        <v>43873</v>
+      </c>
+      <c r="I29" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" si="14"/>
+        <v>97977.599999999991</v>
+      </c>
+      <c r="L29" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M29" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N29" s="154">
+        <v>192.85</v>
+      </c>
+      <c r="P29" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R29" s="24">
+        <f t="shared" ref="R29:R33" si="26">P29*Q29</f>
+        <v>75730.319999999992</v>
+      </c>
+      <c r="S29" s="36">
+        <v>96.518691588785046</v>
+      </c>
+      <c r="T29" s="24">
+        <f t="shared" ref="T29:T33" si="27">P29*S29/100</f>
+        <v>74358</v>
+      </c>
+      <c r="U29" s="154">
+        <v>451.5</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="99"/>
@@ -8232,133 +8509,345 @@
       <c r="E30" s="97"/>
       <c r="F30" s="24"/>
       <c r="G30" s="154"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="154"/>
+      <c r="I30" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="14"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="L30" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M30" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N30" s="154">
+        <v>192.22</v>
+      </c>
       <c r="O30" s="22">
         <v>43872</v>
       </c>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="154"/>
+      <c r="P30" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="R30" s="24">
+        <f t="shared" si="26"/>
+        <v>74805.84</v>
+      </c>
+      <c r="S30" s="36">
+        <v>94.626168224299064</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="27"/>
+        <v>72900</v>
+      </c>
+      <c r="U30" s="154">
+        <v>451.7</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="210"/>
       <c r="H31" s="22">
-        <v>43875</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="154"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="154"/>
+        <v>43874</v>
+      </c>
+      <c r="I31" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K31" s="24">
+        <f t="shared" si="14"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="L31" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M31" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N31" s="154">
+        <v>192.65</v>
+      </c>
+      <c r="P31" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R31" s="24">
+        <f t="shared" si="26"/>
+        <v>75114</v>
+      </c>
+      <c r="S31" s="36">
+        <v>96.518691588785046</v>
+      </c>
+      <c r="T31" s="24">
+        <f t="shared" si="27"/>
+        <v>74358</v>
+      </c>
+      <c r="U31" s="154">
+        <v>452.35</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="154"/>
+      <c r="A32" s="22">
+        <v>43873</v>
+      </c>
+      <c r="B32" s="42">
+        <v>75600</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" ref="D32" si="28">B32*C32</f>
+        <v>70081.2</v>
+      </c>
+      <c r="E32" s="36">
+        <v>72.11904761904762</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" ref="F32" si="29">B32*E32/100</f>
+        <v>54522</v>
+      </c>
+      <c r="G32" s="154">
+        <v>435.27</v>
+      </c>
+      <c r="I32" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="14"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="L32" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M32" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N32" s="160">
+        <v>192.12</v>
+      </c>
       <c r="O32" s="22">
         <v>43873</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="154"/>
+      <c r="P32" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R32" s="24">
+        <f t="shared" si="26"/>
+        <v>75576.240000000005</v>
+      </c>
+      <c r="S32" s="36">
+        <v>96.518691588785046</v>
+      </c>
+      <c r="T32" s="24">
+        <f t="shared" si="27"/>
+        <v>74358</v>
+      </c>
+      <c r="U32" s="154">
+        <v>452.02</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="182"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
+      <c r="B33" s="42">
+        <v>77040</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D33" s="24">
+        <f t="shared" ref="D33:D43" si="30">B33*C33</f>
+        <v>75268.08</v>
+      </c>
+      <c r="E33" s="36">
+        <v>94.361370716510905</v>
+      </c>
+      <c r="F33" s="24">
+        <f t="shared" ref="F33:F43" si="31">B33*E33/100</f>
+        <v>72696</v>
+      </c>
+      <c r="G33" s="154">
+        <v>434.54</v>
+      </c>
       <c r="H33" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="154"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="154"/>
+        <v>43875</v>
+      </c>
+      <c r="I33" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K33" s="24">
+        <f t="shared" si="14"/>
+        <v>96566.399999999994</v>
+      </c>
+      <c r="L33" s="36">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="M33" s="157">
+        <f t="shared" si="15"/>
+        <v>91125</v>
+      </c>
+      <c r="N33" s="154">
+        <v>192.63</v>
+      </c>
+      <c r="P33" s="42">
+        <v>77040</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="R33" s="24">
+        <f t="shared" si="26"/>
+        <v>76654.8</v>
+      </c>
+      <c r="S33" s="36">
+        <v>96.518691588785046</v>
+      </c>
+      <c r="T33" s="24">
+        <f t="shared" si="27"/>
+        <v>74358</v>
+      </c>
+      <c r="U33" s="154">
+        <v>452.52</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>43874</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="154"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="22">
-        <v>43874</v>
-      </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="154"/>
+      <c r="B34" s="42">
+        <v>77040</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" si="30"/>
+        <v>75576.240000000005</v>
+      </c>
+      <c r="E34" s="36">
+        <v>94.361370716510905</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="31"/>
+        <v>72696</v>
+      </c>
+      <c r="G34" s="154">
+        <v>436.43</v>
+      </c>
+      <c r="I34" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="14"/>
+        <v>98280</v>
+      </c>
+      <c r="L34" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M34" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N34" s="154">
+        <v>193.02</v>
+      </c>
+      <c r="P34" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="194">
+        <f>SUM(R28:R33)</f>
+        <v>442055.51999999996</v>
+      </c>
+      <c r="S34" s="151">
+        <f>T34/R34</f>
+        <v>0.94988973330770765</v>
+      </c>
+      <c r="T34" s="194">
+        <f>SUM(T28:T33)</f>
+        <v>419904</v>
+      </c>
+      <c r="U34" s="194">
+        <f>AVERAGE(U24:U33)</f>
+        <v>454.80224999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="99"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="154"/>
+      <c r="B35" s="42">
+        <v>77040</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D35" s="24">
+        <f t="shared" si="30"/>
+        <v>75036.959999999992</v>
+      </c>
+      <c r="E35" s="36">
+        <v>92.546728971962622</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="31"/>
+        <v>71298</v>
+      </c>
+      <c r="G35" s="154">
+        <v>435.95</v>
+      </c>
       <c r="H35" s="22">
-        <v>43877</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="154"/>
+        <v>43876</v>
+      </c>
+      <c r="I35" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K35" s="24">
+        <f t="shared" si="14"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="L35" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M35" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N35" s="154">
+        <v>193.62</v>
+      </c>
       <c r="P35" s="42"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="24"/>
@@ -8370,286 +8859,740 @@
       <c r="A36" s="22">
         <v>43875</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="154"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="154"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="168"/>
-      <c r="U36" s="169"/>
+      <c r="B36" s="42">
+        <v>78480</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="30"/>
+        <v>77459.759999999995</v>
+      </c>
+      <c r="E36" s="36">
+        <v>97.974006116207946</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="31"/>
+        <v>76890</v>
+      </c>
+      <c r="G36" s="154">
+        <v>436.91</v>
+      </c>
+      <c r="I36" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K36" s="24">
+        <f t="shared" si="14"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="L36" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M36" s="157">
+        <f t="shared" si="15"/>
+        <v>94770</v>
+      </c>
+      <c r="N36" s="154">
+        <v>192.73</v>
+      </c>
+      <c r="O36" s="45"/>
+      <c r="P36" s="214" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="215"/>
+      <c r="T36" s="215"/>
+      <c r="U36" s="216"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="99"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="154"/>
+      <c r="B37" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" si="30"/>
+        <v>77457.599999999991</v>
+      </c>
+      <c r="E37" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="31"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="G37" s="154">
+        <v>435.95</v>
+      </c>
       <c r="H37" s="22">
-        <v>43878</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="154"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="56"/>
+        <v>43877</v>
+      </c>
+      <c r="I37" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K37" s="24">
+        <f t="shared" ref="K37:K38" si="32">I37*J37</f>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="L37" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M37" s="157">
+        <f t="shared" ref="M37:M38" si="33">I37*L37/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N37" s="154">
+        <v>193.14</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43874</v>
+      </c>
+      <c r="P37" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="R37" s="24">
+        <f t="shared" ref="R37" si="34">P37*Q37</f>
+        <v>58640.4</v>
+      </c>
+      <c r="S37" s="36">
+        <v>65.247252747252745</v>
+      </c>
+      <c r="T37" s="158">
+        <f t="shared" ref="T37" si="35">P37*S37/100</f>
+        <v>42750</v>
+      </c>
+      <c r="U37" s="154">
+        <v>586.08000000000004</v>
+      </c>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>43876</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="154"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="154"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="189"/>
-      <c r="R38" s="189"/>
-      <c r="S38" s="189"/>
-      <c r="T38" s="189"/>
-      <c r="U38" s="190"/>
+      <c r="B38" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D38" s="24">
+        <f t="shared" si="30"/>
+        <v>78091.199999999997</v>
+      </c>
+      <c r="E38" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="31"/>
+        <v>75492</v>
+      </c>
+      <c r="G38" s="154">
+        <v>436.73</v>
+      </c>
+      <c r="I38" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K38" s="24">
+        <f t="shared" si="32"/>
+        <v>99590.399999999994</v>
+      </c>
+      <c r="L38" s="36">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M38" s="157">
+        <f t="shared" si="33"/>
+        <v>94770</v>
+      </c>
+      <c r="N38" s="154">
+        <v>192.83</v>
+      </c>
+      <c r="P38" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="R38" s="24">
+        <f t="shared" ref="R38:R52" si="36">P38*Q38</f>
+        <v>62112.959999999999</v>
+      </c>
+      <c r="S38" s="36">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="T38" s="158">
+        <f t="shared" ref="T38:T52" si="37">P38*S38/100</f>
+        <v>59850</v>
+      </c>
+      <c r="U38" s="154">
+        <v>587.73</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="99"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="154"/>
+      <c r="B39" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D39" s="24">
+        <f t="shared" si="30"/>
+        <v>78170.399999999994</v>
+      </c>
+      <c r="E39" s="36">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="31"/>
+        <v>76890</v>
+      </c>
+      <c r="G39" s="154">
+        <v>438.1</v>
+      </c>
       <c r="H39" s="22">
-        <v>43879</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="154"/>
+        <v>43878</v>
+      </c>
+      <c r="I39" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J39" s="57">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K39" s="24">
+        <f t="shared" ref="K39:K40" si="38">I39*J39</f>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="L39" s="198">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="M39" s="157">
+        <f t="shared" ref="M39:M40" si="39">I39*L39/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N39" s="154">
+        <v>192.83</v>
+      </c>
       <c r="O39" s="22">
         <v>43875</v>
       </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="154"/>
+      <c r="P39" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="R39" s="24">
+        <f t="shared" si="36"/>
+        <v>64733.760000000002</v>
+      </c>
+      <c r="S39" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T39" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U39" s="154">
+        <v>584.63</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="154"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="154"/>
+      <c r="A40" s="22">
+        <v>43877</v>
+      </c>
+      <c r="B40" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D40" s="24">
+        <f t="shared" si="30"/>
+        <v>77695.199999999997</v>
+      </c>
+      <c r="E40" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="31"/>
+        <v>75492</v>
+      </c>
+      <c r="G40" s="154">
+        <v>439.15</v>
+      </c>
+      <c r="I40" s="9">
+        <v>100800</v>
+      </c>
+      <c r="J40" s="57">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K40" s="24">
+        <f t="shared" si="38"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="L40" s="31">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="M40" s="157">
+        <f t="shared" si="39"/>
+        <v>98415</v>
+      </c>
+      <c r="N40" s="154">
+        <v>192.83</v>
+      </c>
+      <c r="P40" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="R40" s="24">
+        <f t="shared" si="36"/>
+        <v>62112.959999999999</v>
+      </c>
+      <c r="S40" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T40" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U40" s="154">
+        <v>587.85</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="22">
-        <v>43880</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="154"/>
+      <c r="B41" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" si="30"/>
+        <v>77616</v>
+      </c>
+      <c r="E41" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="31"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="G41" s="154">
+        <v>437.1</v>
+      </c>
+      <c r="I41" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="201"/>
+      <c r="K41" s="195">
+        <f>SUM(K11:K40)</f>
+        <v>2939529.5999999996</v>
+      </c>
+      <c r="L41" s="151">
+        <f>M41/K41</f>
+        <v>0.94859565285547742</v>
+      </c>
+      <c r="M41" s="195">
+        <f>SUM(M11:M40)</f>
+        <v>2788425</v>
+      </c>
+      <c r="N41" s="195">
+        <f>AVERAGE(N11:N40)</f>
+        <v>192.59933333333331</v>
+      </c>
       <c r="O41" s="22">
         <v>43876</v>
       </c>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="158"/>
-      <c r="U41" s="154"/>
+      <c r="P41" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R41" s="24">
+        <f t="shared" si="36"/>
+        <v>64275.119999999995</v>
+      </c>
+      <c r="S41" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T41" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U41" s="154">
+        <v>588.38</v>
+      </c>
     </row>
     <row r="42" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="182"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="182"/>
+      <c r="A42" s="22">
+        <v>43878</v>
+      </c>
+      <c r="B42" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" si="30"/>
+        <v>77378.399999999994</v>
+      </c>
+      <c r="E42" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="31"/>
+        <v>75492</v>
+      </c>
+      <c r="G42" s="154">
+        <v>435.89</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="1"/>
       <c r="K42" s="9"/>
       <c r="L42" s="36"/>
       <c r="M42" s="157"/>
       <c r="N42" s="154"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="154"/>
+      <c r="P42" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R42" s="24">
+        <f t="shared" si="36"/>
+        <v>63488.88</v>
+      </c>
+      <c r="S42" s="36">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="T42" s="158">
+        <f t="shared" si="37"/>
+        <v>59850</v>
+      </c>
+      <c r="U42" s="154">
+        <v>585.9</v>
+      </c>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>43877</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="22">
-        <v>43881</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="154"/>
+      <c r="B43" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D43" s="24">
+        <f t="shared" si="30"/>
+        <v>77774.399999999994</v>
+      </c>
+      <c r="E43" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="shared" si="31"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="G43" s="154">
+        <v>438.23</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="I43" s="208" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="209"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="209"/>
+      <c r="M43" s="209"/>
+      <c r="N43" s="210"/>
       <c r="O43" s="22">
         <v>43877</v>
       </c>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="158"/>
-      <c r="U43" s="154"/>
+      <c r="P43" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="R43" s="24">
+        <f t="shared" si="36"/>
+        <v>65454.48</v>
+      </c>
+      <c r="S43" s="36">
+        <v>96.565934065934073</v>
+      </c>
+      <c r="T43" s="158">
+        <f t="shared" si="37"/>
+        <v>63270</v>
+      </c>
+      <c r="U43" s="154">
+        <v>587.5</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="99"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="154"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="154"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="158"/>
-      <c r="U44" s="154"/>
+      <c r="A44" s="22">
+        <v>43879</v>
+      </c>
+      <c r="B44" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" ref="D44:D45" si="40">B44*C44</f>
+        <v>77299.199999999997</v>
+      </c>
+      <c r="E44" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="F44" s="24">
+        <f t="shared" ref="F44:F45" si="41">B44*E44/100</f>
+        <v>75492</v>
+      </c>
+      <c r="G44" s="154">
+        <v>440.64</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43879</v>
+      </c>
+      <c r="I44" s="42">
+        <v>111600</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K44" s="24">
+        <f t="shared" ref="K44" si="42">I44*J44</f>
+        <v>80575.199999999997</v>
+      </c>
+      <c r="L44" s="36">
+        <v>35.878136200716845</v>
+      </c>
+      <c r="M44" s="157">
+        <f t="shared" ref="M44" si="43">I44*L44/100</f>
+        <v>40040</v>
+      </c>
+      <c r="N44" s="154">
+        <v>193.02</v>
+      </c>
+      <c r="P44" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="R44" s="24">
+        <f t="shared" si="36"/>
+        <v>64013.04</v>
+      </c>
+      <c r="S44" s="36">
+        <v>96.565934065934073</v>
+      </c>
+      <c r="T44" s="158">
+        <f t="shared" si="37"/>
+        <v>63270</v>
+      </c>
+      <c r="U44" s="154">
+        <v>586.44000000000005</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>43878</v>
-      </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="22">
-        <v>43882</v>
-      </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="154"/>
+      <c r="B45" s="42">
+        <v>79200</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" si="40"/>
+        <v>79120.800000000003</v>
+      </c>
+      <c r="E45" s="36">
+        <v>98.848484848484858</v>
+      </c>
+      <c r="F45" s="24">
+        <f t="shared" si="41"/>
+        <v>78288.000000000015</v>
+      </c>
+      <c r="G45" s="154">
+        <v>438.17</v>
+      </c>
+      <c r="I45" s="42">
+        <v>111600</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K45" s="24">
+        <f t="shared" ref="K45:K47" si="44">I45*J45</f>
+        <v>109368</v>
+      </c>
+      <c r="L45" s="36">
+        <v>91.326164874551978</v>
+      </c>
+      <c r="M45" s="157">
+        <f t="shared" ref="M45:M47" si="45">I45*L45/100</f>
+        <v>101920</v>
+      </c>
+      <c r="N45" s="154">
+        <v>192.64</v>
+      </c>
       <c r="O45" s="22">
         <v>43878</v>
       </c>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="158"/>
-      <c r="U45" s="154"/>
+      <c r="P45" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="R45" s="24">
+        <f t="shared" si="36"/>
+        <v>63554.400000000001</v>
+      </c>
+      <c r="S45" s="36">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="T45" s="158">
+        <f t="shared" si="37"/>
+        <v>59850</v>
+      </c>
+      <c r="U45" s="154">
+        <v>586.72</v>
+      </c>
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="99"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="154"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="169"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="158"/>
-      <c r="U46" s="154"/>
+      <c r="B46" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="201"/>
+      <c r="D46" s="196">
+        <f>SUM(D32:D45)</f>
+        <v>1074025.44</v>
+      </c>
+      <c r="E46" s="151">
+        <f>F46/D46</f>
+        <v>0.95670918186072018</v>
+      </c>
+      <c r="F46" s="196">
+        <f>SUM(F32:F45)</f>
+        <v>1027530</v>
+      </c>
+      <c r="G46" s="196">
+        <f>AVERAGE(G32:G45)</f>
+        <v>437.0757142857143</v>
+      </c>
+      <c r="H46" s="22">
+        <v>43880</v>
+      </c>
+      <c r="I46" s="42">
+        <v>111600</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K46" s="24">
+        <f t="shared" si="44"/>
+        <v>109814.39999999999</v>
+      </c>
+      <c r="L46" s="36">
+        <v>94.587813620071685</v>
+      </c>
+      <c r="M46" s="157">
+        <f t="shared" si="45"/>
+        <v>105560</v>
+      </c>
+      <c r="N46" s="154">
+        <v>192.31</v>
+      </c>
+      <c r="P46" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="R46" s="24">
+        <f t="shared" si="36"/>
+        <v>65454.48</v>
+      </c>
+      <c r="S46" s="36">
+        <v>96.565934065934073</v>
+      </c>
+      <c r="T46" s="158">
+        <f t="shared" si="37"/>
+        <v>63270</v>
+      </c>
+      <c r="U46" s="154">
+        <v>586.23</v>
+      </c>
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>43879</v>
-      </c>
       <c r="B47" s="99"/>
       <c r="C47" s="152"/>
       <c r="D47" s="24"/>
       <c r="E47" s="97"/>
       <c r="F47" s="24"/>
       <c r="G47" s="154"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="24"/>
+      <c r="I47" s="42">
+        <v>112320</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K47" s="24">
+        <f t="shared" si="44"/>
+        <v>107490.23999999999</v>
+      </c>
+      <c r="L47" s="36">
+        <v>90.740740740740748</v>
+      </c>
+      <c r="M47" s="157">
+        <f t="shared" si="45"/>
+        <v>101920</v>
+      </c>
+      <c r="N47" s="154">
+        <v>192.29</v>
+      </c>
       <c r="O47" s="22">
         <v>43879</v>
       </c>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="154"/>
+      <c r="P47" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="R47" s="24">
+        <f t="shared" si="36"/>
+        <v>64209.599999999999</v>
+      </c>
+      <c r="S47" s="36">
+        <v>96.565934065934073</v>
+      </c>
+      <c r="T47" s="158">
+        <f t="shared" si="37"/>
+        <v>63270</v>
+      </c>
+      <c r="U47" s="154">
+        <v>585.55999999999995</v>
+      </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="99"/>
@@ -8658,18 +9601,46 @@
       <c r="E48" s="97"/>
       <c r="F48" s="24"/>
       <c r="G48" s="154"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179"/>
-      <c r="K48" s="179"/>
-      <c r="L48" s="179"/>
-      <c r="M48" s="179"/>
-      <c r="N48" s="187"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="154"/>
+      <c r="I48" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="201"/>
+      <c r="K48" s="197">
+        <f>SUM(K44:K47)</f>
+        <v>407247.83999999997</v>
+      </c>
+      <c r="L48" s="151">
+        <f>M48/K48</f>
+        <v>0.85805243313261037</v>
+      </c>
+      <c r="M48" s="197">
+        <f>SUM(M44:M47)</f>
+        <v>349440</v>
+      </c>
+      <c r="N48" s="197">
+        <f>AVERAGE(N44:N47)</f>
+        <v>192.565</v>
+      </c>
+      <c r="P48" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R48" s="24">
+        <f t="shared" si="36"/>
+        <v>64275.119999999995</v>
+      </c>
+      <c r="S48" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T48" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U48" s="154">
+        <v>585.61</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -8681,9 +9652,6 @@
       <c r="E49" s="97"/>
       <c r="F49" s="24"/>
       <c r="G49" s="154"/>
-      <c r="H49" s="22">
-        <v>43883</v>
-      </c>
       <c r="I49" s="42"/>
       <c r="J49" s="1"/>
       <c r="K49" s="24"/>
@@ -8693,12 +9661,26 @@
       <c r="O49" s="22">
         <v>43880</v>
       </c>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="154"/>
+      <c r="P49" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="R49" s="24">
+        <f t="shared" si="36"/>
+        <v>63423.360000000001</v>
+      </c>
+      <c r="S49" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T49" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U49" s="154">
+        <v>586.30999999999995</v>
+      </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B50" s="99"/>
@@ -8707,18 +9689,35 @@
       <c r="E50" s="97"/>
       <c r="F50" s="24"/>
       <c r="G50" s="154"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="154"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="158"/>
-      <c r="U50" s="154"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="209"/>
+      <c r="K50" s="209"/>
+      <c r="L50" s="209"/>
+      <c r="M50" s="209"/>
+      <c r="N50" s="210"/>
+      <c r="P50" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R50" s="24">
+        <f t="shared" si="36"/>
+        <v>63882</v>
+      </c>
+      <c r="S50" s="36">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="T50" s="158">
+        <f t="shared" si="37"/>
+        <v>59850</v>
+      </c>
+      <c r="U50" s="154">
+        <v>586.6</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
@@ -8731,20 +9730,51 @@
       <c r="F51" s="24"/>
       <c r="G51" s="154"/>
       <c r="H51" s="22">
-        <v>43884</v>
-      </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="158"/>
-      <c r="N51" s="154"/>
-      <c r="P51" s="185"/>
-      <c r="Q51" s="186"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="168"/>
-      <c r="U51" s="169"/>
+        <v>43881</v>
+      </c>
+      <c r="I51" s="42">
+        <v>113760</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K51" s="24">
+        <f t="shared" ref="K51" si="46">I51*J51</f>
+        <v>105910.56000000001</v>
+      </c>
+      <c r="L51" s="36">
+        <v>87.0323488045007</v>
+      </c>
+      <c r="M51" s="157">
+        <f t="shared" ref="M51" si="47">I51*L51/100</f>
+        <v>99008</v>
+      </c>
+      <c r="N51" s="154">
+        <v>192.15</v>
+      </c>
+      <c r="O51" s="22">
+        <v>43881</v>
+      </c>
+      <c r="P51" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="R51" s="24">
+        <f t="shared" si="36"/>
+        <v>63750.96</v>
+      </c>
+      <c r="S51" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T51" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U51" s="154">
+        <v>586.47</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" s="99"/>
@@ -8753,18 +9783,46 @@
       <c r="E52" s="97"/>
       <c r="F52" s="24"/>
       <c r="G52" s="154"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="154"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="158"/>
-      <c r="U52" s="56"/>
+      <c r="I52" s="42">
+        <v>113760</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K52" s="24">
+        <f t="shared" ref="K52:K58" si="48">I52*J52</f>
+        <v>109437.12</v>
+      </c>
+      <c r="L52" s="36">
+        <v>94.219409282700411</v>
+      </c>
+      <c r="M52" s="157">
+        <f t="shared" ref="M52:M58" si="49">I52*L52/100</f>
+        <v>107183.99999999999</v>
+      </c>
+      <c r="N52" s="154">
+        <v>191.91</v>
+      </c>
+      <c r="P52" s="42">
+        <v>65520</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="R52" s="24">
+        <f t="shared" si="36"/>
+        <v>63816.479999999996</v>
+      </c>
+      <c r="S52" s="36">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="T52" s="158">
+        <f t="shared" si="37"/>
+        <v>61560</v>
+      </c>
+      <c r="U52" s="154">
+        <v>587.09</v>
+      </c>
     </row>
     <row r="53" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="184"/>
@@ -8774,20 +9832,48 @@
       <c r="F53" s="169"/>
       <c r="G53" s="169"/>
       <c r="H53" s="22">
-        <v>43885</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="154"/>
-      <c r="P53" s="191"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="192"/>
-      <c r="S53" s="192"/>
-      <c r="T53" s="192"/>
-      <c r="U53" s="193"/>
+        <v>43882</v>
+      </c>
+      <c r="I53" s="42">
+        <v>115200</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K53" s="24">
+        <f t="shared" si="48"/>
+        <v>111974.39999999999</v>
+      </c>
+      <c r="L53" s="36">
+        <v>96.25</v>
+      </c>
+      <c r="M53" s="157">
+        <f t="shared" si="49"/>
+        <v>110880</v>
+      </c>
+      <c r="N53" s="154">
+        <v>191.85</v>
+      </c>
+      <c r="P53" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="201"/>
+      <c r="R53" s="197">
+        <f>SUM(R37:R52)</f>
+        <v>1017197.9999999998</v>
+      </c>
+      <c r="S53" s="151">
+        <f>T53/R53</f>
+        <v>0.94981508024986305</v>
+      </c>
+      <c r="T53" s="197">
+        <f>SUM(T37:T52)</f>
+        <v>966150</v>
+      </c>
+      <c r="U53" s="197">
+        <f>AVERAGE(U37:U52)</f>
+        <v>586.56875000000002</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
@@ -8796,14 +9882,25 @@
       <c r="E54" s="97"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="158"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="22">
-        <v>43881</v>
+      <c r="I54" s="42">
+        <v>115920</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K54" s="24">
+        <f t="shared" si="48"/>
+        <v>112210.56</v>
+      </c>
+      <c r="L54" s="36">
+        <v>95.652173913043484</v>
+      </c>
+      <c r="M54" s="157">
+        <f t="shared" si="49"/>
+        <v>110880</v>
+      </c>
+      <c r="N54" s="154">
+        <v>192.29</v>
       </c>
       <c r="P54" s="99"/>
       <c r="Q54" s="1"/>
@@ -8820,14 +9917,28 @@
       <c r="F55" s="182"/>
       <c r="G55" s="182"/>
       <c r="H55" s="22">
-        <v>43886</v>
-      </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="154"/>
+        <v>43883</v>
+      </c>
+      <c r="I55" s="42">
+        <v>116640</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K55" s="24">
+        <f t="shared" si="48"/>
+        <v>114540.48</v>
+      </c>
+      <c r="L55" s="36">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="M55" s="157">
+        <f t="shared" si="49"/>
+        <v>110880</v>
+      </c>
+      <c r="N55" s="154">
+        <v>191.56</v>
+      </c>
       <c r="P55" s="99"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="24"/>
@@ -8845,12 +9956,26 @@
       <c r="E56" s="36"/>
       <c r="F56" s="24"/>
       <c r="G56" s="154"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="154"/>
+      <c r="I56" s="42">
+        <v>116640</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K56" s="24">
+        <f t="shared" si="48"/>
+        <v>112324.31999999999</v>
+      </c>
+      <c r="L56" s="36">
+        <v>91.893004115226347</v>
+      </c>
+      <c r="M56" s="157">
+        <f t="shared" si="49"/>
+        <v>107184.00000000001</v>
+      </c>
+      <c r="N56" s="154">
+        <v>192.12</v>
+      </c>
       <c r="O56" s="22">
         <v>43882</v>
       </c>
@@ -8869,14 +9994,28 @@
       <c r="F57" s="24"/>
       <c r="G57" s="154"/>
       <c r="H57" s="22">
-        <v>43887</v>
-      </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="154"/>
+        <v>43884</v>
+      </c>
+      <c r="I57" s="42">
+        <v>116640</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K57" s="24">
+        <f t="shared" si="48"/>
+        <v>116523.36</v>
+      </c>
+      <c r="L57" s="36">
+        <v>98.230452674897123</v>
+      </c>
+      <c r="M57" s="157">
+        <f t="shared" si="49"/>
+        <v>114576</v>
+      </c>
+      <c r="N57" s="154">
+        <v>191.95</v>
+      </c>
       <c r="P57" s="99"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="24"/>
@@ -8894,12 +10033,26 @@
       <c r="E58" s="36"/>
       <c r="F58" s="24"/>
       <c r="G58" s="165"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="158"/>
-      <c r="N58" s="154"/>
+      <c r="I58" s="42">
+        <v>116640</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K58" s="24">
+        <f t="shared" si="48"/>
+        <v>116523.36</v>
+      </c>
+      <c r="L58" s="36">
+        <v>97.777777777777771</v>
+      </c>
+      <c r="M58" s="157">
+        <f t="shared" si="49"/>
+        <v>114048</v>
+      </c>
+      <c r="N58" s="154">
+        <v>191.62</v>
+      </c>
       <c r="O58" s="22">
         <v>43883</v>
       </c>
@@ -8918,14 +10071,28 @@
       <c r="F59" s="24"/>
       <c r="G59" s="165"/>
       <c r="H59" s="22">
-        <v>43888</v>
-      </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="158"/>
-      <c r="N59" s="154"/>
+        <v>43885</v>
+      </c>
+      <c r="I59" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="201"/>
+      <c r="K59" s="197">
+        <f>SUM(K51:K58)</f>
+        <v>899444.15999999992</v>
+      </c>
+      <c r="L59" s="151">
+        <f>M59/K59</f>
+        <v>0.97242279053765834</v>
+      </c>
+      <c r="M59" s="197">
+        <f>SUM(M51:M58)</f>
+        <v>874640</v>
+      </c>
+      <c r="N59" s="197">
+        <f>AVERAGE(N51:N58)</f>
+        <v>191.93125000000003</v>
+      </c>
       <c r="P59" s="99"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="24"/>
@@ -8966,6 +10133,9 @@
       <c r="E61" s="36"/>
       <c r="F61" s="24"/>
       <c r="G61" s="154"/>
+      <c r="H61" s="22">
+        <v>43886</v>
+      </c>
       <c r="I61" s="185"/>
       <c r="J61" s="186"/>
       <c r="K61" s="38"/>
@@ -9012,6 +10182,9 @@
       <c r="E63" s="36"/>
       <c r="F63" s="24"/>
       <c r="G63" s="154"/>
+      <c r="H63" s="22">
+        <v>43887</v>
+      </c>
       <c r="I63" s="178"/>
       <c r="J63" s="179"/>
       <c r="K63" s="179"/>
@@ -9035,9 +10208,6 @@
       <c r="E64" s="36"/>
       <c r="F64" s="24"/>
       <c r="G64" s="154"/>
-      <c r="H64" s="22">
-        <v>43889</v>
-      </c>
       <c r="I64" s="23"/>
       <c r="J64" s="120"/>
       <c r="K64" s="24"/>
@@ -9061,6 +10231,9 @@
       <c r="E65" s="36"/>
       <c r="F65" s="24"/>
       <c r="G65" s="154"/>
+      <c r="H65" s="22">
+        <v>43888</v>
+      </c>
       <c r="I65" s="23"/>
       <c r="J65" s="120"/>
       <c r="K65" s="24"/>
@@ -9084,9 +10257,6 @@
       <c r="E66" s="36"/>
       <c r="F66" s="24"/>
       <c r="G66" s="154"/>
-      <c r="H66" s="22">
-        <v>43890</v>
-      </c>
       <c r="I66" s="23"/>
       <c r="J66" s="120"/>
       <c r="K66" s="24"/>
@@ -9110,6 +10280,9 @@
       <c r="E67" s="36"/>
       <c r="F67" s="24"/>
       <c r="G67" s="154"/>
+      <c r="H67" s="22">
+        <v>43889</v>
+      </c>
       <c r="I67" s="23"/>
       <c r="J67" s="120"/>
       <c r="K67" s="24"/>
@@ -9133,7 +10306,6 @@
       <c r="E68" s="36"/>
       <c r="F68" s="24"/>
       <c r="G68" s="154"/>
-      <c r="H68" s="22"/>
       <c r="I68" s="23"/>
       <c r="J68" s="120"/>
       <c r="K68" s="24"/>
@@ -9154,6 +10326,9 @@
       <c r="E69" s="36"/>
       <c r="F69" s="24"/>
       <c r="G69" s="154"/>
+      <c r="H69" s="22">
+        <v>43890</v>
+      </c>
       <c r="I69" s="23"/>
       <c r="J69" s="120"/>
       <c r="K69" s="24"/>
@@ -9184,12 +10359,12 @@
       <c r="L70" s="87"/>
       <c r="M70" s="24"/>
       <c r="N70" s="154"/>
-      <c r="P70" s="191"/>
-      <c r="Q70" s="192"/>
-      <c r="R70" s="192"/>
-      <c r="S70" s="192"/>
-      <c r="T70" s="192"/>
-      <c r="U70" s="193"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="189"/>
+      <c r="R70" s="189"/>
+      <c r="S70" s="189"/>
+      <c r="T70" s="189"/>
+      <c r="U70" s="190"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="99"/>
@@ -9440,15 +10615,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="167"/>
       <c r="F83" s="167"/>
       <c r="G83" s="167"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
-      <c r="K83" s="215"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
+      <c r="K83" s="217"/>
       <c r="L83" s="167"/>
       <c r="M83" s="167"/>
       <c r="N83" s="167"/>
@@ -9568,30 +10743,40 @@
       <c r="R89" s="171"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="171"/>
       <c r="E90" s="171"/>
       <c r="F90" s="171"/>
       <c r="G90" s="171"/>
-      <c r="I90" s="215"/>
-      <c r="J90" s="215"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
       <c r="K90" s="171"/>
       <c r="L90" s="171"/>
       <c r="M90" s="171"/>
       <c r="N90" s="171"/>
-      <c r="P90" s="215"/>
-      <c r="Q90" s="215"/>
+      <c r="P90" s="217"/>
+      <c r="Q90" s="217"/>
       <c r="R90" s="171"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="I83:K83"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="I90:J90"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="P36:U36"/>
     <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I59:J59"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="I1:M1"/>
@@ -9619,7 +10804,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50:R51"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9642,27 +10827,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="H1" s="212" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="H1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="N1" s="212" t="s">
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="N1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -9713,29 +10898,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -10317,10 +11502,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="218"/>
+      <c r="C14" s="220"/>
       <c r="D14" s="26">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -10417,13 +11602,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
       <c r="G16" s="22">
         <v>43715</v>
       </c>
@@ -10674,10 +11859,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="217" t="s">
+      <c r="N20" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="218"/>
+      <c r="O20" s="220"/>
       <c r="P20" s="26">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -10772,13 +11957,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="45"/>
-      <c r="N22" s="204" t="s">
+      <c r="N22" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="205"/>
+      <c r="O22" s="215"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="215"/>
+      <c r="R22" s="215"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -10857,10 +12042,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="217" t="s">
+      <c r="H24" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="218"/>
+      <c r="I24" s="220"/>
       <c r="J24" s="26">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -10957,13 +12142,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="201" t="s">
+      <c r="H26" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="212"/>
       <c r="N26" s="42">
         <v>84240</v>
       </c>
@@ -11098,10 +12283,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="217" t="s">
+      <c r="B29" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="218"/>
+      <c r="C29" s="220"/>
       <c r="D29" s="26">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -11198,13 +12383,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="201" t="s">
+      <c r="B31" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
       <c r="G31" s="22">
         <v>43721</v>
       </c>
@@ -11570,10 +12755,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="209" t="s">
+      <c r="N37" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="209"/>
+      <c r="O37" s="201"/>
       <c r="P37" s="26">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -11647,10 +12832,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="207" t="s">
+      <c r="H39" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="208"/>
+      <c r="I39" s="200"/>
       <c r="J39" s="26">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -11664,13 +12849,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="45"/>
-      <c r="N39" s="204" t="s">
+      <c r="N39" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="205"/>
-      <c r="R39" s="205"/>
+      <c r="O39" s="215"/>
+      <c r="P39" s="215"/>
+      <c r="Q39" s="215"/>
+      <c r="R39" s="215"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
@@ -11738,13 +12923,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="45"/>
-      <c r="H41" s="201" t="s">
+      <c r="H41" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="212"/>
+      <c r="K41" s="212"/>
+      <c r="L41" s="212"/>
       <c r="N41" s="42">
         <v>64080</v>
       </c>
@@ -11879,10 +13064,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="217" t="s">
+      <c r="B44" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="218"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="49">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -11979,13 +13164,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="204" t="s">
+      <c r="B46" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
       <c r="G46" s="22">
         <v>43727</v>
       </c>
@@ -12121,10 +13306,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="209" t="s">
+      <c r="N48" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="209"/>
+      <c r="O48" s="201"/>
       <c r="P48" s="47">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -12219,13 +13404,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="45"/>
-      <c r="N50" s="204" t="s">
+      <c r="N50" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="205"/>
-      <c r="P50" s="205"/>
-      <c r="Q50" s="205"/>
-      <c r="R50" s="205"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="215"/>
+      <c r="R50" s="215"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
@@ -12610,10 +13795,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="219" t="s">
+      <c r="N57" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="219"/>
+      <c r="O57" s="221"/>
       <c r="P57" s="49">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -12672,10 +13857,10 @@
       <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="217" t="s">
+      <c r="B59" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="218"/>
+      <c r="C59" s="220"/>
       <c r="D59" s="47">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -12706,13 +13891,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="45"/>
-      <c r="N59" s="204" t="s">
+      <c r="N59" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="205"/>
-      <c r="P59" s="205"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="205"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
+      <c r="Q59" s="215"/>
+      <c r="R59" s="215"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
@@ -12763,13 +13948,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="204" t="s">
+      <c r="B61" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
       <c r="H61" s="23">
         <v>100800</v>
       </c>
@@ -13286,10 +14471,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="217" t="s">
+      <c r="H70" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="218"/>
+      <c r="I70" s="220"/>
       <c r="J70" s="49">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -13541,10 +14726,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="217" t="s">
+      <c r="B76" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="218"/>
+      <c r="C76" s="220"/>
       <c r="D76" s="49">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -13562,10 +14747,10 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
-      <c r="N76" s="219" t="s">
+      <c r="N76" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="219"/>
+      <c r="O76" s="221"/>
       <c r="P76" s="49">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -13683,19 +14868,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="H83" s="215"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="215"/>
-      <c r="O83" s="215"/>
-      <c r="P83" s="215"/>
+      <c r="N83" s="217"/>
+      <c r="O83" s="217"/>
+      <c r="P83" s="217"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -13791,18 +14976,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="215"/>
-      <c r="I90" s="215"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="215"/>
-      <c r="O90" s="215"/>
+      <c r="N90" s="217"/>
+      <c r="O90" s="217"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -13883,27 +15068,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="H1" s="212" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="H1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="N1" s="212" t="s">
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="N1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -13954,29 +15139,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="198" t="s">
+      <c r="H3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -14442,10 +15627,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="208"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="65">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -14543,13 +15728,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="206"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
       <c r="G14" s="22">
         <v>43744</v>
       </c>
@@ -15145,10 +16330,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="219" t="s">
+      <c r="N24" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="219"/>
+      <c r="O24" s="221"/>
       <c r="P24" s="66">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -15245,13 +16430,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="204" t="s">
+      <c r="N26" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="205"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
+      <c r="R26" s="215"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -15675,10 +16860,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="207" t="s">
+      <c r="H34" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="208"/>
+      <c r="I34" s="200"/>
       <c r="J34" s="67">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -15775,13 +16960,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="198" t="s">
+      <c r="H36" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="199"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="199"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="209"/>
       <c r="N36" s="42">
         <v>104400</v>
       </c>
@@ -15956,10 +17141,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="219" t="s">
+      <c r="N39" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="219"/>
+      <c r="O39" s="221"/>
       <c r="P39" s="68">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -16015,10 +17200,10 @@
       <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="208"/>
+      <c r="C41" s="200"/>
       <c r="D41" s="67">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -16052,13 +17237,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="45"/>
-      <c r="N41" s="204" t="s">
+      <c r="N41" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="205"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
@@ -16106,13 +17291,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="204" t="s">
+      <c r="B43" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="206"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="216"/>
       <c r="G43" s="22">
         <v>43757</v>
       </c>
@@ -16534,10 +17719,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="219" t="s">
+      <c r="N50" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="219"/>
+      <c r="O50" s="221"/>
       <c r="P50" s="77">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -16634,13 +17819,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="45"/>
-      <c r="N52" s="204" t="s">
+      <c r="N52" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="205"/>
-      <c r="P52" s="205"/>
-      <c r="Q52" s="205"/>
-      <c r="R52" s="205"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
+      <c r="Q52" s="215"/>
+      <c r="R52" s="215"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="42">
@@ -17235,10 +18420,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="207" t="s">
+      <c r="H63" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="208"/>
+      <c r="I63" s="200"/>
       <c r="J63" s="80">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -17335,13 +18520,13 @@
         <v>71298.000000000015</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="198" t="s">
+      <c r="H65" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="199"/>
-      <c r="J65" s="199"/>
-      <c r="K65" s="199"/>
-      <c r="L65" s="199"/>
+      <c r="I65" s="209"/>
+      <c r="J65" s="209"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="209"/>
       <c r="M65" s="22">
         <v>43765</v>
       </c>
@@ -17457,10 +18642,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="219" t="s">
+      <c r="N67" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="219"/>
+      <c r="O67" s="221"/>
       <c r="P67" s="81">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -17475,10 +18660,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="207" t="s">
+      <c r="B68" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="208"/>
+      <c r="C68" s="200"/>
       <c r="D68" s="80">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -17541,22 +18726,22 @@
         <v>98415</v>
       </c>
       <c r="M69" s="45"/>
-      <c r="N69" s="198" t="s">
+      <c r="N69" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="199"/>
-      <c r="P69" s="199"/>
-      <c r="Q69" s="199"/>
-      <c r="R69" s="199"/>
+      <c r="O69" s="209"/>
+      <c r="P69" s="209"/>
+      <c r="Q69" s="209"/>
+      <c r="R69" s="209"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="204" t="s">
+      <c r="B70" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="205"/>
-      <c r="F70" s="206"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="216"/>
       <c r="G70" s="22">
         <v>43769</v>
       </c>
@@ -17672,10 +18857,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="207" t="s">
+      <c r="H72" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="208"/>
+      <c r="I72" s="200"/>
       <c r="J72" s="82">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -17798,10 +18983,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="207" t="s">
+      <c r="B75" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="208"/>
+      <c r="C75" s="200"/>
       <c r="D75" s="82">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -17838,8 +19023,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="220"/>
-      <c r="C76" s="220"/>
+      <c r="B76" s="222"/>
+      <c r="C76" s="222"/>
       <c r="D76" s="28"/>
       <c r="E76" s="86"/>
       <c r="F76" s="28"/>
@@ -17909,10 +19094,10 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
-      <c r="N78" s="207" t="s">
+      <c r="N78" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="208"/>
+      <c r="O78" s="200"/>
       <c r="P78" s="82">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -17996,19 +19181,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
-      <c r="H83" s="215"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
       <c r="K83" s="64"/>
       <c r="L83" s="64"/>
-      <c r="N83" s="215"/>
-      <c r="O83" s="215"/>
-      <c r="P83" s="215"/>
+      <c r="N83" s="217"/>
+      <c r="O83" s="217"/>
+      <c r="P83" s="217"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -18104,18 +19289,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="215"/>
-      <c r="I90" s="215"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="215"/>
-      <c r="O90" s="215"/>
+      <c r="N90" s="217"/>
+      <c r="O90" s="217"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -18192,27 +19377,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="H1" s="212" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="H1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="N1" s="212" t="s">
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="N1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -18263,29 +19448,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="214" t="s">
+      <c r="N3" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -18791,10 +19976,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="207" t="s">
+      <c r="N12" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="208"/>
+      <c r="O12" s="200"/>
       <c r="P12" s="38">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -18891,13 +20076,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="45"/>
-      <c r="N14" s="214" t="s">
+      <c r="N14" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="99">
@@ -19091,10 +20276,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="207" t="s">
+      <c r="H18" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="208"/>
+      <c r="I18" s="200"/>
       <c r="J18" s="38">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -19191,13 +20376,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="201" t="s">
+      <c r="H20" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
       <c r="N20" s="99">
         <v>84960</v>
       </c>
@@ -19369,10 +20554,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="207" t="s">
+      <c r="N23" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="208"/>
+      <c r="O23" s="200"/>
       <c r="P23" s="38">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -19387,10 +20572,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="208"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="84">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -19453,23 +20638,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="45"/>
-      <c r="N25" s="214" t="s">
+      <c r="N25" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="197"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="197" t="s">
+      <c r="B26" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
       <c r="H26" s="23">
         <v>104400</v>
       </c>
@@ -19759,10 +20944,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="207" t="s">
+      <c r="H31" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="208"/>
+      <c r="I31" s="200"/>
       <c r="J31" s="38">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -19816,10 +21001,10 @@
       <c r="J32" s="24"/>
       <c r="K32" s="97"/>
       <c r="L32" s="24"/>
-      <c r="N32" s="207" t="s">
+      <c r="N32" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="208"/>
+      <c r="O32" s="200"/>
       <c r="P32" s="38">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -19834,10 +21019,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="208"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="100">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -19851,13 +21036,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="45"/>
-      <c r="H33" s="201" t="s">
+      <c r="H33" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="212"/>
       <c r="N33" s="42"/>
       <c r="O33" s="1"/>
       <c r="P33" s="24"/>
@@ -19891,23 +21076,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="214" t="s">
+      <c r="N34" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="197"/>
-      <c r="P34" s="197"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="197"/>
+      <c r="O34" s="202"/>
+      <c r="P34" s="202"/>
+      <c r="Q34" s="202"/>
+      <c r="R34" s="202"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
       <c r="H35" s="42">
         <v>144000</v>
       </c>
@@ -20270,10 +21455,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="207" t="s">
+      <c r="N41" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="208"/>
+      <c r="O41" s="200"/>
       <c r="P41" s="38">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -20370,19 +21555,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="45"/>
-      <c r="N43" s="197" t="s">
+      <c r="N43" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="197"/>
-      <c r="P43" s="197"/>
-      <c r="Q43" s="197"/>
-      <c r="R43" s="197"/>
+      <c r="O43" s="202"/>
+      <c r="P43" s="202"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="202"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="207" t="s">
+      <c r="B44" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="208"/>
+      <c r="C44" s="200"/>
       <c r="D44" s="100">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -20479,13 +21664,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="197" t="s">
+      <c r="B46" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="197"/>
-      <c r="F46" s="197"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
       <c r="G46" s="22">
         <v>43788</v>
       </c>
@@ -20601,10 +21786,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="207" t="s">
+      <c r="H48" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="208"/>
+      <c r="I48" s="200"/>
       <c r="J48" s="38">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -20701,13 +21886,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="45"/>
-      <c r="H50" s="201" t="s">
+      <c r="H50" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="202"/>
-      <c r="J50" s="202"/>
-      <c r="K50" s="202"/>
-      <c r="L50" s="202"/>
+      <c r="I50" s="212"/>
+      <c r="J50" s="212"/>
+      <c r="K50" s="212"/>
+      <c r="L50" s="212"/>
       <c r="M50" s="22">
         <v>43787</v>
       </c>
@@ -20823,10 +22008,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="207" t="s">
+      <c r="N52" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="208"/>
+      <c r="O52" s="200"/>
       <c r="P52" s="38">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -20923,13 +22108,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="45"/>
-      <c r="N54" s="197" t="s">
+      <c r="N54" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="197"/>
-      <c r="P54" s="197"/>
-      <c r="Q54" s="197"/>
-      <c r="R54" s="197"/>
+      <c r="O54" s="202"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="202"/>
+      <c r="R54" s="202"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
@@ -21277,10 +22462,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="207" t="s">
+      <c r="B61" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="208"/>
+      <c r="C61" s="200"/>
       <c r="D61" s="102">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -21313,10 +22498,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="207" t="s">
+      <c r="N61" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="208"/>
+      <c r="O61" s="200"/>
       <c r="P61" s="38">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -21360,13 +22545,13 @@
       <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="204" t="s">
+      <c r="B63" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="205"/>
-      <c r="F63" s="205"/>
+      <c r="C63" s="215"/>
+      <c r="D63" s="215"/>
+      <c r="E63" s="215"/>
+      <c r="F63" s="215"/>
       <c r="G63" s="22">
         <v>43795</v>
       </c>
@@ -21388,13 +22573,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="45"/>
-      <c r="N63" s="197" t="s">
+      <c r="N63" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="197"/>
-      <c r="P63" s="197"/>
-      <c r="Q63" s="197"/>
-      <c r="R63" s="197"/>
+      <c r="O63" s="202"/>
+      <c r="P63" s="202"/>
+      <c r="Q63" s="202"/>
+      <c r="R63" s="202"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
@@ -21894,10 +23079,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="207" t="s">
+      <c r="N72" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="208"/>
+      <c r="O72" s="200"/>
       <c r="P72" s="38">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -21929,10 +23114,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="207" t="s">
+      <c r="H73" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="208"/>
+      <c r="I73" s="200"/>
       <c r="J73" s="38">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -21978,13 +23163,13 @@
       <c r="K74" s="85"/>
       <c r="L74" s="85"/>
       <c r="M74" s="45"/>
-      <c r="N74" s="197" t="s">
+      <c r="N74" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="197"/>
-      <c r="P74" s="197"/>
-      <c r="Q74" s="197"/>
-      <c r="R74" s="197"/>
+      <c r="O74" s="202"/>
+      <c r="P74" s="202"/>
+      <c r="Q74" s="202"/>
+      <c r="R74" s="202"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B75" s="42">
@@ -22031,10 +23216,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="207" t="s">
+      <c r="B76" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="208"/>
+      <c r="C76" s="200"/>
       <c r="D76" s="103">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -22255,14 +23440,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="83"/>
       <c r="F83" s="83"/>
-      <c r="H83" s="215"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="22">
@@ -22326,10 +23511,10 @@
       <c r="J85" s="85"/>
       <c r="K85" s="85"/>
       <c r="L85" s="85"/>
-      <c r="N85" s="207" t="s">
+      <c r="N85" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="208"/>
+      <c r="O85" s="200"/>
       <c r="P85" s="38">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -22407,18 +23592,18 @@
       <c r="P89" s="85"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="85"/>
-      <c r="H90" s="215"/>
-      <c r="I90" s="215"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
-      <c r="N90" s="215"/>
-      <c r="O90" s="215"/>
+      <c r="N90" s="217"/>
+      <c r="O90" s="217"/>
       <c r="P90" s="85"/>
     </row>
   </sheetData>
@@ -22506,27 +23691,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="H1" s="212" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="H1" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="N1" s="212" t="s">
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="N1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -22577,29 +23762,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="198" t="s">
+      <c r="H3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="203"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="213"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="197" t="s">
+      <c r="N3" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
@@ -22872,10 +24057,10 @@
         <f t="shared" si="9"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="207" t="s">
+      <c r="N8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="208"/>
+      <c r="O8" s="200"/>
       <c r="P8" s="38">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -22972,13 +24157,13 @@
         <v>94770</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="204" t="s">
+      <c r="N10" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
@@ -23477,10 +24662,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N19" s="207" t="s">
+      <c r="N19" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="208"/>
+      <c r="O19" s="200"/>
       <c r="P19" s="38">
         <f>SUM(P11:P18)</f>
         <v>505093.68</v>
@@ -23577,19 +24762,19 @@
         <v>94770</v>
       </c>
       <c r="M21" s="45"/>
-      <c r="N21" s="214" t="s">
+      <c r="N21" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="197"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="202"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="208"/>
+      <c r="C22" s="200"/>
       <c r="D22" s="38">
         <f>SUM(D4:D21)</f>
         <v>1859301.3599999999</v>
@@ -23685,13 +24870,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="201" t="s">
+      <c r="B24" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
       <c r="G24" s="22">
         <v>43810</v>
       </c>
@@ -24612,10 +25797,10 @@
         <f t="shared" si="23"/>
         <v>109174</v>
       </c>
-      <c r="H40" s="207" t="s">
+      <c r="H40" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="208"/>
+      <c r="I40" s="200"/>
       <c r="J40" s="38">
         <f>SUM(J4:J39)</f>
         <v>3550680.0000000005</v>
@@ -24628,10 +25813,10 @@
         <f>SUM(L4:L39)</f>
         <v>3422655</v>
       </c>
-      <c r="N40" s="207" t="s">
+      <c r="N40" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="208"/>
+      <c r="O40" s="200"/>
       <c r="P40" s="38">
         <f>SUM(P22:P39)</f>
         <v>1381640.4</v>
@@ -24696,21 +25881,21 @@
         <v>109174</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="198" t="s">
+      <c r="H42" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="199"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="199"/>
-      <c r="L42" s="199"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="209"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="197" t="s">
+      <c r="N42" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="197"/>
-      <c r="P42" s="197"/>
-      <c r="Q42" s="197"/>
-      <c r="R42" s="197"/>
+      <c r="O42" s="202"/>
+      <c r="P42" s="202"/>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -24828,10 +26013,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="207" t="s">
+      <c r="B45" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="208"/>
+      <c r="C45" s="200"/>
       <c r="D45" s="38">
         <f>SUM(D25:D44)</f>
         <v>2238094.0799999996</v>
@@ -24927,13 +26112,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="201" t="s">
+      <c r="B47" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="200"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="212"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="210"/>
       <c r="G47" s="22">
         <v>43820</v>
       </c>
@@ -25299,10 +26484,10 @@
         <f t="shared" si="33"/>
         <v>97380</v>
       </c>
-      <c r="N53" s="207" t="s">
+      <c r="N53" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="208"/>
+      <c r="O53" s="200"/>
       <c r="P53" s="38">
         <f>SUM(P43:P52)</f>
         <v>719671.67999999993</v>
@@ -25399,13 +26584,13 @@
         <v>102249</v>
       </c>
       <c r="M55" s="45"/>
-      <c r="N55" s="214" t="s">
+      <c r="N55" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="197"/>
-      <c r="P55" s="197"/>
-      <c r="Q55" s="197"/>
-      <c r="R55" s="197"/>
+      <c r="O55" s="202"/>
+      <c r="P55" s="202"/>
+      <c r="Q55" s="202"/>
+      <c r="R55" s="202"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -25599,10 +26784,10 @@
         <f t="shared" si="37"/>
         <v>104192</v>
       </c>
-      <c r="H59" s="207" t="s">
+      <c r="H59" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="208"/>
+      <c r="I59" s="200"/>
       <c r="J59" s="38">
         <f>SUM(J43:J58)</f>
         <v>1715012.6400000004</v>
@@ -25699,13 +26884,13 @@
         <v>104192</v>
       </c>
       <c r="G61" s="45"/>
-      <c r="H61" s="198" t="s">
+      <c r="H61" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="199"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="203"/>
+      <c r="I61" s="209"/>
+      <c r="J61" s="209"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="213"/>
       <c r="N61" s="42">
         <v>90000</v>
       </c>
@@ -25995,10 +27180,10 @@
         <f t="shared" si="45"/>
         <v>94770</v>
       </c>
-      <c r="N66" s="207" t="s">
+      <c r="N66" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="208"/>
+      <c r="O66" s="200"/>
       <c r="P66" s="38">
         <f>SUM(P56:P65)</f>
         <v>880380</v>
@@ -26095,13 +27280,13 @@
         <v>98415</v>
       </c>
       <c r="M68" s="45"/>
-      <c r="N68" s="204" t="s">
+      <c r="N68" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="O68" s="205"/>
-      <c r="P68" s="205"/>
-      <c r="Q68" s="205"/>
-      <c r="R68" s="205"/>
+      <c r="O68" s="215"/>
+      <c r="P68" s="215"/>
+      <c r="Q68" s="215"/>
+      <c r="R68" s="215"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="23">
@@ -26275,10 +27460,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="217" t="s">
+      <c r="B72" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="218"/>
+      <c r="C72" s="220"/>
       <c r="D72" s="51">
         <f>SUM(D48:D71)</f>
         <v>2637675.3600000003</v>
@@ -26291,10 +27476,10 @@
         <f>SUM(F48:F71)</f>
         <v>2510256</v>
       </c>
-      <c r="H72" s="217" t="s">
+      <c r="H72" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="218"/>
+      <c r="I72" s="220"/>
       <c r="J72" s="51">
         <f>SUM(J62:J71)</f>
         <v>969023.15999999992</v>
@@ -26581,10 +27766,10 @@
       <c r="J81" s="105"/>
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
-      <c r="N81" s="217" t="s">
+      <c r="N81" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="218"/>
+      <c r="O81" s="220"/>
       <c r="P81" s="51">
         <f>SUM(P69:P80)</f>
         <v>1082706.48</v>
@@ -26616,14 +27801,14 @@
       <c r="R82" s="61"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="215"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="215"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="104"/>
       <c r="F83" s="104"/>
-      <c r="H83" s="215"/>
-      <c r="I83" s="215"/>
-      <c r="J83" s="215"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104"/>
       <c r="N83" s="113"/>
@@ -26730,18 +27915,18 @@
       <c r="P89" s="105"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="215"/>
-      <c r="C90" s="215"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="105"/>
       <c r="E90" s="105"/>
       <c r="F90" s="105"/>
-      <c r="H90" s="215"/>
-      <c r="I90" s="215"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
-      <c r="N90" s="215"/>
-      <c r="O90" s="215"/>
+      <c r="N90" s="217"/>
+      <c r="O90" s="217"/>
       <c r="P90" s="105"/>
     </row>
   </sheetData>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="59">
   <si>
     <t>% работы</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>XXI-В-28-2.1-500-16 (Сябры 0,5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2-500-29 (Кепил 0,5 л.)</t>
+  </si>
+  <si>
+    <t>III-2-82-450-1 (Банка 0,45 л.)</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1535,115 +1541,7 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,15 +1598,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1716,6 +1605,117 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2055,29 +2055,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="144"/>
-      <c r="I1" s="250" t="s">
+      <c r="I1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
       <c r="N1" s="144"/>
-      <c r="P1" s="250" t="s">
+      <c r="P1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
     </row>
     <row r="2" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -2137,32 +2137,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="252"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="245" t="s">
+      <c r="I3" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="244"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="270"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="245" t="s">
+      <c r="P3" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="247"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="273"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -2298,10 +2298,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="240"/>
+      <c r="C6" s="261"/>
       <c r="D6" s="140">
         <f>SUM(D4:D5)</f>
         <v>223367.04000000001</v>
@@ -2415,14 +2415,14 @@
     </row>
     <row r="8" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
-      <c r="B8" s="241" t="s">
+      <c r="B8" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
       <c r="H8" s="22">
         <v>43833</v>
       </c>
@@ -2579,10 +2579,10 @@
       <c r="N10" s="154">
         <v>192.64</v>
       </c>
-      <c r="P10" s="237" t="s">
+      <c r="P10" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="238"/>
+      <c r="Q10" s="260"/>
       <c r="R10" s="38">
         <f>SUM(R4:R9)</f>
         <v>549478.07999999996</v>
@@ -2697,14 +2697,14 @@
         <v>192.97</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="242" t="s">
+      <c r="P12" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="243"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="243"/>
-      <c r="U12" s="244"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="272"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="270"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -3549,10 +3549,10 @@
       <c r="N25" s="154">
         <v>192.18</v>
       </c>
-      <c r="P25" s="237" t="s">
+      <c r="P25" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="238"/>
+      <c r="Q25" s="260"/>
       <c r="R25" s="38">
         <f>SUM(R13:R24)</f>
         <v>941633.27999999991</v>
@@ -3666,14 +3666,14 @@
         <v>192.87</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="253" t="s">
+      <c r="P27" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="254"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="255"/>
+      <c r="Q27" s="275"/>
+      <c r="R27" s="275"/>
+      <c r="S27" s="275"/>
+      <c r="T27" s="275"/>
+      <c r="U27" s="276"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99">
@@ -3877,10 +3877,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="240"/>
+      <c r="C31" s="261"/>
       <c r="D31" s="140">
         <f>SUM(D9:D30)</f>
         <v>2224285.92</v>
@@ -3994,14 +3994,14 @@
     </row>
     <row r="33" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
-      <c r="B33" s="241" t="s">
+      <c r="B33" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
       <c r="I33" s="9">
         <v>100800</v>
       </c>
@@ -4223,10 +4223,10 @@
       <c r="N36" s="154">
         <v>193.6</v>
       </c>
-      <c r="P36" s="237" t="s">
+      <c r="P36" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="238"/>
+      <c r="Q36" s="260"/>
       <c r="R36" s="38">
         <f>SUM(R28:R35)</f>
         <v>651933.36</v>
@@ -4340,14 +4340,14 @@
         <v>192.39</v>
       </c>
       <c r="O38" s="45"/>
-      <c r="P38" s="253" t="s">
+      <c r="P38" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="254"/>
-      <c r="R38" s="254"/>
-      <c r="S38" s="254"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="255"/>
+      <c r="Q38" s="275"/>
+      <c r="R38" s="275"/>
+      <c r="S38" s="275"/>
+      <c r="T38" s="275"/>
+      <c r="U38" s="276"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B39" s="99">
@@ -4415,10 +4415,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="240" t="s">
+      <c r="B40" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="240"/>
+      <c r="C40" s="261"/>
       <c r="D40" s="140">
         <f>SUM(D34:D39)</f>
         <v>740793.6</v>
@@ -4532,14 +4532,14 @@
     </row>
     <row r="42" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
-      <c r="B42" s="241" t="s">
+      <c r="B42" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="241"/>
+      <c r="C42" s="262"/>
+      <c r="D42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
       <c r="H42" s="22">
         <v>43850</v>
       </c>
@@ -4806,10 +4806,10 @@
       <c r="G46" s="154">
         <v>305.87</v>
       </c>
-      <c r="I46" s="237" t="s">
+      <c r="I46" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="238"/>
+      <c r="J46" s="260"/>
       <c r="K46" s="38">
         <f>SUM(K4:K45)</f>
         <v>4144291.2</v>
@@ -4923,14 +4923,14 @@
         <v>305.2</v>
       </c>
       <c r="H48" s="45"/>
-      <c r="I48" s="242" t="s">
+      <c r="I48" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="243"/>
-      <c r="K48" s="243"/>
-      <c r="L48" s="243"/>
-      <c r="M48" s="243"/>
-      <c r="N48" s="244"/>
+      <c r="J48" s="272"/>
+      <c r="K48" s="272"/>
+      <c r="L48" s="272"/>
+      <c r="M48" s="272"/>
+      <c r="N48" s="270"/>
       <c r="P48" s="42">
         <v>65520</v>
       </c>
@@ -5132,10 +5132,10 @@
       <c r="N51" s="154">
         <v>141.72999999999999</v>
       </c>
-      <c r="P51" s="237" t="s">
+      <c r="P51" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q51" s="238"/>
+      <c r="Q51" s="260"/>
       <c r="R51" s="38">
         <f>SUM(R39:R50)</f>
         <v>759245.75999999989</v>
@@ -5202,10 +5202,10 @@
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="240" t="s">
+      <c r="B53" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="240"/>
+      <c r="C53" s="261"/>
       <c r="D53" s="140">
         <f>SUM(D43:D52)</f>
         <v>942062.4</v>
@@ -5246,14 +5246,14 @@
         <v>142.97</v>
       </c>
       <c r="O53" s="45"/>
-      <c r="P53" s="245" t="s">
+      <c r="P53" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="246"/>
-      <c r="R53" s="246"/>
-      <c r="S53" s="246"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="247"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="269"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="269"/>
+      <c r="U53" s="273"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B54" s="23"/>
@@ -5308,14 +5308,14 @@
     </row>
     <row r="55" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
-      <c r="B55" s="241" t="s">
+      <c r="B55" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="241"/>
-      <c r="D55" s="241"/>
-      <c r="E55" s="241"/>
-      <c r="F55" s="241"/>
-      <c r="G55" s="241"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="262"/>
+      <c r="E55" s="262"/>
+      <c r="F55" s="262"/>
+      <c r="G55" s="262"/>
       <c r="H55" s="22">
         <v>43855</v>
       </c>
@@ -5715,10 +5715,10 @@
       <c r="G61" s="154">
         <v>249.95</v>
       </c>
-      <c r="I61" s="237" t="s">
+      <c r="I61" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="238"/>
+      <c r="J61" s="260"/>
       <c r="K61" s="38">
         <f>SUM(K49:K60)</f>
         <v>1685448</v>
@@ -5832,14 +5832,14 @@
         <v>249.18</v>
       </c>
       <c r="H63" s="45"/>
-      <c r="I63" s="242" t="s">
+      <c r="I63" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="243"/>
-      <c r="K63" s="243"/>
-      <c r="L63" s="243"/>
-      <c r="M63" s="243"/>
-      <c r="N63" s="244"/>
+      <c r="J63" s="272"/>
+      <c r="K63" s="272"/>
+      <c r="L63" s="272"/>
+      <c r="M63" s="272"/>
+      <c r="N63" s="270"/>
       <c r="P63" s="99">
         <v>84960</v>
       </c>
@@ -6174,10 +6174,10 @@
       <c r="N68" s="154">
         <v>185</v>
       </c>
-      <c r="P68" s="237" t="s">
+      <c r="P68" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="238"/>
+      <c r="Q68" s="260"/>
       <c r="R68" s="38">
         <f>SUM(R54:R67)</f>
         <v>1141012.7999999998</v>
@@ -6291,14 +6291,14 @@
         <v>185.15</v>
       </c>
       <c r="O70" s="45"/>
-      <c r="P70" s="245" t="s">
+      <c r="P70" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="246"/>
-      <c r="R70" s="246"/>
-      <c r="S70" s="246"/>
-      <c r="T70" s="246"/>
-      <c r="U70" s="247"/>
+      <c r="Q70" s="269"/>
+      <c r="R70" s="269"/>
+      <c r="S70" s="269"/>
+      <c r="T70" s="269"/>
+      <c r="U70" s="273"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B71" s="99">
@@ -6366,10 +6366,10 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="240" t="s">
+      <c r="B72" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="240"/>
+      <c r="C72" s="261"/>
       <c r="D72" s="166">
         <f>SUM(D56:D71)</f>
         <v>1685368.8</v>
@@ -6386,10 +6386,10 @@
         <f>AVERAGE(G56:G71)</f>
         <v>249.36999999999995</v>
       </c>
-      <c r="I72" s="237" t="s">
+      <c r="I72" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="238"/>
+      <c r="J72" s="260"/>
       <c r="K72" s="38">
         <f>SUM(K64:K71)</f>
         <v>809100</v>
@@ -6466,14 +6466,14 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
-      <c r="B74" s="241" t="s">
+      <c r="B74" s="262" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="241"/>
-      <c r="D74" s="241"/>
-      <c r="E74" s="241"/>
-      <c r="F74" s="241"/>
-      <c r="G74" s="241"/>
+      <c r="C74" s="262"/>
+      <c r="D74" s="262"/>
+      <c r="E74" s="262"/>
+      <c r="F74" s="262"/>
+      <c r="G74" s="262"/>
       <c r="I74" s="135"/>
       <c r="J74" s="5"/>
       <c r="K74" s="135"/>
@@ -6803,10 +6803,10 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B81" s="240" t="s">
+      <c r="B81" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="240"/>
+      <c r="C81" s="261"/>
       <c r="D81" s="169">
         <f>SUM(D75:D80)</f>
         <v>555696</v>
@@ -6828,10 +6828,10 @@
       <c r="L81" s="135"/>
       <c r="M81" s="135"/>
       <c r="N81" s="141"/>
-      <c r="P81" s="237" t="s">
+      <c r="P81" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="238"/>
+      <c r="Q81" s="260"/>
       <c r="R81" s="38">
         <f>SUM(R71:R80)</f>
         <v>746440.55999999994</v>
@@ -6868,15 +6868,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
       <c r="G83" s="139"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
-      <c r="K83" s="239"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
+      <c r="K83" s="277"/>
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="139"/>
@@ -6996,30 +6996,40 @@
       <c r="R89" s="135"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="141"/>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
+      <c r="I90" s="277"/>
+      <c r="J90" s="277"/>
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
       <c r="M90" s="135"/>
       <c r="N90" s="141"/>
-      <c r="P90" s="239"/>
-      <c r="Q90" s="239"/>
+      <c r="P90" s="277"/>
+      <c r="Q90" s="277"/>
       <c r="R90" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="P70:U70"/>
+    <mergeCell ref="I83:K83"/>
     <mergeCell ref="P68:Q68"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B1:F1"/>
@@ -7036,22 +7046,12 @@
     <mergeCell ref="P38:U38"/>
     <mergeCell ref="P53:U53"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="P70:U70"/>
-    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7098,29 +7098,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="170"/>
-      <c r="I1" s="250" t="s">
+      <c r="I1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
       <c r="N1" s="170"/>
-      <c r="P1" s="250" t="s">
+      <c r="P1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
     </row>
     <row r="2" spans="1:21" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -7180,32 +7180,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="262" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="252"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="245" t="s">
+      <c r="I3" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="273"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="242" t="s">
+      <c r="P3" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="244"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="270"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -7497,10 +7497,10 @@
       <c r="G8" s="154">
         <v>332.58</v>
       </c>
-      <c r="I8" s="240" t="s">
+      <c r="I8" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="240"/>
+      <c r="J8" s="261"/>
       <c r="K8" s="169">
         <f>SUM(K4:K7)</f>
         <v>410641.2</v>
@@ -7613,14 +7613,14 @@
       <c r="G10" s="154">
         <v>332.68</v>
       </c>
-      <c r="I10" s="245" t="s">
+      <c r="I10" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="244"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="270"/>
       <c r="O10" s="22">
         <v>43865</v>
       </c>
@@ -7755,10 +7755,10 @@
       <c r="N12" s="154">
         <v>192.29</v>
       </c>
-      <c r="P12" s="240" t="s">
+      <c r="P12" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="240"/>
+      <c r="Q12" s="261"/>
       <c r="R12" s="173">
         <f>SUM(R4:R11)</f>
         <v>611516.15999999992</v>
@@ -7873,14 +7873,14 @@
         <v>192.89</v>
       </c>
       <c r="O14" s="45"/>
-      <c r="P14" s="253" t="s">
+      <c r="P14" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="254"/>
-      <c r="R14" s="254"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="259"/>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="275"/>
+      <c r="S14" s="275"/>
+      <c r="T14" s="275"/>
+      <c r="U14" s="278"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="99">
@@ -7951,10 +7951,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="240" t="s">
+      <c r="B16" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="240"/>
+      <c r="C16" s="261"/>
       <c r="D16" s="173">
         <f>SUM(D4:D15)</f>
         <v>1125178.56</v>
@@ -8068,14 +8068,14 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="252"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
       <c r="I18" s="9">
         <v>100800</v>
       </c>
@@ -8563,10 +8563,10 @@
       <c r="N25" s="154">
         <v>192.91</v>
       </c>
-      <c r="P25" s="240" t="s">
+      <c r="P25" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="240"/>
+      <c r="Q25" s="261"/>
       <c r="R25" s="173">
         <f>SUM(R15:R24)</f>
         <v>730900.8</v>
@@ -8680,14 +8680,14 @@
         <v>192.2</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="253" t="s">
+      <c r="P27" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="254"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="255"/>
+      <c r="Q27" s="275"/>
+      <c r="R27" s="275"/>
+      <c r="S27" s="275"/>
+      <c r="T27" s="275"/>
+      <c r="U27" s="276"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="42">
@@ -8755,10 +8755,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="240" t="s">
+      <c r="B29" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="240"/>
+      <c r="C29" s="261"/>
       <c r="D29" s="181">
         <f>SUM(D19:D28)</f>
         <v>847836</v>
@@ -8872,14 +8872,14 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
-      <c r="B31" s="242" t="s">
+      <c r="B31" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="244"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="270"/>
       <c r="H31" s="22">
         <v>43874</v>
       </c>
@@ -9101,10 +9101,10 @@
       <c r="N34" s="154">
         <v>193.02</v>
       </c>
-      <c r="P34" s="240" t="s">
+      <c r="P34" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="240"/>
+      <c r="Q34" s="261"/>
       <c r="R34" s="184">
         <f>SUM(R28:R33)</f>
         <v>442055.51999999996</v>
@@ -9218,14 +9218,14 @@
         <v>192.73</v>
       </c>
       <c r="O36" s="45"/>
-      <c r="P36" s="253" t="s">
+      <c r="P36" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="254"/>
-      <c r="R36" s="254"/>
-      <c r="S36" s="254"/>
-      <c r="T36" s="254"/>
-      <c r="U36" s="255"/>
+      <c r="Q36" s="275"/>
+      <c r="R36" s="275"/>
+      <c r="S36" s="275"/>
+      <c r="T36" s="275"/>
+      <c r="U36" s="276"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B37" s="42">
@@ -9514,10 +9514,10 @@
       <c r="G41" s="154">
         <v>437.1</v>
       </c>
-      <c r="I41" s="240" t="s">
+      <c r="I41" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="240"/>
+      <c r="J41" s="261"/>
       <c r="K41" s="185">
         <f>SUM(K11:K40)</f>
         <v>2939529.5999999996</v>
@@ -9631,14 +9631,14 @@
         <v>438.23</v>
       </c>
       <c r="H43" s="45"/>
-      <c r="I43" s="245" t="s">
+      <c r="I43" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="246"/>
-      <c r="K43" s="246"/>
-      <c r="L43" s="246"/>
-      <c r="M43" s="246"/>
-      <c r="N43" s="244"/>
+      <c r="J43" s="269"/>
+      <c r="K43" s="269"/>
+      <c r="L43" s="269"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="270"/>
       <c r="O43" s="22">
         <v>43877</v>
       </c>
@@ -9797,10 +9797,10 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="240" t="s">
+      <c r="B46" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="240"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="186">
         <f>SUM(D32:D45)</f>
         <v>1074025.44</v>
@@ -9914,18 +9914,18 @@
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
-      <c r="B48" s="256" t="s">
+      <c r="B48" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="257"/>
-      <c r="D48" s="257"/>
-      <c r="E48" s="257"/>
-      <c r="F48" s="257"/>
-      <c r="G48" s="258"/>
-      <c r="I48" s="240" t="s">
+      <c r="C48" s="280"/>
+      <c r="D48" s="280"/>
+      <c r="E48" s="280"/>
+      <c r="F48" s="280"/>
+      <c r="G48" s="281"/>
+      <c r="I48" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="240"/>
+      <c r="J48" s="261"/>
       <c r="K48" s="187">
         <f>SUM(K44:K47)</f>
         <v>407247.83999999997</v>
@@ -10039,14 +10039,14 @@
         <v>391.64</v>
       </c>
       <c r="H50" s="45"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="246"/>
-      <c r="M50" s="246"/>
-      <c r="N50" s="244"/>
+      <c r="J50" s="269"/>
+      <c r="K50" s="269"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="269"/>
+      <c r="N50" s="270"/>
       <c r="P50" s="42">
         <v>65520</v>
       </c>
@@ -10248,10 +10248,10 @@
       <c r="N53" s="154">
         <v>191.85</v>
       </c>
-      <c r="P53" s="240" t="s">
+      <c r="P53" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="240"/>
+      <c r="Q53" s="261"/>
       <c r="R53" s="187">
         <f>SUM(R37:R52)</f>
         <v>1017197.9999999998</v>
@@ -10365,14 +10365,14 @@
         <v>191.56</v>
       </c>
       <c r="O55" s="45"/>
-      <c r="P55" s="253" t="s">
+      <c r="P55" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="Q55" s="254"/>
-      <c r="R55" s="254"/>
-      <c r="S55" s="254"/>
-      <c r="T55" s="254"/>
-      <c r="U55" s="259"/>
+      <c r="Q55" s="275"/>
+      <c r="R55" s="275"/>
+      <c r="S55" s="275"/>
+      <c r="T55" s="275"/>
+      <c r="U55" s="278"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="42">
@@ -10596,10 +10596,10 @@
       <c r="G59" s="154">
         <v>391.71</v>
       </c>
-      <c r="I59" s="240" t="s">
+      <c r="I59" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="J59" s="240"/>
+      <c r="J59" s="261"/>
       <c r="K59" s="187">
         <f>SUM(K51:K58)</f>
         <v>899444.15999999992</v>
@@ -10713,14 +10713,14 @@
         <v>393.33</v>
       </c>
       <c r="H61" s="45"/>
-      <c r="I61" s="245" t="s">
+      <c r="I61" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="246"/>
-      <c r="K61" s="246"/>
-      <c r="L61" s="246"/>
-      <c r="M61" s="246"/>
-      <c r="N61" s="244"/>
+      <c r="J61" s="269"/>
+      <c r="K61" s="269"/>
+      <c r="L61" s="269"/>
+      <c r="M61" s="269"/>
+      <c r="N61" s="270"/>
       <c r="P61" s="42">
         <v>74880</v>
       </c>
@@ -10944,10 +10944,10 @@
       </c>
     </row>
     <row r="65" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="240" t="s">
+      <c r="B65" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="240"/>
+      <c r="C65" s="261"/>
       <c r="D65" s="190">
         <f>SUM(D49:D64)</f>
         <v>1397615.9039999999</v>
@@ -11035,10 +11035,10 @@
       <c r="N66" s="154">
         <v>193.93</v>
       </c>
-      <c r="P66" s="240" t="s">
+      <c r="P66" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="Q66" s="240"/>
+      <c r="Q66" s="261"/>
       <c r="R66" s="189">
         <f>SUM(R56:R65)</f>
         <v>726785.27999999991</v>
@@ -11058,14 +11058,14 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
-      <c r="B67" s="253" t="s">
+      <c r="B67" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="254"/>
-      <c r="D67" s="254"/>
-      <c r="E67" s="254"/>
-      <c r="F67" s="254"/>
-      <c r="G67" s="259"/>
+      <c r="C67" s="275"/>
+      <c r="D67" s="275"/>
+      <c r="E67" s="275"/>
+      <c r="F67" s="275"/>
+      <c r="G67" s="278"/>
       <c r="I67" s="9">
         <v>100800</v>
       </c>
@@ -11141,14 +11141,14 @@
         <v>193.85</v>
       </c>
       <c r="O68" s="45"/>
-      <c r="P68" s="237" t="s">
+      <c r="P68" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="Q68" s="261"/>
-      <c r="R68" s="261"/>
-      <c r="S68" s="261"/>
-      <c r="T68" s="261"/>
-      <c r="U68" s="238"/>
+      <c r="Q68" s="283"/>
+      <c r="R68" s="283"/>
+      <c r="S68" s="283"/>
+      <c r="T68" s="283"/>
+      <c r="U68" s="260"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B69" s="42">
@@ -11482,10 +11482,10 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B74" s="260" t="s">
+      <c r="B74" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="260"/>
+      <c r="C74" s="282"/>
       <c r="D74" s="191">
         <f>SUM(D68:D73)</f>
         <v>529735.68000000005</v>
@@ -11502,10 +11502,10 @@
         <f>AVERAGE(G68:G73)</f>
         <v>351.01</v>
       </c>
-      <c r="I74" s="240" t="s">
+      <c r="I74" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="240"/>
+      <c r="J74" s="261"/>
       <c r="K74" s="190">
         <f>SUM(K62:K73)</f>
         <v>1168473.6000000001</v>
@@ -11626,10 +11626,10 @@
       <c r="M77" s="171"/>
       <c r="N77" s="171"/>
       <c r="O77" s="22"/>
-      <c r="P77" s="260" t="s">
+      <c r="P77" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="Q77" s="260"/>
+      <c r="Q77" s="282"/>
       <c r="R77" s="191">
         <f>SUM(R69:R76)</f>
         <v>540630.72000000009</v>
@@ -11745,15 +11745,15 @@
       <c r="T82" s="192"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="167"/>
       <c r="F83" s="167"/>
       <c r="G83" s="167"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
-      <c r="K83" s="239"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
+      <c r="K83" s="277"/>
       <c r="L83" s="167"/>
       <c r="M83" s="167"/>
       <c r="N83" s="167"/>
@@ -11873,48 +11873,24 @@
       <c r="R89" s="171"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="171"/>
       <c r="E90" s="171"/>
       <c r="F90" s="171"/>
       <c r="G90" s="171"/>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
+      <c r="I90" s="277"/>
+      <c r="J90" s="277"/>
       <c r="K90" s="171"/>
       <c r="L90" s="171"/>
       <c r="M90" s="171"/>
       <c r="N90" s="171"/>
-      <c r="P90" s="239"/>
-      <c r="Q90" s="239"/>
+      <c r="P90" s="277"/>
+      <c r="Q90" s="277"/>
       <c r="R90" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="P36:U36"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="I41:J41"/>
     <mergeCell ref="P90:Q90"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="P53:Q53"/>
@@ -11931,6 +11907,30 @@
     <mergeCell ref="P68:U68"/>
     <mergeCell ref="P77:Q77"/>
     <mergeCell ref="B83:D83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P36:U36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11945,9 +11945,9 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69:G69"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11977,29 +11977,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="201"/>
-      <c r="I1" s="250" t="s">
+      <c r="I1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
       <c r="N1" s="201"/>
-      <c r="P1" s="250" t="s">
+      <c r="P1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
     </row>
     <row r="2" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -12060,32 +12060,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="259"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="242" t="s">
+      <c r="I3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="244"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="270"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="270" t="s">
+      <c r="P3" s="284" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="238"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="285"/>
+      <c r="S3" s="285"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="260"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -12537,10 +12537,10 @@
         <f>AVERAGE(P4:P9)</f>
         <v>455.27166666666659</v>
       </c>
-      <c r="Q10" s="268" t="s">
+      <c r="Q10" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="269"/>
+      <c r="R10" s="289"/>
       <c r="S10" s="37">
         <f>T10/U10</f>
         <v>0.96608127857368509</v>
@@ -12652,14 +12652,14 @@
         <v>99792</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="245" t="s">
+      <c r="P12" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="247"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="269"/>
+      <c r="T12" s="269"/>
+      <c r="U12" s="273"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="154">
@@ -12731,10 +12731,10 @@
         <f>AVERAGE(B4:B13)</f>
         <v>351.43200000000002</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="267"/>
+      <c r="D14" s="287"/>
       <c r="E14" s="210">
         <f>F14/G14</f>
         <v>0.97680035617169647</v>
@@ -12844,14 +12844,14 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="241" t="s">
+      <c r="B16" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
       <c r="H16" s="22">
         <v>43897</v>
       </c>
@@ -13476,10 +13476,10 @@
         <f>AVERAGE(P13:P24)</f>
         <v>370.49166666666673</v>
       </c>
-      <c r="Q25" s="268" t="s">
+      <c r="Q25" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="269"/>
+      <c r="R25" s="289"/>
       <c r="S25" s="37">
         <f>T25/U25</f>
         <v>0.92835712940612525</v>
@@ -13589,14 +13589,14 @@
         <v>99590.399999999994</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="253" t="s">
+      <c r="P27" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="254"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="255"/>
+      <c r="Q27" s="275"/>
+      <c r="R27" s="275"/>
+      <c r="S27" s="275"/>
+      <c r="T27" s="275"/>
+      <c r="U27" s="276"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="154">
@@ -13912,10 +13912,10 @@
         <f>AVERAGE(P28:P31)</f>
         <v>439.98750000000001</v>
       </c>
-      <c r="Q32" s="268" t="s">
+      <c r="Q32" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="269"/>
+      <c r="R32" s="289"/>
       <c r="S32" s="37">
         <f>T32/U32</f>
         <v>0.84106451150112393</v>
@@ -14025,14 +14025,14 @@
         <v>99187.199999999997</v>
       </c>
       <c r="O34" s="45"/>
-      <c r="P34" s="242" t="s">
+      <c r="P34" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="243"/>
-      <c r="R34" s="243"/>
-      <c r="S34" s="243"/>
-      <c r="T34" s="243"/>
-      <c r="U34" s="244"/>
+      <c r="Q34" s="272"/>
+      <c r="R34" s="272"/>
+      <c r="S34" s="272"/>
+      <c r="T34" s="272"/>
+      <c r="U34" s="270"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
@@ -14172,10 +14172,10 @@
         <f>AVERAGE(B17:B36)</f>
         <v>249.47250000000003</v>
       </c>
-      <c r="C37" s="266" t="s">
+      <c r="C37" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="267"/>
+      <c r="D37" s="287"/>
       <c r="E37" s="210">
         <f>F37/G37</f>
         <v>0.96679444556379368</v>
@@ -14285,14 +14285,14 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
-      <c r="B39" s="242" t="s">
+      <c r="B39" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="243"/>
-      <c r="D39" s="243"/>
-      <c r="E39" s="243"/>
-      <c r="F39" s="243"/>
-      <c r="G39" s="244"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="272"/>
+      <c r="E39" s="272"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="270"/>
       <c r="I39" s="154">
         <v>194.35</v>
       </c>
@@ -14897,10 +14897,10 @@
         <f>AVERAGE(I28:I47)</f>
         <v>194.57449999999997</v>
       </c>
-      <c r="J48" s="266" t="s">
+      <c r="J48" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="267"/>
+      <c r="K48" s="287"/>
       <c r="L48" s="210">
         <f>M48/N48</f>
         <v>0.97167141965956672</v>
@@ -15010,14 +15010,14 @@
         <v>77536.800000000003</v>
       </c>
       <c r="H50" s="45"/>
-      <c r="I50" s="242" t="s">
+      <c r="I50" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="243"/>
-      <c r="K50" s="243"/>
-      <c r="L50" s="243"/>
-      <c r="M50" s="243"/>
-      <c r="N50" s="244"/>
+      <c r="J50" s="272"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="272"/>
+      <c r="M50" s="272"/>
+      <c r="N50" s="270"/>
       <c r="P50" s="154">
         <v>383.12</v>
       </c>
@@ -15378,10 +15378,10 @@
         <f>AVERAGE(B40:B55)</f>
         <v>436.88749999999999</v>
       </c>
-      <c r="C56" s="266" t="s">
+      <c r="C56" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="267"/>
+      <c r="D56" s="287"/>
       <c r="E56" s="210">
         <f>F56/G56</f>
         <v>0.96151266287927395</v>
@@ -15491,14 +15491,14 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
-      <c r="B58" s="242" t="s">
+      <c r="B58" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="243"/>
-      <c r="D58" s="243"/>
-      <c r="E58" s="243"/>
-      <c r="F58" s="243"/>
-      <c r="G58" s="244"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="272"/>
+      <c r="G58" s="270"/>
       <c r="I58" s="154">
         <v>144.6</v>
       </c>
@@ -15990,10 +15990,10 @@
         <f>AVERAGE(P35:P64)</f>
         <v>383.99199999999996</v>
       </c>
-      <c r="Q65" s="268" t="s">
+      <c r="Q65" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="R65" s="269"/>
+      <c r="R65" s="289"/>
       <c r="S65" s="37">
         <f>T65/U65</f>
         <v>0.960199036242256</v>
@@ -16060,10 +16060,10 @@
         <f>AVERAGE(B59:B66)</f>
         <v>371.80125000000004</v>
       </c>
-      <c r="C67" s="266" t="s">
+      <c r="C67" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="267"/>
+      <c r="D67" s="287"/>
       <c r="E67" s="210">
         <f>F67/G67</f>
         <v>0.92677682860183508</v>
@@ -16080,10 +16080,10 @@
         <f>AVERAGE(I51:I66)</f>
         <v>146.20499999999996</v>
       </c>
-      <c r="J67" s="266" t="s">
+      <c r="J67" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="K67" s="267"/>
+      <c r="K67" s="287"/>
       <c r="L67" s="210">
         <f>M67/N67</f>
         <v>0.94237274103258428</v>
@@ -16097,14 +16097,14 @@
         <v>2254357.4400000004</v>
       </c>
       <c r="O67" s="45"/>
-      <c r="P67" s="242" t="s">
+      <c r="P67" s="271" t="s">
         <v>55</v>
       </c>
-      <c r="Q67" s="243"/>
-      <c r="R67" s="243"/>
-      <c r="S67" s="243"/>
-      <c r="T67" s="243"/>
-      <c r="U67" s="244"/>
+      <c r="Q67" s="272"/>
+      <c r="R67" s="272"/>
+      <c r="S67" s="272"/>
+      <c r="T67" s="272"/>
+      <c r="U67" s="270"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
@@ -16145,23 +16145,23 @@
     </row>
     <row r="69" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
-      <c r="B69" s="253" t="s">
+      <c r="B69" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="254"/>
-      <c r="D69" s="254"/>
-      <c r="E69" s="254"/>
-      <c r="F69" s="254"/>
-      <c r="G69" s="259"/>
+      <c r="C69" s="275"/>
+      <c r="D69" s="275"/>
+      <c r="E69" s="275"/>
+      <c r="F69" s="275"/>
+      <c r="G69" s="278"/>
       <c r="H69" s="45"/>
-      <c r="I69" s="242" t="s">
+      <c r="I69" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="243"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="243"/>
-      <c r="M69" s="246"/>
-      <c r="N69" s="244"/>
+      <c r="J69" s="272"/>
+      <c r="K69" s="272"/>
+      <c r="L69" s="272"/>
+      <c r="M69" s="269"/>
+      <c r="N69" s="270"/>
       <c r="P69" s="154">
         <v>410.95</v>
       </c>
@@ -16344,10 +16344,10 @@
         <f>AVERAGE(I70:I71)</f>
         <v>194.78</v>
       </c>
-      <c r="J72" s="266" t="s">
+      <c r="J72" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="K72" s="267"/>
+      <c r="K72" s="287"/>
       <c r="L72" s="232">
         <f>M72/N72</f>
         <v>0.73151800359290786</v>
@@ -16466,10 +16466,10 @@
         <f>AVERAGE(P68:P73)</f>
         <v>410.16666666666669</v>
       </c>
-      <c r="Q74" s="266" t="s">
+      <c r="Q74" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="R74" s="267"/>
+      <c r="R74" s="287"/>
       <c r="S74" s="210">
         <f>T74/U74</f>
         <v>0.88483306421359964</v>
@@ -16546,14 +16546,14 @@
       <c r="M76" s="202"/>
       <c r="N76" s="202"/>
       <c r="O76" s="45"/>
-      <c r="P76" s="242" t="s">
+      <c r="P76" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="Q76" s="243"/>
-      <c r="R76" s="243"/>
-      <c r="S76" s="243"/>
-      <c r="T76" s="243"/>
-      <c r="U76" s="244"/>
+      <c r="Q76" s="272"/>
+      <c r="R76" s="272"/>
+      <c r="S76" s="272"/>
+      <c r="T76" s="272"/>
+      <c r="U76" s="270"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
@@ -16611,10 +16611,10 @@
         <f>AVERAGE(B70:B77)</f>
         <v>163.83625000000001</v>
       </c>
-      <c r="C78" s="264" t="s">
+      <c r="C78" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="265"/>
+      <c r="D78" s="293"/>
       <c r="E78" s="229">
         <f>F78/G78</f>
         <v>0.87462331380385161</v>
@@ -16740,10 +16740,10 @@
         <f>AVERAGE(P75:P80)</f>
         <v>428.5675</v>
       </c>
-      <c r="Q81" s="262" t="s">
+      <c r="Q81" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="R81" s="263"/>
+      <c r="R81" s="291"/>
       <c r="S81" s="236">
         <f>T81/U81</f>
         <v>0.90993160245672822</v>
@@ -16776,15 +16776,15 @@
       <c r="T82" s="202"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="199"/>
       <c r="F83" s="199"/>
       <c r="G83" s="199"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
-      <c r="K83" s="239"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
+      <c r="K83" s="277"/>
       <c r="L83" s="199"/>
       <c r="M83" s="199"/>
       <c r="N83" s="199"/>
@@ -16904,30 +16904,38 @@
       <c r="R89" s="202"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="202"/>
       <c r="E90" s="202"/>
       <c r="F90" s="202"/>
       <c r="G90" s="202"/>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
+      <c r="I90" s="277"/>
+      <c r="J90" s="277"/>
       <c r="K90" s="202"/>
       <c r="L90" s="202"/>
       <c r="M90" s="202"/>
       <c r="N90" s="202"/>
-      <c r="P90" s="239"/>
-      <c r="Q90" s="239"/>
+      <c r="P90" s="277"/>
+      <c r="Q90" s="277"/>
       <c r="R90" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="P76:U76"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="P67:U67"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="P90:Q90"/>
@@ -16944,20 +16952,12 @@
     <mergeCell ref="P34:U34"/>
     <mergeCell ref="Q65:R65"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="P67:U67"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="P76:U76"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16974,7 +16974,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17004,29 +17004,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="223"/>
-      <c r="I1" s="250" t="s">
+      <c r="I1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
       <c r="N1" s="223"/>
-      <c r="P1" s="250" t="s">
+      <c r="P1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
     </row>
     <row r="2" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -17086,30 +17086,30 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="259"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="244"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="270"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="245" t="s">
+      <c r="P3" s="268" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="247"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="273"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -17131,7 +17131,7 @@
         <f t="shared" ref="F4" si="0">C4*E4/100</f>
         <v>108200</v>
       </c>
-      <c r="G4" s="278">
+      <c r="G4" s="242">
         <f t="shared" ref="G4" si="1">C4*D4</f>
         <v>109216.8</v>
       </c>
@@ -17147,23 +17147,23 @@
       <c r="O4" s="22">
         <v>43922</v>
       </c>
-      <c r="P4" s="274">
+      <c r="P4" s="238">
         <v>427.97</v>
       </c>
-      <c r="Q4" s="275">
+      <c r="Q4" s="239">
         <v>80640</v>
       </c>
-      <c r="R4" s="276">
+      <c r="R4" s="240">
         <v>0.999</v>
       </c>
-      <c r="S4" s="277">
+      <c r="S4" s="241">
         <v>99.288194444444443</v>
       </c>
       <c r="T4" s="9">
         <f t="shared" ref="T4" si="2">Q4*S4/100</f>
         <v>80066</v>
       </c>
-      <c r="U4" s="278">
+      <c r="U4" s="242">
         <f t="shared" ref="U4" si="3">Q4*R4</f>
         <v>80559.360000000001</v>
       </c>
@@ -17185,7 +17185,7 @@
         <f t="shared" ref="F5:F17" si="4">C5*E5/100</f>
         <v>108200</v>
       </c>
-      <c r="G5" s="278">
+      <c r="G5" s="242">
         <f t="shared" ref="G5:G17" si="5">C5*D5</f>
         <v>109216.8</v>
       </c>
@@ -17236,7 +17236,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G6" s="278">
+      <c r="G6" s="242">
         <f t="shared" si="5"/>
         <v>110325.6</v>
       </c>
@@ -17290,7 +17290,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G7" s="278">
+      <c r="G7" s="242">
         <f t="shared" si="5"/>
         <v>110769.12</v>
       </c>
@@ -17341,7 +17341,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G8" s="278">
+      <c r="G8" s="242">
         <f t="shared" si="5"/>
         <v>110868.912</v>
       </c>
@@ -17354,17 +17354,14 @@
       <c r="L8" s="36"/>
       <c r="M8" s="24"/>
       <c r="N8" s="205"/>
-      <c r="O8" s="22">
-        <v>43924</v>
-      </c>
       <c r="P8" s="211">
         <f>AVERAGE(P4:P7)</f>
         <v>429.21750000000003</v>
       </c>
-      <c r="Q8" s="268" t="s">
+      <c r="Q8" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="269"/>
+      <c r="R8" s="289"/>
       <c r="S8" s="37">
         <f>T8/U8</f>
         <v>0.98231912468023574</v>
@@ -17395,7 +17392,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G9" s="278">
+      <c r="G9" s="242">
         <f t="shared" si="5"/>
         <v>110769.12</v>
       </c>
@@ -17432,7 +17429,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G10" s="278">
+      <c r="G10" s="242">
         <f t="shared" si="5"/>
         <v>110769.12</v>
       </c>
@@ -17445,15 +17442,14 @@
       <c r="L10" s="36"/>
       <c r="M10" s="24"/>
       <c r="N10" s="205"/>
-      <c r="O10" s="22">
-        <v>43925</v>
-      </c>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="290"/>
-      <c r="R10" s="291"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="211"/>
+      <c r="P10" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="272"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="272"/>
+      <c r="U10" s="270"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
@@ -17473,7 +17469,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G11" s="278">
+      <c r="G11" s="242">
         <f t="shared" si="5"/>
         <v>110658.24000000001</v>
       </c>
@@ -17484,13 +17480,29 @@
       <c r="L11" s="36"/>
       <c r="M11" s="24"/>
       <c r="N11" s="205"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="154"/>
+      <c r="O11" s="22">
+        <v>43924</v>
+      </c>
+      <c r="P11" s="154">
+        <v>436.5</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="S11" s="36">
+        <v>65.310606060606062</v>
+      </c>
+      <c r="T11" s="24">
+        <f>Q11*S11/100</f>
+        <v>51726</v>
+      </c>
+      <c r="U11" s="205">
+        <f>Q11*R11</f>
+        <v>68824.800000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="98">
@@ -17512,7 +17524,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G12" s="278">
+      <c r="G12" s="242">
         <f t="shared" si="5"/>
         <v>109105.92</v>
       </c>
@@ -17525,15 +17537,26 @@
       <c r="L12" s="36"/>
       <c r="M12" s="24"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="98">
-        <v>43926</v>
-      </c>
-      <c r="P12" s="292"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="289"/>
-      <c r="U12" s="293"/>
+      <c r="P12" s="154">
+        <v>435.68</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="S12" s="36">
+        <v>91.787878787878782</v>
+      </c>
+      <c r="T12" s="24">
+        <f t="shared" ref="T12:T22" si="8">Q12*S12/100</f>
+        <v>72695.999999999985</v>
+      </c>
+      <c r="U12" s="205">
+        <f t="shared" ref="U12:U22" si="9">Q12*R12</f>
+        <v>76428</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="154">
@@ -17552,7 +17575,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G13" s="278">
+      <c r="G13" s="242">
         <f t="shared" si="5"/>
         <v>110769.12</v>
       </c>
@@ -17562,12 +17585,29 @@
       <c r="L13" s="36"/>
       <c r="M13" s="24"/>
       <c r="N13" s="205"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="205"/>
+      <c r="O13" s="22">
+        <v>43925</v>
+      </c>
+      <c r="P13" s="154">
+        <v>436.16</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="S13" s="36">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="8"/>
+        <v>76890</v>
+      </c>
+      <c r="U13" s="205">
+        <f t="shared" si="9"/>
+        <v>79144.56</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -17589,9 +17629,12 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G14" s="278">
+      <c r="G14" s="242">
         <f t="shared" si="5"/>
         <v>109992.96000000001</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43927</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="42"/>
@@ -17599,12 +17642,27 @@
       <c r="L14" s="36"/>
       <c r="M14" s="24"/>
       <c r="N14" s="205"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="205"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="154">
+        <v>435.6</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="S14" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="8"/>
+        <v>75492</v>
+      </c>
+      <c r="U14" s="205">
+        <f t="shared" si="9"/>
+        <v>76428</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="154">
@@ -17623,7 +17681,7 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G15" s="278">
+      <c r="G15" s="242">
         <f t="shared" si="5"/>
         <v>109882.08</v>
       </c>
@@ -17633,12 +17691,29 @@
       <c r="L15" s="36"/>
       <c r="M15" s="24"/>
       <c r="N15" s="205"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="205"/>
+      <c r="O15" s="98">
+        <v>43926</v>
+      </c>
+      <c r="P15" s="154">
+        <v>436.1</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S15" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U15" s="205">
+        <f t="shared" si="9"/>
+        <v>77220</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -17647,7 +17722,7 @@
       <c r="B16" s="203">
         <v>163.35</v>
       </c>
-      <c r="C16" s="297">
+      <c r="C16" s="258">
         <v>110880</v>
       </c>
       <c r="D16" s="39">
@@ -17660,9 +17735,12 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G16" s="278">
+      <c r="G16" s="242">
         <f t="shared" si="5"/>
         <v>108884.16</v>
+      </c>
+      <c r="H16" s="22">
+        <v>43928</v>
       </c>
       <c r="I16" s="154"/>
       <c r="J16" s="42"/>
@@ -17670,12 +17748,26 @@
       <c r="L16" s="36"/>
       <c r="M16" s="24"/>
       <c r="N16" s="205"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="205"/>
+      <c r="P16" s="154">
+        <v>436.06</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="S16" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U16" s="205">
+        <f t="shared" si="9"/>
+        <v>77853.600000000006</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B17" s="203">
@@ -17694,12 +17786,9 @@
         <f t="shared" si="4"/>
         <v>108200</v>
       </c>
-      <c r="G17" s="278">
+      <c r="G17" s="242">
         <f t="shared" si="5"/>
         <v>109992.96000000001</v>
-      </c>
-      <c r="H17" s="22">
-        <v>43927</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="42"/>
@@ -17710,22 +17799,36 @@
       <c r="O17" s="22">
         <v>43927</v>
       </c>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="205"/>
+      <c r="P17" s="154">
+        <v>435.54</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="S17" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U17" s="205">
+        <f t="shared" si="9"/>
+        <v>76348.800000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="211">
         <f>AVERAGE(B14:B17)</f>
         <v>164.1525</v>
       </c>
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="269"/>
+      <c r="D18" s="289"/>
       <c r="E18" s="37">
         <f>F18/G18</f>
         <v>0.98285715448428868</v>
@@ -17737,6 +17840,9 @@
       <c r="G18" s="211">
         <f>SUM(G4:G17)</f>
         <v>1541220.9119999998</v>
+      </c>
+      <c r="H18" s="22">
+        <v>43929</v>
       </c>
       <c r="I18" s="154"/>
       <c r="J18" s="42"/>
@@ -17744,12 +17850,26 @@
       <c r="L18" s="36"/>
       <c r="M18" s="24"/>
       <c r="N18" s="205"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="205"/>
+      <c r="P18" s="154">
+        <v>435.17</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S18" s="36">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="8"/>
+        <v>75492</v>
+      </c>
+      <c r="U18" s="205">
+        <f t="shared" si="9"/>
+        <v>77457.599999999991</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="154"/>
@@ -17758,9 +17878,6 @@
       <c r="E19" s="36"/>
       <c r="F19" s="24"/>
       <c r="G19" s="205"/>
-      <c r="H19" s="22">
-        <v>43928</v>
-      </c>
       <c r="I19" s="154"/>
       <c r="J19" s="42"/>
       <c r="K19" s="1"/>
@@ -17770,45 +17887,81 @@
       <c r="O19" s="22">
         <v>43928</v>
       </c>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="205"/>
+      <c r="P19" s="154">
+        <v>435.25</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="S19" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U19" s="205">
+        <f t="shared" si="9"/>
+        <v>76269.599999999991</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="154"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="205"/>
+      <c r="B20" s="274" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="278"/>
+      <c r="H20" s="22">
+        <v>43930</v>
+      </c>
       <c r="I20" s="203"/>
       <c r="J20" s="204"/>
       <c r="K20" s="57"/>
       <c r="L20" s="31"/>
       <c r="M20" s="24"/>
       <c r="N20" s="205"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="205"/>
+      <c r="P20" s="154">
+        <v>435.81</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="S20" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U20" s="205">
+        <f t="shared" si="9"/>
+        <v>76428</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>43929</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="22">
-        <v>43929</v>
+      <c r="B21" s="179"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="9">
+        <f t="shared" ref="F21" si="10">C21*E21/100</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="242">
+        <f t="shared" ref="G21" si="11">C21*D21</f>
+        <v>0</v>
       </c>
       <c r="I21" s="203"/>
       <c r="J21" s="204"/>
@@ -17819,12 +17972,26 @@
       <c r="O21" s="22">
         <v>43929</v>
       </c>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="205"/>
+      <c r="P21" s="154">
+        <v>436.54</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="S21" s="36">
+        <v>91.787878787878782</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="8"/>
+        <v>72695.999999999985</v>
+      </c>
+      <c r="U21" s="205">
+        <f t="shared" si="9"/>
+        <v>76665.599999999991</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B22" s="154"/>
@@ -17833,18 +18000,35 @@
       <c r="E22" s="36"/>
       <c r="F22" s="24"/>
       <c r="G22" s="205"/>
+      <c r="H22" s="22">
+        <v>43931</v>
+      </c>
       <c r="I22" s="154"/>
       <c r="J22" s="42"/>
       <c r="K22" s="1"/>
       <c r="L22" s="36"/>
       <c r="M22" s="24"/>
       <c r="N22" s="205"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="205"/>
+      <c r="P22" s="154">
+        <v>435.41</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>79200</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="S22" s="36">
+        <v>93.553030303030312</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="8"/>
+        <v>74094.000000000015</v>
+      </c>
+      <c r="U22" s="205">
+        <f t="shared" si="9"/>
+        <v>76428</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -17856,9 +18040,6 @@
       <c r="E23" s="36"/>
       <c r="F23" s="24"/>
       <c r="G23" s="205"/>
-      <c r="H23" s="22">
-        <v>43930</v>
-      </c>
       <c r="I23" s="154"/>
       <c r="J23" s="42"/>
       <c r="K23" s="1"/>
@@ -17868,12 +18049,26 @@
       <c r="O23" s="22">
         <v>43930</v>
       </c>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="205"/>
+      <c r="P23" s="203">
+        <v>436.88</v>
+      </c>
+      <c r="Q23" s="258">
+        <v>79200</v>
+      </c>
+      <c r="R23" s="57">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="S23" s="31">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="T23" s="24">
+        <f t="shared" ref="T23:T24" si="12">Q23*S23/100</f>
+        <v>76890</v>
+      </c>
+      <c r="U23" s="205">
+        <f t="shared" ref="U23:U24" si="13">Q23*R23</f>
+        <v>78170.399999999994</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="154"/>
@@ -17882,18 +18077,35 @@
       <c r="E24" s="36"/>
       <c r="F24" s="24"/>
       <c r="G24" s="205"/>
+      <c r="H24" s="22">
+        <v>43932</v>
+      </c>
       <c r="I24" s="154"/>
       <c r="J24" s="42"/>
       <c r="K24" s="1"/>
       <c r="L24" s="36"/>
       <c r="M24" s="24"/>
       <c r="N24" s="205"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="205"/>
+      <c r="P24" s="203">
+        <v>436.5</v>
+      </c>
+      <c r="Q24" s="204">
+        <v>79200</v>
+      </c>
+      <c r="R24" s="57">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S24" s="31">
+        <v>95.318181818181813</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="12"/>
+        <v>75492</v>
+      </c>
+      <c r="U24" s="205">
+        <f t="shared" si="13"/>
+        <v>77220</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
@@ -17905,24 +18117,32 @@
       <c r="E25" s="36"/>
       <c r="F25" s="24"/>
       <c r="G25" s="205"/>
-      <c r="H25" s="22">
-        <v>43931</v>
-      </c>
       <c r="I25" s="154"/>
       <c r="J25" s="42"/>
       <c r="K25" s="1"/>
       <c r="L25" s="36"/>
       <c r="M25" s="24"/>
       <c r="N25" s="205"/>
-      <c r="O25" s="22">
-        <v>43931</v>
-      </c>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="290"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="211"/>
+      <c r="P25" s="211">
+        <f>AVERAGE(P11:P24)</f>
+        <v>435.94285714285712</v>
+      </c>
+      <c r="Q25" s="288" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="289"/>
+      <c r="S25" s="37">
+        <f>T25/U25</f>
+        <v>0.95429119801776285</v>
+      </c>
+      <c r="T25" s="237">
+        <f>SUM(T11:T24)</f>
+        <v>1021938</v>
+      </c>
+      <c r="U25" s="211">
+        <f>SUM(U11:U24)</f>
+        <v>1070886.96</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="154"/>
@@ -17931,6 +18151,9 @@
       <c r="E26" s="36"/>
       <c r="F26" s="24"/>
       <c r="G26" s="205"/>
+      <c r="H26" s="22">
+        <v>43933</v>
+      </c>
       <c r="I26" s="154"/>
       <c r="J26" s="42"/>
       <c r="K26" s="1"/>
@@ -17954,24 +18177,20 @@
       <c r="E27" s="36"/>
       <c r="F27" s="24"/>
       <c r="G27" s="205"/>
-      <c r="H27" s="22">
-        <v>43932</v>
-      </c>
       <c r="I27" s="154"/>
       <c r="J27" s="42"/>
       <c r="K27" s="1"/>
       <c r="L27" s="36"/>
       <c r="M27" s="24"/>
       <c r="N27" s="205"/>
-      <c r="O27" s="22">
-        <v>43932</v>
-      </c>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="285"/>
-      <c r="S27" s="285"/>
-      <c r="T27" s="285"/>
-      <c r="U27" s="294"/>
+      <c r="P27" s="271" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="272"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="272"/>
+      <c r="T27" s="272"/>
+      <c r="U27" s="270"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="154"/>
@@ -17980,18 +18199,38 @@
       <c r="E28" s="36"/>
       <c r="F28" s="24"/>
       <c r="G28" s="205"/>
+      <c r="H28" s="22">
+        <v>43934</v>
+      </c>
       <c r="I28" s="154"/>
       <c r="J28" s="42"/>
       <c r="K28" s="1"/>
       <c r="L28" s="36"/>
       <c r="M28" s="24"/>
       <c r="N28" s="205"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="205"/>
+      <c r="O28" s="22">
+        <v>43931</v>
+      </c>
+      <c r="P28" s="154">
+        <v>405.68</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="S28" s="36">
+        <v>58.223684210526315</v>
+      </c>
+      <c r="T28" s="24">
+        <f>Q28*S28/100</f>
+        <v>47790</v>
+      </c>
+      <c r="U28" s="205">
+        <f>Q28*R28</f>
+        <v>71491.679999999993</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
@@ -18003,24 +18242,32 @@
       <c r="E29" s="36"/>
       <c r="F29" s="24"/>
       <c r="G29" s="205"/>
-      <c r="H29" s="22">
-        <v>43933</v>
-      </c>
       <c r="I29" s="160"/>
       <c r="J29" s="42"/>
       <c r="K29" s="1"/>
       <c r="L29" s="36"/>
       <c r="M29" s="24"/>
       <c r="N29" s="205"/>
-      <c r="O29" s="22">
-        <v>43933</v>
-      </c>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="205"/>
+      <c r="P29" s="154">
+        <v>406.1</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="S29" s="36">
+        <v>92.726608187134502</v>
+      </c>
+      <c r="T29" s="24">
+        <f t="shared" ref="T29:T39" si="14">Q29*S29/100</f>
+        <v>76110</v>
+      </c>
+      <c r="U29" s="205">
+        <f t="shared" ref="U29:U39" si="15">Q29*R29</f>
+        <v>79043.039999999994</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="154"/>
@@ -18029,18 +18276,38 @@
       <c r="E30" s="36"/>
       <c r="F30" s="24"/>
       <c r="G30" s="205"/>
+      <c r="H30" s="22">
+        <v>43935</v>
+      </c>
       <c r="I30" s="154"/>
       <c r="J30" s="42"/>
       <c r="K30" s="1"/>
       <c r="L30" s="36"/>
       <c r="M30" s="24"/>
       <c r="N30" s="205"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="205"/>
+      <c r="O30" s="22">
+        <v>43932</v>
+      </c>
+      <c r="P30" s="154">
+        <v>406.04</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S30" s="36">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U30" s="205">
+        <f t="shared" si="15"/>
+        <v>80274.240000000005</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -18052,24 +18319,32 @@
       <c r="E31" s="36"/>
       <c r="F31" s="24"/>
       <c r="G31" s="205"/>
-      <c r="H31" s="22">
-        <v>43934</v>
-      </c>
       <c r="I31" s="154"/>
       <c r="J31" s="42"/>
       <c r="K31" s="1"/>
       <c r="L31" s="36"/>
       <c r="M31" s="24"/>
       <c r="N31" s="205"/>
-      <c r="O31" s="22">
-        <v>43934</v>
-      </c>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="205"/>
+      <c r="P31" s="154">
+        <v>406.75</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S31" s="36">
+        <v>92.726608187134502</v>
+      </c>
+      <c r="T31" s="24">
+        <f t="shared" si="14"/>
+        <v>76110</v>
+      </c>
+      <c r="U31" s="205">
+        <f t="shared" si="15"/>
+        <v>80110.080000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="154"/>
@@ -18078,18 +18353,38 @@
       <c r="E32" s="36"/>
       <c r="F32" s="24"/>
       <c r="G32" s="205"/>
+      <c r="H32" s="22">
+        <v>43936</v>
+      </c>
       <c r="I32" s="154"/>
       <c r="J32" s="42"/>
       <c r="K32" s="1"/>
       <c r="L32" s="36"/>
       <c r="M32" s="24"/>
       <c r="N32" s="205"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="290"/>
-      <c r="R32" s="291"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="211"/>
+      <c r="O32" s="22">
+        <v>43933</v>
+      </c>
+      <c r="P32" s="154">
+        <v>404.6</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S32" s="36">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T32" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U32" s="205">
+        <f t="shared" si="15"/>
+        <v>80274.240000000005</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
@@ -18101,24 +18396,32 @@
       <c r="E33" s="36"/>
       <c r="F33" s="24"/>
       <c r="G33" s="205"/>
-      <c r="H33" s="22">
-        <v>43935</v>
-      </c>
       <c r="I33" s="154"/>
       <c r="J33" s="42"/>
       <c r="K33" s="1"/>
       <c r="L33" s="36"/>
       <c r="M33" s="24"/>
       <c r="N33" s="205"/>
-      <c r="O33" s="22">
-        <v>43935</v>
-      </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="154"/>
+      <c r="P33" s="154">
+        <v>406.75</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="S33" s="36">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T33" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U33" s="205">
+        <f t="shared" si="15"/>
+        <v>80684.639999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B34" s="154"/>
@@ -18133,12 +18436,29 @@
       <c r="L34" s="36"/>
       <c r="M34" s="24"/>
       <c r="N34" s="205"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="282"/>
-      <c r="R34" s="282"/>
-      <c r="S34" s="282"/>
-      <c r="T34" s="282"/>
-      <c r="U34" s="283"/>
+      <c r="O34" s="22">
+        <v>43934</v>
+      </c>
+      <c r="P34" s="154">
+        <v>404.14</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="S34" s="36">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U34" s="205">
+        <f t="shared" si="15"/>
+        <v>79781.759999999995</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
@@ -18150,24 +18470,32 @@
       <c r="E35" s="36"/>
       <c r="F35" s="24"/>
       <c r="G35" s="205"/>
-      <c r="H35" s="22">
-        <v>43936</v>
-      </c>
       <c r="I35" s="154"/>
       <c r="J35" s="42"/>
       <c r="K35" s="1"/>
       <c r="L35" s="36"/>
       <c r="M35" s="24"/>
       <c r="N35" s="205"/>
-      <c r="O35" s="22">
-        <v>43936</v>
-      </c>
-      <c r="P35" s="154"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="205"/>
+      <c r="P35" s="154">
+        <v>405.43</v>
+      </c>
+      <c r="Q35" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="S35" s="36">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T35" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U35" s="205">
+        <f t="shared" si="15"/>
+        <v>79535.520000000004</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B36" s="154"/>
@@ -18182,17 +18510,34 @@
       <c r="L36" s="36"/>
       <c r="M36" s="24"/>
       <c r="N36" s="205"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="205"/>
+      <c r="O36" s="22">
+        <v>43935</v>
+      </c>
+      <c r="P36" s="154">
+        <v>405.27</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="S36" s="36">
+        <v>88.413742690058484</v>
+      </c>
+      <c r="T36" s="24">
+        <f t="shared" si="14"/>
+        <v>72570</v>
+      </c>
+      <c r="U36" s="205">
+        <f t="shared" si="15"/>
+        <v>79699.679999999993</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B37" s="209"/>
-      <c r="C37" s="279"/>
-      <c r="D37" s="280"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="244"/>
       <c r="E37" s="210"/>
       <c r="F37" s="222"/>
       <c r="G37" s="211"/>
@@ -18202,12 +18547,26 @@
       <c r="L37" s="36"/>
       <c r="M37" s="24"/>
       <c r="N37" s="205"/>
-      <c r="P37" s="154"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="205"/>
+      <c r="P37" s="154">
+        <v>405.12</v>
+      </c>
+      <c r="Q37" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="S37" s="36">
+        <v>81.944444444444443</v>
+      </c>
+      <c r="T37" s="24">
+        <f t="shared" si="14"/>
+        <v>67260</v>
+      </c>
+      <c r="U37" s="205">
+        <f t="shared" si="15"/>
+        <v>78878.87999999999</v>
+      </c>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="42"/>
@@ -18222,32 +18581,63 @@
       <c r="L38" s="36"/>
       <c r="M38" s="24"/>
       <c r="N38" s="205"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="205"/>
+      <c r="O38" s="22">
+        <v>43936</v>
+      </c>
+      <c r="P38" s="154">
+        <v>406.5</v>
+      </c>
+      <c r="Q38" s="42">
+        <v>82080</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="S38" s="36">
+        <v>92.726608187134502</v>
+      </c>
+      <c r="T38" s="24">
+        <f t="shared" si="14"/>
+        <v>76110</v>
+      </c>
+      <c r="U38" s="205">
+        <f t="shared" si="15"/>
+        <v>78468.479999999996</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="281"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="283"/>
+      <c r="B39" s="245"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="246"/>
+      <c r="E39" s="246"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="247"/>
       <c r="I39" s="154"/>
       <c r="J39" s="42"/>
       <c r="K39" s="1"/>
       <c r="L39" s="36"/>
       <c r="M39" s="24"/>
       <c r="N39" s="205"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="205"/>
+      <c r="P39" s="203">
+        <v>404.75</v>
+      </c>
+      <c r="Q39" s="204">
+        <v>82080</v>
+      </c>
+      <c r="R39" s="57">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="S39" s="31">
+        <v>94.883040935672511</v>
+      </c>
+      <c r="T39" s="24">
+        <f t="shared" si="14"/>
+        <v>77880</v>
+      </c>
+      <c r="U39" s="205">
+        <f t="shared" si="15"/>
+        <v>79043.039999999994</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
@@ -18268,15 +18658,26 @@
       <c r="L40" s="36"/>
       <c r="M40" s="24"/>
       <c r="N40" s="205"/>
-      <c r="O40" s="22">
-        <v>43937</v>
-      </c>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="205"/>
+      <c r="P40" s="211">
+        <f>AVERAGE(P28:P39)</f>
+        <v>405.59416666666658</v>
+      </c>
+      <c r="Q40" s="288" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="289"/>
+      <c r="S40" s="37">
+        <f>T40/U40</f>
+        <v>0.93238015901608873</v>
+      </c>
+      <c r="T40" s="237">
+        <f>SUM(T28:T39)</f>
+        <v>883230</v>
+      </c>
+      <c r="U40" s="211">
+        <f>SUM(U28:U39)</f>
+        <v>947285.27999999991</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B41" s="154"/>
@@ -18317,15 +18718,14 @@
       <c r="L42" s="36"/>
       <c r="M42" s="24"/>
       <c r="N42" s="205"/>
-      <c r="O42" s="22">
-        <v>43938</v>
-      </c>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="205"/>
+      <c r="P42" s="262" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="262"/>
+      <c r="R42" s="262"/>
+      <c r="S42" s="262"/>
+      <c r="T42" s="262"/>
+      <c r="U42" s="262"/>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="154"/>
@@ -18340,12 +18740,21 @@
       <c r="L43" s="36"/>
       <c r="M43" s="24"/>
       <c r="N43" s="205"/>
+      <c r="O43" s="22">
+        <v>43937</v>
+      </c>
       <c r="P43" s="154"/>
       <c r="Q43" s="42"/>
-      <c r="R43" s="1"/>
+      <c r="R43" s="3"/>
       <c r="S43" s="36"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="205"/>
+      <c r="T43" s="24">
+        <f>Q43*S43/100</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="205">
+        <f>Q43*R43</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
@@ -18366,9 +18775,6 @@
       <c r="L44" s="36"/>
       <c r="M44" s="24"/>
       <c r="N44" s="205"/>
-      <c r="O44" s="22">
-        <v>43939</v>
-      </c>
       <c r="P44" s="154"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="1"/>
@@ -18389,6 +18795,9 @@
       <c r="L45" s="36"/>
       <c r="M45" s="24"/>
       <c r="N45" s="205"/>
+      <c r="O45" s="22">
+        <v>43938</v>
+      </c>
       <c r="P45" s="154"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="1"/>
@@ -18415,9 +18824,6 @@
       <c r="L46" s="36"/>
       <c r="M46" s="24"/>
       <c r="N46" s="205"/>
-      <c r="O46" s="22">
-        <v>43940</v>
-      </c>
       <c r="P46" s="154"/>
       <c r="Q46" s="42"/>
       <c r="R46" s="1"/>
@@ -18438,6 +18844,9 @@
       <c r="L47" s="36"/>
       <c r="M47" s="24"/>
       <c r="N47" s="205"/>
+      <c r="O47" s="22">
+        <v>43939</v>
+      </c>
       <c r="P47" s="154"/>
       <c r="Q47" s="42"/>
       <c r="R47" s="1"/>
@@ -18459,14 +18868,11 @@
         <v>43941</v>
       </c>
       <c r="I48" s="209"/>
-      <c r="J48" s="279"/>
-      <c r="K48" s="280"/>
+      <c r="J48" s="243"/>
+      <c r="K48" s="244"/>
       <c r="L48" s="210"/>
       <c r="M48" s="222"/>
       <c r="N48" s="211"/>
-      <c r="O48" s="22">
-        <v>43941</v>
-      </c>
       <c r="P48" s="154"/>
       <c r="Q48" s="42"/>
       <c r="R48" s="1"/>
@@ -18487,6 +18893,9 @@
       <c r="L49" s="36"/>
       <c r="M49" s="158"/>
       <c r="N49" s="154"/>
+      <c r="O49" s="22">
+        <v>43940</v>
+      </c>
       <c r="P49" s="154"/>
       <c r="Q49" s="42"/>
       <c r="R49" s="1"/>
@@ -18507,15 +18916,12 @@
       <c r="H50" s="22">
         <v>43942</v>
       </c>
-      <c r="I50" s="281"/>
-      <c r="J50" s="282"/>
-      <c r="K50" s="282"/>
-      <c r="L50" s="282"/>
-      <c r="M50" s="282"/>
-      <c r="N50" s="283"/>
-      <c r="O50" s="22">
-        <v>43942</v>
-      </c>
+      <c r="I50" s="245"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="247"/>
       <c r="P50" s="154"/>
       <c r="Q50" s="42"/>
       <c r="R50" s="1"/>
@@ -18536,6 +18942,9 @@
       <c r="L51" s="36"/>
       <c r="M51" s="24"/>
       <c r="N51" s="205"/>
+      <c r="O51" s="22">
+        <v>43941</v>
+      </c>
       <c r="P51" s="154"/>
       <c r="Q51" s="42"/>
       <c r="R51" s="1"/>
@@ -18562,9 +18971,6 @@
       <c r="L52" s="36"/>
       <c r="M52" s="24"/>
       <c r="N52" s="205"/>
-      <c r="O52" s="22">
-        <v>43943</v>
-      </c>
       <c r="P52" s="154"/>
       <c r="Q52" s="42"/>
       <c r="R52" s="1"/>
@@ -18585,6 +18991,9 @@
       <c r="L53" s="36"/>
       <c r="M53" s="24"/>
       <c r="N53" s="205"/>
+      <c r="O53" s="22">
+        <v>43942</v>
+      </c>
       <c r="P53" s="154"/>
       <c r="Q53" s="42"/>
       <c r="R53" s="1"/>
@@ -18611,9 +19020,6 @@
       <c r="L54" s="36"/>
       <c r="M54" s="24"/>
       <c r="N54" s="205"/>
-      <c r="O54" s="22">
-        <v>43944</v>
-      </c>
       <c r="P54" s="154"/>
       <c r="Q54" s="42"/>
       <c r="R54" s="1"/>
@@ -18634,6 +19040,9 @@
       <c r="L55" s="36"/>
       <c r="M55" s="24"/>
       <c r="N55" s="205"/>
+      <c r="O55" s="22">
+        <v>43943</v>
+      </c>
       <c r="P55" s="165"/>
       <c r="Q55" s="42"/>
       <c r="R55" s="1"/>
@@ -18643,8 +19052,8 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="209"/>
-      <c r="C56" s="279"/>
-      <c r="D56" s="280"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="244"/>
       <c r="E56" s="210"/>
       <c r="F56" s="222"/>
       <c r="G56" s="211"/>
@@ -18674,6 +19083,9 @@
       <c r="L57" s="36"/>
       <c r="M57" s="24"/>
       <c r="N57" s="205"/>
+      <c r="O57" s="22">
+        <v>43944</v>
+      </c>
       <c r="P57" s="154"/>
       <c r="Q57" s="42"/>
       <c r="R57" s="1"/>
@@ -18682,12 +19094,12 @@
       <c r="U57" s="205"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="281"/>
-      <c r="C58" s="282"/>
-      <c r="D58" s="282"/>
-      <c r="E58" s="282"/>
-      <c r="F58" s="282"/>
-      <c r="G58" s="283"/>
+      <c r="B58" s="245"/>
+      <c r="C58" s="246"/>
+      <c r="D58" s="246"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="247"/>
       <c r="I58" s="154"/>
       <c r="J58" s="42"/>
       <c r="K58" s="1"/>
@@ -18871,8 +19283,8 @@
         <v>43948</v>
       </c>
       <c r="P65" s="211"/>
-      <c r="Q65" s="290"/>
-      <c r="R65" s="291"/>
+      <c r="Q65" s="254"/>
+      <c r="R65" s="255"/>
       <c r="S65" s="37"/>
       <c r="T65" s="222"/>
       <c r="U65" s="211"/>
@@ -18899,23 +19311,23 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="209"/>
-      <c r="C67" s="279"/>
-      <c r="D67" s="280"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="244"/>
       <c r="E67" s="210"/>
       <c r="F67" s="222"/>
       <c r="G67" s="211"/>
       <c r="I67" s="209"/>
-      <c r="J67" s="279"/>
-      <c r="K67" s="280"/>
+      <c r="J67" s="243"/>
+      <c r="K67" s="244"/>
       <c r="L67" s="210"/>
       <c r="M67" s="222"/>
       <c r="N67" s="211"/>
-      <c r="P67" s="281"/>
-      <c r="Q67" s="282"/>
-      <c r="R67" s="282"/>
-      <c r="S67" s="282"/>
-      <c r="T67" s="282"/>
-      <c r="U67" s="283"/>
+      <c r="P67" s="245"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="246"/>
+      <c r="U67" s="247"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
@@ -18938,18 +19350,18 @@
       <c r="U68" s="205"/>
     </row>
     <row r="69" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="284"/>
-      <c r="C69" s="285"/>
-      <c r="D69" s="285"/>
-      <c r="E69" s="285"/>
-      <c r="F69" s="285"/>
-      <c r="G69" s="286"/>
-      <c r="I69" s="281"/>
-      <c r="J69" s="282"/>
-      <c r="K69" s="282"/>
-      <c r="L69" s="282"/>
-      <c r="M69" s="289"/>
-      <c r="N69" s="283"/>
+      <c r="B69" s="248"/>
+      <c r="C69" s="249"/>
+      <c r="D69" s="249"/>
+      <c r="E69" s="249"/>
+      <c r="F69" s="249"/>
+      <c r="G69" s="250"/>
+      <c r="I69" s="245"/>
+      <c r="J69" s="246"/>
+      <c r="K69" s="246"/>
+      <c r="L69" s="246"/>
+      <c r="M69" s="253"/>
+      <c r="N69" s="247"/>
       <c r="P69" s="154"/>
       <c r="Q69" s="42"/>
       <c r="R69" s="1"/>
@@ -19020,8 +19432,8 @@
         <v>43950</v>
       </c>
       <c r="I72" s="231"/>
-      <c r="J72" s="279"/>
-      <c r="K72" s="280"/>
+      <c r="J72" s="243"/>
+      <c r="K72" s="244"/>
       <c r="L72" s="232"/>
       <c r="M72" s="225"/>
       <c r="N72" s="233"/>
@@ -19078,8 +19490,8 @@
         <v>43951</v>
       </c>
       <c r="P74" s="209"/>
-      <c r="Q74" s="279"/>
-      <c r="R74" s="280"/>
+      <c r="Q74" s="243"/>
+      <c r="R74" s="244"/>
       <c r="S74" s="210"/>
       <c r="T74" s="222"/>
       <c r="U74" s="211"/>
@@ -19118,12 +19530,12 @@
       <c r="M76" s="227"/>
       <c r="N76" s="227"/>
       <c r="O76" s="22"/>
-      <c r="P76" s="281"/>
-      <c r="Q76" s="282"/>
-      <c r="R76" s="282"/>
-      <c r="S76" s="282"/>
-      <c r="T76" s="282"/>
-      <c r="U76" s="283"/>
+      <c r="P76" s="245"/>
+      <c r="Q76" s="246"/>
+      <c r="R76" s="246"/>
+      <c r="S76" s="246"/>
+      <c r="T76" s="246"/>
+      <c r="U76" s="247"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
@@ -19149,8 +19561,8 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B78" s="228"/>
-      <c r="C78" s="287"/>
-      <c r="D78" s="288"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="252"/>
       <c r="E78" s="229"/>
       <c r="F78" s="222"/>
       <c r="G78" s="211"/>
@@ -19220,8 +19632,8 @@
       <c r="M81" s="227"/>
       <c r="N81" s="227"/>
       <c r="P81" s="209"/>
-      <c r="Q81" s="295"/>
-      <c r="R81" s="296"/>
+      <c r="Q81" s="256"/>
+      <c r="R81" s="257"/>
       <c r="S81" s="236"/>
       <c r="T81" s="222"/>
       <c r="U81" s="211"/>
@@ -19245,15 +19657,15 @@
       <c r="T82" s="227"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="224"/>
       <c r="F83" s="224"/>
       <c r="G83" s="224"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
-      <c r="K83" s="239"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
+      <c r="K83" s="277"/>
       <c r="L83" s="224"/>
       <c r="M83" s="224"/>
       <c r="N83" s="224"/>
@@ -19373,24 +19785,30 @@
       <c r="R89" s="227"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="227"/>
       <c r="E90" s="227"/>
       <c r="F90" s="227"/>
       <c r="G90" s="227"/>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
+      <c r="I90" s="277"/>
+      <c r="J90" s="277"/>
       <c r="K90" s="227"/>
       <c r="L90" s="227"/>
       <c r="M90" s="227"/>
       <c r="N90" s="227"/>
-      <c r="P90" s="239"/>
-      <c r="Q90" s="239"/>
+      <c r="P90" s="277"/>
+      <c r="Q90" s="277"/>
       <c r="R90" s="227"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B83:D83"/>
@@ -19398,12 +19816,12 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="P42:U42"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19440,27 +19858,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="H1" s="250" t="s">
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="H1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="N1" s="250" t="s">
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="N1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -19511,29 +19929,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="242" t="s">
+      <c r="H3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="253" t="s">
+      <c r="N3" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="275"/>
+      <c r="R3" s="275"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -20115,10 +20533,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="270" t="s">
+      <c r="B14" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="272"/>
+      <c r="C14" s="294"/>
       <c r="D14" s="26">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -20215,13 +20633,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="242" t="s">
+      <c r="B16" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="243"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
       <c r="G16" s="22">
         <v>43715</v>
       </c>
@@ -20472,10 +20890,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="270" t="s">
+      <c r="N20" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="272"/>
+      <c r="O20" s="294"/>
       <c r="P20" s="26">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -20570,13 +20988,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="45"/>
-      <c r="N22" s="253" t="s">
+      <c r="N22" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="254"/>
-      <c r="P22" s="254"/>
-      <c r="Q22" s="254"/>
-      <c r="R22" s="254"/>
+      <c r="O22" s="275"/>
+      <c r="P22" s="275"/>
+      <c r="Q22" s="275"/>
+      <c r="R22" s="275"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -20655,10 +21073,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="270" t="s">
+      <c r="H24" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="272"/>
+      <c r="I24" s="294"/>
       <c r="J24" s="26">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -20755,13 +21173,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="242" t="s">
+      <c r="H26" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="243"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="243"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="272"/>
       <c r="N26" s="42">
         <v>84240</v>
       </c>
@@ -20896,10 +21314,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="270" t="s">
+      <c r="B29" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="272"/>
+      <c r="C29" s="294"/>
       <c r="D29" s="26">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -20996,13 +21414,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
-      <c r="B31" s="242" t="s">
+      <c r="B31" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
       <c r="G31" s="22">
         <v>43721</v>
       </c>
@@ -21368,10 +21786,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="240" t="s">
+      <c r="N37" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="240"/>
+      <c r="O37" s="261"/>
       <c r="P37" s="26">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -21445,10 +21863,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="237" t="s">
+      <c r="H39" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="238"/>
+      <c r="I39" s="260"/>
       <c r="J39" s="26">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -21462,13 +21880,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="45"/>
-      <c r="N39" s="253" t="s">
+      <c r="N39" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="254"/>
-      <c r="P39" s="254"/>
-      <c r="Q39" s="254"/>
-      <c r="R39" s="254"/>
+      <c r="O39" s="275"/>
+      <c r="P39" s="275"/>
+      <c r="Q39" s="275"/>
+      <c r="R39" s="275"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
@@ -21536,13 +21954,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="45"/>
-      <c r="H41" s="242" t="s">
+      <c r="H41" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="243"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="243"/>
+      <c r="I41" s="272"/>
+      <c r="J41" s="272"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="272"/>
       <c r="N41" s="42">
         <v>64080</v>
       </c>
@@ -21677,10 +22095,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="270" t="s">
+      <c r="B44" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="272"/>
+      <c r="C44" s="294"/>
       <c r="D44" s="49">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -21777,13 +22195,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
-      <c r="B46" s="253" t="s">
+      <c r="B46" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="254"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="254"/>
-      <c r="F46" s="254"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="275"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="275"/>
       <c r="G46" s="22">
         <v>43727</v>
       </c>
@@ -21919,10 +22337,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="240" t="s">
+      <c r="N48" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="240"/>
+      <c r="O48" s="261"/>
       <c r="P48" s="47">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -22017,13 +22435,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="45"/>
-      <c r="N50" s="253" t="s">
+      <c r="N50" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="254"/>
-      <c r="P50" s="254"/>
-      <c r="Q50" s="254"/>
-      <c r="R50" s="254"/>
+      <c r="O50" s="275"/>
+      <c r="P50" s="275"/>
+      <c r="Q50" s="275"/>
+      <c r="R50" s="275"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
@@ -22408,10 +22826,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="260" t="s">
+      <c r="N57" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="260"/>
+      <c r="O57" s="282"/>
       <c r="P57" s="49">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -22470,10 +22888,10 @@
       <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="270" t="s">
+      <c r="B59" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="272"/>
+      <c r="C59" s="294"/>
       <c r="D59" s="47">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -22504,13 +22922,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="45"/>
-      <c r="N59" s="253" t="s">
+      <c r="N59" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="254"/>
-      <c r="P59" s="254"/>
-      <c r="Q59" s="254"/>
-      <c r="R59" s="254"/>
+      <c r="O59" s="275"/>
+      <c r="P59" s="275"/>
+      <c r="Q59" s="275"/>
+      <c r="R59" s="275"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B60" s="40"/>
@@ -22561,13 +22979,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
-      <c r="B61" s="253" t="s">
+      <c r="B61" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="254"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="254"/>
+      <c r="C61" s="275"/>
+      <c r="D61" s="275"/>
+      <c r="E61" s="275"/>
+      <c r="F61" s="275"/>
       <c r="H61" s="23">
         <v>100800</v>
       </c>
@@ -23084,10 +23502,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="270" t="s">
+      <c r="H70" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="272"/>
+      <c r="I70" s="294"/>
       <c r="J70" s="49">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -23339,10 +23757,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="270" t="s">
+      <c r="B76" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="272"/>
+      <c r="C76" s="294"/>
       <c r="D76" s="49">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -23360,10 +23778,10 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
-      <c r="N76" s="260" t="s">
+      <c r="N76" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="260"/>
+      <c r="O76" s="282"/>
       <c r="P76" s="49">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -23481,19 +23899,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="H83" s="239"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="239"/>
-      <c r="O83" s="239"/>
-      <c r="P83" s="239"/>
+      <c r="N83" s="277"/>
+      <c r="O83" s="277"/>
+      <c r="P83" s="277"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B84" s="28"/>
@@ -23589,42 +24007,22 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="239"/>
+      <c r="H90" s="277"/>
+      <c r="I90" s="277"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
+      <c r="N90" s="277"/>
+      <c r="O90" s="277"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -23640,6 +24038,26 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23681,27 +24099,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="H1" s="250" t="s">
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="H1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="N1" s="250" t="s">
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="N1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -23752,29 +24170,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="253" t="s">
+      <c r="N3" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="275"/>
+      <c r="R3" s="275"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -24240,10 +24658,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="238"/>
+      <c r="C12" s="260"/>
       <c r="D12" s="65">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -24341,13 +24759,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
-      <c r="B14" s="253" t="s">
+      <c r="B14" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="255"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="276"/>
       <c r="G14" s="22">
         <v>43744</v>
       </c>
@@ -24943,10 +25361,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="260" t="s">
+      <c r="N24" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="260"/>
+      <c r="O24" s="282"/>
       <c r="P24" s="66">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -25043,13 +25461,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="253" t="s">
+      <c r="N26" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="254"/>
-      <c r="P26" s="254"/>
-      <c r="Q26" s="254"/>
-      <c r="R26" s="254"/>
+      <c r="O26" s="275"/>
+      <c r="P26" s="275"/>
+      <c r="Q26" s="275"/>
+      <c r="R26" s="275"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -25473,10 +25891,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="237" t="s">
+      <c r="H34" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="238"/>
+      <c r="I34" s="260"/>
       <c r="J34" s="67">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -25573,13 +25991,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="245" t="s">
+      <c r="H36" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="246"/>
-      <c r="J36" s="246"/>
-      <c r="K36" s="246"/>
-      <c r="L36" s="246"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269"/>
+      <c r="K36" s="269"/>
+      <c r="L36" s="269"/>
       <c r="N36" s="42">
         <v>104400</v>
       </c>
@@ -25754,10 +26172,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="260" t="s">
+      <c r="N39" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="260"/>
+      <c r="O39" s="282"/>
       <c r="P39" s="68">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -25813,10 +26231,10 @@
       <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="237" t="s">
+      <c r="B41" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="238"/>
+      <c r="C41" s="260"/>
       <c r="D41" s="67">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -25850,13 +26268,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="45"/>
-      <c r="N41" s="253" t="s">
+      <c r="N41" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="254"/>
-      <c r="P41" s="254"/>
-      <c r="Q41" s="254"/>
-      <c r="R41" s="254"/>
+      <c r="O41" s="275"/>
+      <c r="P41" s="275"/>
+      <c r="Q41" s="275"/>
+      <c r="R41" s="275"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B42" s="23"/>
@@ -25904,13 +26322,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="253" t="s">
+      <c r="B43" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="254"/>
-      <c r="D43" s="254"/>
-      <c r="E43" s="254"/>
-      <c r="F43" s="255"/>
+      <c r="C43" s="275"/>
+      <c r="D43" s="275"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="276"/>
       <c r="G43" s="22">
         <v>43757</v>
       </c>
@@ -26332,10 +26750,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="260" t="s">
+      <c r="N50" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="260"/>
+      <c r="O50" s="282"/>
       <c r="P50" s="77">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -26432,13 +26850,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="45"/>
-      <c r="N52" s="253" t="s">
+      <c r="N52" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="254"/>
-      <c r="P52" s="254"/>
-      <c r="Q52" s="254"/>
-      <c r="R52" s="254"/>
+      <c r="O52" s="275"/>
+      <c r="P52" s="275"/>
+      <c r="Q52" s="275"/>
+      <c r="R52" s="275"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B53" s="42">
@@ -27033,10 +27451,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="237" t="s">
+      <c r="H63" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="238"/>
+      <c r="I63" s="260"/>
       <c r="J63" s="80">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -27133,13 +27551,13 @@
         <v>71298.000000000015</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="245" t="s">
+      <c r="H65" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="246"/>
-      <c r="J65" s="246"/>
-      <c r="K65" s="246"/>
-      <c r="L65" s="246"/>
+      <c r="I65" s="269"/>
+      <c r="J65" s="269"/>
+      <c r="K65" s="269"/>
+      <c r="L65" s="269"/>
       <c r="M65" s="22">
         <v>43765</v>
       </c>
@@ -27255,10 +27673,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="260" t="s">
+      <c r="N67" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="260"/>
+      <c r="O67" s="282"/>
       <c r="P67" s="81">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -27273,10 +27691,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="237" t="s">
+      <c r="B68" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="238"/>
+      <c r="C68" s="260"/>
       <c r="D68" s="80">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -27339,22 +27757,22 @@
         <v>98415</v>
       </c>
       <c r="M69" s="45"/>
-      <c r="N69" s="245" t="s">
+      <c r="N69" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="246"/>
-      <c r="P69" s="246"/>
-      <c r="Q69" s="246"/>
-      <c r="R69" s="246"/>
+      <c r="O69" s="269"/>
+      <c r="P69" s="269"/>
+      <c r="Q69" s="269"/>
+      <c r="R69" s="269"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="253" t="s">
+      <c r="B70" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="254"/>
-      <c r="D70" s="254"/>
-      <c r="E70" s="254"/>
-      <c r="F70" s="255"/>
+      <c r="C70" s="275"/>
+      <c r="D70" s="275"/>
+      <c r="E70" s="275"/>
+      <c r="F70" s="276"/>
       <c r="G70" s="22">
         <v>43769</v>
       </c>
@@ -27470,10 +27888,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="237" t="s">
+      <c r="H72" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="238"/>
+      <c r="I72" s="260"/>
       <c r="J72" s="82">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -27596,10 +28014,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="237" t="s">
+      <c r="B75" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="238"/>
+      <c r="C75" s="260"/>
       <c r="D75" s="82">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -27636,8 +28054,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="273"/>
-      <c r="C76" s="273"/>
+      <c r="B76" s="295"/>
+      <c r="C76" s="295"/>
       <c r="D76" s="28"/>
       <c r="E76" s="86"/>
       <c r="F76" s="28"/>
@@ -27707,10 +28125,10 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
-      <c r="N78" s="237" t="s">
+      <c r="N78" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="238"/>
+      <c r="O78" s="260"/>
       <c r="P78" s="82">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -27794,19 +28212,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
-      <c r="H83" s="239"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
       <c r="K83" s="64"/>
       <c r="L83" s="64"/>
-      <c r="N83" s="239"/>
-      <c r="O83" s="239"/>
-      <c r="P83" s="239"/>
+      <c r="N83" s="277"/>
+      <c r="O83" s="277"/>
+      <c r="P83" s="277"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B84" s="28"/>
@@ -27902,40 +28320,22 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="239"/>
+      <c r="H90" s="277"/>
+      <c r="I90" s="277"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
+      <c r="N90" s="277"/>
+      <c r="O90" s="277"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -27952,6 +28352,24 @@
     <mergeCell ref="N69:R69"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -27990,27 +28408,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="H1" s="250" t="s">
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="H1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="N1" s="250" t="s">
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="N1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -28061,29 +28479,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="242" t="s">
+      <c r="H3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="252" t="s">
+      <c r="N3" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -28589,10 +29007,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="237" t="s">
+      <c r="N12" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="238"/>
+      <c r="O12" s="260"/>
       <c r="P12" s="38">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -28689,13 +29107,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="45"/>
-      <c r="N14" s="252" t="s">
+      <c r="N14" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="241"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="241"/>
+      <c r="O14" s="262"/>
+      <c r="P14" s="262"/>
+      <c r="Q14" s="262"/>
+      <c r="R14" s="262"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="99">
@@ -28889,10 +29307,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="237" t="s">
+      <c r="H18" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="238"/>
+      <c r="I18" s="260"/>
       <c r="J18" s="38">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -28989,13 +29407,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="242" t="s">
+      <c r="H20" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="243"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
       <c r="N20" s="99">
         <v>84960</v>
       </c>
@@ -29167,10 +29585,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="237" t="s">
+      <c r="N23" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="238"/>
+      <c r="O23" s="260"/>
       <c r="P23" s="38">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -29185,10 +29603,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="237" t="s">
+      <c r="B24" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="238"/>
+      <c r="C24" s="260"/>
       <c r="D24" s="84">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -29251,23 +29669,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="45"/>
-      <c r="N25" s="252" t="s">
+      <c r="N25" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
+      <c r="O25" s="262"/>
+      <c r="P25" s="262"/>
+      <c r="Q25" s="262"/>
+      <c r="R25" s="262"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
-      <c r="B26" s="241" t="s">
+      <c r="B26" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
+      <c r="C26" s="262"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
       <c r="H26" s="23">
         <v>104400</v>
       </c>
@@ -29557,10 +29975,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="237" t="s">
+      <c r="H31" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="238"/>
+      <c r="I31" s="260"/>
       <c r="J31" s="38">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -29614,10 +30032,10 @@
       <c r="J32" s="24"/>
       <c r="K32" s="97"/>
       <c r="L32" s="24"/>
-      <c r="N32" s="237" t="s">
+      <c r="N32" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="238"/>
+      <c r="O32" s="260"/>
       <c r="P32" s="38">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -29632,10 +30050,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="237" t="s">
+      <c r="B33" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="238"/>
+      <c r="C33" s="260"/>
       <c r="D33" s="100">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -29649,13 +30067,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="45"/>
-      <c r="H33" s="242" t="s">
+      <c r="H33" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="243"/>
-      <c r="J33" s="243"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="243"/>
+      <c r="I33" s="272"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
       <c r="N33" s="42"/>
       <c r="O33" s="1"/>
       <c r="P33" s="24"/>
@@ -29689,23 +30107,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="252" t="s">
+      <c r="N34" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="241"/>
-      <c r="P34" s="241"/>
-      <c r="Q34" s="241"/>
-      <c r="R34" s="241"/>
+      <c r="O34" s="262"/>
+      <c r="P34" s="262"/>
+      <c r="Q34" s="262"/>
+      <c r="R34" s="262"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
-      <c r="B35" s="241" t="s">
+      <c r="B35" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
       <c r="H35" s="42">
         <v>144000</v>
       </c>
@@ -30068,10 +30486,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="237" t="s">
+      <c r="N41" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="238"/>
+      <c r="O41" s="260"/>
       <c r="P41" s="38">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -30168,19 +30586,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="45"/>
-      <c r="N43" s="241" t="s">
+      <c r="N43" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="241"/>
-      <c r="P43" s="241"/>
-      <c r="Q43" s="241"/>
-      <c r="R43" s="241"/>
+      <c r="O43" s="262"/>
+      <c r="P43" s="262"/>
+      <c r="Q43" s="262"/>
+      <c r="R43" s="262"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="237" t="s">
+      <c r="B44" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="238"/>
+      <c r="C44" s="260"/>
       <c r="D44" s="100">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -30277,13 +30695,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
-      <c r="B46" s="241" t="s">
+      <c r="B46" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="241"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="241"/>
+      <c r="C46" s="262"/>
+      <c r="D46" s="262"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="262"/>
       <c r="G46" s="22">
         <v>43788</v>
       </c>
@@ -30399,10 +30817,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="237" t="s">
+      <c r="H48" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="238"/>
+      <c r="I48" s="260"/>
       <c r="J48" s="38">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -30499,13 +30917,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="45"/>
-      <c r="H50" s="242" t="s">
+      <c r="H50" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="243"/>
-      <c r="J50" s="243"/>
-      <c r="K50" s="243"/>
-      <c r="L50" s="243"/>
+      <c r="I50" s="272"/>
+      <c r="J50" s="272"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="272"/>
       <c r="M50" s="22">
         <v>43787</v>
       </c>
@@ -30621,10 +31039,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="237" t="s">
+      <c r="N52" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="238"/>
+      <c r="O52" s="260"/>
       <c r="P52" s="38">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -30721,13 +31139,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="45"/>
-      <c r="N54" s="241" t="s">
+      <c r="N54" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="241"/>
-      <c r="P54" s="241"/>
-      <c r="Q54" s="241"/>
-      <c r="R54" s="241"/>
+      <c r="O54" s="262"/>
+      <c r="P54" s="262"/>
+      <c r="Q54" s="262"/>
+      <c r="R54" s="262"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
@@ -31075,10 +31493,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="237" t="s">
+      <c r="B61" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="238"/>
+      <c r="C61" s="260"/>
       <c r="D61" s="102">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -31111,10 +31529,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="237" t="s">
+      <c r="N61" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="238"/>
+      <c r="O61" s="260"/>
       <c r="P61" s="38">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -31158,13 +31576,13 @@
       <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="253" t="s">
+      <c r="B63" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="254"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="254"/>
-      <c r="F63" s="254"/>
+      <c r="C63" s="275"/>
+      <c r="D63" s="275"/>
+      <c r="E63" s="275"/>
+      <c r="F63" s="275"/>
       <c r="G63" s="22">
         <v>43795</v>
       </c>
@@ -31186,13 +31604,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="45"/>
-      <c r="N63" s="241" t="s">
+      <c r="N63" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="241"/>
-      <c r="P63" s="241"/>
-      <c r="Q63" s="241"/>
-      <c r="R63" s="241"/>
+      <c r="O63" s="262"/>
+      <c r="P63" s="262"/>
+      <c r="Q63" s="262"/>
+      <c r="R63" s="262"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
@@ -31692,10 +32110,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="237" t="s">
+      <c r="N72" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="238"/>
+      <c r="O72" s="260"/>
       <c r="P72" s="38">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -31727,10 +32145,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="237" t="s">
+      <c r="H73" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="238"/>
+      <c r="I73" s="260"/>
       <c r="J73" s="38">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -31776,13 +32194,13 @@
       <c r="K74" s="85"/>
       <c r="L74" s="85"/>
       <c r="M74" s="45"/>
-      <c r="N74" s="241" t="s">
+      <c r="N74" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="241"/>
-      <c r="P74" s="241"/>
-      <c r="Q74" s="241"/>
-      <c r="R74" s="241"/>
+      <c r="O74" s="262"/>
+      <c r="P74" s="262"/>
+      <c r="Q74" s="262"/>
+      <c r="R74" s="262"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B75" s="42">
@@ -31829,10 +32247,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="237" t="s">
+      <c r="B76" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="238"/>
+      <c r="C76" s="260"/>
       <c r="D76" s="103">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -32053,14 +32471,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="83"/>
       <c r="F83" s="83"/>
-      <c r="H83" s="239"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="22">
@@ -32124,10 +32542,10 @@
       <c r="J85" s="85"/>
       <c r="K85" s="85"/>
       <c r="L85" s="85"/>
-      <c r="N85" s="237" t="s">
+      <c r="N85" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="238"/>
+      <c r="O85" s="260"/>
       <c r="P85" s="38">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -32205,41 +32623,29 @@
       <c r="P89" s="85"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="85"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="239"/>
+      <c r="H90" s="277"/>
+      <c r="I90" s="277"/>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
+      <c r="N90" s="277"/>
+      <c r="O90" s="277"/>
       <c r="P90" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N54:R54"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N72:O72"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -32256,13 +32662,25 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H50:L50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32304,27 +32722,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="H1" s="250" t="s">
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="H1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="N1" s="250" t="s">
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="N1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -32375,29 +32793,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="247"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="273"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="241" t="s">
+      <c r="N3" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -32670,10 +33088,10 @@
         <f t="shared" si="9"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="237" t="s">
+      <c r="N8" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="238"/>
+      <c r="O8" s="260"/>
       <c r="P8" s="38">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -32770,13 +33188,13 @@
         <v>94770</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="253" t="s">
+      <c r="N10" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="254"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="275"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
@@ -33275,10 +33693,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N19" s="237" t="s">
+      <c r="N19" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="238"/>
+      <c r="O19" s="260"/>
       <c r="P19" s="38">
         <f>SUM(P11:P18)</f>
         <v>505093.68</v>
@@ -33375,19 +33793,19 @@
         <v>94770</v>
       </c>
       <c r="M21" s="45"/>
-      <c r="N21" s="252" t="s">
+      <c r="N21" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="241"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="241"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="262"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="262"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="237" t="s">
+      <c r="B22" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="238"/>
+      <c r="C22" s="260"/>
       <c r="D22" s="38">
         <f>SUM(D4:D21)</f>
         <v>1859301.3599999999</v>
@@ -33483,13 +33901,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="243"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="243"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="272"/>
       <c r="G24" s="22">
         <v>43810</v>
       </c>
@@ -34410,10 +34828,10 @@
         <f t="shared" si="23"/>
         <v>109174</v>
       </c>
-      <c r="H40" s="237" t="s">
+      <c r="H40" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="238"/>
+      <c r="I40" s="260"/>
       <c r="J40" s="38">
         <f>SUM(J4:J39)</f>
         <v>3550680.0000000005</v>
@@ -34426,10 +34844,10 @@
         <f>SUM(L4:L39)</f>
         <v>3422655</v>
       </c>
-      <c r="N40" s="237" t="s">
+      <c r="N40" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="238"/>
+      <c r="O40" s="260"/>
       <c r="P40" s="38">
         <f>SUM(P22:P39)</f>
         <v>1381640.4</v>
@@ -34494,21 +34912,21 @@
         <v>109174</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="245" t="s">
+      <c r="H42" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="246"/>
-      <c r="J42" s="246"/>
-      <c r="K42" s="246"/>
-      <c r="L42" s="246"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="269"/>
+      <c r="L42" s="269"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="241" t="s">
+      <c r="N42" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="241"/>
-      <c r="P42" s="241"/>
-      <c r="Q42" s="241"/>
-      <c r="R42" s="241"/>
+      <c r="O42" s="262"/>
+      <c r="P42" s="262"/>
+      <c r="Q42" s="262"/>
+      <c r="R42" s="262"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
@@ -34626,10 +35044,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="237" t="s">
+      <c r="B45" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="238"/>
+      <c r="C45" s="260"/>
       <c r="D45" s="38">
         <f>SUM(D25:D44)</f>
         <v>2238094.0799999996</v>
@@ -34725,13 +35143,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="243"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="243"/>
-      <c r="F47" s="244"/>
+      <c r="C47" s="272"/>
+      <c r="D47" s="272"/>
+      <c r="E47" s="272"/>
+      <c r="F47" s="270"/>
       <c r="G47" s="22">
         <v>43820</v>
       </c>
@@ -35097,10 +35515,10 @@
         <f t="shared" si="33"/>
         <v>97380</v>
       </c>
-      <c r="N53" s="237" t="s">
+      <c r="N53" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="238"/>
+      <c r="O53" s="260"/>
       <c r="P53" s="38">
         <f>SUM(P43:P52)</f>
         <v>719671.67999999993</v>
@@ -35197,13 +35615,13 @@
         <v>102249</v>
       </c>
       <c r="M55" s="45"/>
-      <c r="N55" s="252" t="s">
+      <c r="N55" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="241"/>
-      <c r="P55" s="241"/>
-      <c r="Q55" s="241"/>
-      <c r="R55" s="241"/>
+      <c r="O55" s="262"/>
+      <c r="P55" s="262"/>
+      <c r="Q55" s="262"/>
+      <c r="R55" s="262"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
@@ -35397,10 +35815,10 @@
         <f t="shared" si="37"/>
         <v>104192</v>
       </c>
-      <c r="H59" s="237" t="s">
+      <c r="H59" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="238"/>
+      <c r="I59" s="260"/>
       <c r="J59" s="38">
         <f>SUM(J43:J58)</f>
         <v>1715012.6400000004</v>
@@ -35497,13 +35915,13 @@
         <v>104192</v>
       </c>
       <c r="G61" s="45"/>
-      <c r="H61" s="245" t="s">
+      <c r="H61" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="246"/>
-      <c r="J61" s="246"/>
-      <c r="K61" s="246"/>
-      <c r="L61" s="247"/>
+      <c r="I61" s="269"/>
+      <c r="J61" s="269"/>
+      <c r="K61" s="269"/>
+      <c r="L61" s="273"/>
       <c r="N61" s="42">
         <v>90000</v>
       </c>
@@ -35793,10 +36211,10 @@
         <f t="shared" si="45"/>
         <v>94770</v>
       </c>
-      <c r="N66" s="237" t="s">
+      <c r="N66" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="238"/>
+      <c r="O66" s="260"/>
       <c r="P66" s="38">
         <f>SUM(P56:P65)</f>
         <v>880380</v>
@@ -35893,13 +36311,13 @@
         <v>98415</v>
       </c>
       <c r="M68" s="45"/>
-      <c r="N68" s="253" t="s">
+      <c r="N68" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="O68" s="254"/>
-      <c r="P68" s="254"/>
-      <c r="Q68" s="254"/>
-      <c r="R68" s="254"/>
+      <c r="O68" s="275"/>
+      <c r="P68" s="275"/>
+      <c r="Q68" s="275"/>
+      <c r="R68" s="275"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B69" s="23">
@@ -36073,10 +36491,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="270" t="s">
+      <c r="B72" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="272"/>
+      <c r="C72" s="294"/>
       <c r="D72" s="51">
         <f>SUM(D48:D71)</f>
         <v>2637675.3600000003</v>
@@ -36089,10 +36507,10 @@
         <f>SUM(F48:F71)</f>
         <v>2510256</v>
       </c>
-      <c r="H72" s="270" t="s">
+      <c r="H72" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="272"/>
+      <c r="I72" s="294"/>
       <c r="J72" s="51">
         <f>SUM(J62:J71)</f>
         <v>969023.15999999992</v>
@@ -36379,10 +36797,10 @@
       <c r="J81" s="105"/>
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
-      <c r="N81" s="270" t="s">
+      <c r="N81" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="272"/>
+      <c r="O81" s="294"/>
       <c r="P81" s="51">
         <f>SUM(P69:P80)</f>
         <v>1082706.48</v>
@@ -36414,14 +36832,14 @@
       <c r="R82" s="61"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="239"/>
-      <c r="C83" s="239"/>
-      <c r="D83" s="239"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
       <c r="E83" s="104"/>
       <c r="F83" s="104"/>
-      <c r="H83" s="239"/>
-      <c r="I83" s="239"/>
-      <c r="J83" s="239"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104"/>
       <c r="N83" s="113"/>
@@ -36528,32 +36946,28 @@
       <c r="P89" s="105"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="105"/>
       <c r="E90" s="105"/>
       <c r="F90" s="105"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="239"/>
+      <c r="H90" s="277"/>
+      <c r="I90" s="277"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
+      <c r="N90" s="277"/>
+      <c r="O90" s="277"/>
       <c r="P90" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N55:R55"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
@@ -36570,12 +36984,16 @@
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N55:R55"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N68:R68"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Расчет капель по машинам\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016FE0F-B103-44C7-8BA5-2E588518058E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="57" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Декабрь" sheetId="56" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$U$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$U$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Декабрь!$A$1:$R$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$U$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Ноябрь!$A$1:$R$85</definedName>
@@ -31,12 +32,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$U$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$U$81</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="62">
   <si>
     <t>% работы</t>
   </si>
@@ -214,11 +222,20 @@
   <si>
     <t>III-2-82-450-1 (Банка 0,45 л.)</t>
   </si>
+  <si>
+    <t>Банка 1,5 л СКО</t>
+  </si>
+  <si>
+    <t>Банка 1,5 л ТВИСТ</t>
+  </si>
+  <si>
+    <t>Новый</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0_р_.;[Red]\-#,##0_р_.;[White]#,##0_р_."/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -267,7 +284,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +333,26 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -850,12 +885,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1574,15 +1631,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1592,12 +1640,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1605,6 +1647,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,11 +1781,50 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1812,6 +1920,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1847,6 +1972,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2022,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -2055,29 +2197,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
       <c r="G1" s="144"/>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
       <c r="N1" s="144"/>
-      <c r="P1" s="265" t="s">
+      <c r="P1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -2137,32 +2279,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="267"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="271"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="268" t="s">
+      <c r="I3" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="270"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="268" t="s">
+      <c r="P3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="269"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="277"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -2298,10 +2440,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="261"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="140">
         <f>SUM(D4:D5)</f>
         <v>223367.04000000001</v>
@@ -2415,14 +2557,14 @@
     </row>
     <row r="8" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
       <c r="H8" s="22">
         <v>43833</v>
       </c>
@@ -2579,10 +2721,10 @@
       <c r="N10" s="154">
         <v>192.64</v>
       </c>
-      <c r="P10" s="259" t="s">
+      <c r="P10" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="260"/>
+      <c r="Q10" s="264"/>
       <c r="R10" s="38">
         <f>SUM(R4:R9)</f>
         <v>549478.07999999996</v>
@@ -2697,14 +2839,14 @@
         <v>192.97</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="271" t="s">
+      <c r="P12" s="275" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="270"/>
+      <c r="Q12" s="276"/>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="274"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -3549,10 +3691,10 @@
       <c r="N25" s="154">
         <v>192.18</v>
       </c>
-      <c r="P25" s="259" t="s">
+      <c r="P25" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="260"/>
+      <c r="Q25" s="264"/>
       <c r="R25" s="38">
         <f>SUM(R13:R24)</f>
         <v>941633.27999999991</v>
@@ -3666,14 +3808,14 @@
         <v>192.87</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="274" t="s">
+      <c r="P27" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="275"/>
-      <c r="R27" s="275"/>
-      <c r="S27" s="275"/>
-      <c r="T27" s="275"/>
-      <c r="U27" s="276"/>
+      <c r="Q27" s="279"/>
+      <c r="R27" s="279"/>
+      <c r="S27" s="279"/>
+      <c r="T27" s="279"/>
+      <c r="U27" s="280"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99">
@@ -3877,10 +4019,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="261" t="s">
+      <c r="B31" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="261"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="140">
         <f>SUM(D9:D30)</f>
         <v>2224285.92</v>
@@ -3994,14 +4136,14 @@
     </row>
     <row r="33" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
-      <c r="B33" s="262" t="s">
+      <c r="B33" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="262"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
       <c r="I33" s="9">
         <v>100800</v>
       </c>
@@ -4223,10 +4365,10 @@
       <c r="N36" s="154">
         <v>193.6</v>
       </c>
-      <c r="P36" s="259" t="s">
+      <c r="P36" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="260"/>
+      <c r="Q36" s="264"/>
       <c r="R36" s="38">
         <f>SUM(R28:R35)</f>
         <v>651933.36</v>
@@ -4340,14 +4482,14 @@
         <v>192.39</v>
       </c>
       <c r="O38" s="45"/>
-      <c r="P38" s="274" t="s">
+      <c r="P38" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="275"/>
-      <c r="R38" s="275"/>
-      <c r="S38" s="275"/>
-      <c r="T38" s="275"/>
-      <c r="U38" s="276"/>
+      <c r="Q38" s="279"/>
+      <c r="R38" s="279"/>
+      <c r="S38" s="279"/>
+      <c r="T38" s="279"/>
+      <c r="U38" s="280"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B39" s="99">
@@ -4415,10 +4557,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="261" t="s">
+      <c r="B40" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="261"/>
+      <c r="C40" s="265"/>
       <c r="D40" s="140">
         <f>SUM(D34:D39)</f>
         <v>740793.6</v>
@@ -4532,14 +4674,14 @@
     </row>
     <row r="42" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
-      <c r="B42" s="262" t="s">
+      <c r="B42" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="262"/>
-      <c r="D42" s="262"/>
-      <c r="E42" s="262"/>
-      <c r="F42" s="262"/>
-      <c r="G42" s="262"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="266"/>
+      <c r="E42" s="266"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
       <c r="H42" s="22">
         <v>43850</v>
       </c>
@@ -4806,10 +4948,10 @@
       <c r="G46" s="154">
         <v>305.87</v>
       </c>
-      <c r="I46" s="259" t="s">
+      <c r="I46" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="260"/>
+      <c r="J46" s="264"/>
       <c r="K46" s="38">
         <f>SUM(K4:K45)</f>
         <v>4144291.2</v>
@@ -4923,14 +5065,14 @@
         <v>305.2</v>
       </c>
       <c r="H48" s="45"/>
-      <c r="I48" s="271" t="s">
+      <c r="I48" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="272"/>
-      <c r="K48" s="272"/>
-      <c r="L48" s="272"/>
-      <c r="M48" s="272"/>
-      <c r="N48" s="270"/>
+      <c r="J48" s="276"/>
+      <c r="K48" s="276"/>
+      <c r="L48" s="276"/>
+      <c r="M48" s="276"/>
+      <c r="N48" s="274"/>
       <c r="P48" s="42">
         <v>65520</v>
       </c>
@@ -5132,10 +5274,10 @@
       <c r="N51" s="154">
         <v>141.72999999999999</v>
       </c>
-      <c r="P51" s="259" t="s">
+      <c r="P51" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q51" s="260"/>
+      <c r="Q51" s="264"/>
       <c r="R51" s="38">
         <f>SUM(R39:R50)</f>
         <v>759245.75999999989</v>
@@ -5202,10 +5344,10 @@
       <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="261" t="s">
+      <c r="B53" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="261"/>
+      <c r="C53" s="265"/>
       <c r="D53" s="140">
         <f>SUM(D43:D52)</f>
         <v>942062.4</v>
@@ -5246,14 +5388,14 @@
         <v>142.97</v>
       </c>
       <c r="O53" s="45"/>
-      <c r="P53" s="268" t="s">
+      <c r="P53" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="269"/>
-      <c r="R53" s="269"/>
-      <c r="S53" s="269"/>
-      <c r="T53" s="269"/>
-      <c r="U53" s="273"/>
+      <c r="Q53" s="273"/>
+      <c r="R53" s="273"/>
+      <c r="S53" s="273"/>
+      <c r="T53" s="273"/>
+      <c r="U53" s="277"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B54" s="23"/>
@@ -5308,14 +5450,14 @@
     </row>
     <row r="55" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
-      <c r="B55" s="262" t="s">
+      <c r="B55" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="262"/>
-      <c r="D55" s="262"/>
-      <c r="E55" s="262"/>
-      <c r="F55" s="262"/>
-      <c r="G55" s="262"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="266"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
+      <c r="G55" s="266"/>
       <c r="H55" s="22">
         <v>43855</v>
       </c>
@@ -5715,10 +5857,10 @@
       <c r="G61" s="154">
         <v>249.95</v>
       </c>
-      <c r="I61" s="259" t="s">
+      <c r="I61" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="260"/>
+      <c r="J61" s="264"/>
       <c r="K61" s="38">
         <f>SUM(K49:K60)</f>
         <v>1685448</v>
@@ -5832,14 +5974,14 @@
         <v>249.18</v>
       </c>
       <c r="H63" s="45"/>
-      <c r="I63" s="271" t="s">
+      <c r="I63" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="272"/>
-      <c r="K63" s="272"/>
-      <c r="L63" s="272"/>
-      <c r="M63" s="272"/>
-      <c r="N63" s="270"/>
+      <c r="J63" s="276"/>
+      <c r="K63" s="276"/>
+      <c r="L63" s="276"/>
+      <c r="M63" s="276"/>
+      <c r="N63" s="274"/>
       <c r="P63" s="99">
         <v>84960</v>
       </c>
@@ -6174,10 +6316,10 @@
       <c r="N68" s="154">
         <v>185</v>
       </c>
-      <c r="P68" s="259" t="s">
+      <c r="P68" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="260"/>
+      <c r="Q68" s="264"/>
       <c r="R68" s="38">
         <f>SUM(R54:R67)</f>
         <v>1141012.7999999998</v>
@@ -6291,14 +6433,14 @@
         <v>185.15</v>
       </c>
       <c r="O70" s="45"/>
-      <c r="P70" s="268" t="s">
+      <c r="P70" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="269"/>
-      <c r="R70" s="269"/>
-      <c r="S70" s="269"/>
-      <c r="T70" s="269"/>
-      <c r="U70" s="273"/>
+      <c r="Q70" s="273"/>
+      <c r="R70" s="273"/>
+      <c r="S70" s="273"/>
+      <c r="T70" s="273"/>
+      <c r="U70" s="277"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B71" s="99">
@@ -6366,10 +6508,10 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="261" t="s">
+      <c r="B72" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="261"/>
+      <c r="C72" s="265"/>
       <c r="D72" s="166">
         <f>SUM(D56:D71)</f>
         <v>1685368.8</v>
@@ -6386,10 +6528,10 @@
         <f>AVERAGE(G56:G71)</f>
         <v>249.36999999999995</v>
       </c>
-      <c r="I72" s="259" t="s">
+      <c r="I72" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="260"/>
+      <c r="J72" s="264"/>
       <c r="K72" s="38">
         <f>SUM(K64:K71)</f>
         <v>809100</v>
@@ -6466,14 +6608,14 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
-      <c r="B74" s="262" t="s">
+      <c r="B74" s="266" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="262"/>
-      <c r="D74" s="262"/>
-      <c r="E74" s="262"/>
-      <c r="F74" s="262"/>
-      <c r="G74" s="262"/>
+      <c r="C74" s="266"/>
+      <c r="D74" s="266"/>
+      <c r="E74" s="266"/>
+      <c r="F74" s="266"/>
+      <c r="G74" s="266"/>
       <c r="I74" s="135"/>
       <c r="J74" s="5"/>
       <c r="K74" s="135"/>
@@ -6803,10 +6945,10 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B81" s="261" t="s">
+      <c r="B81" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="261"/>
+      <c r="C81" s="265"/>
       <c r="D81" s="169">
         <f>SUM(D75:D80)</f>
         <v>555696</v>
@@ -6828,10 +6970,10 @@
       <c r="L81" s="135"/>
       <c r="M81" s="135"/>
       <c r="N81" s="141"/>
-      <c r="P81" s="259" t="s">
+      <c r="P81" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="260"/>
+      <c r="Q81" s="264"/>
       <c r="R81" s="38">
         <f>SUM(R71:R80)</f>
         <v>746440.55999999994</v>
@@ -6868,15 +7010,15 @@
       <c r="T82" s="61"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
       <c r="G83" s="139"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
-      <c r="K83" s="277"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
+      <c r="K83" s="281"/>
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="139"/>
@@ -6996,20 +7138,20 @@
       <c r="R89" s="135"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="141"/>
-      <c r="I90" s="277"/>
-      <c r="J90" s="277"/>
+      <c r="I90" s="281"/>
+      <c r="J90" s="281"/>
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
       <c r="M90" s="135"/>
       <c r="N90" s="141"/>
-      <c r="P90" s="277"/>
-      <c r="Q90" s="277"/>
+      <c r="P90" s="281"/>
+      <c r="Q90" s="281"/>
       <c r="R90" s="135"/>
     </row>
   </sheetData>
@@ -7060,7 +7202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7098,29 +7240,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
       <c r="G1" s="170"/>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
       <c r="N1" s="170"/>
-      <c r="P1" s="265" t="s">
+      <c r="P1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -7180,32 +7322,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="266" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="267"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="271"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="268" t="s">
+      <c r="I3" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="277"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="271" t="s">
+      <c r="P3" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="270"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="276"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="274"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -7497,10 +7639,10 @@
       <c r="G8" s="154">
         <v>332.58</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="261"/>
+      <c r="J8" s="265"/>
       <c r="K8" s="169">
         <f>SUM(K4:K7)</f>
         <v>410641.2</v>
@@ -7613,14 +7755,14 @@
       <c r="G10" s="154">
         <v>332.68</v>
       </c>
-      <c r="I10" s="268" t="s">
+      <c r="I10" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="270"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="274"/>
       <c r="O10" s="22">
         <v>43865</v>
       </c>
@@ -7755,10 +7897,10 @@
       <c r="N12" s="154">
         <v>192.29</v>
       </c>
-      <c r="P12" s="261" t="s">
+      <c r="P12" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="261"/>
+      <c r="Q12" s="265"/>
       <c r="R12" s="173">
         <f>SUM(R4:R11)</f>
         <v>611516.15999999992</v>
@@ -7873,14 +8015,14 @@
         <v>192.89</v>
       </c>
       <c r="O14" s="45"/>
-      <c r="P14" s="274" t="s">
+      <c r="P14" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="275"/>
-      <c r="R14" s="275"/>
-      <c r="S14" s="275"/>
-      <c r="T14" s="275"/>
-      <c r="U14" s="278"/>
+      <c r="Q14" s="279"/>
+      <c r="R14" s="279"/>
+      <c r="S14" s="279"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="282"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="99">
@@ -7951,10 +8093,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="261" t="s">
+      <c r="B16" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="261"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="173">
         <f>SUM(D4:D15)</f>
         <v>1125178.56</v>
@@ -8068,14 +8210,14 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
       <c r="I18" s="9">
         <v>100800</v>
       </c>
@@ -8563,10 +8705,10 @@
       <c r="N25" s="154">
         <v>192.91</v>
       </c>
-      <c r="P25" s="261" t="s">
+      <c r="P25" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="261"/>
+      <c r="Q25" s="265"/>
       <c r="R25" s="173">
         <f>SUM(R15:R24)</f>
         <v>730900.8</v>
@@ -8680,14 +8822,14 @@
         <v>192.2</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="274" t="s">
+      <c r="P27" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="275"/>
-      <c r="R27" s="275"/>
-      <c r="S27" s="275"/>
-      <c r="T27" s="275"/>
-      <c r="U27" s="276"/>
+      <c r="Q27" s="279"/>
+      <c r="R27" s="279"/>
+      <c r="S27" s="279"/>
+      <c r="T27" s="279"/>
+      <c r="U27" s="280"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="42">
@@ -8755,10 +8897,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="261" t="s">
+      <c r="B29" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="261"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="181">
         <f>SUM(D19:D28)</f>
         <v>847836</v>
@@ -8872,14 +9014,14 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
-      <c r="B31" s="271" t="s">
+      <c r="B31" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="270"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="274"/>
       <c r="H31" s="22">
         <v>43874</v>
       </c>
@@ -9101,10 +9243,10 @@
       <c r="N34" s="154">
         <v>193.02</v>
       </c>
-      <c r="P34" s="261" t="s">
+      <c r="P34" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="261"/>
+      <c r="Q34" s="265"/>
       <c r="R34" s="184">
         <f>SUM(R28:R33)</f>
         <v>442055.51999999996</v>
@@ -9218,14 +9360,14 @@
         <v>192.73</v>
       </c>
       <c r="O36" s="45"/>
-      <c r="P36" s="274" t="s">
+      <c r="P36" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="275"/>
-      <c r="R36" s="275"/>
-      <c r="S36" s="275"/>
-      <c r="T36" s="275"/>
-      <c r="U36" s="276"/>
+      <c r="Q36" s="279"/>
+      <c r="R36" s="279"/>
+      <c r="S36" s="279"/>
+      <c r="T36" s="279"/>
+      <c r="U36" s="280"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B37" s="42">
@@ -9514,10 +9656,10 @@
       <c r="G41" s="154">
         <v>437.1</v>
       </c>
-      <c r="I41" s="261" t="s">
+      <c r="I41" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="261"/>
+      <c r="J41" s="265"/>
       <c r="K41" s="185">
         <f>SUM(K11:K40)</f>
         <v>2939529.5999999996</v>
@@ -9631,14 +9773,14 @@
         <v>438.23</v>
       </c>
       <c r="H43" s="45"/>
-      <c r="I43" s="268" t="s">
+      <c r="I43" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="269"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="269"/>
-      <c r="N43" s="270"/>
+      <c r="J43" s="273"/>
+      <c r="K43" s="273"/>
+      <c r="L43" s="273"/>
+      <c r="M43" s="273"/>
+      <c r="N43" s="274"/>
       <c r="O43" s="22">
         <v>43877</v>
       </c>
@@ -9797,10 +9939,10 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="261" t="s">
+      <c r="B46" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="265"/>
       <c r="D46" s="186">
         <f>SUM(D32:D45)</f>
         <v>1074025.44</v>
@@ -9914,18 +10056,18 @@
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
-      <c r="B48" s="279" t="s">
+      <c r="B48" s="283" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="280"/>
-      <c r="D48" s="280"/>
-      <c r="E48" s="280"/>
-      <c r="F48" s="280"/>
-      <c r="G48" s="281"/>
-      <c r="I48" s="261" t="s">
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="285"/>
+      <c r="I48" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="261"/>
+      <c r="J48" s="265"/>
       <c r="K48" s="187">
         <f>SUM(K44:K47)</f>
         <v>407247.83999999997</v>
@@ -10039,14 +10181,14 @@
         <v>391.64</v>
       </c>
       <c r="H50" s="45"/>
-      <c r="I50" s="268" t="s">
+      <c r="I50" s="272" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="269"/>
-      <c r="K50" s="269"/>
-      <c r="L50" s="269"/>
-      <c r="M50" s="269"/>
-      <c r="N50" s="270"/>
+      <c r="J50" s="273"/>
+      <c r="K50" s="273"/>
+      <c r="L50" s="273"/>
+      <c r="M50" s="273"/>
+      <c r="N50" s="274"/>
       <c r="P50" s="42">
         <v>65520</v>
       </c>
@@ -10248,10 +10390,10 @@
       <c r="N53" s="154">
         <v>191.85</v>
       </c>
-      <c r="P53" s="261" t="s">
+      <c r="P53" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="261"/>
+      <c r="Q53" s="265"/>
       <c r="R53" s="187">
         <f>SUM(R37:R52)</f>
         <v>1017197.9999999998</v>
@@ -10365,14 +10507,14 @@
         <v>191.56</v>
       </c>
       <c r="O55" s="45"/>
-      <c r="P55" s="274" t="s">
+      <c r="P55" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="Q55" s="275"/>
-      <c r="R55" s="275"/>
-      <c r="S55" s="275"/>
-      <c r="T55" s="275"/>
-      <c r="U55" s="278"/>
+      <c r="Q55" s="279"/>
+      <c r="R55" s="279"/>
+      <c r="S55" s="279"/>
+      <c r="T55" s="279"/>
+      <c r="U55" s="282"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="42">
@@ -10596,10 +10738,10 @@
       <c r="G59" s="154">
         <v>391.71</v>
       </c>
-      <c r="I59" s="261" t="s">
+      <c r="I59" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="J59" s="261"/>
+      <c r="J59" s="265"/>
       <c r="K59" s="187">
         <f>SUM(K51:K58)</f>
         <v>899444.15999999992</v>
@@ -10713,14 +10855,14 @@
         <v>393.33</v>
       </c>
       <c r="H61" s="45"/>
-      <c r="I61" s="268" t="s">
+      <c r="I61" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="269"/>
-      <c r="K61" s="269"/>
-      <c r="L61" s="269"/>
-      <c r="M61" s="269"/>
-      <c r="N61" s="270"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="273"/>
+      <c r="M61" s="273"/>
+      <c r="N61" s="274"/>
       <c r="P61" s="42">
         <v>74880</v>
       </c>
@@ -10944,10 +11086,10 @@
       </c>
     </row>
     <row r="65" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="261" t="s">
+      <c r="B65" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="261"/>
+      <c r="C65" s="265"/>
       <c r="D65" s="190">
         <f>SUM(D49:D64)</f>
         <v>1397615.9039999999</v>
@@ -11035,10 +11177,10 @@
       <c r="N66" s="154">
         <v>193.93</v>
       </c>
-      <c r="P66" s="261" t="s">
+      <c r="P66" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="Q66" s="261"/>
+      <c r="Q66" s="265"/>
       <c r="R66" s="189">
         <f>SUM(R56:R65)</f>
         <v>726785.27999999991</v>
@@ -11058,14 +11200,14 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
-      <c r="B67" s="274" t="s">
+      <c r="B67" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="275"/>
-      <c r="D67" s="275"/>
-      <c r="E67" s="275"/>
-      <c r="F67" s="275"/>
-      <c r="G67" s="278"/>
+      <c r="C67" s="279"/>
+      <c r="D67" s="279"/>
+      <c r="E67" s="279"/>
+      <c r="F67" s="279"/>
+      <c r="G67" s="282"/>
       <c r="I67" s="9">
         <v>100800</v>
       </c>
@@ -11141,14 +11283,14 @@
         <v>193.85</v>
       </c>
       <c r="O68" s="45"/>
-      <c r="P68" s="259" t="s">
+      <c r="P68" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="Q68" s="283"/>
-      <c r="R68" s="283"/>
-      <c r="S68" s="283"/>
-      <c r="T68" s="283"/>
-      <c r="U68" s="260"/>
+      <c r="Q68" s="287"/>
+      <c r="R68" s="287"/>
+      <c r="S68" s="287"/>
+      <c r="T68" s="287"/>
+      <c r="U68" s="264"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B69" s="42">
@@ -11482,10 +11624,10 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B74" s="282" t="s">
+      <c r="B74" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="282"/>
+      <c r="C74" s="286"/>
       <c r="D74" s="191">
         <f>SUM(D68:D73)</f>
         <v>529735.68000000005</v>
@@ -11502,10 +11644,10 @@
         <f>AVERAGE(G68:G73)</f>
         <v>351.01</v>
       </c>
-      <c r="I74" s="261" t="s">
+      <c r="I74" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="261"/>
+      <c r="J74" s="265"/>
       <c r="K74" s="190">
         <f>SUM(K62:K73)</f>
         <v>1168473.6000000001</v>
@@ -11626,10 +11768,10 @@
       <c r="M77" s="171"/>
       <c r="N77" s="171"/>
       <c r="O77" s="22"/>
-      <c r="P77" s="282" t="s">
+      <c r="P77" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="Q77" s="282"/>
+      <c r="Q77" s="286"/>
       <c r="R77" s="191">
         <f>SUM(R69:R76)</f>
         <v>540630.72000000009</v>
@@ -11745,15 +11887,15 @@
       <c r="T82" s="192"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="167"/>
       <c r="F83" s="167"/>
       <c r="G83" s="167"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
-      <c r="K83" s="277"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
+      <c r="K83" s="281"/>
       <c r="L83" s="167"/>
       <c r="M83" s="167"/>
       <c r="N83" s="167"/>
@@ -11873,20 +12015,20 @@
       <c r="R89" s="171"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="171"/>
       <c r="E90" s="171"/>
       <c r="F90" s="171"/>
       <c r="G90" s="171"/>
-      <c r="I90" s="277"/>
-      <c r="J90" s="277"/>
+      <c r="I90" s="281"/>
+      <c r="J90" s="281"/>
       <c r="K90" s="171"/>
       <c r="L90" s="171"/>
       <c r="M90" s="171"/>
       <c r="N90" s="171"/>
-      <c r="P90" s="277"/>
-      <c r="Q90" s="277"/>
+      <c r="P90" s="281"/>
+      <c r="Q90" s="281"/>
       <c r="R90" s="171"/>
     </row>
   </sheetData>
@@ -11939,7 +12081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11947,7 +12089,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:G17"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11977,29 +12119,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
       <c r="G1" s="201"/>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
       <c r="N1" s="201"/>
-      <c r="P1" s="265" t="s">
+      <c r="P1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -12060,32 +12202,32 @@
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="278"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="282"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="271" t="s">
+      <c r="I3" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="270"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="284" t="s">
+      <c r="P3" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="260"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="289"/>
+      <c r="S3" s="289"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="264"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -12537,10 +12679,10 @@
         <f>AVERAGE(P4:P9)</f>
         <v>455.27166666666659</v>
       </c>
-      <c r="Q10" s="288" t="s">
+      <c r="Q10" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="289"/>
+      <c r="R10" s="293"/>
       <c r="S10" s="37">
         <f>T10/U10</f>
         <v>0.96608127857368509</v>
@@ -12652,14 +12794,14 @@
         <v>99792</v>
       </c>
       <c r="O12" s="45"/>
-      <c r="P12" s="268" t="s">
+      <c r="P12" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="269"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="269"/>
-      <c r="T12" s="269"/>
-      <c r="U12" s="273"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="273"/>
+      <c r="S12" s="273"/>
+      <c r="T12" s="273"/>
+      <c r="U12" s="277"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="154">
@@ -12731,10 +12873,10 @@
         <f>AVERAGE(B4:B13)</f>
         <v>351.43200000000002</v>
       </c>
-      <c r="C14" s="286" t="s">
+      <c r="C14" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="291"/>
       <c r="E14" s="210">
         <f>F14/G14</f>
         <v>0.97680035617169647</v>
@@ -12844,14 +12986,14 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
       <c r="H16" s="22">
         <v>43897</v>
       </c>
@@ -13476,10 +13618,10 @@
         <f>AVERAGE(P13:P24)</f>
         <v>370.49166666666673</v>
       </c>
-      <c r="Q25" s="288" t="s">
+      <c r="Q25" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="289"/>
+      <c r="R25" s="293"/>
       <c r="S25" s="37">
         <f>T25/U25</f>
         <v>0.92835712940612525</v>
@@ -13589,14 +13731,14 @@
         <v>99590.399999999994</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="274" t="s">
+      <c r="P27" s="278" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="275"/>
-      <c r="R27" s="275"/>
-      <c r="S27" s="275"/>
-      <c r="T27" s="275"/>
-      <c r="U27" s="276"/>
+      <c r="Q27" s="279"/>
+      <c r="R27" s="279"/>
+      <c r="S27" s="279"/>
+      <c r="T27" s="279"/>
+      <c r="U27" s="280"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="154">
@@ -13912,10 +14054,10 @@
         <f>AVERAGE(P28:P31)</f>
         <v>439.98750000000001</v>
       </c>
-      <c r="Q32" s="288" t="s">
+      <c r="Q32" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="289"/>
+      <c r="R32" s="293"/>
       <c r="S32" s="37">
         <f>T32/U32</f>
         <v>0.84106451150112393</v>
@@ -14025,14 +14167,14 @@
         <v>99187.199999999997</v>
       </c>
       <c r="O34" s="45"/>
-      <c r="P34" s="271" t="s">
+      <c r="P34" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="272"/>
-      <c r="R34" s="272"/>
-      <c r="S34" s="272"/>
-      <c r="T34" s="272"/>
-      <c r="U34" s="270"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="276"/>
+      <c r="S34" s="276"/>
+      <c r="T34" s="276"/>
+      <c r="U34" s="274"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
@@ -14172,10 +14314,10 @@
         <f>AVERAGE(B17:B36)</f>
         <v>249.47250000000003</v>
       </c>
-      <c r="C37" s="286" t="s">
+      <c r="C37" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="287"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="210">
         <f>F37/G37</f>
         <v>0.96679444556379368</v>
@@ -14285,14 +14427,14 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="272"/>
-      <c r="D39" s="272"/>
-      <c r="E39" s="272"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="270"/>
+      <c r="C39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="276"/>
+      <c r="G39" s="274"/>
       <c r="I39" s="154">
         <v>194.35</v>
       </c>
@@ -14897,10 +15039,10 @@
         <f>AVERAGE(I28:I47)</f>
         <v>194.57449999999997</v>
       </c>
-      <c r="J48" s="286" t="s">
+      <c r="J48" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="287"/>
+      <c r="K48" s="291"/>
       <c r="L48" s="210">
         <f>M48/N48</f>
         <v>0.97167141965956672</v>
@@ -15010,14 +15152,14 @@
         <v>77536.800000000003</v>
       </c>
       <c r="H50" s="45"/>
-      <c r="I50" s="271" t="s">
+      <c r="I50" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="272"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="272"/>
-      <c r="M50" s="272"/>
-      <c r="N50" s="270"/>
+      <c r="J50" s="276"/>
+      <c r="K50" s="276"/>
+      <c r="L50" s="276"/>
+      <c r="M50" s="276"/>
+      <c r="N50" s="274"/>
       <c r="P50" s="154">
         <v>383.12</v>
       </c>
@@ -15378,10 +15520,10 @@
         <f>AVERAGE(B40:B55)</f>
         <v>436.88749999999999</v>
       </c>
-      <c r="C56" s="286" t="s">
+      <c r="C56" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="287"/>
+      <c r="D56" s="291"/>
       <c r="E56" s="210">
         <f>F56/G56</f>
         <v>0.96151266287927395</v>
@@ -15491,14 +15633,14 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
-      <c r="B58" s="271" t="s">
+      <c r="B58" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="272"/>
-      <c r="G58" s="270"/>
+      <c r="C58" s="276"/>
+      <c r="D58" s="276"/>
+      <c r="E58" s="276"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="274"/>
       <c r="I58" s="154">
         <v>144.6</v>
       </c>
@@ -15990,10 +16132,10 @@
         <f>AVERAGE(P35:P64)</f>
         <v>383.99199999999996</v>
       </c>
-      <c r="Q65" s="288" t="s">
+      <c r="Q65" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R65" s="289"/>
+      <c r="R65" s="293"/>
       <c r="S65" s="37">
         <f>T65/U65</f>
         <v>0.960199036242256</v>
@@ -16060,10 +16202,10 @@
         <f>AVERAGE(B59:B66)</f>
         <v>371.80125000000004</v>
       </c>
-      <c r="C67" s="286" t="s">
+      <c r="C67" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="287"/>
+      <c r="D67" s="291"/>
       <c r="E67" s="210">
         <f>F67/G67</f>
         <v>0.92677682860183508</v>
@@ -16080,10 +16222,10 @@
         <f>AVERAGE(I51:I66)</f>
         <v>146.20499999999996</v>
       </c>
-      <c r="J67" s="286" t="s">
+      <c r="J67" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="K67" s="287"/>
+      <c r="K67" s="291"/>
       <c r="L67" s="210">
         <f>M67/N67</f>
         <v>0.94237274103258428</v>
@@ -16097,14 +16239,14 @@
         <v>2254357.4400000004</v>
       </c>
       <c r="O67" s="45"/>
-      <c r="P67" s="271" t="s">
+      <c r="P67" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="Q67" s="272"/>
-      <c r="R67" s="272"/>
-      <c r="S67" s="272"/>
-      <c r="T67" s="272"/>
-      <c r="U67" s="270"/>
+      <c r="Q67" s="276"/>
+      <c r="R67" s="276"/>
+      <c r="S67" s="276"/>
+      <c r="T67" s="276"/>
+      <c r="U67" s="274"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
@@ -16145,23 +16287,23 @@
     </row>
     <row r="69" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
-      <c r="B69" s="274" t="s">
+      <c r="B69" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="275"/>
-      <c r="D69" s="275"/>
-      <c r="E69" s="275"/>
-      <c r="F69" s="275"/>
-      <c r="G69" s="278"/>
+      <c r="C69" s="279"/>
+      <c r="D69" s="279"/>
+      <c r="E69" s="279"/>
+      <c r="F69" s="279"/>
+      <c r="G69" s="282"/>
       <c r="H69" s="45"/>
-      <c r="I69" s="271" t="s">
+      <c r="I69" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="272"/>
-      <c r="K69" s="272"/>
-      <c r="L69" s="272"/>
-      <c r="M69" s="269"/>
-      <c r="N69" s="270"/>
+      <c r="J69" s="276"/>
+      <c r="K69" s="276"/>
+      <c r="L69" s="276"/>
+      <c r="M69" s="273"/>
+      <c r="N69" s="274"/>
       <c r="P69" s="154">
         <v>410.95</v>
       </c>
@@ -16344,10 +16486,10 @@
         <f>AVERAGE(I70:I71)</f>
         <v>194.78</v>
       </c>
-      <c r="J72" s="286" t="s">
+      <c r="J72" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="K72" s="287"/>
+      <c r="K72" s="291"/>
       <c r="L72" s="232">
         <f>M72/N72</f>
         <v>0.73151800359290786</v>
@@ -16466,10 +16608,10 @@
         <f>AVERAGE(P68:P73)</f>
         <v>410.16666666666669</v>
       </c>
-      <c r="Q74" s="286" t="s">
+      <c r="Q74" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="R74" s="287"/>
+      <c r="R74" s="291"/>
       <c r="S74" s="210">
         <f>T74/U74</f>
         <v>0.88483306421359964</v>
@@ -16546,14 +16688,14 @@
       <c r="M76" s="202"/>
       <c r="N76" s="202"/>
       <c r="O76" s="45"/>
-      <c r="P76" s="271" t="s">
+      <c r="P76" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="Q76" s="272"/>
-      <c r="R76" s="272"/>
-      <c r="S76" s="272"/>
-      <c r="T76" s="272"/>
-      <c r="U76" s="270"/>
+      <c r="Q76" s="276"/>
+      <c r="R76" s="276"/>
+      <c r="S76" s="276"/>
+      <c r="T76" s="276"/>
+      <c r="U76" s="274"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
@@ -16611,10 +16753,10 @@
         <f>AVERAGE(B70:B77)</f>
         <v>163.83625000000001</v>
       </c>
-      <c r="C78" s="292" t="s">
+      <c r="C78" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="293"/>
+      <c r="D78" s="297"/>
       <c r="E78" s="229">
         <f>F78/G78</f>
         <v>0.87462331380385161</v>
@@ -16740,10 +16882,10 @@
         <f>AVERAGE(P75:P80)</f>
         <v>428.5675</v>
       </c>
-      <c r="Q81" s="290" t="s">
+      <c r="Q81" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="R81" s="291"/>
+      <c r="R81" s="295"/>
       <c r="S81" s="236">
         <f>T81/U81</f>
         <v>0.90993160245672822</v>
@@ -16776,15 +16918,15 @@
       <c r="T82" s="202"/>
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="199"/>
       <c r="F83" s="199"/>
       <c r="G83" s="199"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
-      <c r="K83" s="277"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
+      <c r="K83" s="281"/>
       <c r="L83" s="199"/>
       <c r="M83" s="199"/>
       <c r="N83" s="199"/>
@@ -16904,20 +17046,20 @@
       <c r="R89" s="202"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="202"/>
       <c r="E90" s="202"/>
       <c r="F90" s="202"/>
       <c r="G90" s="202"/>
-      <c r="I90" s="277"/>
-      <c r="J90" s="277"/>
+      <c r="I90" s="281"/>
+      <c r="J90" s="281"/>
       <c r="K90" s="202"/>
       <c r="L90" s="202"/>
       <c r="M90" s="202"/>
       <c r="N90" s="202"/>
-      <c r="P90" s="277"/>
-      <c r="Q90" s="277"/>
+      <c r="P90" s="281"/>
+      <c r="Q90" s="281"/>
       <c r="R90" s="202"/>
     </row>
   </sheetData>
@@ -16966,15 +17108,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17004,29 +17146,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
       <c r="G1" s="223"/>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
       <c r="N1" s="223"/>
-      <c r="P1" s="265" t="s">
+      <c r="P1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -17085,31 +17227,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="274" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="278"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="282"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="268" t="s">
+      <c r="I3" s="275" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="272" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="269"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="277"/>
     </row>
     <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -17138,12 +17282,26 @@
       <c r="H4" s="22">
         <v>43922</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="205"/>
+      <c r="I4" s="206">
+        <v>194.5</v>
+      </c>
+      <c r="J4" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K4" s="262">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L4" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M4" s="24">
+        <f t="shared" ref="M4:M10" si="2">J4*L4/100</f>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N4" s="205">
+        <f t="shared" ref="N4:N10" si="3">J4*K4</f>
+        <v>99288</v>
+      </c>
       <c r="O4" s="22">
         <v>43922</v>
       </c>
@@ -17160,11 +17318,11 @@
         <v>99.288194444444443</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" ref="T4" si="2">Q4*S4/100</f>
+        <f t="shared" ref="T4" si="4">Q4*S4/100</f>
         <v>80066</v>
       </c>
       <c r="U4" s="242">
-        <f t="shared" ref="U4" si="3">Q4*R4</f>
+        <f t="shared" ref="U4" si="5">Q4*R4</f>
         <v>80559.360000000001</v>
       </c>
     </row>
@@ -17182,19 +17340,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:F17" si="4">C5*E5/100</f>
+        <f t="shared" ref="F5:F17" si="6">C5*E5/100</f>
         <v>108200</v>
       </c>
       <c r="G5" s="242">
-        <f t="shared" ref="G5:G17" si="5">C5*D5</f>
+        <f t="shared" ref="G5:G17" si="7">C5*D5</f>
         <v>109216.8</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="205"/>
+      <c r="I5" s="153">
+        <v>194.56</v>
+      </c>
+      <c r="J5" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K5" s="262">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L5" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N5" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
       <c r="P5" s="153">
         <v>429.54</v>
       </c>
@@ -17208,11 +17380,11 @@
         <v>99.288194444444443</v>
       </c>
       <c r="T5" s="24">
-        <f t="shared" ref="T5:T7" si="6">Q5*S5/100</f>
+        <f t="shared" ref="T5:T7" si="8">Q5*S5/100</f>
         <v>80066</v>
       </c>
       <c r="U5" s="205">
-        <f t="shared" ref="U5:U7" si="7">Q5*R5</f>
+        <f t="shared" ref="U5:U7" si="9">Q5*R5</f>
         <v>80559.360000000001</v>
       </c>
     </row>
@@ -17233,22 +17405,36 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G6" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110325.6</v>
       </c>
       <c r="H6" s="22">
         <v>43923</v>
       </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="205"/>
+      <c r="I6" s="154">
+        <v>193.7</v>
+      </c>
+      <c r="J6" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K6" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L6" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N6" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
       <c r="O6" s="22">
         <v>43923</v>
       </c>
@@ -17265,11 +17451,11 @@
         <v>99.288194444444443</v>
       </c>
       <c r="T6" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80066</v>
       </c>
       <c r="U6" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80559.360000000001</v>
       </c>
     </row>
@@ -17287,19 +17473,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G7" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110769.12</v>
       </c>
-      <c r="I7" s="154"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="205"/>
+      <c r="I7" s="154">
+        <v>194.43</v>
+      </c>
+      <c r="J7" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K7" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L7" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N7" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
       <c r="P7" s="154">
         <v>429.45</v>
       </c>
@@ -17313,11 +17513,11 @@
         <v>94.670138888888886</v>
       </c>
       <c r="T7" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76342</v>
       </c>
       <c r="U7" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80559.360000000001</v>
       </c>
     </row>
@@ -17338,30 +17538,44 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G8" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110868.912</v>
       </c>
       <c r="H8" s="22">
         <v>43924</v>
       </c>
-      <c r="I8" s="154"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="205"/>
+      <c r="I8" s="154">
+        <v>195.14</v>
+      </c>
+      <c r="J8" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K8" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L8" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N8" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
       <c r="P8" s="211">
         <f>AVERAGE(P4:P7)</f>
         <v>429.21750000000003</v>
       </c>
-      <c r="Q8" s="288" t="s">
+      <c r="Q8" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="289"/>
+      <c r="R8" s="293"/>
       <c r="S8" s="37">
         <f>T8/U8</f>
         <v>0.98231912468023574</v>
@@ -17389,19 +17603,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G9" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110769.12</v>
       </c>
-      <c r="I9" s="154"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="205"/>
+      <c r="I9" s="154">
+        <v>194.29</v>
+      </c>
+      <c r="J9" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K9" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L9" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N9" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
       <c r="P9" s="154"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="1"/>
@@ -17426,30 +17654,45 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G10" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110769.12</v>
       </c>
       <c r="H10" s="22">
         <v>43925</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="205"/>
-      <c r="P10" s="271" t="s">
+      <c r="I10" s="154">
+        <v>195.5</v>
+      </c>
+      <c r="J10" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K10" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L10" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" si="2"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N10" s="205">
+        <f t="shared" si="3"/>
+        <v>99288</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="270"/>
+      <c r="Q10" s="276"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="276"/>
+      <c r="U10" s="274"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
@@ -17466,20 +17709,34 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G11" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110658.24000000001</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="205"/>
+      <c r="I11" s="154">
+        <v>194.72</v>
+      </c>
+      <c r="J11" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K11" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L11" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M11" s="24">
+        <f>J11*L11/100</f>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N11" s="205">
+        <f>J11*K11</f>
+        <v>99288</v>
+      </c>
       <c r="O11" s="22">
         <v>43924</v>
       </c>
@@ -17521,22 +17778,36 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G12" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109105.92</v>
       </c>
       <c r="H12" s="98">
         <v>43926</v>
       </c>
-      <c r="I12" s="154"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="205"/>
+      <c r="I12" s="154">
+        <v>195.72</v>
+      </c>
+      <c r="J12" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K12" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L12" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" ref="M12:M33" si="10">J12*L12/100</f>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N12" s="205">
+        <f t="shared" ref="N12:N33" si="11">J12*K12</f>
+        <v>99288</v>
+      </c>
       <c r="P12" s="154">
         <v>435.68</v>
       </c>
@@ -17550,11 +17821,11 @@
         <v>91.787878787878782</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" ref="T12:T22" si="8">Q12*S12/100</f>
+        <f t="shared" ref="T12:T22" si="12">Q12*S12/100</f>
         <v>72695.999999999985</v>
       </c>
       <c r="U12" s="205">
-        <f t="shared" ref="U12:U22" si="9">Q12*R12</f>
+        <f t="shared" ref="U12:U22" si="13">Q12*R12</f>
         <v>76428</v>
       </c>
     </row>
@@ -17572,19 +17843,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G13" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110769.12</v>
       </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="205"/>
+      <c r="I13" s="154">
+        <v>196</v>
+      </c>
+      <c r="J13" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K13" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L13" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="10"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N13" s="205">
+        <f t="shared" si="11"/>
+        <v>99288</v>
+      </c>
       <c r="O13" s="22">
         <v>43925</v>
       </c>
@@ -17601,11 +17886,11 @@
         <v>97.083333333333329</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>76890</v>
       </c>
       <c r="U13" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>79144.56</v>
       </c>
     </row>
@@ -17626,22 +17911,36 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G14" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109992.96000000001</v>
       </c>
       <c r="H14" s="22">
         <v>43927</v>
       </c>
-      <c r="I14" s="154"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="205"/>
+      <c r="I14" s="154">
+        <v>195.95</v>
+      </c>
+      <c r="J14" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K14" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L14" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="10"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N14" s="205">
+        <f t="shared" si="11"/>
+        <v>99288</v>
+      </c>
       <c r="O14" s="60"/>
       <c r="P14" s="154">
         <v>435.6</v>
@@ -17656,11 +17955,11 @@
         <v>95.318181818181813</v>
       </c>
       <c r="T14" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75492</v>
       </c>
       <c r="U14" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76428</v>
       </c>
     </row>
@@ -17678,19 +17977,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G15" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109882.08</v>
       </c>
-      <c r="I15" s="154"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="205"/>
+      <c r="I15" s="154">
+        <v>195.88</v>
+      </c>
+      <c r="J15" s="259">
+        <v>100800</v>
+      </c>
+      <c r="K15" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L15" s="261">
+        <v>97.6</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="10"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="N15" s="205">
+        <f t="shared" si="11"/>
+        <v>99288</v>
+      </c>
       <c r="O15" s="98">
         <v>43926</v>
       </c>
@@ -17707,11 +18020,11 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U15" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>77220</v>
       </c>
     </row>
@@ -17722,7 +18035,7 @@
       <c r="B16" s="203">
         <v>163.35</v>
       </c>
-      <c r="C16" s="258">
+      <c r="C16" s="253">
         <v>110880</v>
       </c>
       <c r="D16" s="39">
@@ -17732,22 +18045,36 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G16" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>108884.16</v>
       </c>
       <c r="H16" s="22">
         <v>43928</v>
       </c>
-      <c r="I16" s="154"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="205"/>
+      <c r="I16" s="154">
+        <v>193.54</v>
+      </c>
+      <c r="J16" s="260">
+        <v>102960</v>
+      </c>
+      <c r="K16" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L16" s="261">
+        <v>95.8</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="10"/>
+        <v>98635.68</v>
+      </c>
+      <c r="N16" s="205">
+        <f t="shared" si="11"/>
+        <v>101415.6</v>
+      </c>
       <c r="P16" s="154">
         <v>436.06</v>
       </c>
@@ -17761,11 +18088,11 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U16" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>77853.600000000006</v>
       </c>
     </row>
@@ -17783,19 +18110,33 @@
         <v>97.582972582972587</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108200</v>
       </c>
       <c r="G17" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109992.96000000001</v>
       </c>
-      <c r="I17" s="154"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="205"/>
+      <c r="I17" s="154">
+        <v>195.43</v>
+      </c>
+      <c r="J17" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K17" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L17" s="261">
+        <v>93.2</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="10"/>
+        <v>97300.800000000003</v>
+      </c>
+      <c r="N17" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O17" s="22">
         <v>43927</v>
       </c>
@@ -17812,23 +18153,23 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U17" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76348.800000000003</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="211">
-        <f>AVERAGE(B14:B17)</f>
-        <v>164.1525</v>
-      </c>
-      <c r="C18" s="288" t="s">
+        <f>AVERAGE(B4:B17)</f>
+        <v>164.65499999999997</v>
+      </c>
+      <c r="C18" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="289"/>
+      <c r="D18" s="293"/>
       <c r="E18" s="37">
         <f>F18/G18</f>
         <v>0.98285715448428868</v>
@@ -17844,12 +18185,26 @@
       <c r="H18" s="22">
         <v>43929</v>
       </c>
-      <c r="I18" s="154"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="205"/>
+      <c r="I18" s="154">
+        <v>193.91</v>
+      </c>
+      <c r="J18" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K18" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L18" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N18" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P18" s="154">
         <v>435.17</v>
       </c>
@@ -17863,11 +18218,11 @@
         <v>95.318181818181813</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75492</v>
       </c>
       <c r="U18" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>77457.599999999991</v>
       </c>
     </row>
@@ -17878,12 +18233,26 @@
       <c r="E19" s="36"/>
       <c r="F19" s="24"/>
       <c r="G19" s="205"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="205"/>
+      <c r="I19" s="154">
+        <v>194.45</v>
+      </c>
+      <c r="J19" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K19" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L19" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M19" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N19" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O19" s="22">
         <v>43928</v>
       </c>
@@ -17900,32 +18269,47 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U19" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76269.599999999991</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="274" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="278" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="275"/>
-      <c r="D20" s="275"/>
-      <c r="E20" s="275"/>
-      <c r="F20" s="275"/>
-      <c r="G20" s="278"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="279"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="282"/>
       <c r="H20" s="22">
         <v>43930</v>
       </c>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="205"/>
+      <c r="I20" s="154">
+        <v>193.97</v>
+      </c>
+      <c r="J20" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K20" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L20" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N20" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P20" s="154">
         <v>435.81</v>
       </c>
@@ -17939,11 +18323,11 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U20" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76428</v>
       </c>
     </row>
@@ -17951,24 +18335,46 @@
       <c r="A21" s="22">
         <v>43929</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="9">
-        <f t="shared" ref="F21" si="10">C21*E21/100</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="242">
-        <f t="shared" ref="G21" si="11">C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="205"/>
+      <c r="B21" s="154">
+        <v>264.95999999999998</v>
+      </c>
+      <c r="C21" s="42">
+        <v>111960</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.8175</v>
+      </c>
+      <c r="E21" s="36">
+        <v>47.609860664523048</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" ref="F21" si="14">C21*E21/100</f>
+        <v>53304</v>
+      </c>
+      <c r="G21" s="205">
+        <f t="shared" ref="G21" si="15">C21*D21</f>
+        <v>91527.3</v>
+      </c>
+      <c r="I21" s="154">
+        <v>195.45</v>
+      </c>
+      <c r="J21" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K21" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L21" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N21" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O21" s="22">
         <v>43929</v>
       </c>
@@ -17985,30 +18391,58 @@
         <v>91.787878787878782</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>72695.999999999985</v>
       </c>
       <c r="U21" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76665.599999999991</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="154"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="205"/>
+      <c r="B22" s="154">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="C22" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E22" s="36">
+        <v>88.435951875442314</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F38" si="16">C22*E22/100</f>
+        <v>99968</v>
+      </c>
+      <c r="G22" s="242">
+        <f t="shared" ref="G22:G38" si="17">C22*D22</f>
+        <v>108744.48</v>
+      </c>
       <c r="H22" s="22">
         <v>43931</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="205"/>
+      <c r="I22" s="154">
+        <v>194.43</v>
+      </c>
+      <c r="J22" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K22" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L22" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N22" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P22" s="154">
         <v>435.41</v>
       </c>
@@ -18022,11 +18456,11 @@
         <v>93.553030303030312</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74094.000000000015</v>
       </c>
       <c r="U22" s="205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76428</v>
       </c>
     </row>
@@ -18034,25 +18468,53 @@
       <c r="A23" s="22">
         <v>43930</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="205"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="205"/>
+      <c r="B23" s="154">
+        <v>263.58</v>
+      </c>
+      <c r="C23" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E23" s="36">
+        <v>89.794762915782016</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="16"/>
+        <v>101504</v>
+      </c>
+      <c r="G23" s="242">
+        <f t="shared" si="17"/>
+        <v>109987.92</v>
+      </c>
+      <c r="I23" s="154">
+        <v>196.41</v>
+      </c>
+      <c r="J23" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K23" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L23" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M23" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N23" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O23" s="22">
         <v>43930</v>
       </c>
       <c r="P23" s="203">
         <v>436.88</v>
       </c>
-      <c r="Q23" s="258">
+      <c r="Q23" s="253">
         <v>79200</v>
       </c>
       <c r="R23" s="57">
@@ -18062,30 +18524,58 @@
         <v>97.083333333333329</v>
       </c>
       <c r="T23" s="24">
-        <f t="shared" ref="T23:T24" si="12">Q23*S23/100</f>
+        <f t="shared" ref="T23:T24" si="18">Q23*S23/100</f>
         <v>76890</v>
       </c>
       <c r="U23" s="205">
-        <f t="shared" ref="U23:U24" si="13">Q23*R23</f>
+        <f t="shared" ref="U23:U24" si="19">Q23*R23</f>
         <v>78170.399999999994</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="154"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="205"/>
+      <c r="B24" s="154">
+        <v>265.14</v>
+      </c>
+      <c r="C24" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E24" s="36">
+        <v>89.681528662420391</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="16"/>
+        <v>101376.00000000001</v>
+      </c>
+      <c r="G24" s="242">
+        <f t="shared" si="17"/>
+        <v>110214</v>
+      </c>
       <c r="H24" s="22">
         <v>43932</v>
       </c>
-      <c r="I24" s="154"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="205"/>
+      <c r="I24" s="154">
+        <v>195.6</v>
+      </c>
+      <c r="J24" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K24" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L24" s="261">
+        <v>96</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" si="10"/>
+        <v>100224</v>
+      </c>
+      <c r="N24" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P24" s="203">
         <v>436.5</v>
       </c>
@@ -18099,11 +18589,11 @@
         <v>95.318181818181813</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>75492</v>
       </c>
       <c r="U24" s="205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>77220</v>
       </c>
     </row>
@@ -18111,26 +18601,54 @@
       <c r="A25" s="22">
         <v>43931</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="205"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="205"/>
+      <c r="B25" s="154">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="C25" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E25" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G25" s="242">
+        <f t="shared" si="17"/>
+        <v>110440.08</v>
+      </c>
+      <c r="I25" s="154">
+        <v>196.31</v>
+      </c>
+      <c r="J25" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K25" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L25" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M25" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N25" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P25" s="211">
         <f>AVERAGE(P11:P24)</f>
         <v>435.94285714285712</v>
       </c>
-      <c r="Q25" s="288" t="s">
+      <c r="Q25" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="289"/>
+      <c r="R25" s="293"/>
       <c r="S25" s="37">
         <f>T25/U25</f>
         <v>0.95429119801776285</v>
@@ -18145,21 +18663,49 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="154"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="205"/>
+      <c r="B26" s="154">
+        <v>264.83</v>
+      </c>
+      <c r="C26" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E26" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G26" s="242">
+        <f t="shared" si="17"/>
+        <v>109874.87999999999</v>
+      </c>
       <c r="H26" s="22">
         <v>43933</v>
       </c>
-      <c r="I26" s="154"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="205"/>
+      <c r="I26" s="154">
+        <v>195.42</v>
+      </c>
+      <c r="J26" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K26" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L26" s="261">
+        <v>96</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="10"/>
+        <v>100224</v>
+      </c>
+      <c r="N26" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="24"/>
@@ -18171,43 +18717,100 @@
       <c r="A27" s="22">
         <v>43932</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="205"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="205"/>
-      <c r="P27" s="271" t="s">
+      <c r="B27" s="154">
+        <v>264.75</v>
+      </c>
+      <c r="C27" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E27" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G27" s="242">
+        <f t="shared" si="17"/>
+        <v>110327.03999999999</v>
+      </c>
+      <c r="I27" s="154">
+        <v>196.2</v>
+      </c>
+      <c r="J27" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K27" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L27" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N27" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
+      <c r="O27" s="45"/>
+      <c r="P27" s="275" t="s">
         <v>57</v>
       </c>
-      <c r="Q27" s="272"/>
-      <c r="R27" s="272"/>
-      <c r="S27" s="272"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="270"/>
+      <c r="Q27" s="276"/>
+      <c r="R27" s="276"/>
+      <c r="S27" s="276"/>
+      <c r="T27" s="276"/>
+      <c r="U27" s="274"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="154"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="205"/>
+      <c r="B28" s="154">
+        <v>265.17</v>
+      </c>
+      <c r="C28" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E28" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G28" s="242">
+        <f t="shared" si="17"/>
+        <v>110100.95999999999</v>
+      </c>
       <c r="H28" s="22">
         <v>43934</v>
       </c>
-      <c r="I28" s="154"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="205"/>
+      <c r="I28" s="154">
+        <v>195.47</v>
+      </c>
+      <c r="J28" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K28" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L28" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M28" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N28" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O28" s="22">
         <v>43931</v>
       </c>
@@ -18236,18 +18839,46 @@
       <c r="A29" s="22">
         <v>43933</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="205"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="205"/>
+      <c r="B29" s="154">
+        <v>264.94</v>
+      </c>
+      <c r="C29" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E29" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G29" s="242">
+        <f t="shared" si="17"/>
+        <v>110892.24</v>
+      </c>
+      <c r="I29" s="160">
+        <v>196.1</v>
+      </c>
+      <c r="J29" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K29" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L29" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M29" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N29" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P29" s="154">
         <v>406.1</v>
       </c>
@@ -18261,30 +18892,58 @@
         <v>92.726608187134502</v>
       </c>
       <c r="T29" s="24">
-        <f t="shared" ref="T29:T39" si="14">Q29*S29/100</f>
+        <f t="shared" ref="T29:T39" si="20">Q29*S29/100</f>
         <v>76110</v>
       </c>
       <c r="U29" s="205">
-        <f t="shared" ref="U29:U39" si="15">Q29*R29</f>
+        <f t="shared" ref="U29:U39" si="21">Q29*R29</f>
         <v>79043.039999999994</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="154"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="205"/>
+      <c r="B30" s="154">
+        <v>265.64</v>
+      </c>
+      <c r="C30" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E30" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G30" s="242">
+        <f t="shared" si="17"/>
+        <v>110100.95999999999</v>
+      </c>
       <c r="H30" s="22">
         <v>43935</v>
       </c>
-      <c r="I30" s="154"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="205"/>
+      <c r="I30" s="154">
+        <v>196.29</v>
+      </c>
+      <c r="J30" s="260">
+        <v>104400</v>
+      </c>
+      <c r="K30" s="96">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L30" s="261">
+        <v>94.3</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="10"/>
+        <v>98449.2</v>
+      </c>
+      <c r="N30" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="O30" s="22">
         <v>43932</v>
       </c>
@@ -18301,11 +18960,11 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T30" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U30" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>80274.240000000005</v>
       </c>
     </row>
@@ -18313,18 +18972,46 @@
       <c r="A31" s="22">
         <v>43934</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="205"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="205"/>
+      <c r="B31" s="154">
+        <v>263.72000000000003</v>
+      </c>
+      <c r="C31" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E31" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G31" s="242">
+        <f t="shared" si="17"/>
+        <v>110553.12</v>
+      </c>
+      <c r="I31" s="154">
+        <v>196.71</v>
+      </c>
+      <c r="J31" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K31" s="78">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L31" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="M31" s="24">
+        <f t="shared" si="10"/>
+        <v>96570</v>
+      </c>
+      <c r="N31" s="205">
+        <f t="shared" si="11"/>
+        <v>102834</v>
+      </c>
       <c r="P31" s="154">
         <v>406.75</v>
       </c>
@@ -18338,30 +19025,58 @@
         <v>92.726608187134502</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>76110</v>
       </c>
       <c r="U31" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>80110.080000000002</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="154"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="205"/>
+      <c r="B32" s="154">
+        <v>264.66000000000003</v>
+      </c>
+      <c r="C32" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E32" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G32" s="242">
+        <f t="shared" si="17"/>
+        <v>110666.16</v>
+      </c>
       <c r="H32" s="22">
         <v>43936</v>
       </c>
-      <c r="I32" s="154"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="205"/>
+      <c r="I32" s="154">
+        <v>197.38</v>
+      </c>
+      <c r="J32" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="L32" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="10"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N32" s="205">
+        <f t="shared" si="11"/>
+        <v>101059.2</v>
+      </c>
       <c r="O32" s="22">
         <v>43933</v>
       </c>
@@ -18378,11 +19093,11 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U32" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>80274.240000000005</v>
       </c>
     </row>
@@ -18390,18 +19105,46 @@
       <c r="A33" s="22">
         <v>43935</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="205"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="205"/>
+      <c r="B33" s="154">
+        <v>264.58</v>
+      </c>
+      <c r="C33" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E33" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G33" s="242">
+        <f t="shared" si="17"/>
+        <v>109874.87999999999</v>
+      </c>
+      <c r="I33" s="154">
+        <v>195.91</v>
+      </c>
+      <c r="J33" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L33" s="36">
+        <v>97.758620689655174</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="10"/>
+        <v>102060</v>
+      </c>
+      <c r="N33" s="205">
+        <f t="shared" si="11"/>
+        <v>103356</v>
+      </c>
       <c r="P33" s="154">
         <v>406.75</v>
       </c>
@@ -18415,27 +19158,58 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T33" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U33" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>80684.639999999999</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="154"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="205"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="205"/>
+      <c r="B34" s="154">
+        <v>264.52</v>
+      </c>
+      <c r="C34" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E34" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G34" s="242">
+        <f t="shared" si="17"/>
+        <v>111231.36</v>
+      </c>
+      <c r="H34" s="22">
+        <v>43937</v>
+      </c>
+      <c r="I34" s="154">
+        <v>196.2</v>
+      </c>
+      <c r="J34" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="L34" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" ref="M34:M43" si="22">J34*L34/100</f>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N34" s="205">
+        <f t="shared" ref="N34:N43" si="23">J34*K34</f>
+        <v>101476.8</v>
+      </c>
       <c r="O34" s="22">
         <v>43934</v>
       </c>
@@ -18452,11 +19226,11 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U34" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>79781.759999999995</v>
       </c>
     </row>
@@ -18464,18 +19238,46 @@
       <c r="A35" s="22">
         <v>43936</v>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="205"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="205"/>
+      <c r="B35" s="154">
+        <v>264.37</v>
+      </c>
+      <c r="C35" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E35" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G35" s="242">
+        <f t="shared" si="17"/>
+        <v>111118.31999999999</v>
+      </c>
+      <c r="I35" s="154">
+        <v>195.22</v>
+      </c>
+      <c r="J35" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L35" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M35" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N35" s="205">
+        <f t="shared" si="23"/>
+        <v>101372.4</v>
+      </c>
       <c r="P35" s="154">
         <v>405.43</v>
       </c>
@@ -18489,27 +19291,58 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T35" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U35" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>79535.520000000004</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B36" s="154"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="205"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="205"/>
+      <c r="B36" s="154">
+        <v>264</v>
+      </c>
+      <c r="C36" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E36" s="36">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="16"/>
+        <v>107008</v>
+      </c>
+      <c r="G36" s="242">
+        <f t="shared" si="17"/>
+        <v>110666.16</v>
+      </c>
+      <c r="H36" s="22">
+        <v>43938</v>
+      </c>
+      <c r="I36" s="154">
+        <v>195.87</v>
+      </c>
+      <c r="J36" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="L36" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M36" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N36" s="205">
+        <f t="shared" si="23"/>
+        <v>102520.8</v>
+      </c>
       <c r="O36" s="22">
         <v>43935</v>
       </c>
@@ -18526,27 +19359,58 @@
         <v>88.413742690058484</v>
       </c>
       <c r="T36" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>72570</v>
       </c>
       <c r="U36" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>79699.679999999993</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="209"/>
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="222"/>
-      <c r="G37" s="211"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="205"/>
+      <c r="A37" s="22">
+        <v>43937</v>
+      </c>
+      <c r="B37" s="154">
+        <v>264.45</v>
+      </c>
+      <c r="C37" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="E37" s="36">
+        <v>98.853503184713375</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="16"/>
+        <v>111744</v>
+      </c>
+      <c r="G37" s="242">
+        <f t="shared" si="17"/>
+        <v>112926.96</v>
+      </c>
+      <c r="I37" s="154">
+        <v>196.37</v>
+      </c>
+      <c r="J37" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L37" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M37" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N37" s="205">
+        <f t="shared" si="23"/>
+        <v>102103.2</v>
+      </c>
       <c r="P37" s="154">
         <v>405.12</v>
       </c>
@@ -18560,27 +19424,58 @@
         <v>81.944444444444443</v>
       </c>
       <c r="T37" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>67260</v>
       </c>
       <c r="U37" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>78878.87999999999</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="42"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="205"/>
+      <c r="B38" s="154">
+        <v>264.25</v>
+      </c>
+      <c r="C38" s="42">
+        <v>113040</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E38" s="36">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="16"/>
+        <v>104192</v>
+      </c>
+      <c r="G38" s="242">
+        <f t="shared" si="17"/>
+        <v>110327.03999999999</v>
+      </c>
+      <c r="H38" s="22">
+        <v>43939</v>
+      </c>
+      <c r="I38" s="154">
+        <v>195.77</v>
+      </c>
+      <c r="J38" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L38" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M38" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N38" s="205">
+        <f t="shared" si="23"/>
+        <v>102729.59999999999</v>
+      </c>
       <c r="O38" s="22">
         <v>43936</v>
       </c>
@@ -18597,27 +19492,55 @@
         <v>92.726608187134502</v>
       </c>
       <c r="T38" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>76110</v>
       </c>
       <c r="U38" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>78468.479999999996</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="245"/>
-      <c r="C39" s="246"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="246"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="247"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="205"/>
+      <c r="B39" s="211">
+        <f>AVERAGE(B21:B38)</f>
+        <v>264.58055555555552</v>
+      </c>
+      <c r="C39" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="293"/>
+      <c r="E39" s="37">
+        <f>F39/G39</f>
+        <v>0.93385073662584051</v>
+      </c>
+      <c r="F39" s="254">
+        <f>SUM(F21:F38)</f>
+        <v>1839288</v>
+      </c>
+      <c r="G39" s="211">
+        <f>SUM(G21:G38)</f>
+        <v>1969573.8599999999</v>
+      </c>
+      <c r="I39" s="154">
+        <v>196.68</v>
+      </c>
+      <c r="J39" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="L39" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M39" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N39" s="205">
+        <f t="shared" si="23"/>
+        <v>101163.59999999999</v>
+      </c>
       <c r="P39" s="203">
         <v>404.75</v>
       </c>
@@ -18631,18 +19554,15 @@
         <v>94.883040935672511</v>
       </c>
       <c r="T39" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77880</v>
       </c>
       <c r="U39" s="205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>79043.039999999994</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
-        <v>43937</v>
-      </c>
       <c r="B40" s="154"/>
       <c r="C40" s="42"/>
       <c r="D40" s="3"/>
@@ -18650,22 +19570,36 @@
       <c r="F40" s="24"/>
       <c r="G40" s="205"/>
       <c r="H40" s="22">
-        <v>43937</v>
-      </c>
-      <c r="I40" s="154"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="205"/>
+        <v>43940</v>
+      </c>
+      <c r="I40" s="154">
+        <v>196.63</v>
+      </c>
+      <c r="J40" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L40" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M40" s="24">
+        <f t="shared" si="22"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N40" s="205">
+        <f t="shared" si="23"/>
+        <v>100850.4</v>
+      </c>
       <c r="P40" s="211">
         <f>AVERAGE(P28:P39)</f>
         <v>405.59416666666658</v>
       </c>
-      <c r="Q40" s="288" t="s">
+      <c r="Q40" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="R40" s="289"/>
+      <c r="R40" s="293"/>
       <c r="S40" s="37">
         <f>T40/U40</f>
         <v>0.93238015901608873</v>
@@ -18680,18 +19614,34 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="154"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="205"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="205"/>
+      <c r="B41" s="299" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="300"/>
+      <c r="D41" s="300"/>
+      <c r="E41" s="300"/>
+      <c r="F41" s="300"/>
+      <c r="G41" s="301"/>
+      <c r="I41" s="154">
+        <v>196.2</v>
+      </c>
+      <c r="J41" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L41" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M41" s="24">
+        <f t="shared" si="22"/>
+        <v>94770</v>
+      </c>
+      <c r="N41" s="205">
+        <f t="shared" si="23"/>
+        <v>103147.2</v>
+      </c>
       <c r="P41" s="154"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="1"/>
@@ -18703,352 +19653,905 @@
       <c r="A42" s="22">
         <v>43938</v>
       </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="205"/>
+      <c r="B42" s="203">
+        <v>573.17999999999995</v>
+      </c>
+      <c r="C42" s="42">
+        <v>69120</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="E42" s="36">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" ref="F42:F55" si="24">C42*E42/100</f>
+        <v>30720</v>
+      </c>
+      <c r="G42" s="242">
+        <f t="shared" ref="G42:G55" si="25">C42*D42</f>
+        <v>44928</v>
+      </c>
       <c r="H42" s="22">
-        <v>43938</v>
-      </c>
-      <c r="I42" s="154"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="205"/>
-      <c r="P42" s="262" t="s">
+        <v>43941</v>
+      </c>
+      <c r="I42" s="154">
+        <v>196.27</v>
+      </c>
+      <c r="J42" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="L42" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M42" s="24">
+        <f t="shared" si="22"/>
+        <v>94770</v>
+      </c>
+      <c r="N42" s="205">
+        <f t="shared" si="23"/>
+        <v>101581.2</v>
+      </c>
+      <c r="P42" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="262"/>
-      <c r="R42" s="262"/>
-      <c r="S42" s="262"/>
-      <c r="T42" s="262"/>
-      <c r="U42" s="262"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="266"/>
+      <c r="S42" s="266"/>
+      <c r="T42" s="266"/>
+      <c r="U42" s="266"/>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="154"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="205"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="205"/>
+      <c r="B43" s="203">
+        <v>569.33000000000004</v>
+      </c>
+      <c r="C43" s="42">
+        <v>69120</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E43" s="36">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="24"/>
+        <v>64512</v>
+      </c>
+      <c r="G43" s="242">
+        <f t="shared" si="25"/>
+        <v>66493.440000000002</v>
+      </c>
+      <c r="I43" s="154">
+        <v>196.2</v>
+      </c>
+      <c r="J43" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L43" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M43" s="24">
+        <f t="shared" si="22"/>
+        <v>94770</v>
+      </c>
+      <c r="N43" s="205">
+        <f t="shared" si="23"/>
+        <v>102834</v>
+      </c>
       <c r="O43" s="22">
         <v>43937</v>
       </c>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="36"/>
+      <c r="P43" s="154">
+        <v>251.12</v>
+      </c>
+      <c r="Q43" s="42">
+        <v>110880</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="S43" s="36">
+        <v>58.554292929292927</v>
+      </c>
       <c r="T43" s="24">
         <f>Q43*S43/100</f>
-        <v>0</v>
+        <v>64925</v>
       </c>
       <c r="U43" s="205">
         <f>Q43*R43</f>
-        <v>0</v>
+        <v>101455.2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>43939</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="22">
-        <v>43939</v>
-      </c>
-      <c r="I44" s="154"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="205"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="205"/>
+      <c r="B44" s="154">
+        <v>570.97</v>
+      </c>
+      <c r="C44" s="42">
+        <v>69120</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E44" s="36">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="24"/>
+        <v>66048</v>
+      </c>
+      <c r="G44" s="242">
+        <f t="shared" si="25"/>
+        <v>67668.479999999996</v>
+      </c>
+      <c r="I44" s="211">
+        <f>AVERAGE(I32:I43)</f>
+        <v>196.22500000000002</v>
+      </c>
+      <c r="J44" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="293"/>
+      <c r="L44" s="37">
+        <f>M44/N44</f>
+        <v>0.96811964599258649</v>
+      </c>
+      <c r="M44" s="257">
+        <f>SUM(M4:M43)</f>
+        <v>3930155.2800000007</v>
+      </c>
+      <c r="N44" s="211">
+        <f>SUM(N4:N43)</f>
+        <v>4059576.0000000005</v>
+      </c>
+      <c r="P44" s="154">
+        <v>248.77</v>
+      </c>
+      <c r="Q44" s="42">
+        <v>110880</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="S44" s="36">
+        <v>93.686868686868678</v>
+      </c>
+      <c r="T44" s="24">
+        <f t="shared" ref="T44:T72" si="26">Q44*S44/100</f>
+        <v>103879.99999999999</v>
+      </c>
+      <c r="U44" s="205">
+        <f t="shared" ref="U44:U72" si="27">Q44*R44</f>
+        <v>106888.31999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="154"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="205"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="205"/>
+      <c r="B45" s="154">
+        <v>571.1</v>
+      </c>
+      <c r="C45" s="42">
+        <v>69120</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E45" s="36">
+        <v>90</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="24"/>
+        <v>62208</v>
+      </c>
+      <c r="G45" s="242">
+        <f t="shared" si="25"/>
+        <v>66147.839999999997</v>
+      </c>
+      <c r="I45" s="298" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="298"/>
+      <c r="K45" s="298"/>
+      <c r="L45" s="298"/>
+      <c r="M45" s="298"/>
+      <c r="N45" s="298"/>
       <c r="O45" s="22">
         <v>43938</v>
       </c>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="205"/>
+      <c r="P45" s="154">
+        <v>248.93</v>
+      </c>
+      <c r="Q45" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S45" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T45" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U45" s="205">
+        <f t="shared" si="27"/>
+        <v>107907.84</v>
+      </c>
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>43940</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="205"/>
+      <c r="B46" s="154">
+        <v>571.13</v>
+      </c>
+      <c r="C46" s="42">
+        <v>69840</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E46" s="36">
+        <v>94.57044673539518</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="24"/>
+        <v>66047.999999999985</v>
+      </c>
+      <c r="G46" s="242">
+        <f t="shared" si="25"/>
+        <v>68163.839999999997</v>
+      </c>
       <c r="H46" s="22">
-        <v>43940</v>
-      </c>
-      <c r="I46" s="154"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="205"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="205"/>
+        <v>43942</v>
+      </c>
+      <c r="I46" s="203">
+        <v>196.63</v>
+      </c>
+      <c r="J46" s="253">
+        <v>104400</v>
+      </c>
+      <c r="K46" s="57">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="L46" s="188">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M46" s="24">
+        <f t="shared" ref="M46:M65" si="28">J46*L46/100</f>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N46" s="205">
+        <f t="shared" ref="N46:N65" si="29">J46*K46</f>
+        <v>101476.8</v>
+      </c>
+      <c r="P46" s="154">
+        <v>248.95</v>
+      </c>
+      <c r="Q46" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="S46" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T46" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U46" s="205">
+        <f t="shared" si="27"/>
+        <v>105609.59999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="154"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="205"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="205"/>
+      <c r="B47" s="154">
+        <v>570.52</v>
+      </c>
+      <c r="C47" s="42">
+        <v>70560</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E47" s="36">
+        <v>93.605442176870753</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="24"/>
+        <v>66048</v>
+      </c>
+      <c r="G47" s="242">
+        <f t="shared" si="25"/>
+        <v>68443.199999999997</v>
+      </c>
+      <c r="I47" s="203">
+        <v>195.75</v>
+      </c>
+      <c r="J47" s="204">
+        <v>104400</v>
+      </c>
+      <c r="K47" s="57">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L47" s="31">
+        <v>97.758620689655174</v>
+      </c>
+      <c r="M47" s="24">
+        <f t="shared" si="28"/>
+        <v>102060</v>
+      </c>
+      <c r="N47" s="205">
+        <f t="shared" si="29"/>
+        <v>102938.4</v>
+      </c>
       <c r="O47" s="22">
         <v>43939</v>
       </c>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="205"/>
+      <c r="P47" s="154">
+        <v>248</v>
+      </c>
+      <c r="Q47" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="S47" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T47" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U47" s="205">
+        <f t="shared" si="27"/>
+        <v>107251.2</v>
+      </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>43941</v>
       </c>
-      <c r="B48" s="154"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="205"/>
+      <c r="B48" s="154">
+        <v>570.23</v>
+      </c>
+      <c r="C48" s="42">
+        <v>71280</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E48" s="36">
+        <v>95.892255892255889</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="24"/>
+        <v>68352</v>
+      </c>
+      <c r="G48" s="242">
+        <f t="shared" si="25"/>
+        <v>69925.679999999993</v>
+      </c>
       <c r="H48" s="22">
-        <v>43941</v>
-      </c>
-      <c r="I48" s="209"/>
-      <c r="J48" s="243"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="210"/>
-      <c r="M48" s="222"/>
-      <c r="N48" s="211"/>
-      <c r="P48" s="154"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="205"/>
+        <v>43943</v>
+      </c>
+      <c r="I48" s="154">
+        <v>191.7</v>
+      </c>
+      <c r="J48" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L48" s="36">
+        <v>66.336206896551715</v>
+      </c>
+      <c r="M48" s="24">
+        <f t="shared" si="28"/>
+        <v>69254.999999999985</v>
+      </c>
+      <c r="N48" s="205">
+        <f t="shared" si="29"/>
+        <v>84564</v>
+      </c>
+      <c r="P48" s="154">
+        <v>248.83</v>
+      </c>
+      <c r="Q48" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="S48" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T48" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U48" s="205">
+        <f t="shared" si="27"/>
+        <v>105719.03999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="154"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="205"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="154"/>
+      <c r="B49" s="154">
+        <v>571.9</v>
+      </c>
+      <c r="C49" s="42">
+        <v>72000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E49" s="36">
+        <v>96.172222222222231</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="24"/>
+        <v>69244.000000000015</v>
+      </c>
+      <c r="G49" s="242">
+        <f t="shared" si="25"/>
+        <v>70560</v>
+      </c>
+      <c r="I49" s="154">
+        <v>190.33</v>
+      </c>
+      <c r="J49" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L49" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M49" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N49" s="205">
+        <f t="shared" si="29"/>
+        <v>102416.4</v>
+      </c>
       <c r="O49" s="22">
         <v>43940</v>
       </c>
-      <c r="P49" s="154"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="205"/>
+      <c r="P49" s="154">
+        <v>248.36</v>
+      </c>
+      <c r="Q49" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S49" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T49" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U49" s="205">
+        <f t="shared" si="27"/>
+        <v>106485.12</v>
+      </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>43942</v>
       </c>
-      <c r="B50" s="154"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="205"/>
+      <c r="B50" s="154">
+        <v>571.75</v>
+      </c>
+      <c r="C50" s="42">
+        <v>72000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E50" s="36">
+        <v>88.533333333333331</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="24"/>
+        <v>63744</v>
+      </c>
+      <c r="G50" s="242">
+        <f t="shared" si="25"/>
+        <v>69480</v>
+      </c>
       <c r="H50" s="22">
-        <v>43942</v>
-      </c>
-      <c r="I50" s="245"/>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="246"/>
-      <c r="M50" s="246"/>
-      <c r="N50" s="247"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="205"/>
+        <v>43944</v>
+      </c>
+      <c r="I50" s="154">
+        <v>190.14</v>
+      </c>
+      <c r="J50" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L50" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M50" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N50" s="205">
+        <f t="shared" si="29"/>
+        <v>100537.2</v>
+      </c>
+      <c r="P50" s="154">
+        <v>247.47</v>
+      </c>
+      <c r="Q50" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="S50" s="36">
+        <v>90.173611111111114</v>
+      </c>
+      <c r="T50" s="24">
+        <f t="shared" si="26"/>
+        <v>98686</v>
+      </c>
+      <c r="U50" s="205">
+        <f t="shared" si="27"/>
+        <v>105719.03999999999</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B51" s="154"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="205"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="205"/>
+      <c r="B51" s="154">
+        <v>569.73</v>
+      </c>
+      <c r="C51" s="42">
+        <v>72000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E51" s="36">
+        <v>99.2</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="24"/>
+        <v>71424</v>
+      </c>
+      <c r="G51" s="242">
+        <f t="shared" si="25"/>
+        <v>71992.800000000003</v>
+      </c>
+      <c r="I51" s="154">
+        <v>190.54</v>
+      </c>
+      <c r="J51" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L51" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M51" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N51" s="205">
+        <f t="shared" si="29"/>
+        <v>102207.59999999999</v>
+      </c>
       <c r="O51" s="22">
         <v>43941</v>
       </c>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="205"/>
+      <c r="P51" s="154">
+        <v>249.71</v>
+      </c>
+      <c r="Q51" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S51" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T51" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U51" s="205">
+        <f t="shared" si="27"/>
+        <v>106813.44</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>43943</v>
       </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="205"/>
+      <c r="B52" s="165">
+        <v>570.64</v>
+      </c>
+      <c r="C52" s="42">
+        <v>72000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E52" s="36">
+        <v>94.327777777777783</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="24"/>
+        <v>67916</v>
+      </c>
+      <c r="G52" s="242">
+        <f t="shared" si="25"/>
+        <v>70632</v>
+      </c>
       <c r="H52" s="22">
-        <v>43943</v>
-      </c>
-      <c r="I52" s="154"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="205"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="205"/>
+        <v>43945</v>
+      </c>
+      <c r="I52" s="154">
+        <v>190.47</v>
+      </c>
+      <c r="J52" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="L52" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M52" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N52" s="205">
+        <f t="shared" si="29"/>
+        <v>101163.59999999999</v>
+      </c>
+      <c r="P52" s="154">
+        <v>248.02</v>
+      </c>
+      <c r="Q52" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S52" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T52" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U52" s="205">
+        <f t="shared" si="27"/>
+        <v>106813.44</v>
+      </c>
     </row>
     <row r="53" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="165"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="205"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="205"/>
+      <c r="B53" s="165">
+        <v>571.04999999999995</v>
+      </c>
+      <c r="C53" s="42">
+        <v>72000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E53" s="36">
+        <v>96</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="24"/>
+        <v>69120</v>
+      </c>
+      <c r="G53" s="242">
+        <f t="shared" si="25"/>
+        <v>70776</v>
+      </c>
+      <c r="I53" s="154">
+        <v>191</v>
+      </c>
+      <c r="J53" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L53" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M53" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N53" s="205">
+        <f t="shared" si="29"/>
+        <v>102103.2</v>
+      </c>
       <c r="O53" s="22">
         <v>43942</v>
       </c>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="205"/>
+      <c r="P53" s="154">
+        <v>249.45</v>
+      </c>
+      <c r="Q53" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="S53" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T53" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U53" s="205">
+        <f t="shared" si="27"/>
+        <v>103639.67999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>43944</v>
       </c>
-      <c r="B54" s="154"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="205"/>
+      <c r="B54" s="203">
+        <v>570.77</v>
+      </c>
+      <c r="C54" s="42">
+        <v>72720</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E54" s="36">
+        <v>92.937293729372939</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="24"/>
+        <v>67584</v>
+      </c>
+      <c r="G54" s="242">
+        <f t="shared" si="25"/>
+        <v>70974.720000000001</v>
+      </c>
       <c r="H54" s="22">
-        <v>43944</v>
-      </c>
-      <c r="I54" s="154"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="205"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="205"/>
+        <v>43946</v>
+      </c>
+      <c r="I54" s="154">
+        <v>190.06</v>
+      </c>
+      <c r="J54" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="L54" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M54" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N54" s="205">
+        <f t="shared" si="29"/>
+        <v>101476.8</v>
+      </c>
+      <c r="P54" s="154">
+        <v>249</v>
+      </c>
+      <c r="Q54" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S54" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T54" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U54" s="205">
+        <f t="shared" si="27"/>
+        <v>106485.12</v>
+      </c>
     </row>
     <row r="55" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="154"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="205"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="203">
+        <v>573.66</v>
+      </c>
+      <c r="C55" s="42">
+        <v>72720</v>
+      </c>
+      <c r="D55" s="39">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E55" s="36">
+        <v>96.10561056105611</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="24"/>
+        <v>69888</v>
+      </c>
+      <c r="G55" s="242">
+        <f t="shared" si="25"/>
+        <v>71338.319999999992</v>
+      </c>
+      <c r="I55" s="154">
+        <v>191.45</v>
+      </c>
+      <c r="J55" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="L55" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M55" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N55" s="205">
+        <f t="shared" si="29"/>
+        <v>101581.2</v>
+      </c>
       <c r="O55" s="22">
         <v>43943</v>
       </c>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="205"/>
+      <c r="P55" s="165">
+        <v>249.66</v>
+      </c>
+      <c r="Q55" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S55" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T55" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U55" s="205">
+        <f t="shared" si="27"/>
+        <v>106813.44</v>
+      </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="209"/>
@@ -19057,18 +20560,49 @@
       <c r="E56" s="210"/>
       <c r="F56" s="222"/>
       <c r="G56" s="211"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="205"/>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="205"/>
+      <c r="H56" s="22">
+        <v>43947</v>
+      </c>
+      <c r="I56" s="154">
+        <v>189.95</v>
+      </c>
+      <c r="J56" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L56" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M56" s="24">
+        <f t="shared" si="28"/>
+        <v>94770</v>
+      </c>
+      <c r="N56" s="205">
+        <f t="shared" si="29"/>
+        <v>101685.59999999999</v>
+      </c>
+      <c r="P56" s="165">
+        <v>249.77</v>
+      </c>
+      <c r="Q56" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="S56" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T56" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U56" s="205">
+        <f t="shared" si="27"/>
+        <v>107798.39999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B57" s="42"/>
@@ -19077,21 +20611,49 @@
       <c r="E57" s="36"/>
       <c r="F57" s="24"/>
       <c r="G57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="205"/>
+      <c r="I57" s="154">
+        <v>190</v>
+      </c>
+      <c r="J57" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L57" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M57" s="24">
+        <f t="shared" si="28"/>
+        <v>94770</v>
+      </c>
+      <c r="N57" s="205">
+        <f t="shared" si="29"/>
+        <v>101790</v>
+      </c>
       <c r="O57" s="22">
         <v>43944</v>
       </c>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="205"/>
+      <c r="P57" s="154">
+        <v>248.97</v>
+      </c>
+      <c r="Q57" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S57" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T57" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U57" s="205">
+        <f t="shared" si="27"/>
+        <v>107907.84</v>
+      </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B58" s="245"/>
@@ -19100,477 +20662,1026 @@
       <c r="E58" s="246"/>
       <c r="F58" s="246"/>
       <c r="G58" s="247"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="205"/>
-      <c r="P58" s="154"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="205"/>
+      <c r="H58" s="22">
+        <v>43948</v>
+      </c>
+      <c r="I58" s="154">
+        <v>190</v>
+      </c>
+      <c r="J58" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L58" s="36">
+        <v>90.775862068965523</v>
+      </c>
+      <c r="M58" s="24">
+        <f t="shared" si="28"/>
+        <v>94770</v>
+      </c>
+      <c r="N58" s="205">
+        <f t="shared" si="29"/>
+        <v>101268</v>
+      </c>
+      <c r="P58" s="154">
+        <v>248.95</v>
+      </c>
+      <c r="Q58" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S58" s="36">
+        <v>90.173611111111114</v>
+      </c>
+      <c r="T58" s="24">
+        <f t="shared" si="26"/>
+        <v>98686</v>
+      </c>
+      <c r="U58" s="205">
+        <f t="shared" si="27"/>
+        <v>107032.31999999999</v>
+      </c>
     </row>
     <row r="59" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>43945</v>
       </c>
-      <c r="B59" s="154"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="205"/>
-      <c r="H59" s="22">
-        <v>43945</v>
-      </c>
-      <c r="I59" s="154"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="205"/>
+      <c r="B59" s="154">
+        <v>569</v>
+      </c>
+      <c r="C59" s="42">
+        <v>72720</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E59" s="36">
+        <v>93.993399339933987</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" ref="F59:F60" si="30">C59*E59/100</f>
+        <v>68351.999999999985</v>
+      </c>
+      <c r="G59" s="242">
+        <f t="shared" ref="G59:G60" si="31">C59*D59</f>
+        <v>70683.839999999997</v>
+      </c>
+      <c r="I59" s="154">
+        <v>189.95</v>
+      </c>
+      <c r="J59" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L59" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M59" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N59" s="205">
+        <f t="shared" si="29"/>
+        <v>101685.59999999999</v>
+      </c>
       <c r="O59" s="22">
         <v>43945</v>
       </c>
-      <c r="P59" s="154"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="205"/>
+      <c r="P59" s="154">
+        <v>248.56</v>
+      </c>
+      <c r="Q59" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S59" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T59" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U59" s="205">
+        <f t="shared" si="27"/>
+        <v>106813.44</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B60" s="154"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="205"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="205"/>
-      <c r="P60" s="154"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="205"/>
+      <c r="B60" s="154">
+        <v>569.37</v>
+      </c>
+      <c r="C60" s="42">
+        <v>72720</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E60" s="36">
+        <v>92.794279427942797</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="30"/>
+        <v>67480</v>
+      </c>
+      <c r="G60" s="242">
+        <f t="shared" si="31"/>
+        <v>70683.839999999997</v>
+      </c>
+      <c r="H60" s="22">
+        <v>43949</v>
+      </c>
+      <c r="I60" s="154">
+        <v>190</v>
+      </c>
+      <c r="J60" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L60" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M60" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N60" s="205">
+        <f t="shared" si="29"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="P60" s="154">
+        <v>249</v>
+      </c>
+      <c r="Q60" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="S60" s="36">
+        <v>90.173611111111114</v>
+      </c>
+      <c r="T60" s="24">
+        <f t="shared" si="26"/>
+        <v>98686</v>
+      </c>
+      <c r="U60" s="205">
+        <f t="shared" si="27"/>
+        <v>106922.88</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
-        <v>43946</v>
-      </c>
-      <c r="B61" s="154"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="22">
-        <v>43946</v>
-      </c>
-      <c r="I61" s="154"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="205"/>
+      <c r="B61" s="211">
+        <f>AVERAGE(B49:B60)</f>
+        <v>570.87444444444441</v>
+      </c>
+      <c r="C61" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="293"/>
+      <c r="E61" s="37">
+        <f>F61/G61</f>
+        <v>0.95389441744452164</v>
+      </c>
+      <c r="F61" s="257">
+        <f>SUM(F42:F60)</f>
+        <v>1038688</v>
+      </c>
+      <c r="G61" s="211">
+        <f>SUM(G42:G60)</f>
+        <v>1088892</v>
+      </c>
+      <c r="I61" s="154">
+        <v>189.94</v>
+      </c>
+      <c r="J61" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L61" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M61" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N61" s="205">
+        <f t="shared" si="29"/>
+        <v>102834</v>
+      </c>
       <c r="O61" s="22">
         <v>43946</v>
       </c>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="205"/>
+      <c r="P61" s="154">
+        <v>249.87</v>
+      </c>
+      <c r="Q61" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="S61" s="36">
+        <v>92.546600877192986</v>
+      </c>
+      <c r="T61" s="24">
+        <f t="shared" si="26"/>
+        <v>101283</v>
+      </c>
+      <c r="U61" s="205">
+        <f t="shared" si="27"/>
+        <v>104952.95999999999</v>
+      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B62" s="154"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="205"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="205"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="205"/>
-    </row>
-    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
-        <v>43947</v>
-      </c>
-      <c r="B63" s="154"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="205"/>
-      <c r="H63" s="22">
-        <v>43947</v>
-      </c>
-      <c r="I63" s="154"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="205"/>
+      <c r="A62" s="22">
+        <v>43946</v>
+      </c>
+      <c r="B62" s="302" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="303"/>
+      <c r="D62" s="303"/>
+      <c r="E62" s="303"/>
+      <c r="F62" s="303"/>
+      <c r="G62" s="304"/>
+      <c r="H62" s="22">
+        <v>43950</v>
+      </c>
+      <c r="I62" s="154">
+        <v>190.54</v>
+      </c>
+      <c r="J62" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L62" s="36">
+        <v>87.284482758620683</v>
+      </c>
+      <c r="M62" s="24">
+        <f t="shared" si="28"/>
+        <v>91125</v>
+      </c>
+      <c r="N62" s="205">
+        <f t="shared" si="29"/>
+        <v>100537.2</v>
+      </c>
+      <c r="P62" s="154">
+        <v>251</v>
+      </c>
+      <c r="Q62" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="S62" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T62" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U62" s="205">
+        <f t="shared" si="27"/>
+        <v>107141.75999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B63" s="154">
+        <v>581.72</v>
+      </c>
+      <c r="C63" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E63" s="36">
+        <v>80.522875816993462</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" ref="F63:F68" si="32">C63*E63/100</f>
+        <v>59136</v>
+      </c>
+      <c r="G63" s="242">
+        <f t="shared" ref="G63:G68" si="33">C63*D63</f>
+        <v>67491.360000000001</v>
+      </c>
+      <c r="I63" s="154">
+        <v>189.6</v>
+      </c>
+      <c r="J63" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L63" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M63" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N63" s="205">
+        <f t="shared" si="29"/>
+        <v>101894.39999999999</v>
+      </c>
       <c r="O63" s="22">
         <v>43947</v>
       </c>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="205"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B64" s="154"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="205"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="205"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="205"/>
-    </row>
-    <row r="65" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
-        <v>43948</v>
-      </c>
-      <c r="B65" s="154"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="205"/>
-      <c r="H65" s="22">
-        <v>43948</v>
-      </c>
-      <c r="I65" s="154"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="205"/>
+      <c r="P63" s="154">
+        <v>249.83</v>
+      </c>
+      <c r="Q63" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="S63" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T63" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U63" s="205">
+        <f t="shared" si="27"/>
+        <v>107251.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="22">
+        <v>43947</v>
+      </c>
+      <c r="B64" s="154">
+        <v>582</v>
+      </c>
+      <c r="C64" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E64" s="36">
+        <v>90.980392156862749</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="32"/>
+        <v>66816</v>
+      </c>
+      <c r="G64" s="242">
+        <f t="shared" si="33"/>
+        <v>68886.720000000001</v>
+      </c>
+      <c r="H64" s="22">
+        <v>43951</v>
+      </c>
+      <c r="I64" s="154">
+        <v>190.68</v>
+      </c>
+      <c r="J64" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L64" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M64" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N64" s="205">
+        <f t="shared" si="29"/>
+        <v>102207.59999999999</v>
+      </c>
+      <c r="P64" s="154">
+        <v>249.52</v>
+      </c>
+      <c r="Q64" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="S64" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T64" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U64" s="205">
+        <f t="shared" si="27"/>
+        <v>107470.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B65" s="154">
+        <v>582.35</v>
+      </c>
+      <c r="C65" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E65" s="36">
+        <v>93.262527233115463</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="32"/>
+        <v>68492</v>
+      </c>
+      <c r="G65" s="242">
+        <f t="shared" si="33"/>
+        <v>71750.880000000005</v>
+      </c>
+      <c r="I65" s="154">
+        <v>190.27</v>
+      </c>
+      <c r="J65" s="42">
+        <v>104400</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L65" s="36">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M65" s="24">
+        <f t="shared" si="28"/>
+        <v>98414.999999999985</v>
+      </c>
+      <c r="N65" s="205">
+        <f t="shared" si="29"/>
+        <v>101372.4</v>
+      </c>
       <c r="O65" s="22">
         <v>43948</v>
       </c>
-      <c r="P65" s="211"/>
-      <c r="Q65" s="254"/>
-      <c r="R65" s="255"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="222"/>
-      <c r="U65" s="211"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B66" s="154"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="205"/>
+      <c r="P65" s="154">
+        <v>249</v>
+      </c>
+      <c r="Q65" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="S65" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T65" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U65" s="205">
+        <f t="shared" si="27"/>
+        <v>107360.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="22">
+        <v>43948</v>
+      </c>
+      <c r="B66" s="154">
+        <v>581.17999999999995</v>
+      </c>
+      <c r="C66" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E66" s="36">
+        <v>92.107843137254903</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="32"/>
+        <v>67644</v>
+      </c>
+      <c r="G66" s="242">
+        <f t="shared" si="33"/>
+        <v>71310.240000000005</v>
+      </c>
       <c r="I66" s="154"/>
       <c r="J66" s="42"/>
       <c r="K66" s="1"/>
       <c r="L66" s="36"/>
       <c r="M66" s="24"/>
       <c r="N66" s="205"/>
-      <c r="P66" s="217"/>
-      <c r="Q66" s="218"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-    </row>
-    <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="209"/>
-      <c r="C67" s="243"/>
-      <c r="D67" s="244"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="222"/>
-      <c r="G67" s="211"/>
-      <c r="I67" s="209"/>
-      <c r="J67" s="243"/>
-      <c r="K67" s="244"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="222"/>
-      <c r="N67" s="211"/>
-      <c r="P67" s="245"/>
-      <c r="Q67" s="246"/>
-      <c r="R67" s="246"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="246"/>
-      <c r="U67" s="247"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B68" s="42"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="154"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="157"/>
-      <c r="N68" s="154"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="205"/>
-    </row>
-    <row r="69" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="248"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="250"/>
-      <c r="I69" s="245"/>
-      <c r="J69" s="246"/>
-      <c r="K69" s="246"/>
-      <c r="L69" s="246"/>
-      <c r="M69" s="253"/>
-      <c r="N69" s="247"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="205"/>
-    </row>
-    <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
+      <c r="P66" s="154">
+        <v>250</v>
+      </c>
+      <c r="Q66" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S66" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T66" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U66" s="205">
+        <f t="shared" si="27"/>
+        <v>108236.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B67" s="154">
+        <v>579</v>
+      </c>
+      <c r="C67" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E67" s="36">
+        <v>92.952069716775597</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" si="32"/>
+        <v>68264</v>
+      </c>
+      <c r="G67" s="242">
+        <f t="shared" si="33"/>
+        <v>71310.240000000005</v>
+      </c>
+      <c r="I67" s="154"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="205"/>
+      <c r="O67" s="22">
         <v>43949</v>
       </c>
-      <c r="B70" s="154"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="3"/>
+      <c r="P67" s="154">
+        <v>250</v>
+      </c>
+      <c r="Q67" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="S67" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T67" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U67" s="205">
+        <f t="shared" si="27"/>
+        <v>106922.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="154">
+        <v>583</v>
+      </c>
+      <c r="C68" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E68" s="36">
+        <v>92.864923747276691</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="32"/>
+        <v>68200</v>
+      </c>
+      <c r="G68" s="242">
+        <f t="shared" si="33"/>
+        <v>71677.440000000002</v>
+      </c>
+      <c r="I68" s="209"/>
+      <c r="J68" s="243"/>
+      <c r="K68" s="244"/>
+      <c r="L68" s="210"/>
+      <c r="M68" s="222"/>
+      <c r="N68" s="211"/>
+      <c r="P68" s="154">
+        <v>249.56</v>
+      </c>
+      <c r="Q68" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="S68" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T68" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U68" s="205">
+        <f t="shared" si="27"/>
+        <v>107579.52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B69" s="99"/>
+      <c r="C69" s="308"/>
+      <c r="D69" s="309"/>
+      <c r="E69" s="310"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="311"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="154"/>
+      <c r="O69" s="22">
+        <v>43950</v>
+      </c>
+      <c r="P69" s="154">
+        <v>249.46</v>
+      </c>
+      <c r="Q69" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="S69" s="36">
+        <v>90.173611111111114</v>
+      </c>
+      <c r="T69" s="24">
+        <f t="shared" si="26"/>
+        <v>98686</v>
+      </c>
+      <c r="U69" s="205">
+        <f t="shared" si="27"/>
+        <v>101341.44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="42"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="36"/>
       <c r="F70" s="24"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="22">
+      <c r="G70" s="154"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="246"/>
+      <c r="K70" s="246"/>
+      <c r="L70" s="246"/>
+      <c r="M70" s="250"/>
+      <c r="N70" s="247"/>
+      <c r="P70" s="154">
+        <v>250.02</v>
+      </c>
+      <c r="Q70" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S70" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T70" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U70" s="205">
+        <f t="shared" si="27"/>
+        <v>108236.16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22">
         <v>43949</v>
       </c>
-      <c r="I70" s="154"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="119"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="205"/>
-      <c r="O70" s="22">
-        <v>43949</v>
-      </c>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="205"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B71" s="154"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="205"/>
-      <c r="I71" s="164"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="180"/>
-      <c r="L71" s="111"/>
+      <c r="B71" s="307"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="312"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="119"/>
       <c r="M71" s="24"/>
       <c r="N71" s="205"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="205"/>
+      <c r="O71" s="22">
+        <v>43951</v>
+      </c>
+      <c r="P71" s="154">
+        <v>249.41</v>
+      </c>
+      <c r="Q71" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="S71" s="36">
+        <v>94.919590643274859</v>
+      </c>
+      <c r="T71" s="24">
+        <f t="shared" si="26"/>
+        <v>103880</v>
+      </c>
+      <c r="U71" s="205">
+        <f t="shared" si="27"/>
+        <v>106922.88</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="B72" s="154">
+        <v>579.35</v>
+      </c>
+      <c r="C72" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E72" s="36">
+        <v>92.864923747276691</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" ref="F72:F77" si="34">C72*E72/100</f>
+        <v>68200</v>
+      </c>
+      <c r="G72" s="242">
+        <f t="shared" ref="G72:G77" si="35">C72*D72</f>
+        <v>71163.360000000001</v>
+      </c>
+      <c r="I72" s="164"/>
+      <c r="J72" s="131"/>
+      <c r="K72" s="180"/>
+      <c r="L72" s="111"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="205"/>
+      <c r="P72" s="154">
+        <v>251.02</v>
+      </c>
+      <c r="Q72" s="42">
+        <v>109440</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S72" s="36">
+        <v>97.292580409356717</v>
+      </c>
+      <c r="T72" s="24">
+        <f t="shared" si="26"/>
+        <v>106476.99999999999</v>
+      </c>
+      <c r="U72" s="205">
+        <f t="shared" si="27"/>
+        <v>107907.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" s="22">
         <v>43950</v>
       </c>
-      <c r="B72" s="154"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="205"/>
-      <c r="H72" s="22">
-        <v>43950</v>
-      </c>
-      <c r="I72" s="231"/>
-      <c r="J72" s="243"/>
-      <c r="K72" s="244"/>
-      <c r="L72" s="232"/>
-      <c r="M72" s="225"/>
-      <c r="N72" s="233"/>
-      <c r="O72" s="22">
-        <v>43950</v>
-      </c>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="205"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B73" s="154"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="205"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="198"/>
+      <c r="B73" s="154">
+        <v>581.97</v>
+      </c>
+      <c r="C73" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E73" s="36">
+        <v>92.047930283224403</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="34"/>
+        <v>67600</v>
+      </c>
+      <c r="G73" s="242">
+        <f t="shared" si="35"/>
+        <v>72485.279999999999</v>
+      </c>
+      <c r="I73" s="231"/>
+      <c r="J73" s="243"/>
+      <c r="K73" s="244" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="258">
+        <v>94.267241379310335</v>
+      </c>
+      <c r="M73" s="225">
+        <f>SUM(M46:M72)</f>
+        <v>1924560</v>
+      </c>
+      <c r="N73" s="256">
+        <f>SUM(N46:N72)</f>
+        <v>2017634.4</v>
+      </c>
+      <c r="O73" s="22"/>
       <c r="P73" s="154"/>
       <c r="Q73" s="42"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="205"/>
+      <c r="S73" s="258"/>
+      <c r="T73" s="256"/>
+      <c r="U73" s="256"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
+      <c r="B74" s="154">
+        <v>580.04</v>
+      </c>
+      <c r="C74" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E74" s="36">
+        <v>85.054466230936825</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="34"/>
+        <v>62464</v>
+      </c>
+      <c r="G74" s="242">
+        <f t="shared" si="35"/>
+        <v>68446.080000000002</v>
+      </c>
+      <c r="I74" s="61"/>
+      <c r="J74" s="128"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="117"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="198"/>
+      <c r="P74" s="154"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="205"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="22">
         <v>43951</v>
       </c>
-      <c r="B74" s="154"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="22">
-        <v>43951</v>
-      </c>
-      <c r="I74" s="115"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="22">
-        <v>43951</v>
-      </c>
-      <c r="P74" s="209"/>
-      <c r="Q74" s="243"/>
-      <c r="R74" s="244"/>
-      <c r="S74" s="210"/>
-      <c r="T74" s="222"/>
-      <c r="U74" s="211"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B75" s="154"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="205"/>
-      <c r="I75" s="227"/>
+      <c r="B75" s="154">
+        <v>582.62</v>
+      </c>
+      <c r="C75" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E75" s="36">
+        <v>99.433551198257078</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="34"/>
+        <v>73024</v>
+      </c>
+      <c r="G75" s="242">
+        <f t="shared" si="35"/>
+        <v>73432.656000000003</v>
+      </c>
+      <c r="I75" s="115"/>
+      <c r="J75" s="115"/>
       <c r="K75" s="227"/>
-      <c r="L75" s="227"/>
+      <c r="L75" s="86"/>
       <c r="M75" s="227"/>
       <c r="N75" s="227"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="154"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="209"/>
+      <c r="Q75" s="243"/>
+      <c r="R75" s="244" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" s="37">
+        <f>T75/U75</f>
+        <v>0.95089536990762169</v>
+      </c>
+      <c r="T75" s="211">
+        <f>SUM(T43:T74)</f>
+        <v>3038490</v>
+      </c>
+      <c r="U75" s="211">
+        <f>SUM(U43:U74)</f>
+        <v>3195398.88</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
-      <c r="B76" s="154"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="121"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="22"/>
+      <c r="B76" s="154">
+        <v>580.92999999999995</v>
+      </c>
+      <c r="C76" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E76" s="36">
+        <v>93.071895424836597</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="34"/>
+        <v>68352</v>
+      </c>
+      <c r="G76" s="242">
+        <f t="shared" si="35"/>
+        <v>70502.399999999994</v>
+      </c>
       <c r="I76" s="227"/>
       <c r="K76" s="227"/>
       <c r="L76" s="227"/>
       <c r="M76" s="227"/>
       <c r="N76" s="227"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="245"/>
-      <c r="Q76" s="246"/>
-      <c r="R76" s="246"/>
-      <c r="S76" s="246"/>
-      <c r="T76" s="246"/>
-      <c r="U76" s="247"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="154"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="164"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="230"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="205"/>
+      <c r="B77" s="154">
+        <v>581.83000000000004</v>
+      </c>
+      <c r="C77" s="42">
+        <v>73440</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E77" s="36">
+        <v>94.117647058823522</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="34"/>
+        <v>69119.999999999985</v>
+      </c>
+      <c r="G77" s="242">
+        <f t="shared" si="35"/>
+        <v>71457.119999999995</v>
+      </c>
       <c r="H77" s="22"/>
-      <c r="I77" s="59"/>
+      <c r="I77" s="227"/>
       <c r="K77" s="227"/>
       <c r="L77" s="227"/>
       <c r="M77" s="227"/>
       <c r="N77" s="227"/>
       <c r="O77" s="22"/>
-      <c r="P77" s="154"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="205"/>
+      <c r="P77" s="245"/>
+      <c r="Q77" s="246"/>
+      <c r="R77" s="246"/>
+      <c r="S77" s="246"/>
+      <c r="T77" s="246"/>
+      <c r="U77" s="247"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B78" s="228"/>
-      <c r="C78" s="251"/>
-      <c r="D78" s="252"/>
-      <c r="E78" s="229"/>
-      <c r="F78" s="222"/>
-      <c r="G78" s="211"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="205"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="59"/>
       <c r="K78" s="227"/>
       <c r="L78" s="227"/>
       <c r="M78" s="227"/>
       <c r="N78" s="227"/>
+      <c r="O78" s="22"/>
       <c r="P78" s="154"/>
       <c r="Q78" s="42"/>
       <c r="R78" s="1"/>
@@ -19579,115 +21690,126 @@
       <c r="U78" s="205"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="227"/>
-      <c r="G79" s="194"/>
-      <c r="H79" s="22"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="205"/>
       <c r="I79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="224"/>
-      <c r="M79" s="224"/>
-      <c r="N79" s="224"/>
-      <c r="O79" s="22"/>
+      <c r="K79" s="227"/>
+      <c r="L79" s="227"/>
+      <c r="M79" s="227"/>
+      <c r="N79" s="227"/>
       <c r="P79" s="154"/>
       <c r="Q79" s="42"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="87"/>
+      <c r="S79" s="36"/>
       <c r="T79" s="24"/>
       <c r="U79" s="205"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B80" s="113"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="227"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="227"/>
-      <c r="G80" s="194"/>
-      <c r="I80" s="227"/>
-      <c r="K80" s="227"/>
-      <c r="L80" s="227"/>
-      <c r="M80" s="227"/>
-      <c r="N80" s="227"/>
-      <c r="P80" s="234"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="235"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="228"/>
+      <c r="C80" s="248"/>
+      <c r="D80" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="37">
+        <f>F80/G80</f>
+        <v>0.94987517886755612</v>
+      </c>
+      <c r="F80" s="222">
+        <f>SUM(F63:F79)</f>
+        <v>807312</v>
+      </c>
+      <c r="G80" s="255">
+        <f>SUM(G63:G79)</f>
+        <v>849913.77599999995</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="224"/>
+      <c r="M80" s="224"/>
+      <c r="N80" s="224"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="154"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="87"/>
       <c r="T80" s="24"/>
       <c r="U80" s="205"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B81" s="195"/>
-      <c r="C81" s="195"/>
-      <c r="D81" s="226"/>
-      <c r="E81" s="197"/>
-      <c r="F81" s="226"/>
-      <c r="G81" s="226"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="227"/>
+      <c r="G81" s="194"/>
       <c r="I81" s="227"/>
       <c r="K81" s="227"/>
       <c r="L81" s="227"/>
       <c r="M81" s="227"/>
       <c r="N81" s="227"/>
-      <c r="P81" s="209"/>
-      <c r="Q81" s="256"/>
-      <c r="R81" s="257"/>
-      <c r="S81" s="236"/>
-      <c r="T81" s="222"/>
-      <c r="U81" s="211"/>
+      <c r="P81" s="234"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="235"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="205"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
-      <c r="F82" s="227"/>
-      <c r="G82" s="227"/>
-      <c r="I82" s="59"/>
+      <c r="B82" s="195"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="197"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="226"/>
+      <c r="I82" s="227"/>
       <c r="K82" s="227"/>
       <c r="L82" s="227"/>
       <c r="M82" s="227"/>
       <c r="N82" s="227"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="86"/>
-      <c r="R82" s="227"/>
-      <c r="S82" s="114"/>
-      <c r="T82" s="227"/>
-    </row>
-    <row r="83" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
-      <c r="E83" s="224"/>
-      <c r="F83" s="224"/>
-      <c r="G83" s="224"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
-      <c r="K83" s="277"/>
-      <c r="L83" s="224"/>
-      <c r="M83" s="224"/>
-      <c r="N83" s="224"/>
+      <c r="P82" s="209"/>
+      <c r="Q82" s="251"/>
+      <c r="R82" s="252"/>
+      <c r="S82" s="236"/>
+      <c r="T82" s="222"/>
+      <c r="U82" s="211"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
+      <c r="F83" s="227"/>
+      <c r="G83" s="227"/>
+      <c r="I83" s="59"/>
+      <c r="K83" s="227"/>
+      <c r="L83" s="227"/>
+      <c r="M83" s="227"/>
+      <c r="N83" s="227"/>
       <c r="P83" s="113"/>
       <c r="Q83" s="86"/>
       <c r="R83" s="227"/>
       <c r="S83" s="114"/>
       <c r="T83" s="227"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B84" s="227"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="227"/>
-      <c r="E84" s="227"/>
-      <c r="F84" s="227"/>
-      <c r="G84" s="227"/>
-      <c r="I84" s="227"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="227"/>
-      <c r="L84" s="227"/>
-      <c r="M84" s="227"/>
-      <c r="N84" s="227"/>
+    <row r="84" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="281"/>
+      <c r="C84" s="281"/>
+      <c r="D84" s="281"/>
+      <c r="E84" s="224"/>
+      <c r="F84" s="224"/>
+      <c r="G84" s="224"/>
+      <c r="I84" s="281"/>
+      <c r="J84" s="281"/>
+      <c r="K84" s="281"/>
+      <c r="L84" s="224"/>
+      <c r="M84" s="224"/>
+      <c r="N84" s="224"/>
       <c r="P84" s="113"/>
       <c r="Q84" s="86"/>
       <c r="R84" s="227"/>
@@ -19707,10 +21829,10 @@
       <c r="L85" s="227"/>
       <c r="M85" s="227"/>
       <c r="N85" s="227"/>
-      <c r="P85" s="115"/>
-      <c r="Q85" s="115"/>
+      <c r="P85" s="113"/>
+      <c r="Q85" s="86"/>
       <c r="R85" s="227"/>
-      <c r="S85" s="86"/>
+      <c r="S85" s="114"/>
       <c r="T85" s="227"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -19726,9 +21848,11 @@
       <c r="L86" s="227"/>
       <c r="M86" s="227"/>
       <c r="N86" s="227"/>
-      <c r="P86" s="227"/>
-      <c r="Q86" s="5"/>
+      <c r="P86" s="115"/>
+      <c r="Q86" s="115"/>
       <c r="R86" s="227"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="227"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B87" s="227"/>
@@ -19748,89 +21872,112 @@
       <c r="R87" s="227"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
       <c r="B88" s="227"/>
       <c r="C88" s="5"/>
       <c r="D88" s="227"/>
       <c r="E88" s="227"/>
       <c r="F88" s="227"/>
       <c r="G88" s="227"/>
-      <c r="H88" s="22"/>
       <c r="I88" s="227"/>
       <c r="J88" s="5"/>
       <c r="K88" s="227"/>
       <c r="L88" s="227"/>
       <c r="M88" s="227"/>
       <c r="N88" s="227"/>
-      <c r="O88" s="22"/>
       <c r="P88" s="227"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="227"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
       <c r="B89" s="227"/>
       <c r="C89" s="5"/>
       <c r="D89" s="227"/>
       <c r="E89" s="227"/>
       <c r="F89" s="227"/>
       <c r="G89" s="227"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="227"/>
       <c r="J89" s="5"/>
       <c r="K89" s="227"/>
       <c r="L89" s="227"/>
       <c r="M89" s="227"/>
       <c r="N89" s="227"/>
+      <c r="O89" s="22"/>
       <c r="P89" s="227"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="227"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="227"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="227"/>
       <c r="E90" s="227"/>
       <c r="F90" s="227"/>
       <c r="G90" s="227"/>
-      <c r="I90" s="277"/>
-      <c r="J90" s="277"/>
+      <c r="I90" s="227"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="227"/>
       <c r="L90" s="227"/>
       <c r="M90" s="227"/>
       <c r="N90" s="227"/>
-      <c r="P90" s="277"/>
-      <c r="Q90" s="277"/>
+      <c r="P90" s="227"/>
+      <c r="Q90" s="5"/>
       <c r="R90" s="227"/>
     </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B91" s="281"/>
+      <c r="C91" s="281"/>
+      <c r="D91" s="227"/>
+      <c r="E91" s="227"/>
+      <c r="F91" s="227"/>
+      <c r="G91" s="227"/>
+      <c r="I91" s="281"/>
+      <c r="J91" s="281"/>
+      <c r="K91" s="227"/>
+      <c r="L91" s="227"/>
+      <c r="M91" s="227"/>
+      <c r="N91" s="227"/>
+      <c r="P91" s="281"/>
+      <c r="Q91" s="281"/>
+      <c r="R91" s="227"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="B62:G62"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P3:U3"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="P90:Q90"/>
     <mergeCell ref="P10:U10"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="P27:U27"/>
     <mergeCell ref="Q40:R40"/>
     <mergeCell ref="P42:U42"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
@@ -19858,27 +22005,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="H1" s="265" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="H1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="N1" s="265" t="s">
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="N1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -19929,29 +22076,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="274" t="s">
+      <c r="N3" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="275"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="279"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -20533,10 +22680,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="284" t="s">
+      <c r="B14" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="294"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="26">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -20633,13 +22780,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276"/>
       <c r="G16" s="22">
         <v>43715</v>
       </c>
@@ -20890,10 +23037,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="284" t="s">
+      <c r="N20" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="294"/>
+      <c r="O20" s="305"/>
       <c r="P20" s="26">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -20988,13 +23135,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="45"/>
-      <c r="N22" s="274" t="s">
+      <c r="N22" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="275"/>
-      <c r="P22" s="275"/>
-      <c r="Q22" s="275"/>
-      <c r="R22" s="275"/>
+      <c r="O22" s="279"/>
+      <c r="P22" s="279"/>
+      <c r="Q22" s="279"/>
+      <c r="R22" s="279"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -21073,10 +23220,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="284" t="s">
+      <c r="H24" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="294"/>
+      <c r="I24" s="305"/>
       <c r="J24" s="26">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -21173,13 +23320,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="271" t="s">
+      <c r="H26" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="272"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="276"/>
+      <c r="K26" s="276"/>
+      <c r="L26" s="276"/>
       <c r="N26" s="42">
         <v>84240</v>
       </c>
@@ -21314,10 +23461,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="284" t="s">
+      <c r="B29" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="294"/>
+      <c r="C29" s="305"/>
       <c r="D29" s="26">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -21414,13 +23561,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
-      <c r="B31" s="271" t="s">
+      <c r="B31" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="276"/>
       <c r="G31" s="22">
         <v>43721</v>
       </c>
@@ -21786,10 +23933,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="261" t="s">
+      <c r="N37" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="261"/>
+      <c r="O37" s="265"/>
       <c r="P37" s="26">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -21863,10 +24010,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="259" t="s">
+      <c r="H39" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="260"/>
+      <c r="I39" s="264"/>
       <c r="J39" s="26">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -21880,13 +24027,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="45"/>
-      <c r="N39" s="274" t="s">
+      <c r="N39" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="275"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="275"/>
-      <c r="R39" s="275"/>
+      <c r="O39" s="279"/>
+      <c r="P39" s="279"/>
+      <c r="Q39" s="279"/>
+      <c r="R39" s="279"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
@@ -21954,13 +24101,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="45"/>
-      <c r="H41" s="271" t="s">
+      <c r="H41" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="272"/>
-      <c r="J41" s="272"/>
-      <c r="K41" s="272"/>
-      <c r="L41" s="272"/>
+      <c r="I41" s="276"/>
+      <c r="J41" s="276"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="276"/>
       <c r="N41" s="42">
         <v>64080</v>
       </c>
@@ -22095,10 +24242,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="284" t="s">
+      <c r="B44" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="294"/>
+      <c r="C44" s="305"/>
       <c r="D44" s="49">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -22195,13 +24342,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
-      <c r="B46" s="274" t="s">
+      <c r="B46" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="275"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="275"/>
-      <c r="F46" s="275"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="279"/>
+      <c r="E46" s="279"/>
+      <c r="F46" s="279"/>
       <c r="G46" s="22">
         <v>43727</v>
       </c>
@@ -22337,10 +24484,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="261" t="s">
+      <c r="N48" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="261"/>
+      <c r="O48" s="265"/>
       <c r="P48" s="47">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -22435,13 +24582,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="45"/>
-      <c r="N50" s="274" t="s">
+      <c r="N50" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="275"/>
-      <c r="P50" s="275"/>
-      <c r="Q50" s="275"/>
-      <c r="R50" s="275"/>
+      <c r="O50" s="279"/>
+      <c r="P50" s="279"/>
+      <c r="Q50" s="279"/>
+      <c r="R50" s="279"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
@@ -22826,10 +24973,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="282" t="s">
+      <c r="N57" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="282"/>
+      <c r="O57" s="286"/>
       <c r="P57" s="49">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -22888,10 +25035,10 @@
       <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="284" t="s">
+      <c r="B59" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="294"/>
+      <c r="C59" s="305"/>
       <c r="D59" s="47">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -22922,13 +25069,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="45"/>
-      <c r="N59" s="274" t="s">
+      <c r="N59" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="275"/>
-      <c r="P59" s="275"/>
-      <c r="Q59" s="275"/>
-      <c r="R59" s="275"/>
+      <c r="O59" s="279"/>
+      <c r="P59" s="279"/>
+      <c r="Q59" s="279"/>
+      <c r="R59" s="279"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B60" s="40"/>
@@ -22979,13 +25126,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
-      <c r="B61" s="274" t="s">
+      <c r="B61" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="275"/>
-      <c r="D61" s="275"/>
-      <c r="E61" s="275"/>
-      <c r="F61" s="275"/>
+      <c r="C61" s="279"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
       <c r="H61" s="23">
         <v>100800</v>
       </c>
@@ -23502,10 +25649,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="284" t="s">
+      <c r="H70" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="294"/>
+      <c r="I70" s="305"/>
       <c r="J70" s="49">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -23757,10 +25904,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="284" t="s">
+      <c r="B76" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="294"/>
+      <c r="C76" s="305"/>
       <c r="D76" s="49">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -23778,10 +25925,10 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
-      <c r="N76" s="282" t="s">
+      <c r="N76" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="282"/>
+      <c r="O76" s="286"/>
       <c r="P76" s="49">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -23899,19 +26046,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
+      <c r="H83" s="281"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="277"/>
-      <c r="O83" s="277"/>
-      <c r="P83" s="277"/>
+      <c r="N83" s="281"/>
+      <c r="O83" s="281"/>
+      <c r="P83" s="281"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B84" s="28"/>
@@ -24007,18 +26154,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="277"/>
-      <c r="I90" s="277"/>
+      <c r="H90" s="281"/>
+      <c r="I90" s="281"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="277"/>
-      <c r="O90" s="277"/>
+      <c r="N90" s="281"/>
+      <c r="O90" s="281"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -24069,7 +26216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
@@ -24099,27 +26246,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="H1" s="265" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="H1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="N1" s="265" t="s">
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="N1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -24170,29 +26317,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="274" t="s">
+      <c r="N3" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="275"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="279"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -24658,10 +26805,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="260"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="65">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -24759,13 +26906,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
-      <c r="B14" s="274" t="s">
+      <c r="B14" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="275"/>
-      <c r="D14" s="275"/>
-      <c r="E14" s="275"/>
-      <c r="F14" s="276"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="280"/>
       <c r="G14" s="22">
         <v>43744</v>
       </c>
@@ -25361,10 +27508,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="282" t="s">
+      <c r="N24" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="282"/>
+      <c r="O24" s="286"/>
       <c r="P24" s="66">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -25461,13 +27608,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="274" t="s">
+      <c r="N26" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="275"/>
-      <c r="P26" s="275"/>
-      <c r="Q26" s="275"/>
-      <c r="R26" s="275"/>
+      <c r="O26" s="279"/>
+      <c r="P26" s="279"/>
+      <c r="Q26" s="279"/>
+      <c r="R26" s="279"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -25891,10 +28038,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="259" t="s">
+      <c r="H34" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="260"/>
+      <c r="I34" s="264"/>
       <c r="J34" s="67">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -25991,13 +28138,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="268" t="s">
+      <c r="H36" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="269"/>
-      <c r="J36" s="269"/>
-      <c r="K36" s="269"/>
-      <c r="L36" s="269"/>
+      <c r="I36" s="273"/>
+      <c r="J36" s="273"/>
+      <c r="K36" s="273"/>
+      <c r="L36" s="273"/>
       <c r="N36" s="42">
         <v>104400</v>
       </c>
@@ -26172,10 +28319,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="282" t="s">
+      <c r="N39" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="282"/>
+      <c r="O39" s="286"/>
       <c r="P39" s="68">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -26231,10 +28378,10 @@
       <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="260"/>
+      <c r="C41" s="264"/>
       <c r="D41" s="67">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -26268,13 +28415,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="45"/>
-      <c r="N41" s="274" t="s">
+      <c r="N41" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="275"/>
-      <c r="P41" s="275"/>
-      <c r="Q41" s="275"/>
-      <c r="R41" s="275"/>
+      <c r="O41" s="279"/>
+      <c r="P41" s="279"/>
+      <c r="Q41" s="279"/>
+      <c r="R41" s="279"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B42" s="23"/>
@@ -26322,13 +28469,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="274" t="s">
+      <c r="B43" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="275"/>
-      <c r="D43" s="275"/>
-      <c r="E43" s="275"/>
-      <c r="F43" s="276"/>
+      <c r="C43" s="279"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="280"/>
       <c r="G43" s="22">
         <v>43757</v>
       </c>
@@ -26750,10 +28897,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="282" t="s">
+      <c r="N50" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="282"/>
+      <c r="O50" s="286"/>
       <c r="P50" s="77">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -26850,13 +28997,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="45"/>
-      <c r="N52" s="274" t="s">
+      <c r="N52" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="275"/>
-      <c r="P52" s="275"/>
-      <c r="Q52" s="275"/>
-      <c r="R52" s="275"/>
+      <c r="O52" s="279"/>
+      <c r="P52" s="279"/>
+      <c r="Q52" s="279"/>
+      <c r="R52" s="279"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B53" s="42">
@@ -27451,10 +29598,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="259" t="s">
+      <c r="H63" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="260"/>
+      <c r="I63" s="264"/>
       <c r="J63" s="80">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -27551,13 +29698,13 @@
         <v>71298.000000000015</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="268" t="s">
+      <c r="H65" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="269"/>
-      <c r="J65" s="269"/>
-      <c r="K65" s="269"/>
-      <c r="L65" s="269"/>
+      <c r="I65" s="273"/>
+      <c r="J65" s="273"/>
+      <c r="K65" s="273"/>
+      <c r="L65" s="273"/>
       <c r="M65" s="22">
         <v>43765</v>
       </c>
@@ -27673,10 +29820,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="282" t="s">
+      <c r="N67" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="282"/>
+      <c r="O67" s="286"/>
       <c r="P67" s="81">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -27691,10 +29838,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="259" t="s">
+      <c r="B68" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="260"/>
+      <c r="C68" s="264"/>
       <c r="D68" s="80">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -27757,22 +29904,22 @@
         <v>98415</v>
       </c>
       <c r="M69" s="45"/>
-      <c r="N69" s="268" t="s">
+      <c r="N69" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="269"/>
-      <c r="P69" s="269"/>
-      <c r="Q69" s="269"/>
-      <c r="R69" s="269"/>
+      <c r="O69" s="273"/>
+      <c r="P69" s="273"/>
+      <c r="Q69" s="273"/>
+      <c r="R69" s="273"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="274" t="s">
+      <c r="B70" s="278" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="275"/>
-      <c r="D70" s="275"/>
-      <c r="E70" s="275"/>
-      <c r="F70" s="276"/>
+      <c r="C70" s="279"/>
+      <c r="D70" s="279"/>
+      <c r="E70" s="279"/>
+      <c r="F70" s="280"/>
       <c r="G70" s="22">
         <v>43769</v>
       </c>
@@ -27888,10 +30035,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="259" t="s">
+      <c r="H72" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="260"/>
+      <c r="I72" s="264"/>
       <c r="J72" s="82">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -28014,10 +30161,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="259" t="s">
+      <c r="B75" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="260"/>
+      <c r="C75" s="264"/>
       <c r="D75" s="82">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -28054,8 +30201,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="295"/>
-      <c r="C76" s="295"/>
+      <c r="B76" s="306"/>
+      <c r="C76" s="306"/>
       <c r="D76" s="28"/>
       <c r="E76" s="86"/>
       <c r="F76" s="28"/>
@@ -28125,10 +30272,10 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
-      <c r="N78" s="259" t="s">
+      <c r="N78" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="260"/>
+      <c r="O78" s="264"/>
       <c r="P78" s="82">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -28212,19 +30359,19 @@
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
+      <c r="H83" s="281"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
       <c r="K83" s="64"/>
       <c r="L83" s="64"/>
-      <c r="N83" s="277"/>
-      <c r="O83" s="277"/>
-      <c r="P83" s="277"/>
+      <c r="N83" s="281"/>
+      <c r="O83" s="281"/>
+      <c r="P83" s="281"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B84" s="28"/>
@@ -28320,18 +30467,18 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="H90" s="277"/>
-      <c r="I90" s="277"/>
+      <c r="H90" s="281"/>
+      <c r="I90" s="281"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
-      <c r="N90" s="277"/>
-      <c r="O90" s="277"/>
+      <c r="N90" s="281"/>
+      <c r="O90" s="281"/>
       <c r="P90" s="28"/>
     </row>
   </sheetData>
@@ -28378,7 +30525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
@@ -28408,27 +30555,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="H1" s="265" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="H1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="N1" s="265" t="s">
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="N1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -28479,29 +30626,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="267" t="s">
+      <c r="N3" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="262"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="266"/>
+      <c r="R3" s="266"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -29007,10 +31154,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="259" t="s">
+      <c r="N12" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="260"/>
+      <c r="O12" s="264"/>
       <c r="P12" s="38">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -29107,13 +31254,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="45"/>
-      <c r="N14" s="267" t="s">
+      <c r="N14" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="262"/>
+      <c r="O14" s="266"/>
+      <c r="P14" s="266"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="266"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="99">
@@ -29307,10 +31454,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="259" t="s">
+      <c r="H18" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="260"/>
+      <c r="I18" s="264"/>
       <c r="J18" s="38">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -29407,13 +31554,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="271" t="s">
+      <c r="H20" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="272"/>
-      <c r="J20" s="272"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
+      <c r="I20" s="276"/>
+      <c r="J20" s="276"/>
+      <c r="K20" s="276"/>
+      <c r="L20" s="276"/>
       <c r="N20" s="99">
         <v>84960</v>
       </c>
@@ -29585,10 +31732,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="259" t="s">
+      <c r="N23" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="260"/>
+      <c r="O23" s="264"/>
       <c r="P23" s="38">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -29603,10 +31750,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="259" t="s">
+      <c r="B24" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="260"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="84">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -29669,23 +31816,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="45"/>
-      <c r="N25" s="267" t="s">
+      <c r="N25" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="262"/>
-      <c r="P25" s="262"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="262"/>
+      <c r="O25" s="266"/>
+      <c r="P25" s="266"/>
+      <c r="Q25" s="266"/>
+      <c r="R25" s="266"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="262"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="262"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
       <c r="H26" s="23">
         <v>104400</v>
       </c>
@@ -29975,10 +32122,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="259" t="s">
+      <c r="H31" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="260"/>
+      <c r="I31" s="264"/>
       <c r="J31" s="38">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -30032,10 +32179,10 @@
       <c r="J32" s="24"/>
       <c r="K32" s="97"/>
       <c r="L32" s="24"/>
-      <c r="N32" s="259" t="s">
+      <c r="N32" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="260"/>
+      <c r="O32" s="264"/>
       <c r="P32" s="38">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -30050,10 +32197,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="259" t="s">
+      <c r="B33" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="260"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="100">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -30067,13 +32214,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="45"/>
-      <c r="H33" s="271" t="s">
+      <c r="H33" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="272"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
+      <c r="I33" s="276"/>
+      <c r="J33" s="276"/>
+      <c r="K33" s="276"/>
+      <c r="L33" s="276"/>
       <c r="N33" s="42"/>
       <c r="O33" s="1"/>
       <c r="P33" s="24"/>
@@ -30107,23 +32254,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="267" t="s">
+      <c r="N34" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="262"/>
-      <c r="P34" s="262"/>
-      <c r="Q34" s="262"/>
-      <c r="R34" s="262"/>
+      <c r="O34" s="266"/>
+      <c r="P34" s="266"/>
+      <c r="Q34" s="266"/>
+      <c r="R34" s="266"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
-      <c r="B35" s="262" t="s">
+      <c r="B35" s="266" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
       <c r="H35" s="42">
         <v>144000</v>
       </c>
@@ -30486,10 +32633,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="259" t="s">
+      <c r="N41" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="260"/>
+      <c r="O41" s="264"/>
       <c r="P41" s="38">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -30586,19 +32733,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="45"/>
-      <c r="N43" s="262" t="s">
+      <c r="N43" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="262"/>
-      <c r="P43" s="262"/>
-      <c r="Q43" s="262"/>
-      <c r="R43" s="262"/>
+      <c r="O43" s="266"/>
+      <c r="P43" s="266"/>
+      <c r="Q43" s="266"/>
+      <c r="R43" s="266"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="259" t="s">
+      <c r="B44" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="260"/>
+      <c r="C44" s="264"/>
       <c r="D44" s="100">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -30695,13 +32842,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
-      <c r="B46" s="262" t="s">
+      <c r="B46" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="262"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="262"/>
+      <c r="C46" s="266"/>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
       <c r="G46" s="22">
         <v>43788</v>
       </c>
@@ -30817,10 +32964,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="259" t="s">
+      <c r="H48" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="260"/>
+      <c r="I48" s="264"/>
       <c r="J48" s="38">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -30917,13 +33064,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="45"/>
-      <c r="H50" s="271" t="s">
+      <c r="H50" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="272"/>
-      <c r="J50" s="272"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="272"/>
+      <c r="I50" s="276"/>
+      <c r="J50" s="276"/>
+      <c r="K50" s="276"/>
+      <c r="L50" s="276"/>
       <c r="M50" s="22">
         <v>43787</v>
       </c>
@@ -31039,10 +33186,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="259" t="s">
+      <c r="N52" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="260"/>
+      <c r="O52" s="264"/>
       <c r="P52" s="38">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -31139,13 +33286,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="45"/>
-      <c r="N54" s="262" t="s">
+      <c r="N54" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="262"/>
-      <c r="P54" s="262"/>
-      <c r="Q54" s="262"/>
-      <c r="R54" s="262"/>
+      <c r="O54" s="266"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="266"/>
+      <c r="R54" s="266"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
@@ -31493,10 +33640,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="259" t="s">
+      <c r="B61" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="260"/>
+      <c r="C61" s="264"/>
       <c r="D61" s="102">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -31529,10 +33676,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="259" t="s">
+      <c r="N61" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="260"/>
+      <c r="O61" s="264"/>
       <c r="P61" s="38">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -31576,13 +33723,13 @@
       <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="274" t="s">
+      <c r="B63" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="275"/>
-      <c r="D63" s="275"/>
-      <c r="E63" s="275"/>
-      <c r="F63" s="275"/>
+      <c r="C63" s="279"/>
+      <c r="D63" s="279"/>
+      <c r="E63" s="279"/>
+      <c r="F63" s="279"/>
       <c r="G63" s="22">
         <v>43795</v>
       </c>
@@ -31604,13 +33751,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="45"/>
-      <c r="N63" s="262" t="s">
+      <c r="N63" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="262"/>
-      <c r="P63" s="262"/>
-      <c r="Q63" s="262"/>
-      <c r="R63" s="262"/>
+      <c r="O63" s="266"/>
+      <c r="P63" s="266"/>
+      <c r="Q63" s="266"/>
+      <c r="R63" s="266"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
@@ -32110,10 +34257,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="259" t="s">
+      <c r="N72" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="260"/>
+      <c r="O72" s="264"/>
       <c r="P72" s="38">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -32145,10 +34292,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="259" t="s">
+      <c r="H73" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="260"/>
+      <c r="I73" s="264"/>
       <c r="J73" s="38">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -32194,13 +34341,13 @@
       <c r="K74" s="85"/>
       <c r="L74" s="85"/>
       <c r="M74" s="45"/>
-      <c r="N74" s="262" t="s">
+      <c r="N74" s="266" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="262"/>
-      <c r="P74" s="262"/>
-      <c r="Q74" s="262"/>
-      <c r="R74" s="262"/>
+      <c r="O74" s="266"/>
+      <c r="P74" s="266"/>
+      <c r="Q74" s="266"/>
+      <c r="R74" s="266"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B75" s="42">
@@ -32247,10 +34394,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="259" t="s">
+      <c r="B76" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="260"/>
+      <c r="C76" s="264"/>
       <c r="D76" s="103">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -32471,14 +34618,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="83"/>
       <c r="F83" s="83"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
+      <c r="H83" s="281"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="22">
@@ -32542,10 +34689,10 @@
       <c r="J85" s="85"/>
       <c r="K85" s="85"/>
       <c r="L85" s="85"/>
-      <c r="N85" s="259" t="s">
+      <c r="N85" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="260"/>
+      <c r="O85" s="264"/>
       <c r="P85" s="38">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -32623,18 +34770,18 @@
       <c r="P89" s="85"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="85"/>
-      <c r="H90" s="277"/>
-      <c r="I90" s="277"/>
+      <c r="H90" s="281"/>
+      <c r="I90" s="281"/>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
-      <c r="N90" s="277"/>
-      <c r="O90" s="277"/>
+      <c r="N90" s="281"/>
+      <c r="O90" s="281"/>
       <c r="P90" s="85"/>
     </row>
   </sheetData>
@@ -32692,7 +34839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
@@ -32722,27 +34869,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="H1" s="265" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="H1" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="N1" s="265" t="s">
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="N1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
     </row>
     <row r="2" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -32793,29 +34940,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="277"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="262" t="s">
+      <c r="N3" s="266" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="262"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="266"/>
+      <c r="R3" s="266"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -33088,10 +35235,10 @@
         <f t="shared" si="9"/>
         <v>91125</v>
       </c>
-      <c r="N8" s="259" t="s">
+      <c r="N8" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="260"/>
+      <c r="O8" s="264"/>
       <c r="P8" s="38">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -33188,13 +35335,13 @@
         <v>94770</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="274" t="s">
+      <c r="N10" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="275"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="275"/>
+      <c r="O10" s="279"/>
+      <c r="P10" s="279"/>
+      <c r="Q10" s="279"/>
+      <c r="R10" s="279"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
@@ -33693,10 +35840,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N19" s="259" t="s">
+      <c r="N19" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="260"/>
+      <c r="O19" s="264"/>
       <c r="P19" s="38">
         <f>SUM(P11:P18)</f>
         <v>505093.68</v>
@@ -33793,19 +35940,19 @@
         <v>94770</v>
       </c>
       <c r="M21" s="45"/>
-      <c r="N21" s="267" t="s">
+      <c r="N21" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="262"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="262"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="266"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="259" t="s">
+      <c r="B22" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="260"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="38">
         <f>SUM(D4:D21)</f>
         <v>1859301.3599999999</v>
@@ -33901,13 +36048,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="271" t="s">
+      <c r="B24" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="272"/>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272"/>
-      <c r="F24" s="272"/>
+      <c r="C24" s="276"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="276"/>
       <c r="G24" s="22">
         <v>43810</v>
       </c>
@@ -34828,10 +36975,10 @@
         <f t="shared" si="23"/>
         <v>109174</v>
       </c>
-      <c r="H40" s="259" t="s">
+      <c r="H40" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="260"/>
+      <c r="I40" s="264"/>
       <c r="J40" s="38">
         <f>SUM(J4:J39)</f>
         <v>3550680.0000000005</v>
@@ -34844,10 +36991,10 @@
         <f>SUM(L4:L39)</f>
         <v>3422655</v>
       </c>
-      <c r="N40" s="259" t="s">
+      <c r="N40" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="260"/>
+      <c r="O40" s="264"/>
       <c r="P40" s="38">
         <f>SUM(P22:P39)</f>
         <v>1381640.4</v>
@@ -34912,21 +37059,21 @@
         <v>109174</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="268" t="s">
+      <c r="H42" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="269"/>
-      <c r="J42" s="269"/>
-      <c r="K42" s="269"/>
-      <c r="L42" s="269"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="273"/>
+      <c r="K42" s="273"/>
+      <c r="L42" s="273"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="262" t="s">
+      <c r="N42" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="262"/>
-      <c r="P42" s="262"/>
-      <c r="Q42" s="262"/>
-      <c r="R42" s="262"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="266"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="266"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
@@ -35044,10 +37191,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="259" t="s">
+      <c r="B45" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="260"/>
+      <c r="C45" s="264"/>
       <c r="D45" s="38">
         <f>SUM(D25:D44)</f>
         <v>2238094.0799999996</v>
@@ -35143,13 +37290,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="272"/>
-      <c r="D47" s="272"/>
-      <c r="E47" s="272"/>
-      <c r="F47" s="270"/>
+      <c r="C47" s="276"/>
+      <c r="D47" s="276"/>
+      <c r="E47" s="276"/>
+      <c r="F47" s="274"/>
       <c r="G47" s="22">
         <v>43820</v>
       </c>
@@ -35515,10 +37662,10 @@
         <f t="shared" si="33"/>
         <v>97380</v>
       </c>
-      <c r="N53" s="259" t="s">
+      <c r="N53" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="260"/>
+      <c r="O53" s="264"/>
       <c r="P53" s="38">
         <f>SUM(P43:P52)</f>
         <v>719671.67999999993</v>
@@ -35615,13 +37762,13 @@
         <v>102249</v>
       </c>
       <c r="M55" s="45"/>
-      <c r="N55" s="267" t="s">
+      <c r="N55" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="262"/>
-      <c r="P55" s="262"/>
-      <c r="Q55" s="262"/>
-      <c r="R55" s="262"/>
+      <c r="O55" s="266"/>
+      <c r="P55" s="266"/>
+      <c r="Q55" s="266"/>
+      <c r="R55" s="266"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
@@ -35815,10 +37962,10 @@
         <f t="shared" si="37"/>
         <v>104192</v>
       </c>
-      <c r="H59" s="259" t="s">
+      <c r="H59" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="260"/>
+      <c r="I59" s="264"/>
       <c r="J59" s="38">
         <f>SUM(J43:J58)</f>
         <v>1715012.6400000004</v>
@@ -35915,13 +38062,13 @@
         <v>104192</v>
       </c>
       <c r="G61" s="45"/>
-      <c r="H61" s="268" t="s">
+      <c r="H61" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="269"/>
-      <c r="J61" s="269"/>
-      <c r="K61" s="269"/>
-      <c r="L61" s="273"/>
+      <c r="I61" s="273"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="277"/>
       <c r="N61" s="42">
         <v>90000</v>
       </c>
@@ -36211,10 +38358,10 @@
         <f t="shared" si="45"/>
         <v>94770</v>
       </c>
-      <c r="N66" s="259" t="s">
+      <c r="N66" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="260"/>
+      <c r="O66" s="264"/>
       <c r="P66" s="38">
         <f>SUM(P56:P65)</f>
         <v>880380</v>
@@ -36311,13 +38458,13 @@
         <v>98415</v>
       </c>
       <c r="M68" s="45"/>
-      <c r="N68" s="274" t="s">
+      <c r="N68" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="O68" s="275"/>
-      <c r="P68" s="275"/>
-      <c r="Q68" s="275"/>
-      <c r="R68" s="275"/>
+      <c r="O68" s="279"/>
+      <c r="P68" s="279"/>
+      <c r="Q68" s="279"/>
+      <c r="R68" s="279"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B69" s="23">
@@ -36491,10 +38638,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="284" t="s">
+      <c r="B72" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="294"/>
+      <c r="C72" s="305"/>
       <c r="D72" s="51">
         <f>SUM(D48:D71)</f>
         <v>2637675.3600000003</v>
@@ -36507,10 +38654,10 @@
         <f>SUM(F48:F71)</f>
         <v>2510256</v>
       </c>
-      <c r="H72" s="284" t="s">
+      <c r="H72" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="294"/>
+      <c r="I72" s="305"/>
       <c r="J72" s="51">
         <f>SUM(J62:J71)</f>
         <v>969023.15999999992</v>
@@ -36797,10 +38944,10 @@
       <c r="J81" s="105"/>
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
-      <c r="N81" s="284" t="s">
+      <c r="N81" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="294"/>
+      <c r="O81" s="305"/>
       <c r="P81" s="51">
         <f>SUM(P69:P80)</f>
         <v>1082706.48</v>
@@ -36832,14 +38979,14 @@
       <c r="R82" s="61"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="281"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="104"/>
       <c r="F83" s="104"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="277"/>
+      <c r="H83" s="281"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104"/>
       <c r="N83" s="113"/>
@@ -36946,18 +39093,18 @@
       <c r="P89" s="105"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="105"/>
       <c r="E90" s="105"/>
       <c r="F90" s="105"/>
-      <c r="H90" s="277"/>
-      <c r="I90" s="277"/>
+      <c r="H90" s="281"/>
+      <c r="I90" s="281"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
-      <c r="N90" s="277"/>
-      <c r="O90" s="277"/>
+      <c r="N90" s="281"/>
+      <c r="O90" s="281"/>
       <c r="P90" s="105"/>
     </row>
   </sheetData>
